--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10620" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
     <sheet name="REMISIONES    OCTUBRE    2021  " sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
-    <sheet name="C AN C E L A C I O N E S      " sheetId="5" r:id="rId5"/>
+    <sheet name="     NOVIEMBRE   2 0 2 1     " sheetId="4" r:id="rId3"/>
+    <sheet name="REMISIONES  NOVIEMBRE  2021  " sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId6"/>
+    <sheet name="C AN C E L A C I O N E S      " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -85,8 +87,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -398,6 +458,12 @@
   </si>
   <si>
     <t>PERDIDA</t>
+  </si>
+  <si>
+    <t>LONGANIZA-LACTEOS</t>
+  </si>
+  <si>
+    <t>PEREJIL-CEBOLLA-PIMIENTO-</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2081,6 +2147,39 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,39 +2252,6 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2201,6 +2267,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="44" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="46" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2653,6 +2753,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4886325" y="7334249"/>
+          <a:ext cx="85725" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="6838950"/>
+          <a:ext cx="419100" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4886325" y="7334249"/>
+          <a:ext cx="85725" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="6819900"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7329488" y="5900735"/>
+          <a:ext cx="200026" cy="2228852"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="7646150"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4848225" y="7667625"/>
+          <a:ext cx="771525" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2921,8 +3447,8 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,23 +3473,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="259"/>
-      <c r="C1" s="261" t="s">
+      <c r="B1" s="235"/>
+      <c r="C1" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="260"/>
+      <c r="B2" s="236"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -2973,17 +3499,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="263" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="264"/>
+      <c r="B3" s="239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="240"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="265" t="s">
+      <c r="H3" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="265"/>
+      <c r="I3" s="241"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -2997,14 +3523,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="266" t="s">
+      <c r="E4" s="242" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="267"/>
-      <c r="H4" s="268" t="s">
+      <c r="F4" s="243"/>
+      <c r="H4" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="269"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -3014,10 +3540,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="240" t="s">
+      <c r="P4" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="241"/>
+      <c r="Q4" s="252"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -4458,11 +4984,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="242">
+      <c r="M39" s="253">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="244">
+      <c r="N39" s="255">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -4488,8 +5014,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="243"/>
-      <c r="N40" s="245"/>
+      <c r="M40" s="254"/>
+      <c r="N40" s="256"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -4704,29 +5230,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="246" t="s">
+      <c r="H52" s="257" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="247"/>
+      <c r="I52" s="258"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="248">
+      <c r="K52" s="259">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="249"/>
-      <c r="M52" s="250">
+      <c r="L52" s="260"/>
+      <c r="M52" s="261">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="251"/>
+      <c r="N52" s="262"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="252" t="s">
+      <c r="D53" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="252"/>
+      <c r="E53" s="263"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -4737,22 +5263,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="252" t="s">
+      <c r="D54" s="263" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="252"/>
+      <c r="E54" s="263"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="253" t="s">
+      <c r="I54" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="254"/>
-      <c r="K54" s="255">
+      <c r="J54" s="265"/>
+      <c r="K54" s="266">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="256"/>
+      <c r="L54" s="267"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -4785,11 +5311,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="257">
+      <c r="K56" s="268">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="258"/>
+      <c r="L56" s="269"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -4806,22 +5332,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="235" t="s">
+      <c r="D58" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="236"/>
+      <c r="E58" s="247"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="237" t="s">
+      <c r="I58" s="248" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="238"/>
-      <c r="K58" s="239">
+      <c r="J58" s="249"/>
+      <c r="K58" s="250">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="239"/>
+      <c r="L58" s="250"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -4965,12 +5491,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -4985,6 +5505,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5000,8 +5526,8 @@
   </sheetPr>
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7922,20 +8448,4212 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="97" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="175" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="176" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="235"/>
+      <c r="C1" s="237" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="236"/>
+      <c r="C2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="240"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="241" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="241"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:19" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17">
+        <v>567389.35</v>
+      </c>
+      <c r="D4" s="18">
+        <v>44507</v>
+      </c>
+      <c r="E4" s="242" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="243"/>
+      <c r="H4" s="244" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="245"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="251" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="252"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="24">
+        <v>44508</v>
+      </c>
+      <c r="C5" s="25">
+        <v>11855</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="27">
+        <v>44508</v>
+      </c>
+      <c r="F5" s="28">
+        <v>55699</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="29">
+        <v>44508</v>
+      </c>
+      <c r="I5" s="30">
+        <v>445</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="33">
+        <v>15463</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="34">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>27763</v>
+      </c>
+      <c r="Q5" s="234">
+        <f>P5-F5</f>
+        <v>-27936</v>
+      </c>
+      <c r="R5" s="31"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24">
+        <v>44509</v>
+      </c>
+      <c r="C6" s="25">
+        <v>366</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="27">
+        <v>44509</v>
+      </c>
+      <c r="F6" s="28">
+        <v>37647</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="36">
+        <v>44509</v>
+      </c>
+      <c r="I6" s="30">
+        <v>243</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="33">
+        <v>10660</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="69">
+        <f>N6+M6+L6+I6+C6</f>
+        <v>11269</v>
+      </c>
+      <c r="Q6" s="290">
+        <f>P6-F6</f>
+        <v>-26378</v>
+      </c>
+      <c r="R6" s="38"/>
+      <c r="S6" s="147"/>
+    </row>
+    <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24">
+        <v>44510</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="27">
+        <v>44510</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="36">
+        <v>44510</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
+      <c r="N7" s="33">
+        <v>0</v>
+      </c>
+      <c r="O7" s="285"/>
+      <c r="P7" s="69">
+        <f t="shared" ref="P6:P32" si="0">N7+M7+L7+I7+C7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="287">
+        <f t="shared" ref="Q6:Q38" si="1">P7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="38"/>
+      <c r="S7" s="147"/>
+    </row>
+    <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24">
+        <v>44511</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="27">
+        <v>44511</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="36">
+        <v>44511</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="33">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="288">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="38"/>
+      <c r="S8" s="147"/>
+    </row>
+    <row r="9" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24">
+        <v>44512</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="27">
+        <v>44512</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="36">
+        <v>44512</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="69">
+        <f>N9+M9+L9+I9+C9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="289" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="38"/>
+      <c r="S9" s="147"/>
+    </row>
+    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24">
+        <v>44513</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="27">
+        <v>44513</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="36">
+        <v>44513</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="69">
+        <f t="shared" ref="P10:P14" si="2">N10+M10+L10+I10+C10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="288">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="147"/>
+    </row>
+    <row r="11" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
+        <v>44514</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="27">
+        <v>44514</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="36">
+        <v>44514</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="222">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="38"/>
+      <c r="S11" s="147"/>
+    </row>
+    <row r="12" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24">
+        <v>44515</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="27">
+        <v>44515</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="36">
+        <v>44515</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="33">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="222">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38"/>
+      <c r="S12" s="147"/>
+    </row>
+    <row r="13" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
+        <v>44516</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="27">
+        <v>44516</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="36">
+        <v>44516</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="287">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="38"/>
+      <c r="S13" s="147"/>
+    </row>
+    <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24">
+        <v>44517</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="27">
+        <v>44517</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="36">
+        <v>44517</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="33">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="289">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="38"/>
+      <c r="S14" s="147"/>
+    </row>
+    <row r="15" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24">
+        <v>44518</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="27">
+        <v>44518</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="36">
+        <v>44518</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="286">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="38"/>
+      <c r="S15" s="147"/>
+    </row>
+    <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24">
+        <v>44519</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="27">
+        <v>44519</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="36">
+        <v>44519</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="P16" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="222">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="38"/>
+      <c r="S16" s="147"/>
+    </row>
+    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24">
+        <v>44520</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="27">
+        <v>44520</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="36">
+        <v>44520</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="222">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="38"/>
+      <c r="S17" s="147"/>
+    </row>
+    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24">
+        <v>44521</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="27">
+        <v>44521</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="36">
+        <v>44521</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="33">
+        <v>0</v>
+      </c>
+      <c r="P18" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="288">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="38"/>
+      <c r="S18" s="147"/>
+    </row>
+    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24">
+        <v>44522</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="27">
+        <v>44522</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="36">
+        <v>44522</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="P19" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="288">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="38"/>
+      <c r="S19" s="147"/>
+    </row>
+    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24">
+        <v>44523</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="27">
+        <v>44523</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="36">
+        <v>44523</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="184"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+      <c r="N20" s="33">
+        <v>0</v>
+      </c>
+      <c r="P20" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="222">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="38"/>
+      <c r="S20" s="147"/>
+    </row>
+    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24">
+        <v>44524</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="27">
+        <v>44524</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="36">
+        <v>44524</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="P21" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="222">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="38"/>
+      <c r="S21" s="147"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24">
+        <v>44525</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="27">
+        <v>44525</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="36">
+        <v>44525</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="P22" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="288">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="38"/>
+      <c r="S22" s="147"/>
+    </row>
+    <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24">
+        <v>44526</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="27">
+        <v>44526</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="36">
+        <v>44526</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="288">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="38"/>
+      <c r="S23" s="147"/>
+    </row>
+    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24">
+        <v>44527</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="27">
+        <v>44527</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="36">
+        <v>44527</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="288">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="38"/>
+      <c r="S24" s="147"/>
+    </row>
+    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24">
+        <v>44528</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="27">
+        <v>44528</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="36">
+        <v>44528</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="P25" s="232">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="233">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="31"/>
+    </row>
+    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24">
+        <v>44529</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="27">
+        <v>44529</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="36">
+        <v>44529</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="186"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="231">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="31"/>
+    </row>
+    <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24">
+        <v>44530</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="27">
+        <v>44530</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="36">
+        <v>44530</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="P27" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="31"/>
+    </row>
+    <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24">
+        <v>44531</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="27">
+        <v>44531</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="36">
+        <v>44531</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="31"/>
+    </row>
+    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24">
+        <v>44532</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="27">
+        <v>44532</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="36">
+        <v>44532</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="33">
+        <v>0</v>
+      </c>
+      <c r="P29" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="31"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24">
+        <v>44533</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="27">
+        <v>44533</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="36">
+        <v>44533</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="32">
+        <v>0</v>
+      </c>
+      <c r="N30" s="33">
+        <v>0</v>
+      </c>
+      <c r="P30" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="31"/>
+    </row>
+    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24">
+        <v>44534</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="27">
+        <v>44534</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="36">
+        <v>44534</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="33">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="31"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24">
+        <v>44535</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="27">
+        <v>44535</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="36">
+        <v>44535</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="33">
+        <v>0</v>
+      </c>
+      <c r="P32" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="31"/>
+    </row>
+    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="31"/>
+    </row>
+    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25">
+        <v>0</v>
+      </c>
+      <c r="D34" s="64"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="30">
+        <v>0</v>
+      </c>
+      <c r="J34" s="60"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="P34" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="31"/>
+    </row>
+    <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25">
+        <v>0</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="30">
+        <v>0</v>
+      </c>
+      <c r="J35" s="60"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="32">
+        <v>0</v>
+      </c>
+      <c r="N35" s="33">
+        <v>0</v>
+      </c>
+      <c r="P35" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="31"/>
+    </row>
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25">
+        <v>0</v>
+      </c>
+      <c r="D36" s="62"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="30">
+        <v>0</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="33"/>
+      <c r="P36" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="31"/>
+    </row>
+    <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25">
+        <v>0</v>
+      </c>
+      <c r="D37" s="64"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="30">
+        <v>0</v>
+      </c>
+      <c r="J37" s="60"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="33"/>
+      <c r="P37" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25">
+        <v>0</v>
+      </c>
+      <c r="D38" s="65"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="30">
+        <v>0</v>
+      </c>
+      <c r="J38" s="60"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="33"/>
+      <c r="P38" s="151">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="151">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="253">
+        <f>SUM(M5:M38)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="255">
+        <f>SUM(N5:N38)</f>
+        <v>26123</v>
+      </c>
+      <c r="P39" s="34">
+        <f>SUM(P5:P38)</f>
+        <v>39032</v>
+      </c>
+      <c r="Q39" s="234">
+        <f>SUM(Q5:Q38)</f>
+        <v>-54314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="254"/>
+      <c r="N40" s="256"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="79"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="79"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="79"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="79"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="79"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="79"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="79"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="79"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="25">
+        <v>0</v>
+      </c>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="72"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="177"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="33"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="87">
+        <f>SUM(C5:C49)</f>
+        <v>12221</v>
+      </c>
+      <c r="D50" s="88"/>
+      <c r="E50" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="90">
+        <f>SUM(F5:F49)</f>
+        <v>93346</v>
+      </c>
+      <c r="G50" s="88"/>
+      <c r="H50" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="92">
+        <f>SUM(I5:I49)</f>
+        <v>688</v>
+      </c>
+      <c r="J50" s="93"/>
+      <c r="K50" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="95">
+        <f>SUM(L5:L49)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="96"/>
+      <c r="N50" s="96"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="1"/>
+      <c r="H52" s="257" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="258"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="259">
+        <f>I50+L50</f>
+        <v>688</v>
+      </c>
+      <c r="L52" s="260"/>
+      <c r="M52" s="261">
+        <f>N39+M39</f>
+        <v>26123</v>
+      </c>
+      <c r="N52" s="262"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D53" s="263" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="263"/>
+      <c r="F53" s="101">
+        <f>F50-K52-C50</f>
+        <v>80437</v>
+      </c>
+      <c r="I53" s="102"/>
+      <c r="J53" s="103"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D54" s="263" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="263"/>
+      <c r="F54" s="96">
+        <v>-549976.4</v>
+      </c>
+      <c r="I54" s="264" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="265"/>
+      <c r="K54" s="266">
+        <f>F56+F57+F58</f>
+        <v>-469539.4</v>
+      </c>
+      <c r="L54" s="267"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="203" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="98"/>
+      <c r="F55" s="104">
+        <v>0</v>
+      </c>
+      <c r="I55" s="105"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="191"/>
+      <c r="L55" s="107"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="96">
+        <f>SUM(F53:F55)</f>
+        <v>-469539.4</v>
+      </c>
+      <c r="H56" s="23"/>
+      <c r="I56" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="109"/>
+      <c r="K56" s="268">
+        <f>-C4</f>
+        <v>-567389.35</v>
+      </c>
+      <c r="L56" s="269"/>
+    </row>
+    <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="112"/>
+      <c r="D58" s="246" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="247"/>
+      <c r="F58" s="113">
+        <v>0</v>
+      </c>
+      <c r="I58" s="248" t="s">
+        <v>103</v>
+      </c>
+      <c r="J58" s="249"/>
+      <c r="K58" s="250">
+        <f>K54+K56</f>
+        <v>-1036928.75</v>
+      </c>
+      <c r="L58" s="250"/>
+    </row>
+    <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C59" s="114"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="117"/>
+      <c r="J59" s="118"/>
+    </row>
+    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="119"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="192"/>
+      <c r="L60" s="120"/>
+    </row>
+    <row r="61" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="121"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="34"/>
+      <c r="I61" s="119"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="192"/>
+      <c r="L61" s="120"/>
+      <c r="M61" s="124"/>
+      <c r="N61" s="98"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="121"/>
+      <c r="C62" s="125"/>
+      <c r="E62" s="34"/>
+      <c r="M62" s="124"/>
+      <c r="N62" s="98"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="121"/>
+      <c r="C63" s="125"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="126"/>
+      <c r="L63" s="127"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="121"/>
+      <c r="C64" s="125"/>
+      <c r="E64" s="34"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="121"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="128"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="129"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D66" s="128"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="34"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="128"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="34"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="128"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="34"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="128"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="34"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="128"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="34"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D71" s="128"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="34"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="128"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="34"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="128"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="34"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D74" s="128"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="34"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="128"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="34"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D76" s="128"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="34"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D77" s="128"/>
+      <c r="E77" s="130"/>
+      <c r="F77" s="34"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="128"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="129"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D79" s="128"/>
+      <c r="E79" s="128"/>
+      <c r="F79" s="129"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D80" s="128"/>
+      <c r="E80" s="128"/>
+      <c r="F80" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:N134"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="166" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="167"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="169" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="200" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="207"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="169" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="132" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="133" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="206" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="132" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="133" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="134"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="196">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="280"/>
+      <c r="J3" s="281"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="196">
+        <f>K3-M3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="134"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="137">
+        <f>F3+C4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="138"/>
+      <c r="I4" s="280"/>
+      <c r="J4" s="281"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="137">
+        <f>N3+K4-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="134"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="137">
+        <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="280"/>
+      <c r="J5" s="281"/>
+      <c r="K5" s="282"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="137">
+        <f t="shared" ref="N5:N68" si="1">N4+K5-M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="134"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="280"/>
+      <c r="J6" s="281"/>
+      <c r="K6" s="282"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="134"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="280"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="282"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="134"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="280"/>
+      <c r="J8" s="281"/>
+      <c r="K8" s="282"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="280"/>
+      <c r="J9" s="281"/>
+      <c r="K9" s="282"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="134"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="281"/>
+      <c r="K10" s="282"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="134"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="280"/>
+      <c r="J11" s="281"/>
+      <c r="K11" s="282"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="140"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="280"/>
+      <c r="J12" s="281"/>
+      <c r="K12" s="282"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="140"/>
+      <c r="B13" s="275"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="280"/>
+      <c r="J13" s="281"/>
+      <c r="K13" s="282"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="140"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="280"/>
+      <c r="J14" s="281"/>
+      <c r="K14" s="282"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="140"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="280"/>
+      <c r="J15" s="281"/>
+      <c r="K15" s="282"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="140"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="280"/>
+      <c r="J16" s="281"/>
+      <c r="K16" s="282"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="140"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="280"/>
+      <c r="J17" s="281"/>
+      <c r="K17" s="282"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="140"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="280"/>
+      <c r="J18" s="281"/>
+      <c r="K18" s="282"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="140"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="280"/>
+      <c r="J19" s="281"/>
+      <c r="K19" s="282"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="140"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="280"/>
+      <c r="J20" s="281"/>
+      <c r="K20" s="282"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="140"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="280"/>
+      <c r="J21" s="281"/>
+      <c r="K21" s="282"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="140"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="138"/>
+      <c r="I22" s="280"/>
+      <c r="J22" s="281"/>
+      <c r="K22" s="282"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="140"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="280"/>
+      <c r="J23" s="281"/>
+      <c r="K23" s="282"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="140"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="280"/>
+      <c r="J24" s="281"/>
+      <c r="K24" s="282"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="140"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="280"/>
+      <c r="J25" s="281"/>
+      <c r="K25" s="282"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="140"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="280"/>
+      <c r="J26" s="281"/>
+      <c r="K26" s="282"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="140"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="280"/>
+      <c r="J27" s="281"/>
+      <c r="K27" s="282"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="140"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="280"/>
+      <c r="J28" s="281"/>
+      <c r="K28" s="282"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="140"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="280"/>
+      <c r="J29" s="281"/>
+      <c r="K29" s="282"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="140"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="138"/>
+      <c r="I30" s="280"/>
+      <c r="J30" s="281"/>
+      <c r="K30" s="282"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="140"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="280"/>
+      <c r="J31" s="281"/>
+      <c r="K31" s="282"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="140"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="280"/>
+      <c r="J32" s="281"/>
+      <c r="K32" s="282"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="140"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="280"/>
+      <c r="J33" s="281"/>
+      <c r="K33" s="282"/>
+      <c r="L33" s="140"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="140"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="280"/>
+      <c r="J34" s="281"/>
+      <c r="K34" s="282"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="140"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="280"/>
+      <c r="J35" s="281"/>
+      <c r="K35" s="282"/>
+      <c r="L35" s="140"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="140"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="280"/>
+      <c r="J36" s="281"/>
+      <c r="K36" s="282"/>
+      <c r="L36" s="140"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="140"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="280"/>
+      <c r="J37" s="281"/>
+      <c r="K37" s="282"/>
+      <c r="L37" s="140"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="140"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="280"/>
+      <c r="J38" s="281"/>
+      <c r="K38" s="282"/>
+      <c r="L38" s="140"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="140"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="280"/>
+      <c r="J39" s="281"/>
+      <c r="K39" s="282"/>
+      <c r="L39" s="140"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="140"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="280"/>
+      <c r="J40" s="281"/>
+      <c r="K40" s="282"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="140"/>
+      <c r="B41" s="277"/>
+      <c r="C41" s="278"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="280"/>
+      <c r="J41" s="281"/>
+      <c r="K41" s="282"/>
+      <c r="L41" s="140"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="140"/>
+      <c r="B42" s="279"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="280"/>
+      <c r="J42" s="281"/>
+      <c r="K42" s="282"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="140"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="280"/>
+      <c r="J43" s="281"/>
+      <c r="K43" s="282"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="140"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="280"/>
+      <c r="J44" s="281"/>
+      <c r="K44" s="283"/>
+      <c r="L44" s="140"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="140"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="280"/>
+      <c r="J45" s="281"/>
+      <c r="K45" s="282"/>
+      <c r="L45" s="140"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="140"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="280"/>
+      <c r="J46" s="281"/>
+      <c r="K46" s="282"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="140"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="280"/>
+      <c r="J47" s="281"/>
+      <c r="K47" s="282"/>
+      <c r="L47" s="140"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="140"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="280"/>
+      <c r="J48" s="281"/>
+      <c r="K48" s="282"/>
+      <c r="L48" s="140"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="140"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="280"/>
+      <c r="J49" s="281"/>
+      <c r="K49" s="282"/>
+      <c r="L49" s="140"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="140"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="280"/>
+      <c r="J50" s="281"/>
+      <c r="K50" s="282"/>
+      <c r="L50" s="140"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="140"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="280"/>
+      <c r="J51" s="281"/>
+      <c r="K51" s="282"/>
+      <c r="L51" s="140"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="140"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="280"/>
+      <c r="J52" s="281"/>
+      <c r="K52" s="282"/>
+      <c r="L52" s="140"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="140"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="280"/>
+      <c r="J53" s="281"/>
+      <c r="K53" s="282"/>
+      <c r="L53" s="140"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="134"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="280"/>
+      <c r="J54" s="281"/>
+      <c r="K54" s="282"/>
+      <c r="L54" s="140"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="134"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="280"/>
+      <c r="J55" s="281"/>
+      <c r="K55" s="282"/>
+      <c r="L55" s="140"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="134"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="280"/>
+      <c r="J56" s="281"/>
+      <c r="K56" s="282"/>
+      <c r="L56" s="140"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="140"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="280"/>
+      <c r="J57" s="281"/>
+      <c r="K57" s="282"/>
+      <c r="L57" s="140"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="140"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="280"/>
+      <c r="J58" s="281"/>
+      <c r="K58" s="282"/>
+      <c r="L58" s="140"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="140"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="280"/>
+      <c r="J59" s="281"/>
+      <c r="K59" s="283"/>
+      <c r="L59" s="140"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="134"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="134"/>
+      <c r="J60" s="139"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="134"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="134"/>
+      <c r="J61" s="139"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="134"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="134"/>
+      <c r="J62" s="139"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="140"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="141"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="141"/>
+      <c r="J63" s="142"/>
+      <c r="K63" s="143"/>
+      <c r="L63" s="140"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="141"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="141"/>
+      <c r="J64" s="142"/>
+      <c r="K64" s="143"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="141"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="141"/>
+      <c r="J65" s="142"/>
+      <c r="K65" s="143"/>
+      <c r="L65" s="140"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="141"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="140"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="141"/>
+      <c r="J66" s="142"/>
+      <c r="K66" s="143"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="141"/>
+      <c r="B67" s="142"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="140"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="141"/>
+      <c r="J67" s="142"/>
+      <c r="K67" s="143"/>
+      <c r="L67" s="140"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="141"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="141"/>
+      <c r="J68" s="142"/>
+      <c r="K68" s="143"/>
+      <c r="L68" s="140"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="141"/>
+      <c r="B69" s="142"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="137">
+        <f t="shared" ref="F69:F97" si="2">F68+C69-E69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="141"/>
+      <c r="J69" s="142"/>
+      <c r="K69" s="143"/>
+      <c r="L69" s="140"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="137">
+        <f t="shared" ref="N69:N97" si="3">N68+K69-M69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="141"/>
+      <c r="B70" s="142"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="141"/>
+      <c r="J70" s="142"/>
+      <c r="K70" s="143"/>
+      <c r="L70" s="140"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="141"/>
+      <c r="B71" s="142"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="141"/>
+      <c r="J71" s="142"/>
+      <c r="K71" s="143"/>
+      <c r="L71" s="140"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="141"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="141"/>
+      <c r="J72" s="142"/>
+      <c r="K72" s="143"/>
+      <c r="L72" s="140"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="141"/>
+      <c r="B73" s="142"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="141"/>
+      <c r="J73" s="142"/>
+      <c r="K73" s="143"/>
+      <c r="L73" s="140"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="141"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="143"/>
+      <c r="D74" s="140"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="141"/>
+      <c r="J74" s="142"/>
+      <c r="K74" s="143"/>
+      <c r="L74" s="140"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="141"/>
+      <c r="B75" s="142"/>
+      <c r="C75" s="143"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="141"/>
+      <c r="J75" s="142"/>
+      <c r="K75" s="143"/>
+      <c r="L75" s="140"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="141"/>
+      <c r="B76" s="142"/>
+      <c r="C76" s="143"/>
+      <c r="D76" s="140"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="141"/>
+      <c r="J76" s="142"/>
+      <c r="K76" s="143"/>
+      <c r="L76" s="140"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="141"/>
+      <c r="B77" s="142"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="140"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="141"/>
+      <c r="J77" s="142"/>
+      <c r="K77" s="143"/>
+      <c r="L77" s="140"/>
+      <c r="M77" s="69"/>
+      <c r="N77" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="141"/>
+      <c r="B78" s="142"/>
+      <c r="C78" s="143"/>
+      <c r="D78" s="140"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="141"/>
+      <c r="J78" s="142"/>
+      <c r="K78" s="143"/>
+      <c r="L78" s="140"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="141"/>
+      <c r="B79" s="142"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="140"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="141"/>
+      <c r="J79" s="142"/>
+      <c r="K79" s="143"/>
+      <c r="L79" s="140"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="141"/>
+      <c r="B80" s="142"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="140"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="141"/>
+      <c r="J80" s="142"/>
+      <c r="K80" s="143"/>
+      <c r="L80" s="140"/>
+      <c r="M80" s="69"/>
+      <c r="N80" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="144"/>
+      <c r="B81" s="145"/>
+      <c r="C81" s="146"/>
+      <c r="D81" s="147"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="144"/>
+      <c r="J81" s="145"/>
+      <c r="K81" s="146"/>
+      <c r="L81" s="147"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="144"/>
+      <c r="B82" s="145"/>
+      <c r="C82" s="146"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="144"/>
+      <c r="J82" s="145"/>
+      <c r="K82" s="146"/>
+      <c r="L82" s="147"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="144"/>
+      <c r="B83" s="145"/>
+      <c r="C83" s="146"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="144"/>
+      <c r="J83" s="145"/>
+      <c r="K83" s="146"/>
+      <c r="L83" s="147"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="144"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="146"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="144"/>
+      <c r="J84" s="145"/>
+      <c r="K84" s="146"/>
+      <c r="L84" s="147"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="144"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="146"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="144"/>
+      <c r="J85" s="145"/>
+      <c r="K85" s="146"/>
+      <c r="L85" s="147"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="144"/>
+      <c r="B86" s="145"/>
+      <c r="C86" s="146"/>
+      <c r="D86" s="147"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="144"/>
+      <c r="J86" s="145"/>
+      <c r="K86" s="146"/>
+      <c r="L86" s="147"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="141"/>
+      <c r="B87" s="142"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="148"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="141"/>
+      <c r="J87" s="142"/>
+      <c r="K87" s="143"/>
+      <c r="L87" s="148"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="141"/>
+      <c r="B88" s="142"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="148"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="141"/>
+      <c r="J88" s="142"/>
+      <c r="K88" s="143"/>
+      <c r="L88" s="148"/>
+      <c r="M88" s="69"/>
+      <c r="N88" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="141"/>
+      <c r="B89" s="142"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="148"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="141"/>
+      <c r="J89" s="142"/>
+      <c r="K89" s="143"/>
+      <c r="L89" s="148"/>
+      <c r="M89" s="69"/>
+      <c r="N89" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="141"/>
+      <c r="B90" s="142"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="148"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="141"/>
+      <c r="J90" s="142"/>
+      <c r="K90" s="143"/>
+      <c r="L90" s="148"/>
+      <c r="M90" s="69"/>
+      <c r="N90" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="141"/>
+      <c r="B91" s="142"/>
+      <c r="C91" s="143"/>
+      <c r="D91" s="148"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="141"/>
+      <c r="J91" s="142"/>
+      <c r="K91" s="143"/>
+      <c r="L91" s="148"/>
+      <c r="M91" s="69"/>
+      <c r="N91" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="141"/>
+      <c r="B92" s="142"/>
+      <c r="C92" s="143"/>
+      <c r="D92" s="148"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="141"/>
+      <c r="J92" s="142"/>
+      <c r="K92" s="143"/>
+      <c r="L92" s="148"/>
+      <c r="M92" s="69"/>
+      <c r="N92" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="141"/>
+      <c r="B93" s="142"/>
+      <c r="C93" s="143"/>
+      <c r="D93" s="148"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="141"/>
+      <c r="J93" s="142"/>
+      <c r="K93" s="143"/>
+      <c r="L93" s="148"/>
+      <c r="M93" s="69"/>
+      <c r="N93" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="141"/>
+      <c r="B94" s="142"/>
+      <c r="C94" s="143"/>
+      <c r="D94" s="148"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="141"/>
+      <c r="J94" s="142"/>
+      <c r="K94" s="143"/>
+      <c r="L94" s="148"/>
+      <c r="M94" s="69"/>
+      <c r="N94" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="141"/>
+      <c r="B95" s="142"/>
+      <c r="C95" s="143"/>
+      <c r="D95" s="148"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="141"/>
+      <c r="J95" s="142"/>
+      <c r="K95" s="143"/>
+      <c r="L95" s="148"/>
+      <c r="M95" s="69"/>
+      <c r="N95" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="141"/>
+      <c r="B96" s="142"/>
+      <c r="C96" s="143"/>
+      <c r="D96" s="148"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="141"/>
+      <c r="J96" s="142"/>
+      <c r="K96" s="143"/>
+      <c r="L96" s="148"/>
+      <c r="M96" s="69"/>
+      <c r="N96" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="149"/>
+      <c r="B97" s="226"/>
+      <c r="C97" s="34">
+        <v>0</v>
+      </c>
+      <c r="D97" s="152"/>
+      <c r="E97" s="151"/>
+      <c r="F97" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="149"/>
+      <c r="J97" s="150"/>
+      <c r="K97" s="151">
+        <v>0</v>
+      </c>
+      <c r="L97" s="152"/>
+      <c r="M97" s="151"/>
+      <c r="N97" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B98" s="227"/>
+      <c r="C98" s="228">
+        <f>SUM(C3:C97)</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="97"/>
+      <c r="E98" s="1">
+        <f>SUM(E3:E97)</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="153">
+        <f>F97</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="225">
+        <f>SUM(K3:K97)</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="97"/>
+      <c r="M98" s="1">
+        <f>SUM(M3:M97)</f>
+        <v>0</v>
+      </c>
+      <c r="N98" s="153">
+        <f>N97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="229"/>
+      <c r="C99" s="230"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="97"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="98"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="97"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="97"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="I101"/>
+      <c r="J101" s="208"/>
+      <c r="L101" s="23"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="I102"/>
+      <c r="J102" s="208"/>
+      <c r="L102" s="23"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="I103"/>
+      <c r="J103" s="208"/>
+      <c r="L103" s="23"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="F104"/>
+      <c r="I104"/>
+      <c r="J104" s="208"/>
+      <c r="L104" s="23"/>
+      <c r="N104"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="F105"/>
+      <c r="I105"/>
+      <c r="J105" s="208"/>
+      <c r="L105" s="23"/>
+      <c r="N105"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="F106"/>
+      <c r="I106"/>
+      <c r="J106" s="208"/>
+      <c r="L106" s="23"/>
+      <c r="N106"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="F107"/>
+      <c r="I107"/>
+      <c r="J107" s="208"/>
+      <c r="L107" s="23"/>
+      <c r="N107"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="F108"/>
+      <c r="I108"/>
+      <c r="J108" s="208"/>
+      <c r="L108" s="23"/>
+      <c r="N108"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="F109"/>
+      <c r="I109"/>
+      <c r="J109" s="208"/>
+      <c r="L109" s="23"/>
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="F110"/>
+      <c r="I110"/>
+      <c r="J110" s="208"/>
+      <c r="L110" s="23"/>
+      <c r="N110"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="F111"/>
+      <c r="I111"/>
+      <c r="J111" s="208"/>
+      <c r="L111" s="23"/>
+      <c r="N111"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="F112"/>
+      <c r="I112"/>
+      <c r="J112" s="208"/>
+      <c r="L112" s="23"/>
+      <c r="N112"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="I113"/>
+      <c r="J113" s="208"/>
+      <c r="L113" s="23"/>
+      <c r="M113"/>
+      <c r="N113"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="I114"/>
+      <c r="J114" s="208"/>
+      <c r="L114" s="23"/>
+      <c r="M114"/>
+      <c r="N114"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="I115"/>
+      <c r="J115" s="208"/>
+      <c r="L115" s="23"/>
+      <c r="M115"/>
+      <c r="N115"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="I116"/>
+      <c r="J116" s="208"/>
+      <c r="L116" s="23"/>
+      <c r="M116"/>
+      <c r="N116"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="I117"/>
+      <c r="J117" s="208"/>
+      <c r="L117" s="23"/>
+      <c r="M117"/>
+      <c r="N117"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="I118"/>
+      <c r="J118" s="208"/>
+      <c r="L118" s="23"/>
+      <c r="M118"/>
+      <c r="N118"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119"/>
+      <c r="J119" s="208"/>
+      <c r="L119" s="23"/>
+      <c r="M119"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120"/>
+      <c r="J120" s="208"/>
+      <c r="L120" s="23"/>
+      <c r="M120"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121"/>
+      <c r="J121" s="208"/>
+      <c r="L121" s="23"/>
+      <c r="M121"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122"/>
+      <c r="J122" s="208"/>
+      <c r="L122" s="23"/>
+      <c r="M122"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123"/>
+      <c r="J123" s="208"/>
+      <c r="L123" s="23"/>
+      <c r="M123"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124"/>
+      <c r="J124" s="208"/>
+      <c r="L124" s="23"/>
+      <c r="M124"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125"/>
+      <c r="J125" s="208"/>
+      <c r="L125" s="23"/>
+      <c r="M125"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126"/>
+      <c r="J126" s="208"/>
+      <c r="L126" s="23"/>
+      <c r="M126"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127"/>
+      <c r="J127" s="208"/>
+      <c r="L127" s="23"/>
+      <c r="M127"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B128" s="23"/>
+      <c r="J128" s="208"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="23"/>
+      <c r="J129" s="208"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="J130" s="208"/>
+      <c r="L130" s="23"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="23"/>
+      <c r="J131" s="208"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="23"/>
+      <c r="J132" s="208"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="23"/>
+      <c r="J133" s="208"/>
+    </row>
+    <row r="134" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C134" s="154"/>
+      <c r="K134" s="154"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B41:B42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7947,7 +12665,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF800000"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="112">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -465,6 +465,24 @@
   <si>
     <t>PEREJIL-CEBOLLA-PIMIENTO-</t>
   </si>
+  <si>
+    <t>JAMON-LONGANIZA-LACTEOS</t>
+  </si>
+  <si>
+    <t>POLLO--MAIZ-PAN</t>
+  </si>
+  <si>
+    <t>POLLO--LONGANIZA</t>
+  </si>
+  <si>
+    <t>NOMINA # 46</t>
+  </si>
+  <si>
+    <t>POLLO--LACTEOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      </t>
+  </si>
 </sst>
 </file>
 
@@ -478,7 +496,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,8 +877,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -927,6 +952,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="61">
     <border>
@@ -1687,7 +1718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2147,6 +2178,102 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="44" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2180,84 +2307,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2267,40 +2328,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="39" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="43" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="44" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="20" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="46" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="47" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="12" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3473,23 +3507,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="235"/>
-      <c r="C1" s="237" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="236"/>
+      <c r="B2" s="270"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -3499,17 +3533,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="239" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="240"/>
+      <c r="B3" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="274"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="241" t="s">
+      <c r="H3" s="275" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="241"/>
+      <c r="I3" s="275"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -3523,14 +3557,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="242" t="s">
+      <c r="E4" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="243"/>
-      <c r="H4" s="244" t="s">
+      <c r="F4" s="277"/>
+      <c r="H4" s="278" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="245"/>
+      <c r="I4" s="279"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -3540,10 +3574,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="251" t="s">
+      <c r="P4" s="250" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="252"/>
+      <c r="Q4" s="251"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -4984,11 +5018,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="253">
+      <c r="M39" s="252">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="255">
+      <c r="N39" s="254">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -5014,8 +5048,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="254"/>
-      <c r="N40" s="256"/>
+      <c r="M40" s="253"/>
+      <c r="N40" s="255"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5230,29 +5264,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="257" t="s">
+      <c r="H52" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="258"/>
+      <c r="I52" s="257"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="259">
+      <c r="K52" s="258">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="260"/>
-      <c r="M52" s="261">
+      <c r="L52" s="259"/>
+      <c r="M52" s="260">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="262"/>
+      <c r="N52" s="261"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="263" t="s">
+      <c r="D53" s="262" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="263"/>
+      <c r="E53" s="262"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -5263,22 +5297,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="263" t="s">
+      <c r="D54" s="262" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="263"/>
+      <c r="E54" s="262"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="264" t="s">
+      <c r="I54" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="265"/>
-      <c r="K54" s="266">
+      <c r="J54" s="264"/>
+      <c r="K54" s="265">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="267"/>
+      <c r="L54" s="266"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -5311,11 +5345,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="268">
+      <c r="K56" s="267">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="269"/>
+      <c r="L56" s="268"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -5332,22 +5366,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="246" t="s">
+      <c r="D58" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="247"/>
+      <c r="E58" s="246"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="248" t="s">
+      <c r="I58" s="247" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="249"/>
-      <c r="K58" s="250">
+      <c r="J58" s="248"/>
+      <c r="K58" s="249">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="250"/>
+      <c r="L58" s="249"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -5491,6 +5525,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -5505,12 +5545,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6835,7 +6869,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="270" t="s">
+      <c r="B41" s="280" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="204">
@@ -6867,7 +6901,7 @@
       <c r="A42" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="271"/>
+      <c r="B42" s="281"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -8454,11 +8488,11 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="97" customWidth="1"/>
@@ -8475,28 +8509,28 @@
     <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="287" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" style="176" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="235"/>
-      <c r="C1" s="237" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="236"/>
+      <c r="B2" s="270"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8506,17 +8540,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="239" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="240"/>
+      <c r="B3" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="274"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="241" t="s">
+      <c r="H3" s="275" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="241"/>
+      <c r="I3" s="275"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -8532,14 +8566,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="242" t="s">
+      <c r="E4" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="243"/>
-      <c r="H4" s="244" t="s">
+      <c r="F4" s="277"/>
+      <c r="H4" s="278" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="245"/>
+      <c r="I4" s="279"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -8549,10 +8583,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="251" t="s">
+      <c r="P4" s="250" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="252"/>
+      <c r="Q4" s="251"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8638,29 +8672,35 @@
         <f>N6+M6+L6+I6+C6</f>
         <v>11269</v>
       </c>
-      <c r="Q6" s="290">
+      <c r="Q6" s="244">
         <f>P6-F6</f>
         <v>-26378</v>
       </c>
       <c r="R6" s="38"/>
       <c r="S6" s="147"/>
     </row>
-    <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="24">
         <v>44510</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
       <c r="D7" s="40"/>
       <c r="E7" s="27">
         <v>44510</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28">
+        <v>34995</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="36">
         <v>44510</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="30">
+        <v>64</v>
+      </c>
       <c r="J7" s="37"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39"/>
@@ -8668,16 +8708,16 @@
         <v>0</v>
       </c>
       <c r="N7" s="33">
-        <v>0</v>
-      </c>
-      <c r="O7" s="285"/>
+        <v>4538</v>
+      </c>
+      <c r="O7" s="243"/>
       <c r="P7" s="69">
-        <f t="shared" ref="P6:P32" si="0">N7+M7+L7+I7+C7</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="287">
-        <f t="shared" ref="Q6:Q38" si="1">P7-F7</f>
-        <v>0</v>
+        <f t="shared" ref="P7:P32" si="0">N7+M7+L7+I7+C7</f>
+        <v>4602</v>
+      </c>
+      <c r="Q7" s="244">
+        <f t="shared" ref="Q7:Q38" si="1">P7-F7</f>
+        <v>-30393</v>
       </c>
       <c r="R7" s="38"/>
       <c r="S7" s="147"/>
@@ -8687,34 +8727,48 @@
       <c r="B8" s="24">
         <v>44511</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="25">
+        <v>10911</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>106</v>
+      </c>
       <c r="E8" s="27">
         <v>44511</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28">
+        <v>42232</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="36">
         <v>44511</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="I8" s="30">
+        <v>37</v>
+      </c>
+      <c r="J8" s="43">
+        <v>44511</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="39">
+        <v>1665</v>
+      </c>
       <c r="M8" s="32">
         <v>0</v>
       </c>
       <c r="N8" s="33">
-        <v>0</v>
+        <v>9420</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="288">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22033</v>
+      </c>
+      <c r="Q8" s="244">
+        <f t="shared" si="1"/>
+        <v>-20199</v>
       </c>
       <c r="R8" s="38"/>
       <c r="S8" s="147"/>
@@ -8724,33 +8778,48 @@
       <c r="B9" s="24">
         <v>44512</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="25">
+        <v>3408</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>107</v>
+      </c>
       <c r="E9" s="27">
         <v>44512</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28">
+        <v>53684</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="36">
         <v>44512</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="284"/>
-      <c r="L9" s="39"/>
+      <c r="I9" s="30">
+        <v>72</v>
+      </c>
+      <c r="J9" s="37">
+        <v>44512</v>
+      </c>
+      <c r="K9" s="242" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="39">
+        <v>2280</v>
+      </c>
       <c r="M9" s="32">
         <v>0</v>
       </c>
       <c r="N9" s="33">
-        <v>0</v>
+        <v>12246</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="69">
         <f>N9+M9+L9+I9+C9</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="289" t="s">
-        <v>58</v>
+        <v>18006</v>
+      </c>
+      <c r="Q9" s="244">
+        <f t="shared" si="1"/>
+        <v>-35678</v>
       </c>
       <c r="R9" s="38"/>
       <c r="S9" s="147"/>
@@ -8760,34 +8829,48 @@
       <c r="B10" s="24">
         <v>44513</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="25">
+        <v>6328</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="E10" s="27">
         <v>44513</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28">
+        <v>71293</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="36">
         <v>44513</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="45"/>
+      <c r="I10" s="30">
+        <v>60</v>
+      </c>
+      <c r="J10" s="37">
+        <v>44513</v>
+      </c>
+      <c r="K10" s="288" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="289">
+        <v>13100</v>
+      </c>
       <c r="M10" s="32">
         <v>0</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
+        <v>20880</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="69">
         <f t="shared" ref="P10:P14" si="2">N10+M10+L10+I10+C10</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="288">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40368</v>
+      </c>
+      <c r="Q10" s="244">
+        <f t="shared" si="1"/>
+        <v>-30925</v>
       </c>
       <c r="R10" s="38"/>
       <c r="S10" s="147"/>
@@ -8797,17 +8880,23 @@
       <c r="B11" s="24">
         <v>44514</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
       <c r="D11" s="35"/>
       <c r="E11" s="27">
         <v>44514</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28">
+        <v>48859</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="36">
         <v>44514</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="30">
+        <v>1875</v>
+      </c>
       <c r="J11" s="43"/>
       <c r="K11" s="181"/>
       <c r="L11" s="39"/>
@@ -8815,16 +8904,16 @@
         <v>0</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
+        <v>11746</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="222">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13621</v>
+      </c>
+      <c r="Q11" s="244">
+        <f t="shared" si="1"/>
+        <v>-35238</v>
       </c>
       <c r="R11" s="38"/>
       <c r="S11" s="147"/>
@@ -8834,39 +8923,49 @@
       <c r="B12" s="24">
         <v>44515</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="25">
+        <v>1310</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="E12" s="27">
         <v>44515</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="28">
+        <v>50041</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="36">
         <v>44515</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="30">
+        <v>2054</v>
+      </c>
       <c r="J12" s="37"/>
-      <c r="K12" s="182"/>
+      <c r="K12" s="182" t="s">
+        <v>111</v>
+      </c>
       <c r="L12" s="39"/>
       <c r="M12" s="32">
         <v>0</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
+        <v>16831</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="222">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20195</v>
+      </c>
+      <c r="Q12" s="244">
+        <f t="shared" si="1"/>
+        <v>-29846</v>
       </c>
       <c r="R12" s="38"/>
       <c r="S12" s="147"/>
     </row>
-    <row r="13" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
       <c r="B13" s="24">
         <v>44516</v>
@@ -8896,7 +8995,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="287">
+      <c r="Q13" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8933,14 +9032,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="289">
+      <c r="Q14" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R14" s="38"/>
       <c r="S14" s="147"/>
     </row>
-    <row r="15" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="24">
         <v>44518</v>
@@ -8969,7 +9068,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="286">
+      <c r="Q15" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9005,7 +9104,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="222">
+      <c r="Q16" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9041,7 +9140,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="222">
+      <c r="Q17" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9077,7 +9176,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="288">
+      <c r="Q18" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9113,7 +9212,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="288">
+      <c r="Q19" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9149,7 +9248,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="222">
+      <c r="Q20" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9185,7 +9284,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="222">
+      <c r="Q21" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9221,7 +9320,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="288">
+      <c r="Q22" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9257,7 +9356,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="288">
+      <c r="Q23" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9293,7 +9392,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="288">
+      <c r="Q24" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9329,7 +9428,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="233">
+      <c r="Q25" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9364,7 +9463,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9399,7 +9498,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q27" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9434,7 +9533,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9469,7 +9568,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9504,7 +9603,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="Q30" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9539,7 +9638,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9574,7 +9673,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9602,7 +9701,7 @@
       <c r="P33" s="34">
         <v>0</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9636,7 +9735,7 @@
       <c r="P34" s="34">
         <v>0</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q34" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9670,7 +9769,7 @@
       <c r="P35" s="34">
         <v>0</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="Q35" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9700,7 +9799,7 @@
       <c r="P36" s="34">
         <v>0</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q36" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9730,7 +9829,7 @@
       <c r="P37" s="34">
         <v>0</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q37" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9759,7 +9858,7 @@
       <c r="P38" s="151">
         <v>0</v>
       </c>
-      <c r="Q38" s="151">
+      <c r="Q38" s="244">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9777,21 +9876,21 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="253">
+      <c r="M39" s="252">
         <f>SUM(M5:M38)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="255">
+      <c r="N39" s="254">
         <f>SUM(N5:N38)</f>
-        <v>26123</v>
+        <v>101784</v>
       </c>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>39032</v>
+        <v>157857</v>
       </c>
       <c r="Q39" s="234">
         <f>SUM(Q5:Q38)</f>
-        <v>-54314</v>
+        <v>-236593</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9807,10 +9906,10 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="254"/>
-      <c r="N40" s="256"/>
+      <c r="M40" s="253"/>
+      <c r="N40" s="255"/>
       <c r="P40" s="34"/>
-      <c r="Q40" s="9"/>
+      <c r="Q40" s="13"/>
     </row>
     <row r="41" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
@@ -9828,7 +9927,7 @@
       <c r="M41" s="78"/>
       <c r="N41" s="79"/>
       <c r="P41" s="34"/>
-      <c r="Q41" s="9"/>
+      <c r="Q41" s="13"/>
     </row>
     <row r="42" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
@@ -9846,7 +9945,7 @@
       <c r="M42" s="78"/>
       <c r="N42" s="79"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="9"/>
+      <c r="Q42" s="13"/>
     </row>
     <row r="43" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -9864,7 +9963,7 @@
       <c r="M43" s="78"/>
       <c r="N43" s="79"/>
       <c r="P43" s="34"/>
-      <c r="Q43" s="9"/>
+      <c r="Q43" s="13"/>
     </row>
     <row r="44" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
@@ -9882,7 +9981,7 @@
       <c r="M44" s="78"/>
       <c r="N44" s="79"/>
       <c r="P44" s="34"/>
-      <c r="Q44" s="9"/>
+      <c r="Q44" s="13"/>
     </row>
     <row r="45" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
@@ -9900,7 +9999,7 @@
       <c r="M45" s="78"/>
       <c r="N45" s="79"/>
       <c r="P45" s="34"/>
-      <c r="Q45" s="9"/>
+      <c r="Q45" s="13"/>
     </row>
     <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
@@ -9918,7 +10017,7 @@
       <c r="M46" s="78"/>
       <c r="N46" s="79"/>
       <c r="P46" s="34"/>
-      <c r="Q46" s="9"/>
+      <c r="Q46" s="13"/>
     </row>
     <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
@@ -9936,7 +10035,7 @@
       <c r="M47" s="78"/>
       <c r="N47" s="79"/>
       <c r="P47" s="34"/>
-      <c r="Q47" s="9"/>
+      <c r="Q47" s="13"/>
     </row>
     <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23"/>
@@ -9954,9 +10053,9 @@
       <c r="M48" s="78"/>
       <c r="N48" s="79"/>
       <c r="P48" s="34"/>
-      <c r="Q48" s="9"/>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="80"/>
       <c r="C49" s="25">
@@ -9973,7 +10072,7 @@
       <c r="M49" s="85"/>
       <c r="N49" s="33"/>
       <c r="P49" s="34"/>
-      <c r="Q49" s="9"/>
+      <c r="Q49" s="13"/>
     </row>
     <row r="50" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="86" t="s">
@@ -9981,7 +10080,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>12221</v>
+        <v>34178</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -9989,7 +10088,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>93346</v>
+        <v>394450</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -9997,7 +10096,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>688</v>
+        <v>4850</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -10005,75 +10104,75 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>0</v>
+        <v>17045</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
       <c r="P50" s="34"/>
-      <c r="Q50" s="9"/>
-    </row>
-    <row r="51" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P51" s="34"/>
-      <c r="Q51" s="9"/>
+      <c r="Q51" s="13"/>
     </row>
     <row r="52" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="257" t="s">
+      <c r="H52" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="258"/>
+      <c r="I52" s="257"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="259">
+      <c r="K52" s="258">
         <f>I50+L50</f>
-        <v>688</v>
-      </c>
-      <c r="L52" s="260"/>
-      <c r="M52" s="261">
+        <v>21895</v>
+      </c>
+      <c r="L52" s="259"/>
+      <c r="M52" s="260">
         <f>N39+M39</f>
-        <v>26123</v>
-      </c>
-      <c r="N52" s="262"/>
+        <v>101784</v>
+      </c>
+      <c r="N52" s="261"/>
       <c r="P52" s="34"/>
-      <c r="Q52" s="9"/>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="263" t="s">
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D53" s="262" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="263"/>
+      <c r="E53" s="262"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
-        <v>80437</v>
+        <v>338377</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
       <c r="P53" s="34"/>
-      <c r="Q53" s="9"/>
+      <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="263" t="s">
+      <c r="D54" s="262" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="263"/>
+      <c r="E54" s="262"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="264" t="s">
+      <c r="I54" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="265"/>
-      <c r="K54" s="266">
+      <c r="J54" s="264"/>
+      <c r="K54" s="265">
         <f>F56+F57+F58</f>
-        <v>-469539.4</v>
-      </c>
-      <c r="L54" s="267"/>
+        <v>-211599.40000000002</v>
+      </c>
+      <c r="L54" s="266"/>
       <c r="P54" s="34"/>
-      <c r="Q54" s="9"/>
+      <c r="Q54" s="13"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="203" t="s">
@@ -10097,18 +10196,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>-469539.4</v>
+        <v>-211599.40000000002</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="268">
+      <c r="K56" s="267">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="269"/>
+      <c r="L56" s="268"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10123,22 +10222,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="246" t="s">
+      <c r="D58" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="247"/>
+      <c r="E58" s="246"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="248" t="s">
+      <c r="I58" s="247" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="249"/>
-      <c r="K58" s="250">
+      <c r="J58" s="248"/>
+      <c r="K58" s="249">
         <f>K54+K56</f>
-        <v>-1036928.75</v>
-      </c>
-      <c r="L58" s="250"/>
+        <v>-778988.75</v>
+      </c>
+      <c r="L58" s="249"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -10165,14 +10264,14 @@
       <c r="M61" s="124"/>
       <c r="N61" s="98"/>
     </row>
-    <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B62" s="121"/>
       <c r="C62" s="125"/>
       <c r="E62" s="34"/>
       <c r="M62" s="124"/>
       <c r="N62" s="98"/>
     </row>
-    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B63" s="121"/>
       <c r="C63" s="125"/>
       <c r="E63" s="34"/>
@@ -10180,13 +10279,13 @@
       <c r="L63" s="127"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B64" s="121"/>
       <c r="C64" s="125"/>
       <c r="E64" s="34"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="121"/>
       <c r="C65" s="125"/>
       <c r="D65" s="128"/>
@@ -10282,11 +10381,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10296,16 +10396,16 @@
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:N52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10407,9 +10507,9 @@
         <f>C3-E3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="280"/>
-      <c r="J3" s="281"/>
-      <c r="K3" s="282"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="240"/>
       <c r="L3" s="136"/>
       <c r="M3" s="69"/>
       <c r="N3" s="196">
@@ -10428,9 +10528,9 @@
         <v>0</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="I4" s="280"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="282"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="240"/>
       <c r="L4" s="136"/>
       <c r="M4" s="69"/>
       <c r="N4" s="137">
@@ -10448,9 +10548,9 @@
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="280"/>
-      <c r="J5" s="281"/>
-      <c r="K5" s="282"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="240"/>
       <c r="L5" s="136"/>
       <c r="M5" s="69"/>
       <c r="N5" s="137">
@@ -10468,9 +10568,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="280"/>
-      <c r="J6" s="281"/>
-      <c r="K6" s="282"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="239"/>
+      <c r="K6" s="240"/>
       <c r="L6" s="136"/>
       <c r="M6" s="69"/>
       <c r="N6" s="137">
@@ -10488,9 +10588,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="280"/>
-      <c r="J7" s="281"/>
-      <c r="K7" s="282"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240"/>
       <c r="L7" s="136"/>
       <c r="M7" s="69"/>
       <c r="N7" s="137">
@@ -10508,9 +10608,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="280"/>
-      <c r="J8" s="281"/>
-      <c r="K8" s="282"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="240"/>
       <c r="L8" s="136"/>
       <c r="M8" s="69"/>
       <c r="N8" s="137">
@@ -10528,9 +10628,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="280"/>
-      <c r="J9" s="281"/>
-      <c r="K9" s="282"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="240"/>
       <c r="L9" s="136"/>
       <c r="M9" s="69"/>
       <c r="N9" s="137">
@@ -10549,9 +10649,9 @@
         <v>0</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="I10" s="280"/>
-      <c r="J10" s="281"/>
-      <c r="K10" s="282"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="240"/>
       <c r="L10" s="136"/>
       <c r="M10" s="69"/>
       <c r="N10" s="137">
@@ -10569,9 +10669,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="280"/>
-      <c r="J11" s="281"/>
-      <c r="K11" s="282"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="240"/>
       <c r="L11" s="140"/>
       <c r="M11" s="69"/>
       <c r="N11" s="137">
@@ -10589,9 +10689,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="280"/>
-      <c r="J12" s="281"/>
-      <c r="K12" s="282"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="240"/>
       <c r="L12" s="140"/>
       <c r="M12" s="69"/>
       <c r="N12" s="137">
@@ -10601,17 +10701,17 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="140"/>
-      <c r="B13" s="275"/>
-      <c r="C13" s="276"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="236"/>
       <c r="D13" s="140"/>
       <c r="E13" s="69"/>
       <c r="F13" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="280"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="282"/>
+      <c r="I13" s="238"/>
+      <c r="J13" s="239"/>
+      <c r="K13" s="240"/>
       <c r="L13" s="140"/>
       <c r="M13" s="69"/>
       <c r="N13" s="137">
@@ -10629,9 +10729,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="280"/>
-      <c r="J14" s="281"/>
-      <c r="K14" s="282"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="239"/>
+      <c r="K14" s="240"/>
       <c r="L14" s="140"/>
       <c r="M14" s="69"/>
       <c r="N14" s="137">
@@ -10649,9 +10749,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="280"/>
-      <c r="J15" s="281"/>
-      <c r="K15" s="282"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="239"/>
+      <c r="K15" s="240"/>
       <c r="L15" s="140"/>
       <c r="M15" s="69"/>
       <c r="N15" s="137">
@@ -10669,9 +10769,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="280"/>
-      <c r="J16" s="281"/>
-      <c r="K16" s="282"/>
+      <c r="I16" s="238"/>
+      <c r="J16" s="239"/>
+      <c r="K16" s="240"/>
       <c r="L16" s="140"/>
       <c r="M16" s="69"/>
       <c r="N16" s="137">
@@ -10689,9 +10789,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="280"/>
-      <c r="J17" s="281"/>
-      <c r="K17" s="282"/>
+      <c r="I17" s="238"/>
+      <c r="J17" s="239"/>
+      <c r="K17" s="240"/>
       <c r="L17" s="140"/>
       <c r="M17" s="69"/>
       <c r="N17" s="137">
@@ -10709,9 +10809,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="280"/>
-      <c r="J18" s="281"/>
-      <c r="K18" s="282"/>
+      <c r="I18" s="238"/>
+      <c r="J18" s="239"/>
+      <c r="K18" s="240"/>
       <c r="L18" s="140"/>
       <c r="M18" s="69"/>
       <c r="N18" s="137">
@@ -10729,9 +10829,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="280"/>
-      <c r="J19" s="281"/>
-      <c r="K19" s="282"/>
+      <c r="I19" s="238"/>
+      <c r="J19" s="239"/>
+      <c r="K19" s="240"/>
       <c r="L19" s="140"/>
       <c r="M19" s="69"/>
       <c r="N19" s="137">
@@ -10749,9 +10849,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="280"/>
-      <c r="J20" s="281"/>
-      <c r="K20" s="282"/>
+      <c r="I20" s="238"/>
+      <c r="J20" s="239"/>
+      <c r="K20" s="240"/>
       <c r="L20" s="140"/>
       <c r="M20" s="69"/>
       <c r="N20" s="137">
@@ -10769,9 +10869,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="280"/>
-      <c r="J21" s="281"/>
-      <c r="K21" s="282"/>
+      <c r="I21" s="238"/>
+      <c r="J21" s="239"/>
+      <c r="K21" s="240"/>
       <c r="L21" s="140"/>
       <c r="M21" s="69"/>
       <c r="N21" s="137">
@@ -10790,9 +10890,9 @@
         <v>0</v>
       </c>
       <c r="G22" s="138"/>
-      <c r="I22" s="280"/>
-      <c r="J22" s="281"/>
-      <c r="K22" s="282"/>
+      <c r="I22" s="238"/>
+      <c r="J22" s="239"/>
+      <c r="K22" s="240"/>
       <c r="L22" s="140"/>
       <c r="M22" s="69"/>
       <c r="N22" s="137">
@@ -10810,9 +10910,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="280"/>
-      <c r="J23" s="281"/>
-      <c r="K23" s="282"/>
+      <c r="I23" s="238"/>
+      <c r="J23" s="239"/>
+      <c r="K23" s="240"/>
       <c r="L23" s="140"/>
       <c r="M23" s="69"/>
       <c r="N23" s="137">
@@ -10830,9 +10930,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="280"/>
-      <c r="J24" s="281"/>
-      <c r="K24" s="282"/>
+      <c r="I24" s="238"/>
+      <c r="J24" s="239"/>
+      <c r="K24" s="240"/>
       <c r="L24" s="140"/>
       <c r="M24" s="69"/>
       <c r="N24" s="137">
@@ -10850,9 +10950,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="280"/>
-      <c r="J25" s="281"/>
-      <c r="K25" s="282"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="239"/>
+      <c r="K25" s="240"/>
       <c r="L25" s="140"/>
       <c r="M25" s="69"/>
       <c r="N25" s="137">
@@ -10870,9 +10970,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="280"/>
-      <c r="J26" s="281"/>
-      <c r="K26" s="282"/>
+      <c r="I26" s="238"/>
+      <c r="J26" s="239"/>
+      <c r="K26" s="240"/>
       <c r="L26" s="140"/>
       <c r="M26" s="69"/>
       <c r="N26" s="137">
@@ -10890,9 +10990,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="280"/>
-      <c r="J27" s="281"/>
-      <c r="K27" s="282"/>
+      <c r="I27" s="238"/>
+      <c r="J27" s="239"/>
+      <c r="K27" s="240"/>
       <c r="L27" s="140"/>
       <c r="M27" s="69"/>
       <c r="N27" s="137">
@@ -10910,9 +11010,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="280"/>
-      <c r="J28" s="281"/>
-      <c r="K28" s="282"/>
+      <c r="I28" s="238"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="240"/>
       <c r="L28" s="140"/>
       <c r="M28" s="69"/>
       <c r="N28" s="137">
@@ -10930,9 +11030,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="280"/>
-      <c r="J29" s="281"/>
-      <c r="K29" s="282"/>
+      <c r="I29" s="238"/>
+      <c r="J29" s="239"/>
+      <c r="K29" s="240"/>
       <c r="L29" s="140"/>
       <c r="M29" s="69"/>
       <c r="N29" s="137">
@@ -10951,9 +11051,9 @@
         <v>0</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="280"/>
-      <c r="J30" s="281"/>
-      <c r="K30" s="282"/>
+      <c r="I30" s="238"/>
+      <c r="J30" s="239"/>
+      <c r="K30" s="240"/>
       <c r="L30" s="140"/>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
@@ -10971,9 +11071,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I31" s="280"/>
-      <c r="J31" s="281"/>
-      <c r="K31" s="282"/>
+      <c r="I31" s="238"/>
+      <c r="J31" s="239"/>
+      <c r="K31" s="240"/>
       <c r="L31" s="140"/>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
@@ -10991,9 +11091,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="280"/>
-      <c r="J32" s="281"/>
-      <c r="K32" s="282"/>
+      <c r="I32" s="238"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="240"/>
       <c r="L32" s="140"/>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
@@ -11011,9 +11111,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="280"/>
-      <c r="J33" s="281"/>
-      <c r="K33" s="282"/>
+      <c r="I33" s="238"/>
+      <c r="J33" s="239"/>
+      <c r="K33" s="240"/>
       <c r="L33" s="140"/>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
@@ -11031,9 +11131,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I34" s="280"/>
-      <c r="J34" s="281"/>
-      <c r="K34" s="282"/>
+      <c r="I34" s="238"/>
+      <c r="J34" s="239"/>
+      <c r="K34" s="240"/>
       <c r="L34" s="140"/>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
@@ -11051,9 +11151,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I35" s="280"/>
-      <c r="J35" s="281"/>
-      <c r="K35" s="282"/>
+      <c r="I35" s="238"/>
+      <c r="J35" s="239"/>
+      <c r="K35" s="240"/>
       <c r="L35" s="140"/>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
@@ -11071,9 +11171,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="280"/>
-      <c r="J36" s="281"/>
-      <c r="K36" s="282"/>
+      <c r="I36" s="238"/>
+      <c r="J36" s="239"/>
+      <c r="K36" s="240"/>
       <c r="L36" s="140"/>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
@@ -11091,9 +11191,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="280"/>
-      <c r="J37" s="281"/>
-      <c r="K37" s="282"/>
+      <c r="I37" s="238"/>
+      <c r="J37" s="239"/>
+      <c r="K37" s="240"/>
       <c r="L37" s="140"/>
       <c r="M37" s="69"/>
       <c r="N37" s="137">
@@ -11111,9 +11211,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="280"/>
-      <c r="J38" s="281"/>
-      <c r="K38" s="282"/>
+      <c r="I38" s="238"/>
+      <c r="J38" s="239"/>
+      <c r="K38" s="240"/>
       <c r="L38" s="140"/>
       <c r="M38" s="69"/>
       <c r="N38" s="137">
@@ -11131,9 +11231,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="280"/>
-      <c r="J39" s="281"/>
-      <c r="K39" s="282"/>
+      <c r="I39" s="238"/>
+      <c r="J39" s="239"/>
+      <c r="K39" s="240"/>
       <c r="L39" s="140"/>
       <c r="M39" s="69"/>
       <c r="N39" s="137">
@@ -11151,9 +11251,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="280"/>
-      <c r="J40" s="281"/>
-      <c r="K40" s="282"/>
+      <c r="I40" s="238"/>
+      <c r="J40" s="239"/>
+      <c r="K40" s="240"/>
       <c r="L40" s="140"/>
       <c r="M40" s="69"/>
       <c r="N40" s="137">
@@ -11163,17 +11263,17 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="140"/>
-      <c r="B41" s="277"/>
-      <c r="C41" s="278"/>
+      <c r="B41" s="282"/>
+      <c r="C41" s="237"/>
       <c r="D41" s="140"/>
       <c r="E41" s="69"/>
       <c r="F41" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="280"/>
-      <c r="J41" s="281"/>
-      <c r="K41" s="282"/>
+      <c r="I41" s="238"/>
+      <c r="J41" s="239"/>
+      <c r="K41" s="240"/>
       <c r="L41" s="140"/>
       <c r="M41" s="69"/>
       <c r="N41" s="137">
@@ -11183,7 +11283,7 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="140"/>
-      <c r="B42" s="279"/>
+      <c r="B42" s="283"/>
       <c r="C42" s="69"/>
       <c r="D42" s="140"/>
       <c r="E42" s="69"/>
@@ -11191,9 +11291,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="280"/>
-      <c r="J42" s="281"/>
-      <c r="K42" s="282"/>
+      <c r="I42" s="238"/>
+      <c r="J42" s="239"/>
+      <c r="K42" s="240"/>
       <c r="L42" s="140"/>
       <c r="M42" s="69"/>
       <c r="N42" s="137">
@@ -11211,9 +11311,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I43" s="280"/>
-      <c r="J43" s="281"/>
-      <c r="K43" s="282"/>
+      <c r="I43" s="238"/>
+      <c r="J43" s="239"/>
+      <c r="K43" s="240"/>
       <c r="L43" s="140"/>
       <c r="M43" s="69"/>
       <c r="N43" s="137">
@@ -11231,9 +11331,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="280"/>
-      <c r="J44" s="281"/>
-      <c r="K44" s="283"/>
+      <c r="I44" s="238"/>
+      <c r="J44" s="239"/>
+      <c r="K44" s="241"/>
       <c r="L44" s="140"/>
       <c r="M44" s="69"/>
       <c r="N44" s="137">
@@ -11251,9 +11351,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="280"/>
-      <c r="J45" s="281"/>
-      <c r="K45" s="282"/>
+      <c r="I45" s="238"/>
+      <c r="J45" s="239"/>
+      <c r="K45" s="240"/>
       <c r="L45" s="140"/>
       <c r="M45" s="69"/>
       <c r="N45" s="137">
@@ -11271,9 +11371,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="280"/>
-      <c r="J46" s="281"/>
-      <c r="K46" s="282"/>
+      <c r="I46" s="238"/>
+      <c r="J46" s="239"/>
+      <c r="K46" s="240"/>
       <c r="L46" s="140"/>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
@@ -11291,9 +11391,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I47" s="280"/>
-      <c r="J47" s="281"/>
-      <c r="K47" s="282"/>
+      <c r="I47" s="238"/>
+      <c r="J47" s="239"/>
+      <c r="K47" s="240"/>
       <c r="L47" s="140"/>
       <c r="M47" s="69"/>
       <c r="N47" s="137">
@@ -11311,9 +11411,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I48" s="280"/>
-      <c r="J48" s="281"/>
-      <c r="K48" s="282"/>
+      <c r="I48" s="238"/>
+      <c r="J48" s="239"/>
+      <c r="K48" s="240"/>
       <c r="L48" s="140"/>
       <c r="M48" s="69"/>
       <c r="N48" s="137">
@@ -11331,9 +11431,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="280"/>
-      <c r="J49" s="281"/>
-      <c r="K49" s="282"/>
+      <c r="I49" s="238"/>
+      <c r="J49" s="239"/>
+      <c r="K49" s="240"/>
       <c r="L49" s="140"/>
       <c r="M49" s="69"/>
       <c r="N49" s="137">
@@ -11351,9 +11451,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="280"/>
-      <c r="J50" s="281"/>
-      <c r="K50" s="282"/>
+      <c r="I50" s="238"/>
+      <c r="J50" s="239"/>
+      <c r="K50" s="240"/>
       <c r="L50" s="140"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
@@ -11371,9 +11471,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="280"/>
-      <c r="J51" s="281"/>
-      <c r="K51" s="282"/>
+      <c r="I51" s="238"/>
+      <c r="J51" s="239"/>
+      <c r="K51" s="240"/>
       <c r="L51" s="140"/>
       <c r="M51" s="69"/>
       <c r="N51" s="137">
@@ -11391,9 +11491,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I52" s="280"/>
-      <c r="J52" s="281"/>
-      <c r="K52" s="282"/>
+      <c r="I52" s="238"/>
+      <c r="J52" s="239"/>
+      <c r="K52" s="240"/>
       <c r="L52" s="140"/>
       <c r="M52" s="69"/>
       <c r="N52" s="137">
@@ -11411,9 +11511,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I53" s="280"/>
-      <c r="J53" s="281"/>
-      <c r="K53" s="282"/>
+      <c r="I53" s="238"/>
+      <c r="J53" s="239"/>
+      <c r="K53" s="240"/>
       <c r="L53" s="140"/>
       <c r="M53" s="69"/>
       <c r="N53" s="137">
@@ -11431,9 +11531,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="280"/>
-      <c r="J54" s="281"/>
-      <c r="K54" s="282"/>
+      <c r="I54" s="238"/>
+      <c r="J54" s="239"/>
+      <c r="K54" s="240"/>
       <c r="L54" s="140"/>
       <c r="M54" s="69"/>
       <c r="N54" s="137">
@@ -11451,9 +11551,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="280"/>
-      <c r="J55" s="281"/>
-      <c r="K55" s="282"/>
+      <c r="I55" s="238"/>
+      <c r="J55" s="239"/>
+      <c r="K55" s="240"/>
       <c r="L55" s="140"/>
       <c r="M55" s="69"/>
       <c r="N55" s="137">
@@ -11471,9 +11571,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="280"/>
-      <c r="J56" s="281"/>
-      <c r="K56" s="282"/>
+      <c r="I56" s="238"/>
+      <c r="J56" s="239"/>
+      <c r="K56" s="240"/>
       <c r="L56" s="140"/>
       <c r="M56" s="69"/>
       <c r="N56" s="137">
@@ -11491,9 +11591,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I57" s="280"/>
-      <c r="J57" s="281"/>
-      <c r="K57" s="282"/>
+      <c r="I57" s="238"/>
+      <c r="J57" s="239"/>
+      <c r="K57" s="240"/>
       <c r="L57" s="140"/>
       <c r="M57" s="69"/>
       <c r="N57" s="137">
@@ -11511,9 +11611,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I58" s="280"/>
-      <c r="J58" s="281"/>
-      <c r="K58" s="282"/>
+      <c r="I58" s="238"/>
+      <c r="J58" s="239"/>
+      <c r="K58" s="240"/>
       <c r="L58" s="140"/>
       <c r="M58" s="69"/>
       <c r="N58" s="137">
@@ -11531,9 +11631,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I59" s="280"/>
-      <c r="J59" s="281"/>
-      <c r="K59" s="283"/>
+      <c r="I59" s="238"/>
+      <c r="J59" s="239"/>
+      <c r="K59" s="241"/>
       <c r="L59" s="140"/>
       <c r="M59" s="69"/>
       <c r="N59" s="137">
@@ -12707,12 +12807,12 @@
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="155"/>
-      <c r="B43" s="272" t="s">
+      <c r="B43" s="284" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="273"/>
-      <c r="D43" s="273"/>
-      <c r="E43" s="274"/>
+      <c r="C43" s="285"/>
+      <c r="D43" s="285"/>
+      <c r="E43" s="286"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10620" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -482,6 +482,27 @@
   </si>
   <si>
     <t xml:space="preserve">                                      </t>
+  </si>
+  <si>
+    <t>POLLO-</t>
+  </si>
+  <si>
+    <t>tarejta cobro duplicado $ 685.00</t>
+  </si>
+  <si>
+    <t>POLLO--ENCHILADA</t>
+  </si>
+  <si>
+    <t>POLLO-LACTEOS-LONGANIZA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS NLP</t>
+  </si>
+  <si>
+    <t>JAMONES-LONGANIZA-QUESOS-POLLO-CHISTORRA</t>
+  </si>
+  <si>
+    <t>NOMINA # 47</t>
   </si>
 </sst>
 </file>
@@ -885,7 +906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -958,6 +979,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="61">
     <border>
@@ -1718,7 +1745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2202,138 +2229,154 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="47" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="20" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="12" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="19" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2344,8 +2387,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF99CCFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF800000"/>
       <color rgb="FF6600FF"/>
     </mruColors>
@@ -3507,23 +3550,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="269"/>
-      <c r="C1" s="271" t="s">
+      <c r="B1" s="254"/>
+      <c r="C1" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="270"/>
+      <c r="B2" s="255"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -3533,17 +3576,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="274"/>
+      <c r="B3" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="259"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="275" t="s">
+      <c r="H3" s="260" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="275"/>
+      <c r="I3" s="260"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -3557,14 +3600,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="276" t="s">
+      <c r="E4" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="277"/>
-      <c r="H4" s="278" t="s">
+      <c r="F4" s="262"/>
+      <c r="H4" s="263" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="279"/>
+      <c r="I4" s="264"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -3574,10 +3617,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="250" t="s">
+      <c r="P4" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="251"/>
+      <c r="Q4" s="271"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -5018,11 +5061,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="252">
+      <c r="M39" s="272">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="254">
+      <c r="N39" s="274">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -5048,8 +5091,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="253"/>
-      <c r="N40" s="255"/>
+      <c r="M40" s="273"/>
+      <c r="N40" s="275"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5264,29 +5307,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="256" t="s">
+      <c r="H52" s="276" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="257"/>
+      <c r="I52" s="277"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="258">
+      <c r="K52" s="278">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="259"/>
-      <c r="M52" s="260">
+      <c r="L52" s="279"/>
+      <c r="M52" s="280">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="261"/>
+      <c r="N52" s="281"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="262" t="s">
+      <c r="D53" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="262"/>
+      <c r="E53" s="282"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -5297,22 +5340,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="262" t="s">
+      <c r="D54" s="282" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="262"/>
+      <c r="E54" s="282"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="263" t="s">
+      <c r="I54" s="283" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="264"/>
-      <c r="K54" s="265">
+      <c r="J54" s="284"/>
+      <c r="K54" s="285">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="266"/>
+      <c r="L54" s="286"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -5345,11 +5388,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="267">
+      <c r="K56" s="287">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="268"/>
+      <c r="L56" s="288"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -5366,22 +5409,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="245" t="s">
+      <c r="D58" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="246"/>
+      <c r="E58" s="266"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="247" t="s">
+      <c r="I58" s="267" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="248"/>
-      <c r="K58" s="249">
+      <c r="J58" s="268"/>
+      <c r="K58" s="269">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="249"/>
+      <c r="L58" s="269"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -5525,12 +5568,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -5545,6 +5582,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6869,7 +6912,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="280" t="s">
+      <c r="B41" s="289" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="204">
@@ -6901,7 +6944,7 @@
       <c r="A42" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="281"/>
+      <c r="B42" s="290"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -8486,10 +8529,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8509,28 +8552,28 @@
     <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="287" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="176" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="245" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="248" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="269"/>
-      <c r="C1" s="271" t="s">
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="254"/>
+      <c r="C1" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-    </row>
-    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="270"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="255"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8539,23 +8582,23 @@
       <c r="M2" s="6"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="274"/>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="259"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="275" t="s">
+      <c r="H3" s="260" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="275"/>
+      <c r="I3" s="260"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:19" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -8566,14 +8609,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="276" t="s">
+      <c r="E4" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="277"/>
-      <c r="H4" s="278" t="s">
+      <c r="F4" s="262"/>
+      <c r="H4" s="263" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="279"/>
+      <c r="I4" s="264"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -8583,12 +8626,12 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="250" t="s">
+      <c r="P4" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="251"/>
-    </row>
-    <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q4" s="271"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
@@ -8632,9 +8675,12 @@
         <f>P5-F5</f>
         <v>-27936</v>
       </c>
-      <c r="R5" s="31"/>
-    </row>
-    <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R5" s="250">
+        <f>20000+7936</f>
+        <v>27936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="24">
         <v>44509</v>
@@ -8676,10 +8722,13 @@
         <f>P6-F6</f>
         <v>-26378</v>
       </c>
-      <c r="R6" s="38"/>
+      <c r="R6" s="251">
+        <f>22000+4378</f>
+        <v>26378</v>
+      </c>
       <c r="S6" s="147"/>
     </row>
-    <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="24">
         <v>44510</v>
@@ -8719,10 +8768,13 @@
         <f t="shared" ref="Q7:Q38" si="1">P7-F7</f>
         <v>-30393</v>
       </c>
-      <c r="R7" s="38"/>
+      <c r="R7" s="251">
+        <f>26000+4393</f>
+        <v>30393</v>
+      </c>
       <c r="S7" s="147"/>
     </row>
-    <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="24">
         <v>44511</v>
@@ -8770,10 +8822,13 @@
         <f t="shared" si="1"/>
         <v>-20199</v>
       </c>
-      <c r="R8" s="38"/>
+      <c r="R8" s="251">
+        <f>20065+133</f>
+        <v>20198</v>
+      </c>
       <c r="S8" s="147"/>
     </row>
-    <row r="9" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
       <c r="B9" s="24">
         <v>44512</v>
@@ -8821,10 +8876,13 @@
         <f t="shared" si="1"/>
         <v>-35678</v>
       </c>
-      <c r="R9" s="38"/>
+      <c r="R9" s="251">
+        <f>35678</f>
+        <v>35678</v>
+      </c>
       <c r="S9" s="147"/>
     </row>
-    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="24">
         <v>44513</v>
@@ -8851,10 +8909,10 @@
       <c r="J10" s="37">
         <v>44513</v>
       </c>
-      <c r="K10" s="288" t="s">
+      <c r="K10" s="246" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="289">
+      <c r="L10" s="247">
         <v>13100</v>
       </c>
       <c r="M10" s="32">
@@ -8872,10 +8930,13 @@
         <f t="shared" si="1"/>
         <v>-30925</v>
       </c>
-      <c r="R10" s="38"/>
+      <c r="R10" s="251">
+        <f>30925</f>
+        <v>30925</v>
+      </c>
       <c r="S10" s="147"/>
     </row>
-    <row r="11" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="B11" s="24">
         <v>44514</v>
@@ -8915,10 +8976,13 @@
         <f t="shared" si="1"/>
         <v>-35238</v>
       </c>
-      <c r="R11" s="38"/>
+      <c r="R11" s="251">
+        <f>35238</f>
+        <v>35238</v>
+      </c>
       <c r="S11" s="147"/>
     </row>
-    <row r="12" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
       <c r="B12" s="24">
         <v>44515</v>
@@ -8962,25 +9026,36 @@
         <f t="shared" si="1"/>
         <v>-29846</v>
       </c>
-      <c r="R12" s="38"/>
+      <c r="R12" s="251">
+        <f>29000+846</f>
+        <v>29846</v>
+      </c>
       <c r="S12" s="147"/>
     </row>
-    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
       <c r="B13" s="24">
         <v>44516</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="25">
+        <v>1739.36</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>112</v>
+      </c>
       <c r="E13" s="27">
         <v>44516</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28">
+        <v>65408</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="36">
         <v>44516</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="30">
+        <v>1037</v>
+      </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
@@ -8988,36 +9063,51 @@
         <v>0</v>
       </c>
       <c r="N13" s="33">
-        <v>0</v>
+        <v>21106</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23882.36</v>
       </c>
       <c r="Q13" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="147"/>
-    </row>
-    <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-41525.64</v>
+      </c>
+      <c r="R13" s="251">
+        <f>41050+1147</f>
+        <v>42197</v>
+      </c>
+      <c r="S13" s="253" t="s">
+        <v>113</v>
+      </c>
+      <c r="T13" s="252"/>
+      <c r="U13" s="252"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
       <c r="B14" s="24">
         <v>44517</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="25">
+        <v>6557.5</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>114</v>
+      </c>
       <c r="E14" s="27">
         <v>44517</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>53925</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="36">
         <v>44517</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="30">
+        <v>36</v>
+      </c>
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
       <c r="L14" s="39"/>
@@ -9025,36 +9115,46 @@
         <v>0</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
+        <v>19362</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25955.5</v>
       </c>
       <c r="Q14" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="38"/>
+        <v>-27969.5</v>
+      </c>
+      <c r="R14" s="251">
+        <v>27970</v>
+      </c>
       <c r="S14" s="147"/>
     </row>
-    <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="24">
         <v>44518</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="25">
+        <v>5383</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="E15" s="27">
         <v>44518</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>47322</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="36">
         <v>44518</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="30">
+        <v>369</v>
+      </c>
       <c r="J15" s="37"/>
       <c r="K15" s="38"/>
       <c r="L15" s="39"/>
@@ -9062,35 +9162,45 @@
         <v>0</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
+        <v>8790</v>
       </c>
       <c r="P15" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14542</v>
       </c>
       <c r="Q15" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="38"/>
+        <v>-32780</v>
+      </c>
+      <c r="R15" s="251">
+        <v>32780</v>
+      </c>
       <c r="S15" s="147"/>
     </row>
-    <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="24">
         <v>44519</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="25">
+        <v>6078</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>116</v>
+      </c>
       <c r="E16" s="27">
         <v>44519</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>58831</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="36">
         <v>44519</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <v>82</v>
+      </c>
       <c r="J16" s="37"/>
       <c r="K16" s="182"/>
       <c r="L16" s="9"/>
@@ -9098,17 +9208,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>15295</v>
       </c>
       <c r="P16" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21455</v>
       </c>
       <c r="Q16" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="38"/>
+        <v>-37376</v>
+      </c>
+      <c r="R16" s="251">
+        <v>37376</v>
+      </c>
       <c r="S16" s="147"/>
     </row>
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9116,35 +9228,53 @@
       <c r="B17" s="24">
         <v>44520</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="25">
+        <v>16886.12</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>117</v>
+      </c>
       <c r="E17" s="27">
         <v>44520</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>59425</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="36">
         <v>44520</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="45"/>
+      <c r="I17" s="30">
+        <v>0</v>
+      </c>
+      <c r="J17" s="37">
+        <v>44520</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="45">
+        <f>12537.27+1285.71</f>
+        <v>13822.98</v>
+      </c>
       <c r="M17" s="32">
         <v>0</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>18910</v>
       </c>
       <c r="P17" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49619.1</v>
       </c>
       <c r="Q17" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="38"/>
+        <v>-9805.9000000000015</v>
+      </c>
+      <c r="R17" s="251">
+        <f>9805.9+12537.27+1285.71</f>
+        <v>23628.879999999997</v>
+      </c>
       <c r="S17" s="147"/>
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9152,17 +9282,23 @@
       <c r="B18" s="24">
         <v>44521</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
       <c r="D18" s="35"/>
       <c r="E18" s="27">
         <v>44521</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>45176</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="36">
         <v>44521</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="30">
+        <v>1515</v>
+      </c>
       <c r="J18" s="37"/>
       <c r="K18" s="183"/>
       <c r="L18" s="39"/>
@@ -9170,17 +9306,19 @@
         <v>0</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>21981</v>
       </c>
       <c r="P18" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23496</v>
       </c>
       <c r="Q18" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="38"/>
+        <v>-21680</v>
+      </c>
+      <c r="R18" s="251">
+        <v>21680</v>
+      </c>
       <c r="S18" s="147"/>
     </row>
     <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9188,17 +9326,25 @@
       <c r="B19" s="24">
         <v>44522</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="25">
+        <v>2692</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="E19" s="27">
         <v>44522</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>52088</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="36">
         <v>44522</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="30">
+        <v>0</v>
+      </c>
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
@@ -9206,17 +9352,19 @@
         <v>0</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>23026</v>
       </c>
       <c r="P19" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25718</v>
       </c>
       <c r="Q19" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="38"/>
+        <v>-26370</v>
+      </c>
+      <c r="R19" s="251">
+        <v>26370</v>
+      </c>
       <c r="S19" s="147"/>
     </row>
     <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9224,17 +9372,25 @@
       <c r="B20" s="24">
         <v>44523</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="25">
+        <v>6094.61</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>108</v>
+      </c>
       <c r="E20" s="27">
         <v>44523</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>38542</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="36">
         <v>44523</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="30">
+        <v>3668.56</v>
+      </c>
       <c r="J20" s="37"/>
       <c r="K20" s="184"/>
       <c r="L20" s="45"/>
@@ -9242,17 +9398,19 @@
         <v>0</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>12383</v>
       </c>
       <c r="P20" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22146.17</v>
       </c>
       <c r="Q20" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="38"/>
+        <v>-16395.830000000002</v>
+      </c>
+      <c r="R20" s="251">
+        <v>16395.830000000002</v>
+      </c>
       <c r="S20" s="147"/>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9288,7 +9446,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R21" s="38"/>
+      <c r="R21" s="251"/>
       <c r="S21" s="147"/>
     </row>
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9324,7 +9482,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R22" s="38"/>
+      <c r="R22" s="251"/>
       <c r="S22" s="147"/>
     </row>
     <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9360,7 +9518,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R23" s="38"/>
+      <c r="R23" s="251"/>
       <c r="S23" s="147"/>
     </row>
     <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9396,7 +9554,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R24" s="38"/>
+      <c r="R24" s="251"/>
       <c r="S24" s="147"/>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9432,7 +9590,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R25" s="31"/>
+      <c r="R25" s="251"/>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
@@ -9467,7 +9625,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R26" s="31"/>
+      <c r="R26" s="251"/>
     </row>
     <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
@@ -9502,7 +9660,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R27" s="31"/>
+      <c r="R27" s="251"/>
     </row>
     <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
@@ -9537,7 +9695,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R28" s="31"/>
+      <c r="R28" s="251"/>
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
@@ -9572,7 +9730,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R29" s="31"/>
+      <c r="R29" s="251"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
@@ -9607,7 +9765,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R30" s="31"/>
+      <c r="R30" s="251"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
@@ -9642,7 +9800,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R31" s="31"/>
+      <c r="R31" s="251"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
@@ -9677,7 +9835,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R32" s="31"/>
+      <c r="R32" s="249"/>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
@@ -9705,7 +9863,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R33" s="31"/>
+      <c r="R33" s="249"/>
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
@@ -9739,7 +9897,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R34" s="31"/>
+      <c r="R34" s="249"/>
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
@@ -9773,7 +9931,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R35" s="31"/>
+      <c r="R35" s="249"/>
     </row>
     <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
@@ -9803,7 +9961,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R36" s="31"/>
+      <c r="R36" s="249"/>
     </row>
     <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
@@ -9876,21 +10034,21 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="252">
+      <c r="M39" s="272">
         <f>SUM(M5:M38)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="254">
+      <c r="N39" s="274">
         <f>SUM(N5:N38)</f>
-        <v>101784</v>
+        <v>242637</v>
       </c>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>157857</v>
+        <v>364671.12999999995</v>
       </c>
       <c r="Q39" s="234">
         <f>SUM(Q5:Q38)</f>
-        <v>-236593</v>
+        <v>-450495.87000000005</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9906,8 +10064,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="253"/>
-      <c r="N40" s="255"/>
+      <c r="M40" s="273"/>
+      <c r="N40" s="275"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
@@ -10080,7 +10238,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>34178</v>
+        <v>79608.59</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -10088,7 +10246,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>394450</v>
+        <v>815167</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -10096,7 +10254,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>4850</v>
+        <v>11557.56</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -10104,7 +10262,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>17045</v>
+        <v>30867.98</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -10122,32 +10280,32 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="256" t="s">
+      <c r="H52" s="276" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="257"/>
+      <c r="I52" s="277"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="258">
+      <c r="K52" s="278">
         <f>I50+L50</f>
-        <v>21895</v>
-      </c>
-      <c r="L52" s="259"/>
-      <c r="M52" s="260">
+        <v>42425.54</v>
+      </c>
+      <c r="L52" s="279"/>
+      <c r="M52" s="280">
         <f>N39+M39</f>
-        <v>101784</v>
-      </c>
-      <c r="N52" s="261"/>
+        <v>242637</v>
+      </c>
+      <c r="N52" s="281"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="262" t="s">
+      <c r="D53" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="262"/>
+      <c r="E53" s="282"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
-        <v>338377</v>
+        <v>693132.87</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
@@ -10155,22 +10313,22 @@
       <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="262" t="s">
+      <c r="D54" s="282" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="262"/>
+      <c r="E54" s="282"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="263" t="s">
+      <c r="I54" s="283" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="264"/>
-      <c r="K54" s="265">
+      <c r="J54" s="284"/>
+      <c r="K54" s="285">
         <f>F56+F57+F58</f>
-        <v>-211599.40000000002</v>
-      </c>
-      <c r="L54" s="266"/>
+        <v>143156.46999999997</v>
+      </c>
+      <c r="L54" s="286"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="13"/>
     </row>
@@ -10196,18 +10354,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>-211599.40000000002</v>
+        <v>143156.46999999997</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="267">
+      <c r="K56" s="287">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="268"/>
+      <c r="L56" s="288"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10222,22 +10380,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="245" t="s">
+      <c r="D58" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="246"/>
+      <c r="E58" s="266"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="247" t="s">
+      <c r="I58" s="267" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="248"/>
-      <c r="K58" s="249">
+      <c r="J58" s="268"/>
+      <c r="K58" s="269">
         <f>K54+K56</f>
-        <v>-778988.75</v>
-      </c>
-      <c r="L58" s="249"/>
+        <v>-424232.88</v>
+      </c>
+      <c r="L58" s="269"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -10381,12 +10539,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10401,6 +10553,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11263,7 +11421,7 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="140"/>
-      <c r="B41" s="282"/>
+      <c r="B41" s="291"/>
       <c r="C41" s="237"/>
       <c r="D41" s="140"/>
       <c r="E41" s="69"/>
@@ -11283,7 +11441,7 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="140"/>
-      <c r="B42" s="283"/>
+      <c r="B42" s="292"/>
       <c r="C42" s="69"/>
       <c r="D42" s="140"/>
       <c r="E42" s="69"/>
@@ -12807,12 +12965,12 @@
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="155"/>
-      <c r="B43" s="284" t="s">
+      <c r="B43" s="293" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="285"/>
-      <c r="D43" s="285"/>
-      <c r="E43" s="286"/>
+      <c r="C43" s="294"/>
+      <c r="D43" s="294"/>
+      <c r="E43" s="295"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 11  NOVIEMBRE 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rouss\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 11  NOVIEMBRE 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF211F4B-8E43-44F5-A26B-F051CCD60190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10620" activeTab="2"/>
+    <workbookView xWindow="4035" yWindow="0" windowWidth="16335" windowHeight="11070" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -20,22 +21,29 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId6"/>
     <sheet name="C AN C E L A C I O N E S      " sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,12 +96,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="123">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -504,11 +512,23 @@
   <si>
     <t>NOMINA # 47</t>
   </si>
+  <si>
+    <t>POLLO</t>
+  </si>
+  <si>
+    <t>JAMON-CREMA-LENGUA-LACTEOS-POLLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLLO-QUESOS  </t>
+  </si>
+  <si>
+    <t>NOMINA # 48</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
@@ -2252,6 +2272,78 @@
     <xf numFmtId="44" fontId="19" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2283,78 +2375,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2424,7 +2444,7 @@
         <xdr:cNvPr id="2" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2497,7 @@
         <xdr:cNvPr id="3" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2550,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2603,7 @@
         <xdr:cNvPr id="5" name="Conector recto de flecha 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +2656,7 @@
         <xdr:cNvPr id="6" name="Abrir llave 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2712,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2812,7 @@
         <xdr:cNvPr id="8" name="Conector recto de flecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2870,7 @@
         <xdr:cNvPr id="2" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2923,7 @@
         <xdr:cNvPr id="3" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,7 +2976,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3009,7 +3029,7 @@
         <xdr:cNvPr id="5" name="Conector recto de flecha 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3062,7 +3082,7 @@
         <xdr:cNvPr id="6" name="Abrir llave 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,7 +3138,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3218,7 +3238,7 @@
         <xdr:cNvPr id="8" name="Conector recto de flecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3518,7 +3538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
@@ -3550,23 +3570,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="254"/>
-      <c r="C1" s="256" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="280" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="255"/>
+      <c r="B2" s="279"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -3576,17 +3596,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="259"/>
+      <c r="B3" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="283"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="260" t="s">
+      <c r="H3" s="284" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="260"/>
+      <c r="I3" s="284"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -3600,14 +3620,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="261" t="s">
+      <c r="E4" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="262"/>
-      <c r="H4" s="263" t="s">
+      <c r="F4" s="286"/>
+      <c r="H4" s="287" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="264"/>
+      <c r="I4" s="288"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -3617,10 +3637,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="270" t="s">
+      <c r="P4" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="271"/>
+      <c r="Q4" s="260"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -5061,11 +5081,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="272">
+      <c r="M39" s="261">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="274">
+      <c r="N39" s="263">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -5091,8 +5111,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="273"/>
-      <c r="N40" s="275"/>
+      <c r="M40" s="262"/>
+      <c r="N40" s="264"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5307,29 +5327,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="276" t="s">
+      <c r="H52" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="277"/>
+      <c r="I52" s="266"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="278">
+      <c r="K52" s="267">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="279"/>
-      <c r="M52" s="280">
+      <c r="L52" s="268"/>
+      <c r="M52" s="269">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="281"/>
+      <c r="N52" s="270"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="282" t="s">
+      <c r="D53" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="282"/>
+      <c r="E53" s="271"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -5340,22 +5360,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="282" t="s">
+      <c r="D54" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="282"/>
+      <c r="E54" s="271"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="283" t="s">
+      <c r="I54" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="284"/>
-      <c r="K54" s="285">
+      <c r="J54" s="273"/>
+      <c r="K54" s="274">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="286"/>
+      <c r="L54" s="275"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -5388,11 +5408,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="287">
+      <c r="K56" s="276">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="288"/>
+      <c r="L56" s="277"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -5409,22 +5429,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="265" t="s">
+      <c r="D58" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="266"/>
+      <c r="E58" s="255"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="267" t="s">
+      <c r="I58" s="256" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="268"/>
-      <c r="K58" s="269">
+      <c r="J58" s="257"/>
+      <c r="K58" s="258">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="269"/>
+      <c r="L58" s="258"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -5568,6 +5588,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -5582,12 +5608,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5597,7 +5617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
@@ -8525,14 +8545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8557,23 +8577,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="254"/>
-      <c r="C1" s="256" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="280" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="255"/>
+      <c r="B2" s="279"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8583,17 +8603,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="259"/>
+      <c r="B3" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="283"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="260" t="s">
+      <c r="H3" s="284" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="260"/>
+      <c r="I3" s="284"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -8609,14 +8629,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="261" t="s">
+      <c r="E4" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="262"/>
-      <c r="H4" s="263" t="s">
+      <c r="F4" s="286"/>
+      <c r="H4" s="287" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="264"/>
+      <c r="I4" s="288"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -8626,10 +8646,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="270" t="s">
+      <c r="P4" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="271"/>
+      <c r="Q4" s="260"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9418,17 +9438,25 @@
       <c r="B21" s="24">
         <v>44524</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="25">
+        <v>2763.18</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>119</v>
+      </c>
       <c r="E21" s="27">
         <v>44524</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>34933</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="36">
         <v>44524</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="30">
+        <v>3972</v>
+      </c>
       <c r="J21" s="37"/>
       <c r="K21" s="48"/>
       <c r="L21" s="45"/>
@@ -9436,17 +9464,19 @@
         <v>0</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>9009</v>
       </c>
       <c r="P21" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15744.18</v>
       </c>
       <c r="Q21" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="251"/>
+        <v>-19188.82</v>
+      </c>
+      <c r="R21" s="251">
+        <v>19188.82</v>
+      </c>
       <c r="S21" s="147"/>
     </row>
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9454,17 +9484,26 @@
       <c r="B22" s="24">
         <v>44525</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="25">
+        <f>3851.5+2501.78</f>
+        <v>6353.2800000000007</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>120</v>
+      </c>
       <c r="E22" s="27">
         <v>44525</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>56996</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="36">
         <v>44525</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="30">
+        <v>0</v>
+      </c>
       <c r="J22" s="37"/>
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
@@ -9472,17 +9511,19 @@
         <v>0</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
+        <v>16995</v>
       </c>
       <c r="P22" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23348.28</v>
       </c>
       <c r="Q22" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="251"/>
+        <v>-33647.72</v>
+      </c>
+      <c r="R22" s="251">
+        <v>33647.72</v>
+      </c>
       <c r="S22" s="147"/>
     </row>
     <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9490,17 +9531,26 @@
       <c r="B23" s="24">
         <v>44526</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="25">
+        <f>2453+1253.71</f>
+        <v>3706.71</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>121</v>
+      </c>
       <c r="E23" s="27">
         <v>44526</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>76926</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="36">
         <v>44526</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="30">
+        <v>43</v>
+      </c>
       <c r="J23" s="50"/>
       <c r="K23" s="185"/>
       <c r="L23" s="45"/>
@@ -9508,17 +9558,19 @@
         <v>0</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
+        <v>27959</v>
       </c>
       <c r="P23" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31708.71</v>
       </c>
       <c r="Q23" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="251"/>
+        <v>-45217.29</v>
+      </c>
+      <c r="R23" s="251">
+        <v>45217.29</v>
+      </c>
       <c r="S23" s="147"/>
     </row>
     <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9526,35 +9578,51 @@
       <c r="B24" s="24">
         <v>44527</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="35"/>
+      <c r="C24" s="25">
+        <v>7071</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>108</v>
+      </c>
       <c r="E24" s="27">
         <v>44527</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>65252</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="36">
         <v>44527</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="186"/>
-      <c r="L24" s="52"/>
+      <c r="I24" s="30">
+        <v>72</v>
+      </c>
+      <c r="J24" s="51">
+        <v>44527</v>
+      </c>
+      <c r="K24" s="186" t="s">
+        <v>122</v>
+      </c>
+      <c r="L24" s="52">
+        <v>9944.83</v>
+      </c>
       <c r="M24" s="32">
         <v>0</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>25005</v>
       </c>
       <c r="P24" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42092.83</v>
       </c>
       <c r="Q24" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="251"/>
+        <v>-23159.17</v>
+      </c>
+      <c r="R24" s="251">
+        <v>23159.17</v>
+      </c>
       <c r="S24" s="147"/>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9562,17 +9630,23 @@
       <c r="B25" s="24">
         <v>44528</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
       <c r="D25" s="35"/>
       <c r="E25" s="27">
         <v>44528</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>39533</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="36">
         <v>44528</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30">
+        <v>400</v>
+      </c>
       <c r="J25" s="53"/>
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
@@ -9580,17 +9654,19 @@
         <v>0</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>10181</v>
       </c>
       <c r="P25" s="232">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10581</v>
       </c>
       <c r="Q25" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="251"/>
+        <v>-28952</v>
+      </c>
+      <c r="R25" s="251">
+        <v>28952</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
@@ -10034,21 +10110,21 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="272">
+      <c r="M39" s="261">
         <f>SUM(M5:M38)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="274">
+      <c r="N39" s="263">
         <f>SUM(N5:N38)</f>
-        <v>242637</v>
+        <v>331786</v>
       </c>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>364671.12999999995</v>
+        <v>488146.13</v>
       </c>
       <c r="Q39" s="234">
         <f>SUM(Q5:Q38)</f>
-        <v>-450495.87000000005</v>
+        <v>-600660.87000000011</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10064,8 +10140,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="273"/>
-      <c r="N40" s="275"/>
+      <c r="M40" s="262"/>
+      <c r="N40" s="264"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
@@ -10238,7 +10314,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>79608.59</v>
+        <v>99502.76</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -10246,7 +10322,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>815167</v>
+        <v>1088807</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -10254,7 +10330,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>11557.56</v>
+        <v>16044.56</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -10262,7 +10338,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>30867.98</v>
+        <v>40812.81</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -10280,32 +10356,32 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="276" t="s">
+      <c r="H52" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="277"/>
+      <c r="I52" s="266"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="278">
+      <c r="K52" s="267">
         <f>I50+L50</f>
-        <v>42425.54</v>
-      </c>
-      <c r="L52" s="279"/>
-      <c r="M52" s="280">
+        <v>56857.369999999995</v>
+      </c>
+      <c r="L52" s="268"/>
+      <c r="M52" s="269">
         <f>N39+M39</f>
-        <v>242637</v>
-      </c>
-      <c r="N52" s="281"/>
+        <v>331786</v>
+      </c>
+      <c r="N52" s="270"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="282" t="s">
+      <c r="D53" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="282"/>
+      <c r="E53" s="271"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
-        <v>693132.87</v>
+        <v>932446.87</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
@@ -10313,22 +10389,22 @@
       <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="282" t="s">
+      <c r="D54" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="282"/>
+      <c r="E54" s="271"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="283" t="s">
+      <c r="I54" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="284"/>
-      <c r="K54" s="285">
+      <c r="J54" s="273"/>
+      <c r="K54" s="274">
         <f>F56+F57+F58</f>
-        <v>143156.46999999997</v>
-      </c>
-      <c r="L54" s="286"/>
+        <v>382470.47</v>
+      </c>
+      <c r="L54" s="275"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="13"/>
     </row>
@@ -10354,18 +10430,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>143156.46999999997</v>
+        <v>382470.47</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="287">
+      <c r="K56" s="276">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="288"/>
+      <c r="L56" s="277"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10380,22 +10456,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="265" t="s">
+      <c r="D58" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="266"/>
+      <c r="E58" s="255"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="267" t="s">
+      <c r="I58" s="256" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="268"/>
-      <c r="K58" s="269">
+      <c r="J58" s="257"/>
+      <c r="K58" s="258">
         <f>K54+K56</f>
-        <v>-424232.88</v>
-      </c>
-      <c r="L58" s="269"/>
+        <v>-184918.88</v>
+      </c>
+      <c r="L58" s="258"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -10539,6 +10615,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10553,12 +10635,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10568,7 +10644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -12912,7 +12988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12924,7 +13000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12936,7 +13012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rouss\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 11  NOVIEMBRE 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 11  NOVIEMBRE 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF211F4B-8E43-44F5-A26B-F051CCD60190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="0" windowWidth="16335" windowHeight="11070" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="0" windowWidth="16335" windowHeight="11070" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -18,10 +17,10 @@
     <sheet name="     NOVIEMBRE   2 0 2 1     " sheetId="4" r:id="rId3"/>
     <sheet name="REMISIONES  NOVIEMBRE  2021  " sheetId="6" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="7" r:id="rId5"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId6"/>
+    <sheet name="COMPRAS MENOS DEVOLUCIONES " sheetId="3" r:id="rId6"/>
     <sheet name="C AN C E L A C I O N E S      " sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="J23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,12 +95,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="J23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="J25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +527,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
@@ -1765,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2272,6 +2271,48 @@
     <xf numFmtId="44" fontId="19" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="12" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2342,39 +2383,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3538,7 +3546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
@@ -3570,23 +3578,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="278"/>
-      <c r="C1" s="280" t="s">
+      <c r="B1" s="257"/>
+      <c r="C1" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="279"/>
+      <c r="B2" s="258"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -3596,17 +3604,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="283"/>
+      <c r="B3" s="261" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="262"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="284" t="s">
+      <c r="H3" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="284"/>
+      <c r="I3" s="263"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -3620,14 +3628,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="285" t="s">
+      <c r="E4" s="264" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="286"/>
-      <c r="H4" s="287" t="s">
+      <c r="F4" s="265"/>
+      <c r="H4" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="288"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -3637,10 +3645,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="259" t="s">
+      <c r="P4" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="260"/>
+      <c r="Q4" s="274"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -5081,11 +5089,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="261">
+      <c r="M39" s="275">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="263">
+      <c r="N39" s="277">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -5111,8 +5119,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="262"/>
-      <c r="N40" s="264"/>
+      <c r="M40" s="276"/>
+      <c r="N40" s="278"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5327,29 +5335,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="265" t="s">
+      <c r="H52" s="279" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="266"/>
+      <c r="I52" s="280"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="267">
+      <c r="K52" s="281">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="268"/>
-      <c r="M52" s="269">
+      <c r="L52" s="282"/>
+      <c r="M52" s="283">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="270"/>
+      <c r="N52" s="284"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="271" t="s">
+      <c r="D53" s="285" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="271"/>
+      <c r="E53" s="285"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -5360,22 +5368,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="271" t="s">
+      <c r="D54" s="285" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="271"/>
+      <c r="E54" s="285"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="272" t="s">
+      <c r="I54" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="273"/>
-      <c r="K54" s="274">
+      <c r="J54" s="287"/>
+      <c r="K54" s="288">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="275"/>
+      <c r="L54" s="289"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -5408,11 +5416,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="276">
+      <c r="K56" s="290">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="277"/>
+      <c r="L56" s="291"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -5429,22 +5437,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="254" t="s">
+      <c r="D58" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="255"/>
+      <c r="E58" s="269"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="256" t="s">
+      <c r="I58" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="257"/>
-      <c r="K58" s="258">
+      <c r="J58" s="271"/>
+      <c r="K58" s="272">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="258"/>
+      <c r="L58" s="272"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -5588,12 +5596,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -5608,6 +5610,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5617,7 +5625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
@@ -6932,7 +6940,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="289" t="s">
+      <c r="B41" s="292" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="204">
@@ -6964,7 +6972,7 @@
       <c r="A42" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="290"/>
+      <c r="B42" s="293"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -8545,14 +8553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8577,23 +8585,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="278"/>
-      <c r="C1" s="280" t="s">
+      <c r="B1" s="257"/>
+      <c r="C1" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="279"/>
+      <c r="B2" s="258"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8603,17 +8611,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="283"/>
+      <c r="B3" s="261" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="262"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="284" t="s">
+      <c r="H3" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="284"/>
+      <c r="I3" s="263"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -8629,14 +8637,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="285" t="s">
+      <c r="E4" s="264" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="286"/>
-      <c r="H4" s="287" t="s">
+      <c r="F4" s="265"/>
+      <c r="H4" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="288"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -8646,10 +8654,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="259" t="s">
+      <c r="P4" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="260"/>
+      <c r="Q4" s="274"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9270,10 +9278,10 @@
       <c r="J17" s="37">
         <v>44520</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="247">
         <f>12537.27+1285.71</f>
         <v>13822.98</v>
       </c>
@@ -9600,10 +9608,10 @@
       <c r="J24" s="51">
         <v>44527</v>
       </c>
-      <c r="K24" s="186" t="s">
+      <c r="K24" s="255" t="s">
         <v>122</v>
       </c>
-      <c r="L24" s="52">
+      <c r="L24" s="256">
         <v>9944.83</v>
       </c>
       <c r="M24" s="32">
@@ -10110,11 +10118,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="261">
+      <c r="M39" s="275">
         <f>SUM(M5:M38)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="263">
+      <c r="N39" s="277">
         <f>SUM(N5:N38)</f>
         <v>331786</v>
       </c>
@@ -10140,8 +10148,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="262"/>
-      <c r="N40" s="264"/>
+      <c r="M40" s="276"/>
+      <c r="N40" s="278"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
@@ -10356,29 +10364,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="265" t="s">
+      <c r="H52" s="279" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="266"/>
+      <c r="I52" s="280"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="267">
+      <c r="K52" s="281">
         <f>I50+L50</f>
         <v>56857.369999999995</v>
       </c>
-      <c r="L52" s="268"/>
-      <c r="M52" s="269">
+      <c r="L52" s="282"/>
+      <c r="M52" s="283">
         <f>N39+M39</f>
         <v>331786</v>
       </c>
-      <c r="N52" s="270"/>
+      <c r="N52" s="284"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="271" t="s">
+      <c r="D53" s="285" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="271"/>
+      <c r="E53" s="285"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>932446.87</v>
@@ -10389,22 +10397,22 @@
       <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="271" t="s">
+      <c r="D54" s="285" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="271"/>
+      <c r="E54" s="285"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="272" t="s">
+      <c r="I54" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="273"/>
-      <c r="K54" s="274">
+      <c r="J54" s="287"/>
+      <c r="K54" s="288">
         <f>F56+F57+F58</f>
         <v>382470.47</v>
       </c>
-      <c r="L54" s="275"/>
+      <c r="L54" s="289"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="13"/>
     </row>
@@ -10437,11 +10445,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="276">
+      <c r="K56" s="290">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="277"/>
+      <c r="L56" s="291"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10456,22 +10464,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="254" t="s">
+      <c r="D58" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="255"/>
+      <c r="E58" s="269"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="256" t="s">
+      <c r="I58" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="257"/>
-      <c r="K58" s="258">
+      <c r="J58" s="271"/>
+      <c r="K58" s="272">
         <f>K54+K56</f>
         <v>-184918.88</v>
       </c>
-      <c r="L58" s="258"/>
+      <c r="L58" s="272"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -10615,12 +10623,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10635,6 +10637,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10644,7 +10652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -11497,7 +11505,7 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="140"/>
-      <c r="B41" s="291"/>
+      <c r="B41" s="294"/>
       <c r="C41" s="237"/>
       <c r="D41" s="140"/>
       <c r="E41" s="69"/>
@@ -11517,7 +11525,7 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="140"/>
-      <c r="B42" s="292"/>
+      <c r="B42" s="295"/>
       <c r="C42" s="69"/>
       <c r="D42" s="140"/>
       <c r="E42" s="69"/>
@@ -12988,7 +12996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13000,26 +13008,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.5703125" style="3" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
   <dimension ref="A23:G51"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13041,12 +13054,12 @@
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="155"/>
-      <c r="B43" s="293" t="s">
+      <c r="B43" s="296" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="294"/>
-      <c r="D43" s="294"/>
-      <c r="E43" s="295"/>
+      <c r="C43" s="297"/>
+      <c r="D43" s="297"/>
+      <c r="E43" s="298"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="0" windowWidth="16335" windowHeight="11070" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="4035" yWindow="0" windowWidth="16335" windowHeight="11070" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -522,6 +522,18 @@
   </si>
   <si>
     <t>NOMINA # 48</t>
+  </si>
+  <si>
+    <t>POLLO--QUESO-SALCHICHA</t>
+  </si>
+  <si>
+    <t>POLLO-LONGANIZA</t>
+  </si>
+  <si>
+    <t>JAMON-POLLO</t>
+  </si>
+  <si>
+    <t>SANCHICHAS-POLLO-LONGANIZA-LENGUA</t>
   </si>
 </sst>
 </file>
@@ -2280,6 +2292,78 @@
     <xf numFmtId="44" fontId="2" fillId="12" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2311,78 +2395,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3578,23 +3590,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="257"/>
-      <c r="C1" s="259" t="s">
+      <c r="B1" s="281"/>
+      <c r="C1" s="283" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="284"/>
+      <c r="I1" s="284"/>
+      <c r="J1" s="284"/>
+      <c r="K1" s="284"/>
+      <c r="L1" s="284"/>
+      <c r="M1" s="284"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="258"/>
+      <c r="B2" s="282"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -3604,17 +3616,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="261" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="262"/>
+      <c r="B3" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="286"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="263" t="s">
+      <c r="H3" s="287" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="263"/>
+      <c r="I3" s="287"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -3628,14 +3640,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="264" t="s">
+      <c r="E4" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="265"/>
-      <c r="H4" s="266" t="s">
+      <c r="F4" s="289"/>
+      <c r="H4" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="267"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -3645,10 +3657,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="273" t="s">
+      <c r="P4" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="274"/>
+      <c r="Q4" s="263"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -5089,11 +5101,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="275">
+      <c r="M39" s="264">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="277">
+      <c r="N39" s="266">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -5119,8 +5131,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="276"/>
-      <c r="N40" s="278"/>
+      <c r="M40" s="265"/>
+      <c r="N40" s="267"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5335,29 +5347,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="279" t="s">
+      <c r="H52" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="280"/>
+      <c r="I52" s="269"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="281">
+      <c r="K52" s="270">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="282"/>
-      <c r="M52" s="283">
+      <c r="L52" s="271"/>
+      <c r="M52" s="272">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="284"/>
+      <c r="N52" s="273"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="285" t="s">
+      <c r="D53" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="285"/>
+      <c r="E53" s="274"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -5368,22 +5380,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="285" t="s">
+      <c r="D54" s="274" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="285"/>
+      <c r="E54" s="274"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="286" t="s">
+      <c r="I54" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="287"/>
-      <c r="K54" s="288">
+      <c r="J54" s="276"/>
+      <c r="K54" s="277">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="289"/>
+      <c r="L54" s="278"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -5416,11 +5428,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="290">
+      <c r="K56" s="279">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="291"/>
+      <c r="L56" s="280"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -5437,22 +5449,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="268" t="s">
+      <c r="D58" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="269"/>
+      <c r="E58" s="258"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="270" t="s">
+      <c r="I58" s="259" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="271"/>
-      <c r="K58" s="272">
+      <c r="J58" s="260"/>
+      <c r="K58" s="261">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="272"/>
+      <c r="L58" s="261"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -5596,6 +5608,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -5610,12 +5628,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8559,8 +8571,8 @@
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8585,23 +8597,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="257"/>
-      <c r="C1" s="259" t="s">
+      <c r="B1" s="281"/>
+      <c r="C1" s="283" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="284"/>
+      <c r="I1" s="284"/>
+      <c r="J1" s="284"/>
+      <c r="K1" s="284"/>
+      <c r="L1" s="284"/>
+      <c r="M1" s="284"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="258"/>
+      <c r="B2" s="282"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8611,17 +8623,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="261" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="262"/>
+      <c r="B3" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="286"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="263" t="s">
+      <c r="H3" s="287" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="263"/>
+      <c r="I3" s="287"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -8637,14 +8649,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="264" t="s">
+      <c r="E4" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="265"/>
-      <c r="H4" s="266" t="s">
+      <c r="F4" s="289"/>
+      <c r="H4" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="267"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -8654,10 +8666,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="273" t="s">
+      <c r="P4" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="274"/>
+      <c r="Q4" s="263"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9681,52 +9693,70 @@
       <c r="B26" s="24">
         <v>44529</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="25">
+        <v>5142.5</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>123</v>
+      </c>
       <c r="E26" s="27">
         <v>44529</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>51711</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="36">
-        <v>44529</v>
-      </c>
-      <c r="I26" s="30"/>
+        <v>1840</v>
+      </c>
+      <c r="I26" s="30">
+        <v>1840</v>
+      </c>
       <c r="J26" s="37"/>
       <c r="K26" s="186"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="32">
-        <v>0</v>
+      <c r="M26" s="195">
+        <v>6336</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>16621</v>
       </c>
       <c r="P26" s="231">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29939.5</v>
       </c>
       <c r="Q26" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="251"/>
+        <v>-21771.5</v>
+      </c>
+      <c r="R26" s="251">
+        <v>21771.5</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
       <c r="B27" s="24">
         <v>44530</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="25">
+        <v>8184</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>124</v>
+      </c>
       <c r="E27" s="27">
         <v>44530</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>31060</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="36">
         <v>44530</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30">
+        <v>660</v>
+      </c>
       <c r="J27" s="55"/>
       <c r="K27" s="187"/>
       <c r="L27" s="54"/>
@@ -9734,34 +9764,44 @@
         <v>0</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
+        <v>7579</v>
       </c>
       <c r="P27" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16423</v>
       </c>
       <c r="Q27" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="251"/>
+        <v>-14637</v>
+      </c>
+      <c r="R27" s="251">
+        <v>14637</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="24">
         <v>44531</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="25">
+        <v>7763</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="E28" s="27">
         <v>44531</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>53075</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="36">
         <v>44531</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="30">
+        <v>2607</v>
+      </c>
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
@@ -9769,34 +9809,45 @@
         <v>0</v>
       </c>
       <c r="N28" s="33">
-        <v>0</v>
+        <v>16235</v>
       </c>
       <c r="P28" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26605</v>
       </c>
       <c r="Q28" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="251"/>
+        <v>-26470</v>
+      </c>
+      <c r="R28" s="251">
+        <v>26470</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="24">
         <v>44532</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="25">
+        <v>16193</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>126</v>
+      </c>
       <c r="E29" s="27">
         <v>44532</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <f>61771+112553</f>
+        <v>174324</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="36">
         <v>44532</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="30">
+        <v>975</v>
+      </c>
       <c r="J29" s="59"/>
       <c r="K29" s="188"/>
       <c r="L29" s="54"/>
@@ -9806,13 +9857,16 @@
       <c r="N29" s="33">
         <v>0</v>
       </c>
+      <c r="O29">
+        <v>9</v>
+      </c>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17168</v>
       </c>
       <c r="Q29" s="244">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-157156</v>
       </c>
       <c r="R29" s="251"/>
     </row>
@@ -10118,21 +10172,21 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="275">
+      <c r="M39" s="264">
         <f>SUM(M5:M38)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="277">
+        <v>6336</v>
+      </c>
+      <c r="N39" s="266">
         <f>SUM(N5:N38)</f>
-        <v>331786</v>
+        <v>372221</v>
       </c>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>488146.13</v>
+        <v>578281.63</v>
       </c>
       <c r="Q39" s="234">
         <f>SUM(Q5:Q38)</f>
-        <v>-600660.87000000011</v>
+        <v>-820695.37000000011</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10148,8 +10202,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="276"/>
-      <c r="N40" s="278"/>
+      <c r="M40" s="265"/>
+      <c r="N40" s="267"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
@@ -10322,7 +10376,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>99502.76</v>
+        <v>136785.26</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -10330,7 +10384,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1088807</v>
+        <v>1398977</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -10338,7 +10392,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>16044.56</v>
+        <v>22126.559999999998</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -10364,32 +10418,32 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="279" t="s">
+      <c r="H52" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="280"/>
+      <c r="I52" s="269"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="281">
+      <c r="K52" s="270">
         <f>I50+L50</f>
-        <v>56857.369999999995</v>
-      </c>
-      <c r="L52" s="282"/>
-      <c r="M52" s="283">
+        <v>62939.369999999995</v>
+      </c>
+      <c r="L52" s="271"/>
+      <c r="M52" s="272">
         <f>N39+M39</f>
-        <v>331786</v>
-      </c>
-      <c r="N52" s="284"/>
+        <v>378557</v>
+      </c>
+      <c r="N52" s="273"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="285" t="s">
+      <c r="D53" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="285"/>
+      <c r="E53" s="274"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
-        <v>932446.87</v>
+        <v>1199252.3699999999</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
@@ -10397,22 +10451,22 @@
       <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="285" t="s">
+      <c r="D54" s="274" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="285"/>
+      <c r="E54" s="274"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="286" t="s">
+      <c r="I54" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="287"/>
-      <c r="K54" s="288">
+      <c r="J54" s="276"/>
+      <c r="K54" s="277">
         <f>F56+F57+F58</f>
-        <v>382470.47</v>
-      </c>
-      <c r="L54" s="289"/>
+        <v>649275.96999999986</v>
+      </c>
+      <c r="L54" s="278"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="13"/>
     </row>
@@ -10438,18 +10492,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>382470.47</v>
+        <v>649275.96999999986</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="290">
+      <c r="K56" s="279">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="291"/>
+      <c r="L56" s="280"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10464,22 +10518,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="268" t="s">
+      <c r="D58" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="269"/>
+      <c r="E58" s="258"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="270" t="s">
+      <c r="I58" s="259" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="271"/>
-      <c r="K58" s="272">
+      <c r="J58" s="260"/>
+      <c r="K58" s="261">
         <f>K54+K56</f>
-        <v>-184918.88</v>
-      </c>
-      <c r="L58" s="272"/>
+        <v>81886.619999999879</v>
+      </c>
+      <c r="L58" s="261"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -10623,6 +10677,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10637,12 +10697,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13011,7 +13065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="0" windowWidth="16335" windowHeight="11070" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="4035" yWindow="0" windowWidth="16335" windowHeight="11070" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="203">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -759,6 +759,9 @@
   </si>
   <si>
     <t>ADT PRIVATE</t>
+  </si>
+  <si>
+    <t>cancelada</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2748,187 +2751,10 @@
     <xf numFmtId="44" fontId="2" fillId="12" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="14" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="14" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="13" fillId="15" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="6" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2947,10 +2773,6 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2992,6 +2814,199 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="6" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="6" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="6" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="6" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="15" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="38" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4164,23 +4179,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="254"/>
-      <c r="C1" s="256" t="s">
+      <c r="B1" s="287"/>
+      <c r="C1" s="289" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="255"/>
+      <c r="B2" s="288"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4190,17 +4205,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="259"/>
+      <c r="B3" s="291" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="292"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="260" t="s">
+      <c r="H3" s="293" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="260"/>
+      <c r="I3" s="293"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -4214,14 +4229,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="261" t="s">
+      <c r="E4" s="294" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="262"/>
-      <c r="H4" s="263" t="s">
+      <c r="F4" s="295"/>
+      <c r="H4" s="296" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="264"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -4231,10 +4246,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="270" t="s">
+      <c r="P4" s="303" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="271"/>
+      <c r="Q4" s="304"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -5675,11 +5690,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="272">
+      <c r="M39" s="305">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="274">
+      <c r="N39" s="307">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -5705,8 +5720,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="273"/>
-      <c r="N40" s="275"/>
+      <c r="M40" s="306"/>
+      <c r="N40" s="308"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5921,29 +5936,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="276" t="s">
+      <c r="H52" s="309" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="277"/>
+      <c r="I52" s="310"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="278">
+      <c r="K52" s="311">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="279"/>
-      <c r="M52" s="280">
+      <c r="L52" s="312"/>
+      <c r="M52" s="313">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="281"/>
+      <c r="N52" s="314"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="282" t="s">
+      <c r="D53" s="315" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="282"/>
+      <c r="E53" s="315"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -5954,22 +5969,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="282" t="s">
+      <c r="D54" s="315" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="282"/>
+      <c r="E54" s="315"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="283" t="s">
+      <c r="I54" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="284"/>
-      <c r="K54" s="285">
+      <c r="J54" s="317"/>
+      <c r="K54" s="318">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="286"/>
+      <c r="L54" s="319"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6002,11 +6017,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="287">
+      <c r="K56" s="320">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="288"/>
+      <c r="L56" s="321"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -6023,22 +6038,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="265" t="s">
+      <c r="D58" s="298" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="266"/>
+      <c r="E58" s="299"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="267" t="s">
+      <c r="I58" s="300" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="268"/>
-      <c r="K58" s="269">
+      <c r="J58" s="301"/>
+      <c r="K58" s="302">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="269"/>
+      <c r="L58" s="302"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -6217,8 +6232,8 @@
   </sheetPr>
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="G37" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6233,7 +6248,7 @@
     <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="340" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="279" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -6254,7 +6269,7 @@
       </c>
       <c r="J1" s="207"/>
       <c r="K1" s="202"/>
-      <c r="L1" s="334"/>
+      <c r="L1" s="273"/>
       <c r="M1" s="202"/>
       <c r="N1" s="169" t="s">
         <v>31</v>
@@ -6288,7 +6303,7 @@
       <c r="K2" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="335" t="s">
+      <c r="L2" s="274" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="132" t="s">
@@ -6323,7 +6338,7 @@
       <c r="K3" s="210">
         <v>19269</v>
       </c>
-      <c r="L3" s="341">
+      <c r="L3" s="280">
         <v>44498</v>
       </c>
       <c r="M3" s="69">
@@ -6360,7 +6375,7 @@
       <c r="K4" s="210">
         <v>25542</v>
       </c>
-      <c r="L4" s="342">
+      <c r="L4" s="281">
         <v>44498</v>
       </c>
       <c r="M4" s="69">
@@ -6396,7 +6411,7 @@
       <c r="K5" s="210">
         <v>10208</v>
       </c>
-      <c r="L5" s="343">
+      <c r="L5" s="282">
         <v>44498</v>
       </c>
       <c r="M5" s="69">
@@ -6744,7 +6759,7 @@
       <c r="E16" s="69">
         <v>145000</v>
       </c>
-      <c r="F16" s="137">
+      <c r="F16" s="349">
         <f t="shared" si="0"/>
         <v>146930.89999999991</v>
       </c>
@@ -6757,7 +6772,7 @@
       <c r="K16" s="210">
         <v>6297</v>
       </c>
-      <c r="L16" s="336"/>
+      <c r="L16" s="275"/>
       <c r="M16" s="69"/>
       <c r="N16" s="137">
         <f t="shared" si="1"/>
@@ -6789,7 +6804,7 @@
       <c r="K17" s="210">
         <v>12350</v>
       </c>
-      <c r="L17" s="336"/>
+      <c r="L17" s="275"/>
       <c r="M17" s="69"/>
       <c r="N17" s="137">
         <f t="shared" si="1"/>
@@ -6821,7 +6836,7 @@
       <c r="K18" s="210">
         <v>5444</v>
       </c>
-      <c r="L18" s="336"/>
+      <c r="L18" s="275"/>
       <c r="M18" s="69"/>
       <c r="N18" s="137">
         <f t="shared" si="1"/>
@@ -6853,7 +6868,7 @@
       <c r="K19" s="210">
         <v>1717</v>
       </c>
-      <c r="L19" s="336"/>
+      <c r="L19" s="275"/>
       <c r="M19" s="69"/>
       <c r="N19" s="137">
         <f t="shared" si="1"/>
@@ -6885,7 +6900,7 @@
       <c r="K20" s="210">
         <v>16136</v>
       </c>
-      <c r="L20" s="336"/>
+      <c r="L20" s="275"/>
       <c r="M20" s="69"/>
       <c r="N20" s="137">
         <f t="shared" si="1"/>
@@ -6917,7 +6932,7 @@
       <c r="K21" s="210">
         <v>9256</v>
       </c>
-      <c r="L21" s="336"/>
+      <c r="L21" s="275"/>
       <c r="M21" s="69"/>
       <c r="N21" s="137">
         <f t="shared" si="1"/>
@@ -6950,7 +6965,7 @@
       <c r="K22" s="210">
         <v>5500</v>
       </c>
-      <c r="L22" s="336"/>
+      <c r="L22" s="275"/>
       <c r="M22" s="69"/>
       <c r="N22" s="137">
         <f t="shared" si="1"/>
@@ -6982,7 +6997,7 @@
       <c r="K23" s="210">
         <v>1331</v>
       </c>
-      <c r="L23" s="336"/>
+      <c r="L23" s="275"/>
       <c r="M23" s="69"/>
       <c r="N23" s="137">
         <f t="shared" si="1"/>
@@ -7014,7 +7029,7 @@
       <c r="K24" s="210">
         <v>420</v>
       </c>
-      <c r="L24" s="336"/>
+      <c r="L24" s="275"/>
       <c r="M24" s="69"/>
       <c r="N24" s="137">
         <f t="shared" si="1"/>
@@ -7046,7 +7061,7 @@
       <c r="K25" s="210">
         <v>770</v>
       </c>
-      <c r="L25" s="336"/>
+      <c r="L25" s="275"/>
       <c r="M25" s="69"/>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
@@ -7078,7 +7093,7 @@
       <c r="K26" s="210">
         <v>2257</v>
       </c>
-      <c r="L26" s="336"/>
+      <c r="L26" s="275"/>
       <c r="M26" s="69"/>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
@@ -7110,7 +7125,7 @@
       <c r="K27" s="210">
         <v>60</v>
       </c>
-      <c r="L27" s="336"/>
+      <c r="L27" s="275"/>
       <c r="M27" s="69"/>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
@@ -7142,7 +7157,7 @@
       <c r="K28" s="210">
         <v>39533</v>
       </c>
-      <c r="L28" s="336"/>
+      <c r="L28" s="275"/>
       <c r="M28" s="69"/>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
@@ -7174,7 +7189,7 @@
       <c r="K29" s="210">
         <v>3727</v>
       </c>
-      <c r="L29" s="336"/>
+      <c r="L29" s="275"/>
       <c r="M29" s="69"/>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
@@ -7207,7 +7222,7 @@
       <c r="K30" s="212">
         <v>3861</v>
       </c>
-      <c r="L30" s="336"/>
+      <c r="L30" s="275"/>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
@@ -7239,7 +7254,7 @@
       <c r="K31" s="210">
         <v>24825</v>
       </c>
-      <c r="L31" s="336"/>
+      <c r="L31" s="275"/>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
         <f t="shared" si="1"/>
@@ -7271,7 +7286,7 @@
       <c r="K32" s="210">
         <v>614</v>
       </c>
-      <c r="L32" s="336"/>
+      <c r="L32" s="275"/>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
@@ -7303,7 +7318,7 @@
       <c r="K33" s="210">
         <v>2901</v>
       </c>
-      <c r="L33" s="336"/>
+      <c r="L33" s="275"/>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
@@ -7335,7 +7350,7 @@
       <c r="K34" s="210">
         <v>2623</v>
       </c>
-      <c r="L34" s="336"/>
+      <c r="L34" s="275"/>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
@@ -7367,7 +7382,7 @@
       <c r="K35" s="210">
         <v>740</v>
       </c>
-      <c r="L35" s="336"/>
+      <c r="L35" s="275"/>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
@@ -7399,7 +7414,7 @@
       <c r="K36" s="212">
         <v>1189</v>
       </c>
-      <c r="L36" s="336"/>
+      <c r="L36" s="275"/>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
@@ -7431,7 +7446,7 @@
       <c r="K37" s="210">
         <v>6711</v>
       </c>
-      <c r="L37" s="336"/>
+      <c r="L37" s="275"/>
       <c r="M37" s="69"/>
       <c r="N37" s="137">
         <f t="shared" si="1"/>
@@ -7463,7 +7478,7 @@
       <c r="K38" s="210">
         <v>71111</v>
       </c>
-      <c r="L38" s="336"/>
+      <c r="L38" s="275"/>
       <c r="M38" s="69"/>
       <c r="N38" s="137">
         <f t="shared" si="1"/>
@@ -7495,7 +7510,7 @@
       <c r="K39" s="210">
         <v>13525</v>
       </c>
-      <c r="L39" s="336"/>
+      <c r="L39" s="275"/>
       <c r="M39" s="69"/>
       <c r="N39" s="137">
         <f t="shared" si="1"/>
@@ -7527,7 +7542,7 @@
       <c r="K40" s="210">
         <v>7227</v>
       </c>
-      <c r="L40" s="336"/>
+      <c r="L40" s="275"/>
       <c r="M40" s="69"/>
       <c r="N40" s="137">
         <f t="shared" si="1"/>
@@ -7538,7 +7553,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="289" t="s">
+      <c r="B41" s="322" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="204">
@@ -7559,7 +7574,7 @@
       <c r="K41" s="210">
         <v>2618</v>
       </c>
-      <c r="L41" s="336"/>
+      <c r="L41" s="275"/>
       <c r="M41" s="69"/>
       <c r="N41" s="137">
         <f t="shared" si="1"/>
@@ -7570,7 +7585,7 @@
       <c r="A42" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="290"/>
+      <c r="B42" s="323"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -7589,7 +7604,7 @@
       <c r="K42" s="210">
         <v>8371</v>
       </c>
-      <c r="L42" s="336"/>
+      <c r="L42" s="275"/>
       <c r="M42" s="69"/>
       <c r="N42" s="137">
         <f t="shared" si="1"/>
@@ -7615,7 +7630,7 @@
       <c r="K43" s="210">
         <v>753</v>
       </c>
-      <c r="L43" s="336"/>
+      <c r="L43" s="275"/>
       <c r="M43" s="69"/>
       <c r="N43" s="137">
         <f t="shared" si="1"/>
@@ -7641,7 +7656,7 @@
       <c r="K44" s="214">
         <v>0</v>
       </c>
-      <c r="L44" s="336"/>
+      <c r="L44" s="275"/>
       <c r="M44" s="69"/>
       <c r="N44" s="137">
         <f t="shared" si="1"/>
@@ -7667,7 +7682,7 @@
       <c r="K45" s="210">
         <v>5240</v>
       </c>
-      <c r="L45" s="336"/>
+      <c r="L45" s="275"/>
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
@@ -7693,7 +7708,7 @@
       <c r="K46" s="210">
         <v>15576</v>
       </c>
-      <c r="L46" s="336"/>
+      <c r="L46" s="275"/>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
@@ -7719,7 +7734,7 @@
       <c r="K47" s="210">
         <v>739</v>
       </c>
-      <c r="L47" s="336"/>
+      <c r="L47" s="275"/>
       <c r="M47" s="69"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
@@ -7745,7 +7760,7 @@
       <c r="K48" s="210">
         <v>623</v>
       </c>
-      <c r="L48" s="336"/>
+      <c r="L48" s="275"/>
       <c r="M48" s="69"/>
       <c r="N48" s="137">
         <f t="shared" si="1"/>
@@ -7771,7 +7786,7 @@
       <c r="K49" s="210">
         <v>2636</v>
       </c>
-      <c r="L49" s="336"/>
+      <c r="L49" s="275"/>
       <c r="M49" s="69"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -7797,7 +7812,7 @@
       <c r="K50" s="210">
         <v>120</v>
       </c>
-      <c r="L50" s="336"/>
+      <c r="L50" s="275"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
@@ -7823,7 +7838,7 @@
       <c r="K51" s="210">
         <v>14669</v>
       </c>
-      <c r="L51" s="336"/>
+      <c r="L51" s="275"/>
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
@@ -7849,7 +7864,7 @@
       <c r="K52" s="210">
         <v>2897</v>
       </c>
-      <c r="L52" s="336"/>
+      <c r="L52" s="275"/>
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
@@ -7875,7 +7890,7 @@
       <c r="K53" s="210">
         <v>360</v>
       </c>
-      <c r="L53" s="336"/>
+      <c r="L53" s="275"/>
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
@@ -7901,7 +7916,7 @@
       <c r="K54" s="210">
         <v>4820</v>
       </c>
-      <c r="L54" s="336"/>
+      <c r="L54" s="275"/>
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
@@ -7927,7 +7942,7 @@
       <c r="K55" s="210">
         <v>4925</v>
       </c>
-      <c r="L55" s="336"/>
+      <c r="L55" s="275"/>
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
@@ -7953,7 +7968,7 @@
       <c r="K56" s="210">
         <v>5</v>
       </c>
-      <c r="L56" s="336"/>
+      <c r="L56" s="275"/>
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
@@ -7979,7 +7994,7 @@
       <c r="K57" s="210">
         <v>6665</v>
       </c>
-      <c r="L57" s="336"/>
+      <c r="L57" s="275"/>
       <c r="M57" s="69"/>
       <c r="N57" s="137">
         <f t="shared" si="1"/>
@@ -8005,7 +8020,7 @@
       <c r="K58" s="210">
         <v>646</v>
       </c>
-      <c r="L58" s="336"/>
+      <c r="L58" s="275"/>
       <c r="M58" s="69"/>
       <c r="N58" s="137">
         <f t="shared" si="1"/>
@@ -8031,7 +8046,7 @@
       <c r="K59" s="214">
         <v>-34125.46</v>
       </c>
-      <c r="L59" s="336"/>
+      <c r="L59" s="275"/>
       <c r="M59" s="69"/>
       <c r="N59" s="137">
         <f t="shared" si="1"/>
@@ -8051,7 +8066,7 @@
       <c r="I60" s="134"/>
       <c r="J60" s="139"/>
       <c r="K60" s="69"/>
-      <c r="L60" s="336"/>
+      <c r="L60" s="275"/>
       <c r="M60" s="69"/>
       <c r="N60" s="137">
         <f t="shared" si="1"/>
@@ -8071,7 +8086,7 @@
       <c r="I61" s="134"/>
       <c r="J61" s="139"/>
       <c r="K61" s="69"/>
-      <c r="L61" s="336"/>
+      <c r="L61" s="275"/>
       <c r="M61" s="69"/>
       <c r="N61" s="137">
         <f t="shared" si="1"/>
@@ -8091,7 +8106,7 @@
       <c r="I62" s="134"/>
       <c r="J62" s="139"/>
       <c r="K62" s="69"/>
-      <c r="L62" s="336"/>
+      <c r="L62" s="275"/>
       <c r="M62" s="69"/>
       <c r="N62" s="137">
         <f t="shared" si="1"/>
@@ -8111,7 +8126,7 @@
       <c r="I63" s="141"/>
       <c r="J63" s="142"/>
       <c r="K63" s="143"/>
-      <c r="L63" s="336"/>
+      <c r="L63" s="275"/>
       <c r="M63" s="69"/>
       <c r="N63" s="137">
         <f t="shared" si="1"/>
@@ -8131,7 +8146,7 @@
       <c r="I64" s="141"/>
       <c r="J64" s="142"/>
       <c r="K64" s="143"/>
-      <c r="L64" s="336"/>
+      <c r="L64" s="275"/>
       <c r="M64" s="69"/>
       <c r="N64" s="137">
         <f t="shared" si="1"/>
@@ -8151,7 +8166,7 @@
       <c r="I65" s="141"/>
       <c r="J65" s="142"/>
       <c r="K65" s="143"/>
-      <c r="L65" s="336"/>
+      <c r="L65" s="275"/>
       <c r="M65" s="69"/>
       <c r="N65" s="137">
         <f t="shared" si="1"/>
@@ -8171,7 +8186,7 @@
       <c r="I66" s="141"/>
       <c r="J66" s="142"/>
       <c r="K66" s="143"/>
-      <c r="L66" s="336"/>
+      <c r="L66" s="275"/>
       <c r="M66" s="69"/>
       <c r="N66" s="137">
         <f t="shared" si="1"/>
@@ -8191,7 +8206,7 @@
       <c r="I67" s="141"/>
       <c r="J67" s="142"/>
       <c r="K67" s="143"/>
-      <c r="L67" s="336"/>
+      <c r="L67" s="275"/>
       <c r="M67" s="69"/>
       <c r="N67" s="137">
         <f t="shared" si="1"/>
@@ -8211,7 +8226,7 @@
       <c r="I68" s="141"/>
       <c r="J68" s="142"/>
       <c r="K68" s="143"/>
-      <c r="L68" s="336"/>
+      <c r="L68" s="275"/>
       <c r="M68" s="69"/>
       <c r="N68" s="137">
         <f t="shared" si="1"/>
@@ -8231,7 +8246,7 @@
       <c r="I69" s="141"/>
       <c r="J69" s="142"/>
       <c r="K69" s="143"/>
-      <c r="L69" s="336"/>
+      <c r="L69" s="275"/>
       <c r="M69" s="69"/>
       <c r="N69" s="137">
         <f t="shared" ref="N69:N97" si="3">N68+K69-M69</f>
@@ -8251,7 +8266,7 @@
       <c r="I70" s="141"/>
       <c r="J70" s="142"/>
       <c r="K70" s="143"/>
-      <c r="L70" s="336"/>
+      <c r="L70" s="275"/>
       <c r="M70" s="69"/>
       <c r="N70" s="137">
         <f t="shared" si="3"/>
@@ -8271,7 +8286,7 @@
       <c r="I71" s="141"/>
       <c r="J71" s="142"/>
       <c r="K71" s="143"/>
-      <c r="L71" s="336"/>
+      <c r="L71" s="275"/>
       <c r="M71" s="69"/>
       <c r="N71" s="137">
         <f t="shared" si="3"/>
@@ -8291,7 +8306,7 @@
       <c r="I72" s="141"/>
       <c r="J72" s="142"/>
       <c r="K72" s="143"/>
-      <c r="L72" s="336"/>
+      <c r="L72" s="275"/>
       <c r="M72" s="69"/>
       <c r="N72" s="137">
         <f t="shared" si="3"/>
@@ -8311,7 +8326,7 @@
       <c r="I73" s="141"/>
       <c r="J73" s="142"/>
       <c r="K73" s="143"/>
-      <c r="L73" s="336"/>
+      <c r="L73" s="275"/>
       <c r="M73" s="69"/>
       <c r="N73" s="137">
         <f t="shared" si="3"/>
@@ -8331,7 +8346,7 @@
       <c r="I74" s="141"/>
       <c r="J74" s="142"/>
       <c r="K74" s="143"/>
-      <c r="L74" s="336"/>
+      <c r="L74" s="275"/>
       <c r="M74" s="69"/>
       <c r="N74" s="137">
         <f t="shared" si="3"/>
@@ -8351,7 +8366,7 @@
       <c r="I75" s="141"/>
       <c r="J75" s="142"/>
       <c r="K75" s="143"/>
-      <c r="L75" s="336"/>
+      <c r="L75" s="275"/>
       <c r="M75" s="69"/>
       <c r="N75" s="137">
         <f t="shared" si="3"/>
@@ -8371,7 +8386,7 @@
       <c r="I76" s="141"/>
       <c r="J76" s="142"/>
       <c r="K76" s="143"/>
-      <c r="L76" s="336"/>
+      <c r="L76" s="275"/>
       <c r="M76" s="69"/>
       <c r="N76" s="137">
         <f t="shared" si="3"/>
@@ -8391,7 +8406,7 @@
       <c r="I77" s="141"/>
       <c r="J77" s="142"/>
       <c r="K77" s="143"/>
-      <c r="L77" s="336"/>
+      <c r="L77" s="275"/>
       <c r="M77" s="69"/>
       <c r="N77" s="137">
         <f t="shared" si="3"/>
@@ -8411,7 +8426,7 @@
       <c r="I78" s="141"/>
       <c r="J78" s="142"/>
       <c r="K78" s="143"/>
-      <c r="L78" s="336"/>
+      <c r="L78" s="275"/>
       <c r="M78" s="69"/>
       <c r="N78" s="137">
         <f t="shared" si="3"/>
@@ -8431,7 +8446,7 @@
       <c r="I79" s="141"/>
       <c r="J79" s="142"/>
       <c r="K79" s="143"/>
-      <c r="L79" s="336"/>
+      <c r="L79" s="275"/>
       <c r="M79" s="69"/>
       <c r="N79" s="137">
         <f t="shared" si="3"/>
@@ -8451,7 +8466,7 @@
       <c r="I80" s="141"/>
       <c r="J80" s="142"/>
       <c r="K80" s="143"/>
-      <c r="L80" s="336"/>
+      <c r="L80" s="275"/>
       <c r="M80" s="69"/>
       <c r="N80" s="137">
         <f t="shared" si="3"/>
@@ -8591,7 +8606,7 @@
       <c r="I87" s="141"/>
       <c r="J87" s="142"/>
       <c r="K87" s="143"/>
-      <c r="L87" s="337"/>
+      <c r="L87" s="276"/>
       <c r="M87" s="69"/>
       <c r="N87" s="137">
         <f t="shared" si="3"/>
@@ -8611,7 +8626,7 @@
       <c r="I88" s="141"/>
       <c r="J88" s="142"/>
       <c r="K88" s="143"/>
-      <c r="L88" s="337"/>
+      <c r="L88" s="276"/>
       <c r="M88" s="69"/>
       <c r="N88" s="137">
         <f t="shared" si="3"/>
@@ -8631,7 +8646,7 @@
       <c r="I89" s="141"/>
       <c r="J89" s="142"/>
       <c r="K89" s="143"/>
-      <c r="L89" s="337"/>
+      <c r="L89" s="276"/>
       <c r="M89" s="69"/>
       <c r="N89" s="137">
         <f t="shared" si="3"/>
@@ -8651,7 +8666,7 @@
       <c r="I90" s="141"/>
       <c r="J90" s="142"/>
       <c r="K90" s="143"/>
-      <c r="L90" s="337"/>
+      <c r="L90" s="276"/>
       <c r="M90" s="69"/>
       <c r="N90" s="137">
         <f t="shared" si="3"/>
@@ -8671,7 +8686,7 @@
       <c r="I91" s="141"/>
       <c r="J91" s="142"/>
       <c r="K91" s="143"/>
-      <c r="L91" s="337"/>
+      <c r="L91" s="276"/>
       <c r="M91" s="69"/>
       <c r="N91" s="137">
         <f t="shared" si="3"/>
@@ -8691,7 +8706,7 @@
       <c r="I92" s="141"/>
       <c r="J92" s="142"/>
       <c r="K92" s="143"/>
-      <c r="L92" s="337"/>
+      <c r="L92" s="276"/>
       <c r="M92" s="69"/>
       <c r="N92" s="137">
         <f t="shared" si="3"/>
@@ -8711,7 +8726,7 @@
       <c r="I93" s="141"/>
       <c r="J93" s="142"/>
       <c r="K93" s="143"/>
-      <c r="L93" s="337"/>
+      <c r="L93" s="276"/>
       <c r="M93" s="69"/>
       <c r="N93" s="137">
         <f t="shared" si="3"/>
@@ -8731,7 +8746,7 @@
       <c r="I94" s="141"/>
       <c r="J94" s="142"/>
       <c r="K94" s="143"/>
-      <c r="L94" s="337"/>
+      <c r="L94" s="276"/>
       <c r="M94" s="69"/>
       <c r="N94" s="137">
         <f t="shared" si="3"/>
@@ -8751,7 +8766,7 @@
       <c r="I95" s="141"/>
       <c r="J95" s="142"/>
       <c r="K95" s="143"/>
-      <c r="L95" s="337"/>
+      <c r="L95" s="276"/>
       <c r="M95" s="69"/>
       <c r="N95" s="137">
         <f t="shared" si="3"/>
@@ -8771,7 +8786,7 @@
       <c r="I96" s="141"/>
       <c r="J96" s="142"/>
       <c r="K96" s="143"/>
-      <c r="L96" s="337"/>
+      <c r="L96" s="276"/>
       <c r="M96" s="69"/>
       <c r="N96" s="137">
         <f t="shared" si="3"/>
@@ -8795,7 +8810,7 @@
       <c r="K97" s="151">
         <v>0</v>
       </c>
-      <c r="L97" s="338"/>
+      <c r="L97" s="277"/>
       <c r="M97" s="151"/>
       <c r="N97" s="137">
         <f t="shared" si="3"/>
@@ -8821,7 +8836,7 @@
         <f>SUM(K3:K97)</f>
         <v>564370.54</v>
       </c>
-      <c r="L98" s="339"/>
+      <c r="L98" s="278"/>
       <c r="M98" s="1">
         <f>SUM(M3:M97)</f>
         <v>51341.58</v>
@@ -8838,7 +8853,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="1"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="339"/>
+      <c r="L99" s="278"/>
       <c r="M99" s="3"/>
       <c r="N99" s="1"/>
     </row>
@@ -8849,7 +8864,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="1"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="339"/>
+      <c r="L100" s="278"/>
       <c r="M100" s="3"/>
       <c r="N100" s="1"/>
     </row>
@@ -9129,7 +9144,7 @@
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
@@ -9155,23 +9170,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="254"/>
-      <c r="C1" s="256" t="s">
+      <c r="B1" s="287"/>
+      <c r="C1" s="289" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="255"/>
+      <c r="B2" s="288"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9181,17 +9196,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="259"/>
+      <c r="B3" s="291" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="292"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="260" t="s">
+      <c r="H3" s="293" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="260"/>
+      <c r="I3" s="293"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9207,14 +9222,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="261" t="s">
+      <c r="E4" s="294" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="262"/>
-      <c r="H4" s="263" t="s">
+      <c r="F4" s="295"/>
+      <c r="H4" s="296" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="264"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -9224,10 +9239,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="270" t="s">
+      <c r="P4" s="303" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="271"/>
+      <c r="Q4" s="304"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10585,7 +10600,7 @@
       <c r="J33" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="K33" s="330">
+      <c r="K33" s="269">
         <v>44508</v>
       </c>
       <c r="L33" s="66">
@@ -10627,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="60"/>
-      <c r="K34" s="331">
+      <c r="K34" s="270">
         <v>44509</v>
       </c>
       <c r="L34" s="44">
@@ -10669,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="60"/>
-      <c r="K35" s="332">
+      <c r="K35" s="271">
         <v>44509</v>
       </c>
       <c r="L35" s="66">
@@ -10711,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="60"/>
-      <c r="K36" s="333">
+      <c r="K36" s="272">
         <v>44511</v>
       </c>
       <c r="L36" s="44">
@@ -10749,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="60"/>
-      <c r="K37" s="331">
+      <c r="K37" s="270">
         <v>44523</v>
       </c>
       <c r="L37" s="44">
@@ -10805,11 +10820,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="272">
+      <c r="M39" s="305">
         <f>SUM(M5:M38)</f>
         <v>321168.83</v>
       </c>
-      <c r="N39" s="274">
+      <c r="N39" s="307">
         <f>SUM(N5:N38)</f>
         <v>467016</v>
       </c>
@@ -10835,8 +10850,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="273"/>
-      <c r="N40" s="275"/>
+      <c r="M40" s="306"/>
+      <c r="N40" s="308"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
@@ -11051,29 +11066,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="276" t="s">
+      <c r="H52" s="309" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="277"/>
+      <c r="I52" s="310"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="278">
+      <c r="K52" s="311">
         <f>I50+L50</f>
         <v>65231.97</v>
       </c>
-      <c r="L52" s="279"/>
-      <c r="M52" s="280">
+      <c r="L52" s="312"/>
+      <c r="M52" s="313">
         <f>N39+M39</f>
         <v>788184.83000000007</v>
       </c>
-      <c r="N52" s="281"/>
+      <c r="N52" s="314"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D53" s="282" t="s">
+      <c r="D53" s="315" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="282"/>
+      <c r="E53" s="315"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>-17892.929999999935</v>
@@ -11084,27 +11099,27 @@
       <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="282" t="s">
+      <c r="D54" s="315" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="282"/>
+      <c r="E54" s="315"/>
       <c r="F54" s="96">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="283" t="s">
+      <c r="I54" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="284"/>
-      <c r="K54" s="285">
+      <c r="J54" s="317"/>
+      <c r="K54" s="318">
         <f>F56+F57+F58</f>
         <v>1417526.31</v>
       </c>
-      <c r="L54" s="286"/>
-      <c r="P54" s="294" t="s">
+      <c r="L54" s="319"/>
+      <c r="P54" s="324" t="s">
         <v>130</v>
       </c>
-      <c r="Q54" s="294"/>
-      <c r="R54" s="295"/>
+      <c r="Q54" s="324"/>
+      <c r="R54" s="254"/>
     </row>
     <row r="55" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="203" t="s">
@@ -11118,10 +11133,10 @@
       <c r="J55" s="106"/>
       <c r="K55" s="191"/>
       <c r="L55" s="107"/>
-      <c r="P55" s="296">
+      <c r="P55" s="255">
         <v>50000</v>
       </c>
-      <c r="Q55" s="317">
+      <c r="Q55" s="258">
         <v>44505</v>
       </c>
       <c r="R55" s="13"/>
@@ -11142,15 +11157,15 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="287">
+      <c r="K56" s="320">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="288"/>
-      <c r="P56" s="296">
+      <c r="L56" s="321"/>
+      <c r="P56" s="255">
         <v>50000</v>
       </c>
-      <c r="Q56" s="317">
+      <c r="Q56" s="258">
         <v>44505</v>
       </c>
       <c r="R56" s="13"/>
@@ -11165,10 +11180,10 @@
       <c r="F57" s="111">
         <v>0</v>
       </c>
-      <c r="P57" s="296">
+      <c r="P57" s="255">
         <v>50000</v>
       </c>
-      <c r="Q57" s="317">
+      <c r="Q57" s="258">
         <v>44505</v>
       </c>
       <c r="R57" s="13"/>
@@ -11177,26 +11192,26 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="265" t="s">
+      <c r="D58" s="298" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="266"/>
+      <c r="E58" s="299"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="267" t="s">
+      <c r="I58" s="300" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="268"/>
-      <c r="K58" s="269">
+      <c r="J58" s="301"/>
+      <c r="K58" s="302">
         <f>K54+K56</f>
         <v>850136.96000000008</v>
       </c>
-      <c r="L58" s="269"/>
-      <c r="P58" s="296">
+      <c r="L58" s="302"/>
+      <c r="P58" s="255">
         <v>100000</v>
       </c>
-      <c r="Q58" s="318">
+      <c r="Q58" s="259">
         <v>44509</v>
       </c>
       <c r="R58" s="13"/>
@@ -11207,10 +11222,10 @@
       <c r="E59" s="116"/>
       <c r="F59" s="117"/>
       <c r="J59" s="118"/>
-      <c r="P59" s="296">
+      <c r="P59" s="255">
         <v>215000</v>
       </c>
-      <c r="Q59" s="318">
+      <c r="Q59" s="259">
         <v>44510</v>
       </c>
       <c r="R59" s="13"/>
@@ -11220,10 +11235,10 @@
       <c r="J60" s="119"/>
       <c r="K60" s="192"/>
       <c r="L60" s="120"/>
-      <c r="P60" s="296">
+      <c r="P60" s="255">
         <v>200500</v>
       </c>
-      <c r="Q60" s="317">
+      <c r="Q60" s="258">
         <v>44517</v>
       </c>
       <c r="R60" s="13"/>
@@ -11239,10 +11254,10 @@
       <c r="L61" s="120"/>
       <c r="M61" s="124"/>
       <c r="N61" s="98"/>
-      <c r="P61" s="296">
+      <c r="P61" s="255">
         <v>260000</v>
       </c>
-      <c r="Q61" s="317">
+      <c r="Q61" s="258">
         <v>44523</v>
       </c>
       <c r="R61" s="13"/>
@@ -11253,10 +11268,10 @@
       <c r="E62" s="34"/>
       <c r="M62" s="124"/>
       <c r="N62" s="98"/>
-      <c r="P62" s="296">
+      <c r="P62" s="255">
         <v>9636</v>
       </c>
-      <c r="Q62" s="317">
+      <c r="Q62" s="258">
         <v>44533</v>
       </c>
       <c r="R62" s="13"/>
@@ -11268,10 +11283,10 @@
       <c r="F63" s="126"/>
       <c r="L63" s="127"/>
       <c r="M63" s="1"/>
-      <c r="P63" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="317"/>
+      <c r="P63" s="255">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="258"/>
       <c r="R63" s="13"/>
     </row>
     <row r="64" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11279,10 +11294,10 @@
       <c r="C64" s="125"/>
       <c r="E64" s="34"/>
       <c r="M64" s="1"/>
-      <c r="P64" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="317"/>
+      <c r="P64" s="255">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="258"/>
       <c r="R64" s="13"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
@@ -11292,65 +11307,65 @@
       <c r="E65" s="34"/>
       <c r="F65" s="129"/>
       <c r="M65" s="1"/>
-      <c r="P65" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="319"/>
-      <c r="R65" s="295"/>
+      <c r="P65" s="255">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="260"/>
+      <c r="R65" s="254"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D66" s="128"/>
       <c r="E66" s="130"/>
       <c r="F66" s="34"/>
       <c r="M66" s="1"/>
-      <c r="P66" s="297">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="317"/>
-      <c r="R66" s="295"/>
+      <c r="P66" s="256">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="258"/>
+      <c r="R66" s="254"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D67" s="128"/>
       <c r="E67" s="130"/>
       <c r="F67" s="34"/>
       <c r="M67" s="1"/>
-      <c r="P67" s="298">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="320"/>
-      <c r="R67" s="295"/>
+      <c r="P67" s="257">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="261"/>
+      <c r="R67" s="254"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D68" s="128"/>
       <c r="E68" s="130"/>
       <c r="F68" s="34"/>
       <c r="M68" s="1"/>
-      <c r="P68" s="299">
+      <c r="P68" s="331">
         <f t="shared" ref="P68" si="3">SUM(P55:P67)</f>
         <v>935136</v>
       </c>
-      <c r="Q68" s="320"/>
-      <c r="R68" s="295"/>
+      <c r="Q68" s="261"/>
+      <c r="R68" s="254"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D69" s="128"/>
       <c r="E69" s="130"/>
       <c r="F69" s="34"/>
       <c r="M69" s="1"/>
-      <c r="P69" s="300"/>
+      <c r="P69" s="332"/>
       <c r="Q69" s="33"/>
-      <c r="R69" s="295"/>
+      <c r="R69" s="254"/>
     </row>
     <row r="70" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D70" s="128"/>
       <c r="E70" s="130"/>
       <c r="F70" s="34"/>
       <c r="M70" s="1"/>
-      <c r="P70" s="301" t="s">
+      <c r="P70" s="333" t="s">
         <v>131</v>
       </c>
-      <c r="Q70" s="302"/>
-      <c r="R70" s="295"/>
+      <c r="Q70" s="334"/>
+      <c r="R70" s="254"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D71" s="128"/>
@@ -11359,69 +11374,69 @@
       <c r="M71" s="1"/>
       <c r="P71" s="85"/>
       <c r="Q71" s="33"/>
-      <c r="R71" s="295"/>
+      <c r="R71" s="254"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D72" s="128"/>
       <c r="E72" s="130"/>
       <c r="F72" s="34"/>
       <c r="M72" s="1"/>
-      <c r="P72" s="303">
+      <c r="P72" s="335">
         <v>-53663.11</v>
       </c>
-      <c r="Q72" s="304"/>
-      <c r="R72" s="295"/>
+      <c r="Q72" s="336"/>
+      <c r="R72" s="254"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D73" s="128"/>
       <c r="E73" s="130"/>
       <c r="F73" s="34"/>
       <c r="M73" s="1"/>
-      <c r="P73" s="305"/>
-      <c r="Q73" s="306"/>
-      <c r="R73" s="295"/>
+      <c r="P73" s="337"/>
+      <c r="Q73" s="338"/>
+      <c r="R73" s="254"/>
     </row>
     <row r="74" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D74" s="128"/>
       <c r="E74" s="130"/>
       <c r="F74" s="34"/>
       <c r="M74" s="1"/>
-      <c r="P74" s="313">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="314"/>
-      <c r="R74" s="295"/>
+      <c r="P74" s="339">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="340"/>
+      <c r="R74" s="254"/>
     </row>
     <row r="75" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D75" s="128"/>
       <c r="E75" s="130"/>
       <c r="F75" s="34"/>
       <c r="M75" s="1"/>
-      <c r="P75" s="315">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="316"/>
-      <c r="R75" s="295"/>
+      <c r="P75" s="341">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="342"/>
+      <c r="R75" s="254"/>
     </row>
     <row r="76" spans="2:18" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D76" s="128"/>
       <c r="E76" s="130"/>
       <c r="F76" s="34"/>
       <c r="M76" s="1"/>
-      <c r="P76" s="307">
+      <c r="P76" s="325">
         <f>SUM(P75+P74+P72)</f>
         <v>-53663.11</v>
       </c>
-      <c r="Q76" s="308"/>
-      <c r="R76" s="309"/>
+      <c r="Q76" s="326"/>
+      <c r="R76" s="329"/>
     </row>
     <row r="77" spans="2:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D77" s="128"/>
       <c r="E77" s="130"/>
       <c r="F77" s="34"/>
-      <c r="P77" s="310"/>
-      <c r="Q77" s="311"/>
-      <c r="R77" s="312"/>
+      <c r="P77" s="327"/>
+      <c r="Q77" s="328"/>
+      <c r="R77" s="330"/>
     </row>
     <row r="78" spans="2:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D78" s="128"/>
@@ -11483,8 +11498,8 @@
   </sheetPr>
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11565,13 +11580,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="265" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="325" t="s">
+      <c r="B3" s="283" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="326">
+      <c r="C3" s="284">
         <v>15652.4</v>
       </c>
       <c r="D3" s="136"/>
@@ -11591,13 +11606,13 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="267" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="329" t="s">
+      <c r="B4" s="285" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="111">
+      <c r="C4" s="286">
         <v>6679.8</v>
       </c>
       <c r="D4" s="136"/>
@@ -11618,13 +11633,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="328" t="s">
+      <c r="A5" s="267" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="329" t="s">
+      <c r="B5" s="285" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="286">
         <v>18704.419999999998</v>
       </c>
       <c r="D5" s="136"/>
@@ -11644,13 +11659,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="328" t="s">
+      <c r="A6" s="267" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="329" t="s">
+      <c r="B6" s="285" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="286">
         <v>840</v>
       </c>
       <c r="D6" s="136"/>
@@ -11670,10 +11685,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="328" t="s">
+      <c r="A7" s="267" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="329" t="s">
+      <c r="B7" s="268" t="s">
         <v>139</v>
       </c>
       <c r="C7" s="111">
@@ -11696,10 +11711,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="328" t="s">
+      <c r="A8" s="267" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="329" t="s">
+      <c r="B8" s="268" t="s">
         <v>140</v>
       </c>
       <c r="C8" s="111">
@@ -11722,10 +11737,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="328" t="s">
+      <c r="A9" s="267" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="329" t="s">
+      <c r="B9" s="268" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="111">
@@ -11748,10 +11763,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="328" t="s">
+      <c r="A10" s="267" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="329" t="s">
+      <c r="B10" s="268" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="111">
@@ -11775,10 +11790,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="267" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="329" t="s">
+      <c r="B11" s="268" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="111">
@@ -11801,10 +11816,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="328" t="s">
+      <c r="A12" s="267" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="329" t="s">
+      <c r="B12" s="268" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="111">
@@ -11827,10 +11842,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="328" t="s">
+      <c r="A13" s="267" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="329" t="s">
+      <c r="B13" s="268" t="s">
         <v>148</v>
       </c>
       <c r="C13" s="111">
@@ -11853,10 +11868,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="328" t="s">
+      <c r="A14" s="267" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="329" t="s">
+      <c r="B14" s="268" t="s">
         <v>150</v>
       </c>
       <c r="C14" s="111">
@@ -11879,10 +11894,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="328" t="s">
+      <c r="A15" s="267" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="329" t="s">
+      <c r="B15" s="268" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="111">
@@ -11905,10 +11920,10 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="328" t="s">
+      <c r="A16" s="267" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="329" t="s">
+      <c r="B16" s="268" t="s">
         <v>153</v>
       </c>
       <c r="C16" s="111">
@@ -11931,10 +11946,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="328" t="s">
+      <c r="A17" s="267" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="329" t="s">
+      <c r="B17" s="268" t="s">
         <v>155</v>
       </c>
       <c r="C17" s="111">
@@ -11957,10 +11972,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="328" t="s">
+      <c r="A18" s="267" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="329" t="s">
+      <c r="B18" s="268" t="s">
         <v>156</v>
       </c>
       <c r="C18" s="111">
@@ -11983,10 +11998,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="328" t="s">
+      <c r="A19" s="267" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="329" t="s">
+      <c r="B19" s="268" t="s">
         <v>157</v>
       </c>
       <c r="C19" s="111">
@@ -12009,10 +12024,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="328" t="s">
+      <c r="A20" s="267" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="329" t="s">
+      <c r="B20" s="268" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="111">
@@ -12035,10 +12050,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="328" t="s">
+      <c r="A21" s="267" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="329" t="s">
+      <c r="B21" s="268" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="111">
@@ -12061,10 +12076,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="328" t="s">
+      <c r="A22" s="267" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="329" t="s">
+      <c r="B22" s="268" t="s">
         <v>162</v>
       </c>
       <c r="C22" s="111">
@@ -12088,10 +12103,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="328" t="s">
+      <c r="A23" s="267" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="329" t="s">
+      <c r="B23" s="268" t="s">
         <v>163</v>
       </c>
       <c r="C23" s="111">
@@ -12114,10 +12129,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="328" t="s">
+      <c r="A24" s="267" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="329" t="s">
+      <c r="B24" s="268" t="s">
         <v>165</v>
       </c>
       <c r="C24" s="111">
@@ -12140,10 +12155,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="328" t="s">
+      <c r="A25" s="267" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="329" t="s">
+      <c r="B25" s="268" t="s">
         <v>166</v>
       </c>
       <c r="C25" s="111">
@@ -12166,16 +12181,18 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="328" t="s">
+      <c r="A26" s="267" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="329" t="s">
+      <c r="B26" s="268" t="s">
         <v>167</v>
       </c>
       <c r="C26" s="111">
         <v>34909.9</v>
       </c>
-      <c r="D26" s="140"/>
+      <c r="D26" s="140" t="s">
+        <v>202</v>
+      </c>
       <c r="E26" s="69"/>
       <c r="F26" s="137">
         <f t="shared" si="0"/>
@@ -12192,10 +12209,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="328" t="s">
+      <c r="A27" s="267" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="329" t="s">
+      <c r="B27" s="268" t="s">
         <v>168</v>
       </c>
       <c r="C27" s="111">
@@ -12218,10 +12235,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="328" t="s">
+      <c r="A28" s="267" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="329" t="s">
+      <c r="B28" s="268" t="s">
         <v>170</v>
       </c>
       <c r="C28" s="111">
@@ -12244,10 +12261,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="328" t="s">
+      <c r="A29" s="267" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="329" t="s">
+      <c r="B29" s="268" t="s">
         <v>171</v>
       </c>
       <c r="C29" s="111">
@@ -12270,10 +12287,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="328" t="s">
+      <c r="A30" s="267" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="329" t="s">
+      <c r="B30" s="268" t="s">
         <v>173</v>
       </c>
       <c r="C30" s="111">
@@ -12297,10 +12314,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="328" t="s">
+      <c r="A31" s="267" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="329" t="s">
+      <c r="B31" s="268" t="s">
         <v>175</v>
       </c>
       <c r="C31" s="111">
@@ -12323,10 +12340,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="328" t="s">
+      <c r="A32" s="267" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="329" t="s">
+      <c r="B32" s="268" t="s">
         <v>176</v>
       </c>
       <c r="C32" s="111">
@@ -12349,10 +12366,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="328" t="s">
+      <c r="A33" s="267" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="329" t="s">
+      <c r="B33" s="268" t="s">
         <v>178</v>
       </c>
       <c r="C33" s="111">
@@ -12375,10 +12392,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="328" t="s">
+      <c r="A34" s="267" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="329" t="s">
+      <c r="B34" s="268" t="s">
         <v>179</v>
       </c>
       <c r="C34" s="111">
@@ -12401,16 +12418,16 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="328" t="s">
+      <c r="A35" s="267" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="329" t="s">
+      <c r="B35" s="346" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="111">
+      <c r="C35" s="347">
         <v>9701.98</v>
       </c>
-      <c r="D35" s="140"/>
+      <c r="D35" s="348"/>
       <c r="E35" s="69"/>
       <c r="F35" s="137">
         <f t="shared" si="0"/>
@@ -12427,10 +12444,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="328" t="s">
+      <c r="A36" s="267" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="329" t="s">
+      <c r="B36" s="268" t="s">
         <v>182</v>
       </c>
       <c r="C36" s="111">
@@ -12453,10 +12470,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="328" t="s">
+      <c r="A37" s="267" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="329" t="s">
+      <c r="B37" s="268" t="s">
         <v>184</v>
       </c>
       <c r="C37" s="111">
@@ -12479,10 +12496,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="328" t="s">
+      <c r="A38" s="267" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="329" t="s">
+      <c r="B38" s="268" t="s">
         <v>185</v>
       </c>
       <c r="C38" s="111">
@@ -12505,10 +12522,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="328" t="s">
+      <c r="A39" s="267" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="329" t="s">
+      <c r="B39" s="268" t="s">
         <v>187</v>
       </c>
       <c r="C39" s="111">
@@ -12531,10 +12548,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="328" t="s">
+      <c r="A40" s="267" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="329" t="s">
+      <c r="B40" s="268" t="s">
         <v>189</v>
       </c>
       <c r="C40" s="111">
@@ -12557,10 +12574,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="328" t="s">
+      <c r="A41" s="267" t="s">
         <v>188</v>
       </c>
-      <c r="B41" s="329" t="s">
+      <c r="B41" s="268" t="s">
         <v>190</v>
       </c>
       <c r="C41" s="111">
@@ -12583,10 +12600,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="328" t="s">
+      <c r="A42" s="267" t="s">
         <v>191</v>
       </c>
-      <c r="B42" s="329" t="s">
+      <c r="B42" s="268" t="s">
         <v>192</v>
       </c>
       <c r="C42" s="111">
@@ -12609,10 +12626,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="328" t="s">
+      <c r="A43" s="267" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="329" t="s">
+      <c r="B43" s="268" t="s">
         <v>194</v>
       </c>
       <c r="C43" s="111">
@@ -12635,10 +12652,10 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="328" t="s">
+      <c r="A44" s="267" t="s">
         <v>193</v>
       </c>
-      <c r="B44" s="329" t="s">
+      <c r="B44" s="268" t="s">
         <v>195</v>
       </c>
       <c r="C44" s="111">
@@ -12661,7 +12678,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="328" t="s">
+      <c r="A45" s="267" t="s">
         <v>196</v>
       </c>
       <c r="B45" s="57" t="s">
@@ -12687,13 +12704,13 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="328" t="s">
+      <c r="A46" s="267" t="s">
         <v>196</v>
       </c>
       <c r="B46" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="323">
+      <c r="C46" s="264">
         <v>104.4</v>
       </c>
       <c r="D46" s="140"/>
@@ -12713,13 +12730,13 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="328" t="s">
+      <c r="A47" s="267" t="s">
         <v>196</v>
       </c>
       <c r="B47" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="323">
+      <c r="C47" s="264">
         <v>702</v>
       </c>
       <c r="D47" s="140"/>
@@ -12739,13 +12756,13 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="322">
+      <c r="A48" s="263">
         <v>44534</v>
       </c>
-      <c r="B48" s="321" t="s">
+      <c r="B48" s="262" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="327">
+      <c r="C48" s="266">
         <v>73956.800000000003</v>
       </c>
       <c r="D48" s="140"/>
@@ -14152,12 +14169,12 @@
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="155"/>
-      <c r="B43" s="291" t="s">
+      <c r="B43" s="343" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="292"/>
-      <c r="D43" s="292"/>
-      <c r="E43" s="293"/>
+      <c r="C43" s="344"/>
+      <c r="D43" s="344"/>
+      <c r="E43" s="345"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="0" windowWidth="16335" windowHeight="11070" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="4035" yWindow="0" windowWidth="16335" windowHeight="11070" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -2240,7 +2240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="350">
+  <cellXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2822,183 +2822,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="6" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="15" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3007,6 +2830,186 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="38" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="6" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="6" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="6" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="6" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="15" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4179,23 +4182,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="287"/>
-      <c r="C1" s="289" t="s">
+      <c r="B1" s="315"/>
+      <c r="C1" s="317" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="288"/>
+      <c r="B2" s="316"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4205,17 +4208,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="291" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="292"/>
+      <c r="B3" s="319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="320"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="293" t="s">
+      <c r="H3" s="321" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="293"/>
+      <c r="I3" s="321"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -4229,14 +4232,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="295"/>
-      <c r="H4" s="296" t="s">
+      <c r="F4" s="323"/>
+      <c r="H4" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="297"/>
+      <c r="I4" s="325"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -4246,10 +4249,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="303" t="s">
+      <c r="P4" s="296" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="304"/>
+      <c r="Q4" s="297"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -5690,11 +5693,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="305">
+      <c r="M39" s="298">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="307">
+      <c r="N39" s="300">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -5720,8 +5723,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="306"/>
-      <c r="N40" s="308"/>
+      <c r="M40" s="299"/>
+      <c r="N40" s="301"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5936,29 +5939,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="309" t="s">
+      <c r="H52" s="302" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="310"/>
+      <c r="I52" s="303"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="311">
+      <c r="K52" s="304">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="312"/>
-      <c r="M52" s="313">
+      <c r="L52" s="305"/>
+      <c r="M52" s="306">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="314"/>
+      <c r="N52" s="307"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="315" t="s">
+      <c r="D53" s="308" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="315"/>
+      <c r="E53" s="308"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -5969,22 +5972,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="315" t="s">
+      <c r="D54" s="308" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="315"/>
+      <c r="E54" s="308"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="316" t="s">
+      <c r="I54" s="309" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="317"/>
-      <c r="K54" s="318">
+      <c r="J54" s="310"/>
+      <c r="K54" s="311">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="319"/>
+      <c r="L54" s="312"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6017,11 +6020,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="320">
+      <c r="K56" s="313">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="321"/>
+      <c r="L56" s="314"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -6038,22 +6041,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="298" t="s">
+      <c r="D58" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="299"/>
+      <c r="E58" s="292"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="300" t="s">
+      <c r="I58" s="293" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="301"/>
-      <c r="K58" s="302">
+      <c r="J58" s="294"/>
+      <c r="K58" s="295">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="302"/>
+      <c r="L58" s="295"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -6197,6 +6200,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -6211,12 +6220,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6759,7 +6762,7 @@
       <c r="E16" s="69">
         <v>145000</v>
       </c>
-      <c r="F16" s="349">
+      <c r="F16" s="290">
         <f t="shared" si="0"/>
         <v>146930.89999999991</v>
       </c>
@@ -7553,7 +7556,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="322" t="s">
+      <c r="B41" s="326" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="204">
@@ -7585,7 +7588,7 @@
       <c r="A42" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="323"/>
+      <c r="B42" s="327"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -9144,8 +9147,8 @@
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9170,23 +9173,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="287"/>
-      <c r="C1" s="289" t="s">
+      <c r="B1" s="315"/>
+      <c r="C1" s="317" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="288"/>
+      <c r="B2" s="316"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9196,17 +9199,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="291" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="292"/>
+      <c r="B3" s="319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="320"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="293" t="s">
+      <c r="H3" s="321" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="293"/>
+      <c r="I3" s="321"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9222,14 +9225,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="295"/>
-      <c r="H4" s="296" t="s">
+      <c r="F4" s="323"/>
+      <c r="H4" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="297"/>
+      <c r="I4" s="325"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -9239,10 +9242,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="303" t="s">
+      <c r="P4" s="296" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="304"/>
+      <c r="Q4" s="297"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9672,13 +9675,13 @@
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="32">
-        <v>0</v>
-      </c>
-      <c r="N13" s="33">
+      <c r="M13" s="350">
+        <v>0</v>
+      </c>
+      <c r="N13" s="351">
         <v>21106</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="352"/>
       <c r="P13" s="69">
         <f t="shared" si="2"/>
         <v>23882.36</v>
@@ -10820,11 +10823,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="305">
+      <c r="M39" s="298">
         <f>SUM(M5:M38)</f>
         <v>321168.83</v>
       </c>
-      <c r="N39" s="307">
+      <c r="N39" s="300">
         <f>SUM(N5:N38)</f>
         <v>467016</v>
       </c>
@@ -10850,8 +10853,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="306"/>
-      <c r="N40" s="308"/>
+      <c r="M40" s="299"/>
+      <c r="N40" s="301"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
@@ -11066,29 +11069,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="309" t="s">
+      <c r="H52" s="302" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="310"/>
+      <c r="I52" s="303"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="311">
+      <c r="K52" s="304">
         <f>I50+L50</f>
         <v>65231.97</v>
       </c>
-      <c r="L52" s="312"/>
-      <c r="M52" s="313">
+      <c r="L52" s="305"/>
+      <c r="M52" s="306">
         <f>N39+M39</f>
         <v>788184.83000000007</v>
       </c>
-      <c r="N52" s="314"/>
+      <c r="N52" s="307"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D53" s="315" t="s">
+      <c r="D53" s="308" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="315"/>
+      <c r="E53" s="308"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>-17892.929999999935</v>
@@ -11099,26 +11102,26 @@
       <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="315" t="s">
+      <c r="D54" s="308" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="315"/>
+      <c r="E54" s="308"/>
       <c r="F54" s="96">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="316" t="s">
+      <c r="I54" s="309" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="317"/>
-      <c r="K54" s="318">
+      <c r="J54" s="310"/>
+      <c r="K54" s="311">
         <f>F56+F57+F58</f>
         <v>1417526.31</v>
       </c>
-      <c r="L54" s="319"/>
-      <c r="P54" s="324" t="s">
+      <c r="L54" s="312"/>
+      <c r="P54" s="346" t="s">
         <v>130</v>
       </c>
-      <c r="Q54" s="324"/>
+      <c r="Q54" s="346"/>
       <c r="R54" s="254"/>
     </row>
     <row r="55" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -11157,11 +11160,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="320">
+      <c r="K56" s="313">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="321"/>
+      <c r="L56" s="314"/>
       <c r="P56" s="255">
         <v>50000</v>
       </c>
@@ -11192,22 +11195,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="298" t="s">
+      <c r="D58" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="299"/>
+      <c r="E58" s="292"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="300" t="s">
+      <c r="I58" s="293" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="301"/>
-      <c r="K58" s="302">
+      <c r="J58" s="294"/>
+      <c r="K58" s="295">
         <f>K54+K56</f>
         <v>850136.96000000008</v>
       </c>
-      <c r="L58" s="302"/>
+      <c r="L58" s="295"/>
       <c r="P58" s="255">
         <v>100000</v>
       </c>
@@ -11340,7 +11343,7 @@
       <c r="E68" s="130"/>
       <c r="F68" s="34"/>
       <c r="M68" s="1"/>
-      <c r="P68" s="331">
+      <c r="P68" s="334">
         <f t="shared" ref="P68" si="3">SUM(P55:P67)</f>
         <v>935136</v>
       </c>
@@ -11352,7 +11355,7 @@
       <c r="E69" s="130"/>
       <c r="F69" s="34"/>
       <c r="M69" s="1"/>
-      <c r="P69" s="332"/>
+      <c r="P69" s="335"/>
       <c r="Q69" s="33"/>
       <c r="R69" s="254"/>
     </row>
@@ -11361,10 +11364,10 @@
       <c r="E70" s="130"/>
       <c r="F70" s="34"/>
       <c r="M70" s="1"/>
-      <c r="P70" s="333" t="s">
+      <c r="P70" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="Q70" s="334"/>
+      <c r="Q70" s="337"/>
       <c r="R70" s="254"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
@@ -11381,10 +11384,10 @@
       <c r="E72" s="130"/>
       <c r="F72" s="34"/>
       <c r="M72" s="1"/>
-      <c r="P72" s="335">
+      <c r="P72" s="338">
         <v>-53663.11</v>
       </c>
-      <c r="Q72" s="336"/>
+      <c r="Q72" s="339"/>
       <c r="R72" s="254"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.25">
@@ -11392,8 +11395,8 @@
       <c r="E73" s="130"/>
       <c r="F73" s="34"/>
       <c r="M73" s="1"/>
-      <c r="P73" s="337"/>
-      <c r="Q73" s="338"/>
+      <c r="P73" s="340"/>
+      <c r="Q73" s="341"/>
       <c r="R73" s="254"/>
     </row>
     <row r="74" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -11401,10 +11404,10 @@
       <c r="E74" s="130"/>
       <c r="F74" s="34"/>
       <c r="M74" s="1"/>
-      <c r="P74" s="339">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="340"/>
+      <c r="P74" s="342">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="343"/>
       <c r="R74" s="254"/>
     </row>
     <row r="75" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -11412,10 +11415,10 @@
       <c r="E75" s="130"/>
       <c r="F75" s="34"/>
       <c r="M75" s="1"/>
-      <c r="P75" s="341">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="342"/>
+      <c r="P75" s="344">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="345"/>
       <c r="R75" s="254"/>
     </row>
     <row r="76" spans="2:18" thickTop="1" x14ac:dyDescent="0.25">
@@ -11423,20 +11426,20 @@
       <c r="E76" s="130"/>
       <c r="F76" s="34"/>
       <c r="M76" s="1"/>
-      <c r="P76" s="325">
+      <c r="P76" s="328">
         <f>SUM(P75+P74+P72)</f>
         <v>-53663.11</v>
       </c>
-      <c r="Q76" s="326"/>
-      <c r="R76" s="329"/>
+      <c r="Q76" s="329"/>
+      <c r="R76" s="332"/>
     </row>
     <row r="77" spans="2:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D77" s="128"/>
       <c r="E77" s="130"/>
       <c r="F77" s="34"/>
-      <c r="P77" s="327"/>
-      <c r="Q77" s="328"/>
-      <c r="R77" s="330"/>
+      <c r="P77" s="330"/>
+      <c r="Q77" s="331"/>
+      <c r="R77" s="333"/>
     </row>
     <row r="78" spans="2:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D78" s="128"/>
@@ -11455,13 +11458,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P76:Q77"/>
-    <mergeCell ref="R76:R77"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P72:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -11477,12 +11479,13 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P76:Q77"/>
+    <mergeCell ref="R76:R77"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P72:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11498,7 +11501,7 @@
   </sheetPr>
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -12421,13 +12424,13 @@
       <c r="A35" s="267" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="346" t="s">
+      <c r="B35" s="287" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="347">
+      <c r="C35" s="288">
         <v>9701.98</v>
       </c>
-      <c r="D35" s="348"/>
+      <c r="D35" s="289"/>
       <c r="E35" s="69"/>
       <c r="F35" s="137">
         <f t="shared" si="0"/>
@@ -14169,12 +14172,12 @@
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="155"/>
-      <c r="B43" s="343" t="s">
+      <c r="B43" s="347" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="344"/>
-      <c r="D43" s="344"/>
-      <c r="E43" s="345"/>
+      <c r="C43" s="348"/>
+      <c r="D43" s="348"/>
+      <c r="E43" s="349"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="206">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -762,6 +762,15 @@
   </si>
   <si>
     <t>cancelada</t>
+  </si>
+  <si>
+    <t>06/12/2021</t>
+  </si>
+  <si>
+    <t>14/11/2021</t>
+  </si>
+  <si>
+    <t>21/11/2021</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1257,8 +1266,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="80">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -2235,12 +2256,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2658,12 +2690,6 @@
     <xf numFmtId="44" fontId="3" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2830,186 +2856,202 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="38" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="6" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="15" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="16" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="6" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="6" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="6" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="6" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="15" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="16" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="16" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="17" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="17" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4157,7 +4199,7 @@
   <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4182,23 +4224,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="315"/>
-      <c r="C1" s="317" t="s">
+      <c r="B1" s="292"/>
+      <c r="C1" s="294" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="316"/>
+      <c r="B2" s="293"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4208,17 +4250,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="319" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="320"/>
+      <c r="B3" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="297"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="321" t="s">
+      <c r="H3" s="298" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="321"/>
+      <c r="I3" s="298"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -4232,14 +4274,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="322" t="s">
+      <c r="E4" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="323"/>
-      <c r="H4" s="324" t="s">
+      <c r="F4" s="300"/>
+      <c r="H4" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="325"/>
+      <c r="I4" s="302"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -4249,10 +4291,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="296" t="s">
+      <c r="P4" s="308" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="297"/>
+      <c r="Q4" s="309"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -4342,11 +4384,11 @@
         <f t="shared" ref="P6:P32" si="0">N6+M6+L6+I6+C6</f>
         <v>20860</v>
       </c>
-      <c r="Q6" s="218">
+      <c r="Q6" s="216">
         <f t="shared" ref="Q6:Q38" si="1">P6-F6</f>
         <v>-2677</v>
       </c>
-      <c r="R6" s="216" t="s">
+      <c r="R6" s="214" t="s">
         <v>32</v>
       </c>
       <c r="S6" s="147">
@@ -4390,18 +4432,18 @@
       <c r="N7" s="33">
         <v>8843</v>
       </c>
-      <c r="O7" s="215" t="s">
+      <c r="O7" s="213" t="s">
         <v>35</v>
       </c>
       <c r="P7" s="69">
         <f t="shared" si="0"/>
         <v>27818</v>
       </c>
-      <c r="Q7" s="219">
+      <c r="Q7" s="217">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="R7" s="217" t="s">
+      <c r="R7" s="215" t="s">
         <v>43</v>
       </c>
       <c r="S7" s="147">
@@ -4452,11 +4494,11 @@
         <f t="shared" si="0"/>
         <v>25278.5</v>
       </c>
-      <c r="Q8" s="220">
+      <c r="Q8" s="218">
         <f t="shared" si="1"/>
         <v>-3392.5</v>
       </c>
-      <c r="R8" s="216" t="s">
+      <c r="R8" s="214" t="s">
         <v>32</v>
       </c>
       <c r="S8" s="147">
@@ -4506,10 +4548,10 @@
         <f>N9+M9+L9+I9+C9</f>
         <v>36624.5</v>
       </c>
-      <c r="Q9" s="221" t="s">
+      <c r="Q9" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="217" t="s">
+      <c r="R9" s="215" t="s">
         <v>38</v>
       </c>
       <c r="S9" s="147">
@@ -4560,11 +4602,11 @@
         <f t="shared" ref="P10:P13" si="2">N10+M10+L10+I10+C10</f>
         <v>26298</v>
       </c>
-      <c r="Q10" s="220">
+      <c r="Q10" s="218">
         <f t="shared" si="1"/>
         <v>-1776</v>
       </c>
-      <c r="R10" s="216" t="s">
+      <c r="R10" s="214" t="s">
         <v>32</v>
       </c>
       <c r="S10" s="147">
@@ -4610,7 +4652,7 @@
         <f t="shared" si="2"/>
         <v>28522</v>
       </c>
-      <c r="Q11" s="222">
+      <c r="Q11" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4660,7 +4702,7 @@
         <f t="shared" si="2"/>
         <v>31646</v>
       </c>
-      <c r="Q12" s="222">
+      <c r="Q12" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4712,11 +4754,11 @@
         <f t="shared" si="2"/>
         <v>28816.35</v>
       </c>
-      <c r="Q13" s="219">
+      <c r="Q13" s="217">
         <f t="shared" si="1"/>
         <v>1016.3499999999985</v>
       </c>
-      <c r="R13" s="217" t="s">
+      <c r="R13" s="215" t="s">
         <v>43</v>
       </c>
       <c r="S13" s="147">
@@ -4761,11 +4803,11 @@
         <f t="shared" ref="P14" si="3">N14+M14+L14+I14+C14</f>
         <v>32621</v>
       </c>
-      <c r="Q14" s="221">
+      <c r="Q14" s="219">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="R14" s="217" t="s">
+      <c r="R14" s="215" t="s">
         <v>43</v>
       </c>
       <c r="S14" s="147">
@@ -4809,11 +4851,11 @@
         <f t="shared" si="0"/>
         <v>28788.5</v>
       </c>
-      <c r="Q15" s="218">
+      <c r="Q15" s="216">
         <f t="shared" si="1"/>
         <v>-2472.5</v>
       </c>
-      <c r="R15" s="216" t="s">
+      <c r="R15" s="214" t="s">
         <v>32</v>
       </c>
       <c r="S15" s="147">
@@ -4857,11 +4899,11 @@
         <f t="shared" si="0"/>
         <v>49883</v>
       </c>
-      <c r="Q16" s="223">
+      <c r="Q16" s="221">
         <f t="shared" si="1"/>
         <v>1942</v>
       </c>
-      <c r="R16" s="217" t="s">
+      <c r="R16" s="215" t="s">
         <v>43</v>
       </c>
       <c r="S16" s="147">
@@ -4903,11 +4945,11 @@
         <f t="shared" si="0"/>
         <v>38871.5</v>
       </c>
-      <c r="Q17" s="223">
+      <c r="Q17" s="221">
         <f t="shared" si="1"/>
         <v>378.5</v>
       </c>
-      <c r="R17" s="217" t="s">
+      <c r="R17" s="215" t="s">
         <v>43</v>
       </c>
       <c r="S17" s="147">
@@ -4958,11 +5000,11 @@
         <f t="shared" si="0"/>
         <v>39738</v>
       </c>
-      <c r="Q18" s="220">
+      <c r="Q18" s="218">
         <f t="shared" si="1"/>
         <v>-3452</v>
       </c>
-      <c r="R18" s="216" t="s">
+      <c r="R18" s="214" t="s">
         <v>32</v>
       </c>
       <c r="S18" s="147">
@@ -5007,11 +5049,11 @@
         <f t="shared" si="0"/>
         <v>37356.5</v>
       </c>
-      <c r="Q19" s="220">
+      <c r="Q19" s="218">
         <f t="shared" si="1"/>
         <v>-822.5</v>
       </c>
-      <c r="R19" s="216" t="s">
+      <c r="R19" s="214" t="s">
         <v>32</v>
       </c>
       <c r="S19" s="147">
@@ -5056,7 +5098,7 @@
         <f t="shared" si="0"/>
         <v>39315.9</v>
       </c>
-      <c r="Q20" s="222">
+      <c r="Q20" s="220">
         <f t="shared" si="1"/>
         <v>0.90000000000145519</v>
       </c>
@@ -5103,7 +5145,7 @@
         <f t="shared" si="0"/>
         <v>43752</v>
       </c>
-      <c r="Q21" s="222">
+      <c r="Q21" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5149,11 +5191,11 @@
         <f t="shared" si="0"/>
         <v>29504</v>
       </c>
-      <c r="Q22" s="220">
+      <c r="Q22" s="218">
         <f t="shared" si="1"/>
         <v>-1457</v>
       </c>
-      <c r="R22" s="216" t="s">
+      <c r="R22" s="214" t="s">
         <v>32</v>
       </c>
       <c r="S22" s="147">
@@ -5204,11 +5246,11 @@
         <f t="shared" si="0"/>
         <v>50727.14</v>
       </c>
-      <c r="Q23" s="220">
+      <c r="Q23" s="218">
         <f t="shared" si="1"/>
         <v>-18819.86</v>
       </c>
-      <c r="R23" s="216" t="s">
+      <c r="R23" s="214" t="s">
         <v>32</v>
       </c>
       <c r="S23" s="147">
@@ -5250,11 +5292,11 @@
         <f t="shared" si="0"/>
         <v>9868.5</v>
       </c>
-      <c r="Q24" s="220">
+      <c r="Q24" s="218">
         <f t="shared" si="1"/>
         <v>-24335.5</v>
       </c>
-      <c r="R24" s="216" t="s">
+      <c r="R24" s="214" t="s">
         <v>32</v>
       </c>
       <c r="S24" s="147">
@@ -5280,11 +5322,11 @@
       <c r="N25" s="33">
         <v>0</v>
       </c>
-      <c r="P25" s="232">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="233">
+      <c r="P25" s="230">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="231">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5312,7 +5354,7 @@
       <c r="N26" s="33">
         <v>0</v>
       </c>
-      <c r="P26" s="231">
+      <c r="P26" s="229">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5693,11 +5735,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="298">
+      <c r="M39" s="310">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="300">
+      <c r="N39" s="312">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -5705,7 +5747,7 @@
         <f>SUM(P5:P38)</f>
         <v>626289.39</v>
       </c>
-      <c r="Q39" s="234">
+      <c r="Q39" s="232">
         <f>SUM(Q5:Q38)</f>
         <v>-53663.11</v>
       </c>
@@ -5723,8 +5765,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="299"/>
-      <c r="N40" s="301"/>
+      <c r="M40" s="311"/>
+      <c r="N40" s="313"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5939,29 +5981,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="302" t="s">
+      <c r="H52" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="303"/>
+      <c r="I52" s="315"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="304">
+      <c r="K52" s="316">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="305"/>
-      <c r="M52" s="306">
+      <c r="L52" s="317"/>
+      <c r="M52" s="318">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="307"/>
+      <c r="N52" s="319"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="308" t="s">
+      <c r="D53" s="320" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="308"/>
+      <c r="E53" s="320"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -5972,22 +6014,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="308" t="s">
+      <c r="D54" s="320" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="308"/>
+      <c r="E54" s="320"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="309" t="s">
+      <c r="I54" s="321" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="310"/>
-      <c r="K54" s="311">
+      <c r="J54" s="322"/>
+      <c r="K54" s="323">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="312"/>
+      <c r="L54" s="324"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6020,11 +6062,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="313">
+      <c r="K56" s="325">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="314"/>
+      <c r="L56" s="326"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -6041,22 +6083,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="291" t="s">
+      <c r="D58" s="303" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="292"/>
+      <c r="E58" s="304"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="293" t="s">
+      <c r="I58" s="305" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="294"/>
-      <c r="K58" s="295">
+      <c r="J58" s="306"/>
+      <c r="K58" s="307">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="295"/>
+      <c r="L58" s="307"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -6200,12 +6242,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -6220,6 +6256,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6235,8 +6277,8 @@
   </sheetPr>
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D16:D17"/>
+    <sheetView topLeftCell="G43" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6251,7 +6293,7 @@
     <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="279" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="277" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -6272,7 +6314,7 @@
       </c>
       <c r="J1" s="207"/>
       <c r="K1" s="202"/>
-      <c r="L1" s="273"/>
+      <c r="L1" s="271"/>
       <c r="M1" s="202"/>
       <c r="N1" s="169" t="s">
         <v>31</v>
@@ -6306,7 +6348,7 @@
       <c r="K2" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="274" t="s">
+      <c r="L2" s="272" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="132" t="s">
@@ -6341,7 +6383,7 @@
       <c r="K3" s="210">
         <v>19269</v>
       </c>
-      <c r="L3" s="280">
+      <c r="L3" s="278">
         <v>44498</v>
       </c>
       <c r="M3" s="69">
@@ -6378,7 +6420,7 @@
       <c r="K4" s="210">
         <v>25542</v>
       </c>
-      <c r="L4" s="281">
+      <c r="L4" s="279">
         <v>44498</v>
       </c>
       <c r="M4" s="69">
@@ -6414,7 +6456,7 @@
       <c r="K5" s="210">
         <v>10208</v>
       </c>
-      <c r="L5" s="282">
+      <c r="L5" s="280">
         <v>44498</v>
       </c>
       <c r="M5" s="69">
@@ -6622,7 +6664,7 @@
       <c r="A12" s="140">
         <v>44489</v>
       </c>
-      <c r="B12" s="224" t="s">
+      <c r="B12" s="222" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="69">
@@ -6686,7 +6728,7 @@
       <c r="A14" s="140">
         <v>44498</v>
       </c>
-      <c r="B14" s="224" t="s">
+      <c r="B14" s="222" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="69">
@@ -6762,7 +6804,7 @@
       <c r="E16" s="69">
         <v>145000</v>
       </c>
-      <c r="F16" s="290">
+      <c r="F16" s="288">
         <f t="shared" si="0"/>
         <v>146930.89999999991</v>
       </c>
@@ -6775,7 +6817,7 @@
       <c r="K16" s="210">
         <v>6297</v>
       </c>
-      <c r="L16" s="275"/>
+      <c r="L16" s="273"/>
       <c r="M16" s="69"/>
       <c r="N16" s="137">
         <f t="shared" si="1"/>
@@ -6807,7 +6849,7 @@
       <c r="K17" s="210">
         <v>12350</v>
       </c>
-      <c r="L17" s="275"/>
+      <c r="L17" s="273"/>
       <c r="M17" s="69"/>
       <c r="N17" s="137">
         <f t="shared" si="1"/>
@@ -6839,7 +6881,7 @@
       <c r="K18" s="210">
         <v>5444</v>
       </c>
-      <c r="L18" s="275"/>
+      <c r="L18" s="273"/>
       <c r="M18" s="69"/>
       <c r="N18" s="137">
         <f t="shared" si="1"/>
@@ -6871,7 +6913,7 @@
       <c r="K19" s="210">
         <v>1717</v>
       </c>
-      <c r="L19" s="275"/>
+      <c r="L19" s="273"/>
       <c r="M19" s="69"/>
       <c r="N19" s="137">
         <f t="shared" si="1"/>
@@ -6903,7 +6945,7 @@
       <c r="K20" s="210">
         <v>16136</v>
       </c>
-      <c r="L20" s="275"/>
+      <c r="L20" s="273"/>
       <c r="M20" s="69"/>
       <c r="N20" s="137">
         <f t="shared" si="1"/>
@@ -6935,7 +6977,7 @@
       <c r="K21" s="210">
         <v>9256</v>
       </c>
-      <c r="L21" s="275"/>
+      <c r="L21" s="273"/>
       <c r="M21" s="69"/>
       <c r="N21" s="137">
         <f t="shared" si="1"/>
@@ -6968,7 +7010,7 @@
       <c r="K22" s="210">
         <v>5500</v>
       </c>
-      <c r="L22" s="275"/>
+      <c r="L22" s="273"/>
       <c r="M22" s="69"/>
       <c r="N22" s="137">
         <f t="shared" si="1"/>
@@ -7000,7 +7042,7 @@
       <c r="K23" s="210">
         <v>1331</v>
       </c>
-      <c r="L23" s="275"/>
+      <c r="L23" s="273"/>
       <c r="M23" s="69"/>
       <c r="N23" s="137">
         <f t="shared" si="1"/>
@@ -7032,7 +7074,7 @@
       <c r="K24" s="210">
         <v>420</v>
       </c>
-      <c r="L24" s="275"/>
+      <c r="L24" s="273"/>
       <c r="M24" s="69"/>
       <c r="N24" s="137">
         <f t="shared" si="1"/>
@@ -7064,7 +7106,7 @@
       <c r="K25" s="210">
         <v>770</v>
       </c>
-      <c r="L25" s="275"/>
+      <c r="L25" s="273"/>
       <c r="M25" s="69"/>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
@@ -7096,7 +7138,7 @@
       <c r="K26" s="210">
         <v>2257</v>
       </c>
-      <c r="L26" s="275"/>
+      <c r="L26" s="273"/>
       <c r="M26" s="69"/>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
@@ -7128,7 +7170,7 @@
       <c r="K27" s="210">
         <v>60</v>
       </c>
-      <c r="L27" s="275"/>
+      <c r="L27" s="273"/>
       <c r="M27" s="69"/>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
@@ -7160,7 +7202,7 @@
       <c r="K28" s="210">
         <v>39533</v>
       </c>
-      <c r="L28" s="275"/>
+      <c r="L28" s="273"/>
       <c r="M28" s="69"/>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
@@ -7192,7 +7234,7 @@
       <c r="K29" s="210">
         <v>3727</v>
       </c>
-      <c r="L29" s="275"/>
+      <c r="L29" s="273"/>
       <c r="M29" s="69"/>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
@@ -7217,15 +7259,15 @@
       </c>
       <c r="G30" s="138"/>
       <c r="I30" s="205">
-        <v>44493</v>
-      </c>
-      <c r="J30" s="211">
+        <v>44492</v>
+      </c>
+      <c r="J30" s="234">
         <v>2638</v>
       </c>
-      <c r="K30" s="212">
+      <c r="K30" s="235">
         <v>3861</v>
       </c>
-      <c r="L30" s="275"/>
+      <c r="L30" s="273"/>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
@@ -7257,7 +7299,7 @@
       <c r="K31" s="210">
         <v>24825</v>
       </c>
-      <c r="L31" s="275"/>
+      <c r="L31" s="273"/>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
         <f t="shared" si="1"/>
@@ -7289,7 +7331,7 @@
       <c r="K32" s="210">
         <v>614</v>
       </c>
-      <c r="L32" s="275"/>
+      <c r="L32" s="273"/>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
@@ -7321,7 +7363,7 @@
       <c r="K33" s="210">
         <v>2901</v>
       </c>
-      <c r="L33" s="275"/>
+      <c r="L33" s="273"/>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
@@ -7353,7 +7395,7 @@
       <c r="K34" s="210">
         <v>2623</v>
       </c>
-      <c r="L34" s="275"/>
+      <c r="L34" s="273"/>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
@@ -7385,7 +7427,7 @@
       <c r="K35" s="210">
         <v>740</v>
       </c>
-      <c r="L35" s="275"/>
+      <c r="L35" s="273"/>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
@@ -7411,13 +7453,13 @@
       <c r="I36" s="205">
         <v>44495</v>
       </c>
-      <c r="J36" s="211">
+      <c r="J36" s="234">
         <v>2655</v>
       </c>
-      <c r="K36" s="212">
+      <c r="K36" s="235">
         <v>1189</v>
       </c>
-      <c r="L36" s="275"/>
+      <c r="L36" s="273"/>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
@@ -7449,7 +7491,7 @@
       <c r="K37" s="210">
         <v>6711</v>
       </c>
-      <c r="L37" s="275"/>
+      <c r="L37" s="273"/>
       <c r="M37" s="69"/>
       <c r="N37" s="137">
         <f t="shared" si="1"/>
@@ -7481,7 +7523,7 @@
       <c r="K38" s="210">
         <v>71111</v>
       </c>
-      <c r="L38" s="275"/>
+      <c r="L38" s="273"/>
       <c r="M38" s="69"/>
       <c r="N38" s="137">
         <f t="shared" si="1"/>
@@ -7513,7 +7555,7 @@
       <c r="K39" s="210">
         <v>13525</v>
       </c>
-      <c r="L39" s="275"/>
+      <c r="L39" s="273"/>
       <c r="M39" s="69"/>
       <c r="N39" s="137">
         <f t="shared" si="1"/>
@@ -7545,7 +7587,7 @@
       <c r="K40" s="210">
         <v>7227</v>
       </c>
-      <c r="L40" s="275"/>
+      <c r="L40" s="273"/>
       <c r="M40" s="69"/>
       <c r="N40" s="137">
         <f t="shared" si="1"/>
@@ -7556,7 +7598,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="326" t="s">
+      <c r="B41" s="327" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="204">
@@ -7577,7 +7619,7 @@
       <c r="K41" s="210">
         <v>2618</v>
       </c>
-      <c r="L41" s="275"/>
+      <c r="L41" s="273"/>
       <c r="M41" s="69"/>
       <c r="N41" s="137">
         <f t="shared" si="1"/>
@@ -7588,7 +7630,7 @@
       <c r="A42" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="327"/>
+      <c r="B42" s="328"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -7607,7 +7649,7 @@
       <c r="K42" s="210">
         <v>8371</v>
       </c>
-      <c r="L42" s="275"/>
+      <c r="L42" s="273"/>
       <c r="M42" s="69"/>
       <c r="N42" s="137">
         <f t="shared" si="1"/>
@@ -7633,7 +7675,7 @@
       <c r="K43" s="210">
         <v>753</v>
       </c>
-      <c r="L43" s="275"/>
+      <c r="L43" s="273"/>
       <c r="M43" s="69"/>
       <c r="N43" s="137">
         <f t="shared" si="1"/>
@@ -7653,13 +7695,13 @@
       <c r="I44" s="205">
         <v>44498</v>
       </c>
-      <c r="J44" s="213" t="s">
+      <c r="J44" s="211" t="s">
         <v>102</v>
       </c>
-      <c r="K44" s="214">
-        <v>0</v>
-      </c>
-      <c r="L44" s="275"/>
+      <c r="K44" s="212">
+        <v>0</v>
+      </c>
+      <c r="L44" s="273"/>
       <c r="M44" s="69"/>
       <c r="N44" s="137">
         <f t="shared" si="1"/>
@@ -7685,7 +7727,7 @@
       <c r="K45" s="210">
         <v>5240</v>
       </c>
-      <c r="L45" s="275"/>
+      <c r="L45" s="273"/>
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
@@ -7711,7 +7753,7 @@
       <c r="K46" s="210">
         <v>15576</v>
       </c>
-      <c r="L46" s="275"/>
+      <c r="L46" s="273"/>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
@@ -7737,7 +7779,7 @@
       <c r="K47" s="210">
         <v>739</v>
       </c>
-      <c r="L47" s="275"/>
+      <c r="L47" s="273"/>
       <c r="M47" s="69"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
@@ -7763,7 +7805,7 @@
       <c r="K48" s="210">
         <v>623</v>
       </c>
-      <c r="L48" s="275"/>
+      <c r="L48" s="273"/>
       <c r="M48" s="69"/>
       <c r="N48" s="137">
         <f t="shared" si="1"/>
@@ -7789,7 +7831,7 @@
       <c r="K49" s="210">
         <v>2636</v>
       </c>
-      <c r="L49" s="275"/>
+      <c r="L49" s="273"/>
       <c r="M49" s="69"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -7815,7 +7857,7 @@
       <c r="K50" s="210">
         <v>120</v>
       </c>
-      <c r="L50" s="275"/>
+      <c r="L50" s="273"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
@@ -7841,7 +7883,7 @@
       <c r="K51" s="210">
         <v>14669</v>
       </c>
-      <c r="L51" s="275"/>
+      <c r="L51" s="273"/>
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
@@ -7867,7 +7909,7 @@
       <c r="K52" s="210">
         <v>2897</v>
       </c>
-      <c r="L52" s="275"/>
+      <c r="L52" s="273"/>
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
@@ -7893,7 +7935,7 @@
       <c r="K53" s="210">
         <v>360</v>
       </c>
-      <c r="L53" s="275"/>
+      <c r="L53" s="273"/>
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
@@ -7919,7 +7961,7 @@
       <c r="K54" s="210">
         <v>4820</v>
       </c>
-      <c r="L54" s="275"/>
+      <c r="L54" s="273"/>
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
@@ -7945,7 +7987,7 @@
       <c r="K55" s="210">
         <v>4925</v>
       </c>
-      <c r="L55" s="275"/>
+      <c r="L55" s="273"/>
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
@@ -7971,7 +8013,7 @@
       <c r="K56" s="210">
         <v>5</v>
       </c>
-      <c r="L56" s="275"/>
+      <c r="L56" s="273"/>
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
@@ -7997,7 +8039,7 @@
       <c r="K57" s="210">
         <v>6665</v>
       </c>
-      <c r="L57" s="275"/>
+      <c r="L57" s="273"/>
       <c r="M57" s="69"/>
       <c r="N57" s="137">
         <f t="shared" si="1"/>
@@ -8023,7 +8065,7 @@
       <c r="K58" s="210">
         <v>646</v>
       </c>
-      <c r="L58" s="275"/>
+      <c r="L58" s="273"/>
       <c r="M58" s="69"/>
       <c r="N58" s="137">
         <f t="shared" si="1"/>
@@ -8043,17 +8085,17 @@
       <c r="I59" s="205">
         <v>44507</v>
       </c>
-      <c r="J59" s="213" t="s">
+      <c r="J59" s="211" t="s">
         <v>102</v>
       </c>
-      <c r="K59" s="214">
-        <v>-34125.46</v>
-      </c>
-      <c r="L59" s="275"/>
+      <c r="K59" s="212">
+        <v>0</v>
+      </c>
+      <c r="L59" s="273"/>
       <c r="M59" s="69"/>
       <c r="N59" s="137">
         <f t="shared" si="1"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8067,13 +8109,15 @@
         <v>404976.39999999985</v>
       </c>
       <c r="I60" s="134"/>
-      <c r="J60" s="139"/>
+      <c r="J60" s="139">
+        <v>34125.46</v>
+      </c>
       <c r="K60" s="69"/>
-      <c r="L60" s="275"/>
+      <c r="L60" s="273"/>
       <c r="M60" s="69"/>
       <c r="N60" s="137">
         <f t="shared" si="1"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8089,11 +8133,11 @@
       <c r="I61" s="134"/>
       <c r="J61" s="139"/>
       <c r="K61" s="69"/>
-      <c r="L61" s="275"/>
+      <c r="L61" s="273"/>
       <c r="M61" s="69"/>
       <c r="N61" s="137">
         <f t="shared" si="1"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8109,11 +8153,11 @@
       <c r="I62" s="134"/>
       <c r="J62" s="139"/>
       <c r="K62" s="69"/>
-      <c r="L62" s="275"/>
+      <c r="L62" s="273"/>
       <c r="M62" s="69"/>
       <c r="N62" s="137">
         <f t="shared" si="1"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8129,11 +8173,11 @@
       <c r="I63" s="141"/>
       <c r="J63" s="142"/>
       <c r="K63" s="143"/>
-      <c r="L63" s="275"/>
+      <c r="L63" s="273"/>
       <c r="M63" s="69"/>
       <c r="N63" s="137">
         <f t="shared" si="1"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8149,11 +8193,11 @@
       <c r="I64" s="141"/>
       <c r="J64" s="142"/>
       <c r="K64" s="143"/>
-      <c r="L64" s="275"/>
+      <c r="L64" s="273"/>
       <c r="M64" s="69"/>
       <c r="N64" s="137">
         <f t="shared" si="1"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8169,11 +8213,11 @@
       <c r="I65" s="141"/>
       <c r="J65" s="142"/>
       <c r="K65" s="143"/>
-      <c r="L65" s="275"/>
+      <c r="L65" s="273"/>
       <c r="M65" s="69"/>
       <c r="N65" s="137">
         <f t="shared" si="1"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8189,11 +8233,11 @@
       <c r="I66" s="141"/>
       <c r="J66" s="142"/>
       <c r="K66" s="143"/>
-      <c r="L66" s="275"/>
+      <c r="L66" s="273"/>
       <c r="M66" s="69"/>
       <c r="N66" s="137">
         <f t="shared" si="1"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8209,11 +8253,11 @@
       <c r="I67" s="141"/>
       <c r="J67" s="142"/>
       <c r="K67" s="143"/>
-      <c r="L67" s="275"/>
+      <c r="L67" s="273"/>
       <c r="M67" s="69"/>
       <c r="N67" s="137">
         <f t="shared" si="1"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8229,11 +8273,11 @@
       <c r="I68" s="141"/>
       <c r="J68" s="142"/>
       <c r="K68" s="143"/>
-      <c r="L68" s="275"/>
+      <c r="L68" s="273"/>
       <c r="M68" s="69"/>
       <c r="N68" s="137">
         <f t="shared" si="1"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8249,11 +8293,11 @@
       <c r="I69" s="141"/>
       <c r="J69" s="142"/>
       <c r="K69" s="143"/>
-      <c r="L69" s="275"/>
+      <c r="L69" s="273"/>
       <c r="M69" s="69"/>
       <c r="N69" s="137">
         <f t="shared" ref="N69:N97" si="3">N68+K69-M69</f>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8269,11 +8313,11 @@
       <c r="I70" s="141"/>
       <c r="J70" s="142"/>
       <c r="K70" s="143"/>
-      <c r="L70" s="275"/>
+      <c r="L70" s="273"/>
       <c r="M70" s="69"/>
       <c r="N70" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8289,11 +8333,11 @@
       <c r="I71" s="141"/>
       <c r="J71" s="142"/>
       <c r="K71" s="143"/>
-      <c r="L71" s="275"/>
+      <c r="L71" s="273"/>
       <c r="M71" s="69"/>
       <c r="N71" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8309,11 +8353,11 @@
       <c r="I72" s="141"/>
       <c r="J72" s="142"/>
       <c r="K72" s="143"/>
-      <c r="L72" s="275"/>
+      <c r="L72" s="273"/>
       <c r="M72" s="69"/>
       <c r="N72" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8329,11 +8373,11 @@
       <c r="I73" s="141"/>
       <c r="J73" s="142"/>
       <c r="K73" s="143"/>
-      <c r="L73" s="275"/>
+      <c r="L73" s="273"/>
       <c r="M73" s="69"/>
       <c r="N73" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8349,11 +8393,11 @@
       <c r="I74" s="141"/>
       <c r="J74" s="142"/>
       <c r="K74" s="143"/>
-      <c r="L74" s="275"/>
+      <c r="L74" s="273"/>
       <c r="M74" s="69"/>
       <c r="N74" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8369,11 +8413,11 @@
       <c r="I75" s="141"/>
       <c r="J75" s="142"/>
       <c r="K75" s="143"/>
-      <c r="L75" s="275"/>
+      <c r="L75" s="273"/>
       <c r="M75" s="69"/>
       <c r="N75" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8389,11 +8433,11 @@
       <c r="I76" s="141"/>
       <c r="J76" s="142"/>
       <c r="K76" s="143"/>
-      <c r="L76" s="275"/>
+      <c r="L76" s="273"/>
       <c r="M76" s="69"/>
       <c r="N76" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8409,11 +8453,11 @@
       <c r="I77" s="141"/>
       <c r="J77" s="142"/>
       <c r="K77" s="143"/>
-      <c r="L77" s="275"/>
+      <c r="L77" s="273"/>
       <c r="M77" s="69"/>
       <c r="N77" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8429,11 +8473,11 @@
       <c r="I78" s="141"/>
       <c r="J78" s="142"/>
       <c r="K78" s="143"/>
-      <c r="L78" s="275"/>
+      <c r="L78" s="273"/>
       <c r="M78" s="69"/>
       <c r="N78" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8449,11 +8493,11 @@
       <c r="I79" s="141"/>
       <c r="J79" s="142"/>
       <c r="K79" s="143"/>
-      <c r="L79" s="275"/>
+      <c r="L79" s="273"/>
       <c r="M79" s="69"/>
       <c r="N79" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8469,11 +8513,11 @@
       <c r="I80" s="141"/>
       <c r="J80" s="142"/>
       <c r="K80" s="143"/>
-      <c r="L80" s="275"/>
+      <c r="L80" s="273"/>
       <c r="M80" s="69"/>
       <c r="N80" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8493,7 +8537,7 @@
       <c r="M81" s="34"/>
       <c r="N81" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8513,7 +8557,7 @@
       <c r="M82" s="34"/>
       <c r="N82" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8533,7 +8577,7 @@
       <c r="M83" s="34"/>
       <c r="N83" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8553,7 +8597,7 @@
       <c r="M84" s="34"/>
       <c r="N84" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8573,7 +8617,7 @@
       <c r="M85" s="34"/>
       <c r="N85" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8593,7 +8637,7 @@
       <c r="M86" s="34"/>
       <c r="N86" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8609,11 +8653,11 @@
       <c r="I87" s="141"/>
       <c r="J87" s="142"/>
       <c r="K87" s="143"/>
-      <c r="L87" s="276"/>
+      <c r="L87" s="274"/>
       <c r="M87" s="69"/>
       <c r="N87" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8629,11 +8673,11 @@
       <c r="I88" s="141"/>
       <c r="J88" s="142"/>
       <c r="K88" s="143"/>
-      <c r="L88" s="276"/>
+      <c r="L88" s="274"/>
       <c r="M88" s="69"/>
       <c r="N88" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8649,11 +8693,11 @@
       <c r="I89" s="141"/>
       <c r="J89" s="142"/>
       <c r="K89" s="143"/>
-      <c r="L89" s="276"/>
+      <c r="L89" s="274"/>
       <c r="M89" s="69"/>
       <c r="N89" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8669,11 +8713,11 @@
       <c r="I90" s="141"/>
       <c r="J90" s="142"/>
       <c r="K90" s="143"/>
-      <c r="L90" s="276"/>
+      <c r="L90" s="274"/>
       <c r="M90" s="69"/>
       <c r="N90" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8689,11 +8733,11 @@
       <c r="I91" s="141"/>
       <c r="J91" s="142"/>
       <c r="K91" s="143"/>
-      <c r="L91" s="276"/>
+      <c r="L91" s="274"/>
       <c r="M91" s="69"/>
       <c r="N91" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8709,11 +8753,11 @@
       <c r="I92" s="141"/>
       <c r="J92" s="142"/>
       <c r="K92" s="143"/>
-      <c r="L92" s="276"/>
+      <c r="L92" s="274"/>
       <c r="M92" s="69"/>
       <c r="N92" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8729,11 +8773,11 @@
       <c r="I93" s="141"/>
       <c r="J93" s="142"/>
       <c r="K93" s="143"/>
-      <c r="L93" s="276"/>
+      <c r="L93" s="274"/>
       <c r="M93" s="69"/>
       <c r="N93" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8749,11 +8793,11 @@
       <c r="I94" s="141"/>
       <c r="J94" s="142"/>
       <c r="K94" s="143"/>
-      <c r="L94" s="276"/>
+      <c r="L94" s="274"/>
       <c r="M94" s="69"/>
       <c r="N94" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8769,11 +8813,11 @@
       <c r="I95" s="141"/>
       <c r="J95" s="142"/>
       <c r="K95" s="143"/>
-      <c r="L95" s="276"/>
+      <c r="L95" s="274"/>
       <c r="M95" s="69"/>
       <c r="N95" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8789,16 +8833,16 @@
       <c r="I96" s="141"/>
       <c r="J96" s="142"/>
       <c r="K96" s="143"/>
-      <c r="L96" s="276"/>
+      <c r="L96" s="274"/>
       <c r="M96" s="69"/>
       <c r="N96" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="149"/>
-      <c r="B97" s="226"/>
+      <c r="B97" s="224"/>
       <c r="C97" s="34">
         <v>0</v>
       </c>
@@ -8813,16 +8857,16 @@
       <c r="K97" s="151">
         <v>0</v>
       </c>
-      <c r="L97" s="277"/>
+      <c r="L97" s="275"/>
       <c r="M97" s="151"/>
       <c r="N97" s="137">
         <f t="shared" si="3"/>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="227"/>
-      <c r="C98" s="228">
+      <c r="B98" s="225"/>
+      <c r="C98" s="226">
         <f>SUM(C3:C97)</f>
         <v>549976.39999999967</v>
       </c>
@@ -8835,28 +8879,28 @@
         <f>F97</f>
         <v>404976.39999999985</v>
       </c>
-      <c r="K98" s="225">
+      <c r="K98" s="223">
         <f>SUM(K3:K97)</f>
-        <v>564370.54</v>
-      </c>
-      <c r="L98" s="278"/>
+        <v>598496</v>
+      </c>
+      <c r="L98" s="276"/>
       <c r="M98" s="1">
         <f>SUM(M3:M97)</f>
         <v>51341.58</v>
       </c>
       <c r="N98" s="153">
         <f>N97</f>
-        <v>513028.9599999999</v>
+        <v>547154.41999999993</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="229"/>
-      <c r="C99" s="230"/>
+      <c r="B99" s="227"/>
+      <c r="C99" s="228"/>
       <c r="D99" s="97"/>
       <c r="E99" s="3"/>
       <c r="F99" s="1"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="278"/>
+      <c r="L99" s="276"/>
       <c r="M99" s="3"/>
       <c r="N99" s="1"/>
     </row>
@@ -8867,7 +8911,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="1"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="278"/>
+      <c r="L100" s="276"/>
       <c r="M100" s="3"/>
       <c r="N100" s="1"/>
     </row>
@@ -9147,8 +9191,8 @@
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9168,28 +9212,28 @@
     <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="242" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="245" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="240" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="243" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="315"/>
-      <c r="C1" s="317" t="s">
+      <c r="B1" s="292"/>
+      <c r="C1" s="294" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="316"/>
+      <c r="B2" s="293"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9199,17 +9243,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="319" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="320"/>
+      <c r="B3" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="297"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="321" t="s">
+      <c r="H3" s="298" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="321"/>
+      <c r="I3" s="298"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9225,14 +9269,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="322" t="s">
+      <c r="E4" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="323"/>
-      <c r="H4" s="324" t="s">
+      <c r="F4" s="300"/>
+      <c r="H4" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="325"/>
+      <c r="I4" s="302"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -9242,10 +9286,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="296" t="s">
+      <c r="P4" s="308" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="297"/>
+      <c r="Q4" s="309"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9287,11 +9331,11 @@
         <f>N5+M5+L5+I5+C5</f>
         <v>27763</v>
       </c>
-      <c r="Q5" s="234">
+      <c r="Q5" s="232">
         <f>P5-F5</f>
         <v>-27936</v>
       </c>
-      <c r="R5" s="247">
+      <c r="R5" s="245">
         <f>20000+7936</f>
         <v>27936</v>
       </c>
@@ -9334,11 +9378,11 @@
         <f>N6+M6+L6+I6+C6</f>
         <v>11269</v>
       </c>
-      <c r="Q6" s="241">
+      <c r="Q6" s="239">
         <f>P6-F6</f>
         <v>-26378</v>
       </c>
-      <c r="R6" s="248">
+      <c r="R6" s="246">
         <f>22000+4378</f>
         <v>26378</v>
       </c>
@@ -9375,16 +9419,16 @@
       <c r="N7" s="33">
         <v>4538</v>
       </c>
-      <c r="O7" s="240"/>
+      <c r="O7" s="238"/>
       <c r="P7" s="69">
         <f t="shared" ref="P7:P32" si="0">N7+M7+L7+I7+C7</f>
         <v>4602</v>
       </c>
-      <c r="Q7" s="241">
+      <c r="Q7" s="239">
         <f t="shared" ref="Q7:Q38" si="1">P7-F7</f>
         <v>-30393</v>
       </c>
-      <c r="R7" s="248">
+      <c r="R7" s="246">
         <f>26000+4393</f>
         <v>30393</v>
       </c>
@@ -9434,11 +9478,11 @@
         <f t="shared" si="0"/>
         <v>22033</v>
       </c>
-      <c r="Q8" s="241">
+      <c r="Q8" s="239">
         <f t="shared" si="1"/>
         <v>-20199</v>
       </c>
-      <c r="R8" s="248">
+      <c r="R8" s="246">
         <f>20065+133</f>
         <v>20198</v>
       </c>
@@ -9471,7 +9515,7 @@
       <c r="J9" s="37">
         <v>44512</v>
       </c>
-      <c r="K9" s="239" t="s">
+      <c r="K9" s="237" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="39">
@@ -9488,11 +9532,11 @@
         <f>N9+M9+L9+I9+C9</f>
         <v>18006</v>
       </c>
-      <c r="Q9" s="241">
+      <c r="Q9" s="239">
         <f t="shared" si="1"/>
         <v>-35678</v>
       </c>
-      <c r="R9" s="248">
+      <c r="R9" s="246">
         <f>35678</f>
         <v>35678</v>
       </c>
@@ -9525,8 +9569,8 @@
       <c r="J10" s="37">
         <v>44513</v>
       </c>
-      <c r="K10" s="243"/>
-      <c r="L10" s="244">
+      <c r="K10" s="241"/>
+      <c r="L10" s="242">
         <v>0</v>
       </c>
       <c r="M10" s="32">
@@ -9542,11 +9586,11 @@
         <f t="shared" ref="P10:P14" si="2">N10+M10+L10+I10+C10</f>
         <v>40368</v>
       </c>
-      <c r="Q10" s="241">
+      <c r="Q10" s="239">
         <f t="shared" si="1"/>
         <v>-30925</v>
       </c>
-      <c r="R10" s="248">
+      <c r="R10" s="246">
         <f>30925</f>
         <v>30925</v>
       </c>
@@ -9588,11 +9632,11 @@
         <f t="shared" si="2"/>
         <v>13621</v>
       </c>
-      <c r="Q11" s="241">
+      <c r="Q11" s="239">
         <f t="shared" si="1"/>
         <v>-35238</v>
       </c>
-      <c r="R11" s="248">
+      <c r="R11" s="246">
         <f>35238</f>
         <v>35238</v>
       </c>
@@ -9638,11 +9682,11 @@
         <f t="shared" si="2"/>
         <v>20195</v>
       </c>
-      <c r="Q12" s="241">
+      <c r="Q12" s="239">
         <f t="shared" si="1"/>
         <v>-29846</v>
       </c>
-      <c r="R12" s="248">
+      <c r="R12" s="246">
         <f>29000+846</f>
         <v>29846</v>
       </c>
@@ -9675,30 +9719,30 @@
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="350">
-        <v>0</v>
-      </c>
-      <c r="N13" s="351">
+      <c r="M13" s="289">
+        <v>0</v>
+      </c>
+      <c r="N13" s="290">
         <v>21106</v>
       </c>
-      <c r="O13" s="352"/>
+      <c r="O13" s="291"/>
       <c r="P13" s="69">
         <f t="shared" si="2"/>
         <v>23882.36</v>
       </c>
-      <c r="Q13" s="241">
+      <c r="Q13" s="239">
         <f t="shared" si="1"/>
         <v>-41525.64</v>
       </c>
-      <c r="R13" s="248">
+      <c r="R13" s="246">
         <f>41050+1147</f>
         <v>42197</v>
       </c>
-      <c r="S13" s="250" t="s">
+      <c r="S13" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="249"/>
-      <c r="U13" s="249"/>
+      <c r="T13" s="247"/>
+      <c r="U13" s="247"/>
     </row>
     <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
@@ -9738,11 +9782,11 @@
         <f t="shared" si="2"/>
         <v>25955.5</v>
       </c>
-      <c r="Q14" s="241">
+      <c r="Q14" s="239">
         <f t="shared" si="1"/>
         <v>-27969.5</v>
       </c>
-      <c r="R14" s="248">
+      <c r="R14" s="246">
         <v>27970</v>
       </c>
       <c r="S14" s="147"/>
@@ -9784,11 +9828,11 @@
         <f t="shared" si="0"/>
         <v>14542</v>
       </c>
-      <c r="Q15" s="241">
+      <c r="Q15" s="239">
         <f t="shared" si="1"/>
         <v>-32780</v>
       </c>
-      <c r="R15" s="248">
+      <c r="R15" s="246">
         <v>32780</v>
       </c>
       <c r="S15" s="147"/>
@@ -9830,11 +9874,11 @@
         <f t="shared" si="0"/>
         <v>21455</v>
       </c>
-      <c r="Q16" s="241">
+      <c r="Q16" s="239">
         <f t="shared" si="1"/>
         <v>-37376</v>
       </c>
-      <c r="R16" s="248">
+      <c r="R16" s="246">
         <v>37376</v>
       </c>
       <c r="S16" s="147"/>
@@ -9866,10 +9910,10 @@
       <c r="J17" s="37">
         <v>44520</v>
       </c>
-      <c r="K17" s="251" t="s">
+      <c r="K17" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="L17" s="244">
+      <c r="L17" s="242">
         <f>1285.71</f>
         <v>1285.71</v>
       </c>
@@ -9886,11 +9930,11 @@
         <f t="shared" si="0"/>
         <v>49619.33</v>
       </c>
-      <c r="Q17" s="241">
+      <c r="Q17" s="239">
         <f t="shared" si="1"/>
         <v>-9805.6699999999983</v>
       </c>
-      <c r="R17" s="248">
+      <c r="R17" s="246">
         <f>9805.9+12537.27+1285.71</f>
         <v>23628.879999999997</v>
       </c>
@@ -9931,11 +9975,11 @@
         <f t="shared" si="0"/>
         <v>23496</v>
       </c>
-      <c r="Q18" s="241">
+      <c r="Q18" s="239">
         <f t="shared" si="1"/>
         <v>-21680</v>
       </c>
-      <c r="R18" s="248">
+      <c r="R18" s="246">
         <v>21680</v>
       </c>
       <c r="S18" s="147"/>
@@ -9977,11 +10021,11 @@
         <f t="shared" si="0"/>
         <v>25718</v>
       </c>
-      <c r="Q19" s="241">
+      <c r="Q19" s="239">
         <f t="shared" si="1"/>
         <v>-26370</v>
       </c>
-      <c r="R19" s="248">
+      <c r="R19" s="246">
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
@@ -10023,11 +10067,11 @@
         <f t="shared" si="0"/>
         <v>22146.17</v>
       </c>
-      <c r="Q20" s="241">
+      <c r="Q20" s="239">
         <f t="shared" si="1"/>
         <v>-16395.830000000002</v>
       </c>
-      <c r="R20" s="248">
+      <c r="R20" s="246">
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
@@ -10069,11 +10113,11 @@
         <f t="shared" si="0"/>
         <v>15744.18</v>
       </c>
-      <c r="Q21" s="241">
+      <c r="Q21" s="239">
         <f t="shared" si="1"/>
         <v>-19188.82</v>
       </c>
-      <c r="R21" s="248">
+      <c r="R21" s="246">
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
@@ -10116,11 +10160,11 @@
         <f t="shared" si="0"/>
         <v>23348.28</v>
       </c>
-      <c r="Q22" s="241">
+      <c r="Q22" s="239">
         <f t="shared" si="1"/>
         <v>-33647.72</v>
       </c>
-      <c r="R22" s="248">
+      <c r="R22" s="246">
         <v>33647.72</v>
       </c>
       <c r="S22" s="147"/>
@@ -10163,11 +10207,11 @@
         <f t="shared" si="0"/>
         <v>31708.71</v>
       </c>
-      <c r="Q23" s="241">
+      <c r="Q23" s="239">
         <f t="shared" si="1"/>
         <v>-45217.29</v>
       </c>
-      <c r="R23" s="248">
+      <c r="R23" s="246">
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
@@ -10199,8 +10243,8 @@
       <c r="J24" s="51">
         <v>44527</v>
       </c>
-      <c r="K24" s="252"/>
-      <c r="L24" s="253">
+      <c r="K24" s="250"/>
+      <c r="L24" s="251">
         <v>0</v>
       </c>
       <c r="M24" s="32">
@@ -10216,11 +10260,11 @@
         <f t="shared" si="0"/>
         <v>42092.83</v>
       </c>
-      <c r="Q24" s="241">
+      <c r="Q24" s="239">
         <f t="shared" si="1"/>
         <v>-23159.17</v>
       </c>
-      <c r="R24" s="248">
+      <c r="R24" s="246">
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
@@ -10256,15 +10300,15 @@
       <c r="N25" s="33">
         <v>10181</v>
       </c>
-      <c r="P25" s="232">
+      <c r="P25" s="230">
         <f t="shared" si="0"/>
         <v>10581</v>
       </c>
-      <c r="Q25" s="241">
+      <c r="Q25" s="239">
         <f t="shared" si="1"/>
         <v>-28952</v>
       </c>
-      <c r="R25" s="248">
+      <c r="R25" s="246">
         <v>28952</v>
       </c>
     </row>
@@ -10304,15 +10348,15 @@
       <c r="O26" t="s">
         <v>125</v>
       </c>
-      <c r="P26" s="231">
+      <c r="P26" s="229">
         <f t="shared" si="0"/>
         <v>29939.5</v>
       </c>
-      <c r="Q26" s="241">
+      <c r="Q26" s="239">
         <f t="shared" si="1"/>
         <v>-21771.5</v>
       </c>
-      <c r="R26" s="248">
+      <c r="R26" s="246">
         <v>21771.5</v>
       </c>
     </row>
@@ -10353,11 +10397,11 @@
         <f t="shared" si="0"/>
         <v>16423</v>
       </c>
-      <c r="Q27" s="241">
+      <c r="Q27" s="239">
         <f t="shared" si="1"/>
         <v>-14637</v>
       </c>
-      <c r="R27" s="248">
+      <c r="R27" s="246">
         <v>14637</v>
       </c>
     </row>
@@ -10401,11 +10445,11 @@
         <f t="shared" si="0"/>
         <v>53075</v>
       </c>
-      <c r="Q28" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="248">
+      <c r="Q28" s="239">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="246">
         <v>0</v>
       </c>
     </row>
@@ -10451,11 +10495,11 @@
         <f t="shared" si="0"/>
         <v>174324</v>
       </c>
-      <c r="Q29" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="248">
+      <c r="Q29" s="239">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="246">
         <v>0</v>
       </c>
     </row>
@@ -10497,11 +10541,11 @@
         <f t="shared" si="0"/>
         <v>90573</v>
       </c>
-      <c r="Q30" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="248"/>
+      <c r="Q30" s="239">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="246"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
@@ -10541,11 +10585,11 @@
         <f t="shared" si="0"/>
         <v>70468</v>
       </c>
-      <c r="Q31" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="248"/>
+      <c r="Q31" s="239">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="246"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
@@ -10584,11 +10628,11 @@
         <f t="shared" si="0"/>
         <v>47119</v>
       </c>
-      <c r="Q32" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="246"/>
+      <c r="Q32" s="239">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="244"/>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
@@ -10603,7 +10647,7 @@
       <c r="J33" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="K33" s="269">
+      <c r="K33" s="267">
         <v>44508</v>
       </c>
       <c r="L33" s="66">
@@ -10618,11 +10662,11 @@
       <c r="P33" s="34">
         <v>0</v>
       </c>
-      <c r="Q33" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="246"/>
+      <c r="Q33" s="239">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="244"/>
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
@@ -10645,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="60"/>
-      <c r="K34" s="270">
+      <c r="K34" s="268">
         <v>44509</v>
       </c>
       <c r="L34" s="44">
@@ -10660,11 +10704,11 @@
       <c r="P34" s="34">
         <v>0</v>
       </c>
-      <c r="Q34" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="246"/>
+      <c r="Q34" s="239">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="244"/>
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
@@ -10687,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="60"/>
-      <c r="K35" s="271">
+      <c r="K35" s="269">
         <v>44509</v>
       </c>
       <c r="L35" s="66">
@@ -10702,11 +10746,11 @@
       <c r="P35" s="34">
         <v>0</v>
       </c>
-      <c r="Q35" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="246"/>
+      <c r="Q35" s="239">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="244"/>
     </row>
     <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
@@ -10729,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="60"/>
-      <c r="K36" s="272">
+      <c r="K36" s="270">
         <v>44511</v>
       </c>
       <c r="L36" s="44">
@@ -10740,11 +10784,11 @@
       <c r="P36" s="34">
         <v>0</v>
       </c>
-      <c r="Q36" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="246"/>
+      <c r="Q36" s="239">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="244"/>
     </row>
     <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
@@ -10767,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="60"/>
-      <c r="K37" s="270">
+      <c r="K37" s="268">
         <v>44523</v>
       </c>
       <c r="L37" s="44">
@@ -10778,7 +10822,7 @@
       <c r="P37" s="34">
         <v>0</v>
       </c>
-      <c r="Q37" s="241">
+      <c r="Q37" s="239">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10805,7 +10849,7 @@
       <c r="P38" s="151">
         <v>0</v>
       </c>
-      <c r="Q38" s="241">
+      <c r="Q38" s="239">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10823,11 +10867,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="298">
+      <c r="M39" s="310">
         <f>SUM(M5:M38)</f>
         <v>321168.83</v>
       </c>
-      <c r="N39" s="300">
+      <c r="N39" s="312">
         <f>SUM(N5:N38)</f>
         <v>467016</v>
       </c>
@@ -10835,7 +10879,7 @@
         <f>SUM(P5:P38)</f>
         <v>970067.86</v>
       </c>
-      <c r="Q39" s="234">
+      <c r="Q39" s="232">
         <f>SUM(Q5:Q38)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -10853,8 +10897,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="299"/>
-      <c r="N40" s="301"/>
+      <c r="M40" s="311"/>
+      <c r="N40" s="313"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
@@ -11069,29 +11113,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="302" t="s">
+      <c r="H52" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="303"/>
+      <c r="I52" s="315"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="304">
+      <c r="K52" s="316">
         <f>I50+L50</f>
         <v>65231.97</v>
       </c>
-      <c r="L52" s="305"/>
-      <c r="M52" s="306">
+      <c r="L52" s="317"/>
+      <c r="M52" s="318">
         <f>N39+M39</f>
         <v>788184.83000000007</v>
       </c>
-      <c r="N52" s="307"/>
+      <c r="N52" s="319"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D53" s="308" t="s">
+      <c r="D53" s="320" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="308"/>
+      <c r="E53" s="320"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>-17892.929999999935</v>
@@ -11102,27 +11146,27 @@
       <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="308" t="s">
+      <c r="D54" s="320" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="308"/>
-      <c r="F54" s="96">
+      <c r="E54" s="320"/>
+      <c r="F54" s="360">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="309" t="s">
+      <c r="I54" s="321" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="310"/>
-      <c r="K54" s="311">
+      <c r="J54" s="322"/>
+      <c r="K54" s="323">
         <f>F56+F57+F58</f>
-        <v>1417526.31</v>
-      </c>
-      <c r="L54" s="312"/>
-      <c r="P54" s="346" t="s">
+        <v>1278229.6900000002</v>
+      </c>
+      <c r="L54" s="324"/>
+      <c r="P54" s="329" t="s">
         <v>130</v>
       </c>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="254"/>
+      <c r="Q54" s="329"/>
+      <c r="R54" s="252"/>
     </row>
     <row r="55" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="203" t="s">
@@ -11130,16 +11174,16 @@
       </c>
       <c r="E55" s="98"/>
       <c r="F55" s="104">
-        <v>0</v>
+        <v>-164725.34</v>
       </c>
       <c r="I55" s="105"/>
       <c r="J55" s="106"/>
       <c r="K55" s="191"/>
       <c r="L55" s="107"/>
-      <c r="P55" s="255">
+      <c r="P55" s="253">
         <v>50000</v>
       </c>
-      <c r="Q55" s="258">
+      <c r="Q55" s="256">
         <v>44505</v>
       </c>
       <c r="R55" s="13"/>
@@ -11153,22 +11197,22 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>-724781.30999999994</v>
+        <v>-889506.64999999991</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="313">
+      <c r="K56" s="325">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="314"/>
-      <c r="P56" s="255">
+      <c r="L56" s="326"/>
+      <c r="P56" s="253">
         <v>50000</v>
       </c>
-      <c r="Q56" s="258">
+      <c r="Q56" s="256">
         <v>44505</v>
       </c>
       <c r="R56" s="13"/>
@@ -11181,12 +11225,12 @@
         <v>17</v>
       </c>
       <c r="F57" s="111">
-        <v>0</v>
-      </c>
-      <c r="P57" s="255">
+        <v>25428.720000000001</v>
+      </c>
+      <c r="P57" s="253">
         <v>50000</v>
       </c>
-      <c r="Q57" s="258">
+      <c r="Q57" s="256">
         <v>44505</v>
       </c>
       <c r="R57" s="13"/>
@@ -11195,26 +11239,26 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="291" t="s">
+      <c r="D58" s="303" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="292"/>
+      <c r="E58" s="304"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="293" t="s">
+      <c r="I58" s="305" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="294"/>
-      <c r="K58" s="295">
+      <c r="J58" s="306"/>
+      <c r="K58" s="307">
         <f>K54+K56</f>
-        <v>850136.96000000008</v>
-      </c>
-      <c r="L58" s="295"/>
-      <c r="P58" s="255">
+        <v>710840.3400000002</v>
+      </c>
+      <c r="L58" s="307"/>
+      <c r="P58" s="253">
         <v>100000</v>
       </c>
-      <c r="Q58" s="259">
+      <c r="Q58" s="257">
         <v>44509</v>
       </c>
       <c r="R58" s="13"/>
@@ -11225,10 +11269,10 @@
       <c r="E59" s="116"/>
       <c r="F59" s="117"/>
       <c r="J59" s="118"/>
-      <c r="P59" s="255">
+      <c r="P59" s="253">
         <v>215000</v>
       </c>
-      <c r="Q59" s="259">
+      <c r="Q59" s="257">
         <v>44510</v>
       </c>
       <c r="R59" s="13"/>
@@ -11238,10 +11282,10 @@
       <c r="J60" s="119"/>
       <c r="K60" s="192"/>
       <c r="L60" s="120"/>
-      <c r="P60" s="255">
+      <c r="P60" s="253">
         <v>200500</v>
       </c>
-      <c r="Q60" s="258">
+      <c r="Q60" s="256">
         <v>44517</v>
       </c>
       <c r="R60" s="13"/>
@@ -11257,10 +11301,10 @@
       <c r="L61" s="120"/>
       <c r="M61" s="124"/>
       <c r="N61" s="98"/>
-      <c r="P61" s="255">
+      <c r="P61" s="253">
         <v>260000</v>
       </c>
-      <c r="Q61" s="258">
+      <c r="Q61" s="256">
         <v>44523</v>
       </c>
       <c r="R61" s="13"/>
@@ -11271,10 +11315,10 @@
       <c r="E62" s="34"/>
       <c r="M62" s="124"/>
       <c r="N62" s="98"/>
-      <c r="P62" s="255">
+      <c r="P62" s="253">
         <v>9636</v>
       </c>
-      <c r="Q62" s="258">
+      <c r="Q62" s="256">
         <v>44533</v>
       </c>
       <c r="R62" s="13"/>
@@ -11286,10 +11330,10 @@
       <c r="F63" s="126"/>
       <c r="L63" s="127"/>
       <c r="M63" s="1"/>
-      <c r="P63" s="255">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="258"/>
+      <c r="P63" s="253">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="256"/>
       <c r="R63" s="13"/>
     </row>
     <row r="64" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11297,10 +11341,10 @@
       <c r="C64" s="125"/>
       <c r="E64" s="34"/>
       <c r="M64" s="1"/>
-      <c r="P64" s="255">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="258"/>
+      <c r="P64" s="253">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="256"/>
       <c r="R64" s="13"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
@@ -11310,65 +11354,65 @@
       <c r="E65" s="34"/>
       <c r="F65" s="129"/>
       <c r="M65" s="1"/>
-      <c r="P65" s="255">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="260"/>
-      <c r="R65" s="254"/>
+      <c r="P65" s="253">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="258"/>
+      <c r="R65" s="252"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D66" s="128"/>
       <c r="E66" s="130"/>
       <c r="F66" s="34"/>
       <c r="M66" s="1"/>
-      <c r="P66" s="256">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="258"/>
-      <c r="R66" s="254"/>
+      <c r="P66" s="254">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="256"/>
+      <c r="R66" s="252"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D67" s="128"/>
       <c r="E67" s="130"/>
       <c r="F67" s="34"/>
       <c r="M67" s="1"/>
-      <c r="P67" s="257">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="261"/>
-      <c r="R67" s="254"/>
+      <c r="P67" s="255">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="259"/>
+      <c r="R67" s="252"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D68" s="128"/>
       <c r="E68" s="130"/>
       <c r="F68" s="34"/>
       <c r="M68" s="1"/>
-      <c r="P68" s="334">
+      <c r="P68" s="336">
         <f t="shared" ref="P68" si="3">SUM(P55:P67)</f>
         <v>935136</v>
       </c>
-      <c r="Q68" s="261"/>
-      <c r="R68" s="254"/>
+      <c r="Q68" s="259"/>
+      <c r="R68" s="252"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D69" s="128"/>
       <c r="E69" s="130"/>
       <c r="F69" s="34"/>
       <c r="M69" s="1"/>
-      <c r="P69" s="335"/>
+      <c r="P69" s="337"/>
       <c r="Q69" s="33"/>
-      <c r="R69" s="254"/>
+      <c r="R69" s="252"/>
     </row>
     <row r="70" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D70" s="128"/>
       <c r="E70" s="130"/>
       <c r="F70" s="34"/>
       <c r="M70" s="1"/>
-      <c r="P70" s="336" t="s">
+      <c r="P70" s="338" t="s">
         <v>131</v>
       </c>
-      <c r="Q70" s="337"/>
-      <c r="R70" s="254"/>
+      <c r="Q70" s="339"/>
+      <c r="R70" s="252"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D71" s="128"/>
@@ -11377,69 +11421,69 @@
       <c r="M71" s="1"/>
       <c r="P71" s="85"/>
       <c r="Q71" s="33"/>
-      <c r="R71" s="254"/>
+      <c r="R71" s="252"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D72" s="128"/>
       <c r="E72" s="130"/>
       <c r="F72" s="34"/>
       <c r="M72" s="1"/>
-      <c r="P72" s="338">
+      <c r="P72" s="340">
         <v>-53663.11</v>
       </c>
-      <c r="Q72" s="339"/>
-      <c r="R72" s="254"/>
+      <c r="Q72" s="341"/>
+      <c r="R72" s="252"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D73" s="128"/>
       <c r="E73" s="130"/>
       <c r="F73" s="34"/>
       <c r="M73" s="1"/>
-      <c r="P73" s="340"/>
-      <c r="Q73" s="341"/>
-      <c r="R73" s="254"/>
+      <c r="P73" s="342"/>
+      <c r="Q73" s="343"/>
+      <c r="R73" s="252"/>
     </row>
     <row r="74" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D74" s="128"/>
       <c r="E74" s="130"/>
       <c r="F74" s="34"/>
       <c r="M74" s="1"/>
-      <c r="P74" s="342">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="343"/>
-      <c r="R74" s="254"/>
+      <c r="P74" s="344">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="345"/>
+      <c r="R74" s="252"/>
     </row>
     <row r="75" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D75" s="128"/>
       <c r="E75" s="130"/>
       <c r="F75" s="34"/>
       <c r="M75" s="1"/>
-      <c r="P75" s="344">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="345"/>
-      <c r="R75" s="254"/>
+      <c r="P75" s="346">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="347"/>
+      <c r="R75" s="252"/>
     </row>
     <row r="76" spans="2:18" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D76" s="128"/>
       <c r="E76" s="130"/>
       <c r="F76" s="34"/>
       <c r="M76" s="1"/>
-      <c r="P76" s="328">
+      <c r="P76" s="330">
         <f>SUM(P75+P74+P72)</f>
         <v>-53663.11</v>
       </c>
-      <c r="Q76" s="329"/>
-      <c r="R76" s="332"/>
+      <c r="Q76" s="331"/>
+      <c r="R76" s="334"/>
     </row>
     <row r="77" spans="2:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D77" s="128"/>
       <c r="E77" s="130"/>
       <c r="F77" s="34"/>
-      <c r="P77" s="330"/>
-      <c r="Q77" s="331"/>
-      <c r="R77" s="333"/>
+      <c r="P77" s="332"/>
+      <c r="Q77" s="333"/>
+      <c r="R77" s="335"/>
     </row>
     <row r="78" spans="2:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D78" s="128"/>
@@ -11458,12 +11502,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P76:Q77"/>
+    <mergeCell ref="R76:R77"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P72:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -11479,13 +11524,12 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P76:Q77"/>
-    <mergeCell ref="R76:R77"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P72:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11501,8 +11545,8 @@
   </sheetPr>
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="G37" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11583,13 +11627,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="265" t="s">
+      <c r="A3" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="283" t="s">
+      <c r="B3" s="281" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="284">
+      <c r="C3" s="282">
         <v>15652.4</v>
       </c>
       <c r="D3" s="136"/>
@@ -11598,10 +11642,10 @@
         <f>C3-E3</f>
         <v>15652.4</v>
       </c>
-      <c r="I3" s="235"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="136"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="351"/>
       <c r="M3" s="69"/>
       <c r="N3" s="196">
         <f>K3-M3</f>
@@ -11609,13 +11653,13 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="265" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="285" t="s">
+      <c r="B4" s="283" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="286">
+      <c r="C4" s="284">
         <v>6679.8</v>
       </c>
       <c r="D4" s="136"/>
@@ -11625,24 +11669,32 @@
         <v>22332.2</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="136"/>
+      <c r="I4" s="351" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="352">
+        <v>7749</v>
+      </c>
+      <c r="K4" s="353">
+        <v>5707.22</v>
+      </c>
+      <c r="L4" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M4" s="69"/>
       <c r="N4" s="137">
         <f>N3+K4-M4</f>
-        <v>0</v>
+        <v>5707.22</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="267" t="s">
+      <c r="A5" s="265" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="283" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="286">
+      <c r="C5" s="284">
         <v>18704.419999999998</v>
       </c>
       <c r="D5" s="136"/>
@@ -11651,24 +11703,32 @@
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>41036.619999999995</v>
       </c>
-      <c r="I5" s="235"/>
-      <c r="J5" s="236"/>
-      <c r="K5" s="237"/>
-      <c r="L5" s="136"/>
+      <c r="I5" s="354" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="355">
+        <v>7746</v>
+      </c>
+      <c r="K5" s="356">
+        <v>30</v>
+      </c>
+      <c r="L5" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M5" s="69"/>
       <c r="N5" s="137">
         <f t="shared" ref="N5:N68" si="1">N4+K5-M5</f>
-        <v>0</v>
+        <v>5737.22</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="267" t="s">
+      <c r="A6" s="265" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="285" t="s">
+      <c r="B6" s="283" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="286">
+      <c r="C6" s="284">
         <v>840</v>
       </c>
       <c r="D6" s="136"/>
@@ -11677,21 +11737,29 @@
         <f t="shared" si="0"/>
         <v>41876.619999999995</v>
       </c>
-      <c r="I6" s="235"/>
-      <c r="J6" s="236"/>
-      <c r="K6" s="237"/>
-      <c r="L6" s="136"/>
+      <c r="I6" s="354" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="355">
+        <v>7753</v>
+      </c>
+      <c r="K6" s="356">
+        <v>3667.5</v>
+      </c>
+      <c r="L6" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M6" s="69"/>
       <c r="N6" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9404.7200000000012</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="265" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="266" t="s">
         <v>139</v>
       </c>
       <c r="C7" s="111">
@@ -11703,21 +11771,29 @@
         <f t="shared" si="0"/>
         <v>49574.42</v>
       </c>
-      <c r="I7" s="235"/>
-      <c r="J7" s="236"/>
-      <c r="K7" s="237"/>
-      <c r="L7" s="136"/>
+      <c r="I7" s="354" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="355">
+        <v>7755</v>
+      </c>
+      <c r="K7" s="356">
+        <v>120</v>
+      </c>
+      <c r="L7" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M7" s="69"/>
       <c r="N7" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9524.7200000000012</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="267" t="s">
+      <c r="A8" s="265" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="268" t="s">
+      <c r="B8" s="266" t="s">
         <v>140</v>
       </c>
       <c r="C8" s="111">
@@ -11729,21 +11805,29 @@
         <f t="shared" si="0"/>
         <v>73417.320000000007</v>
       </c>
-      <c r="I8" s="235"/>
-      <c r="J8" s="236"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="136"/>
+      <c r="I8" s="351" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" s="352">
+        <v>7756</v>
+      </c>
+      <c r="K8" s="353">
+        <v>436.5</v>
+      </c>
+      <c r="L8" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M8" s="69"/>
       <c r="N8" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9961.2200000000012</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="267" t="s">
+      <c r="A9" s="265" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="268" t="s">
+      <c r="B9" s="266" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="111">
@@ -11755,21 +11839,29 @@
         <f t="shared" si="0"/>
         <v>102606.02</v>
       </c>
-      <c r="I9" s="235"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="136"/>
+      <c r="I9" s="351" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="352">
+        <v>7771</v>
+      </c>
+      <c r="K9" s="353">
+        <v>9412.4500000000007</v>
+      </c>
+      <c r="L9" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M9" s="69"/>
       <c r="N9" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19373.670000000002</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="267" t="s">
+      <c r="A10" s="265" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="268" t="s">
+      <c r="B10" s="266" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="111">
@@ -11782,21 +11874,29 @@
         <v>104718.52</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="I10" s="235"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="136"/>
+      <c r="I10" s="351" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="352">
+        <v>7772</v>
+      </c>
+      <c r="K10" s="353">
+        <v>10285</v>
+      </c>
+      <c r="L10" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M10" s="69"/>
       <c r="N10" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29658.670000000002</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="267" t="s">
+      <c r="A11" s="265" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="268" t="s">
+      <c r="B11" s="266" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="111">
@@ -11808,21 +11908,29 @@
         <f t="shared" si="0"/>
         <v>114742.32</v>
       </c>
-      <c r="I11" s="235"/>
-      <c r="J11" s="236"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="140"/>
+      <c r="I11" s="351" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="352">
+        <v>7774</v>
+      </c>
+      <c r="K11" s="353">
+        <v>2504.94</v>
+      </c>
+      <c r="L11" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M11" s="69"/>
       <c r="N11" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32163.61</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="267" t="s">
+      <c r="A12" s="265" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="268" t="s">
+      <c r="B12" s="266" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="111">
@@ -11834,21 +11942,31 @@
         <f t="shared" si="0"/>
         <v>144234.77000000002</v>
       </c>
-      <c r="I12" s="235"/>
-      <c r="J12" s="236"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="69"/>
+      <c r="I12" s="351" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="357">
+        <v>7778</v>
+      </c>
+      <c r="K12" s="358">
+        <v>800</v>
+      </c>
+      <c r="L12" s="359" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" s="69">
+        <v>800</v>
+      </c>
       <c r="N12" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32163.61</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="267" t="s">
+      <c r="A13" s="265" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="266" t="s">
         <v>148</v>
       </c>
       <c r="C13" s="111">
@@ -11860,21 +11978,29 @@
         <f t="shared" si="0"/>
         <v>152682.27000000002</v>
       </c>
-      <c r="I13" s="235"/>
-      <c r="J13" s="236"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="140"/>
+      <c r="I13" s="354" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="355">
+        <v>7781</v>
+      </c>
+      <c r="K13" s="356">
+        <v>733.6</v>
+      </c>
+      <c r="L13" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M13" s="69"/>
       <c r="N13" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32897.21</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="267" t="s">
+      <c r="A14" s="265" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="268" t="s">
+      <c r="B14" s="266" t="s">
         <v>150</v>
       </c>
       <c r="C14" s="111">
@@ -11886,21 +12012,29 @@
         <f t="shared" si="0"/>
         <v>153805.77000000002</v>
       </c>
-      <c r="I14" s="235"/>
-      <c r="J14" s="236"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="140"/>
+      <c r="I14" s="354" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="355">
+        <v>7783</v>
+      </c>
+      <c r="K14" s="356">
+        <v>675</v>
+      </c>
+      <c r="L14" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M14" s="69"/>
       <c r="N14" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33572.21</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="267" t="s">
+      <c r="A15" s="265" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="268" t="s">
+      <c r="B15" s="266" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="111">
@@ -11912,21 +12046,29 @@
         <f t="shared" si="0"/>
         <v>168484.37000000002</v>
       </c>
-      <c r="I15" s="235"/>
-      <c r="J15" s="236"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="140"/>
+      <c r="I15" s="351" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="352">
+        <v>7789</v>
+      </c>
+      <c r="K15" s="353">
+        <v>5566.27</v>
+      </c>
+      <c r="L15" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M15" s="69"/>
       <c r="N15" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39138.479999999996</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="267" t="s">
+      <c r="A16" s="265" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="268" t="s">
+      <c r="B16" s="266" t="s">
         <v>153</v>
       </c>
       <c r="C16" s="111">
@@ -11938,21 +12080,29 @@
         <f t="shared" si="0"/>
         <v>199614.07000000004</v>
       </c>
-      <c r="I16" s="235"/>
-      <c r="J16" s="236"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="140"/>
+      <c r="I16" s="351" t="s">
+        <v>204</v>
+      </c>
+      <c r="J16" s="352">
+        <v>7794</v>
+      </c>
+      <c r="K16" s="353">
+        <v>60</v>
+      </c>
+      <c r="L16" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M16" s="69"/>
       <c r="N16" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39198.479999999996</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="267" t="s">
+      <c r="A17" s="265" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="268" t="s">
+      <c r="B17" s="266" t="s">
         <v>155</v>
       </c>
       <c r="C17" s="111">
@@ -11964,21 +12114,29 @@
         <f t="shared" si="0"/>
         <v>213788.97000000003</v>
       </c>
-      <c r="I17" s="235"/>
-      <c r="J17" s="236"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="140"/>
+      <c r="I17" s="351" t="s">
+        <v>204</v>
+      </c>
+      <c r="J17" s="352">
+        <v>7796</v>
+      </c>
+      <c r="K17" s="353">
+        <v>4155</v>
+      </c>
+      <c r="L17" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M17" s="69"/>
       <c r="N17" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43353.479999999996</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="267" t="s">
+      <c r="A18" s="265" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="268" t="s">
+      <c r="B18" s="266" t="s">
         <v>156</v>
       </c>
       <c r="C18" s="111">
@@ -11990,21 +12148,29 @@
         <f t="shared" si="0"/>
         <v>216252.72000000003</v>
       </c>
-      <c r="I18" s="235"/>
-      <c r="J18" s="236"/>
-      <c r="K18" s="237"/>
-      <c r="L18" s="140"/>
+      <c r="I18" s="351" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="352">
+        <v>7798</v>
+      </c>
+      <c r="K18" s="353">
+        <v>1620.32</v>
+      </c>
+      <c r="L18" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M18" s="69"/>
       <c r="N18" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44973.799999999996</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="267" t="s">
+      <c r="A19" s="265" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="268" t="s">
+      <c r="B19" s="266" t="s">
         <v>157</v>
       </c>
       <c r="C19" s="111">
@@ -12016,21 +12182,29 @@
         <f t="shared" si="0"/>
         <v>226152.72000000003</v>
       </c>
-      <c r="I19" s="235"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="140"/>
+      <c r="I19" s="354" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="355">
+        <v>7805</v>
+      </c>
+      <c r="K19" s="356">
+        <v>2386.12</v>
+      </c>
+      <c r="L19" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M19" s="69"/>
       <c r="N19" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47359.92</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="267" t="s">
+      <c r="A20" s="265" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="268" t="s">
+      <c r="B20" s="266" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="111">
@@ -12042,21 +12216,29 @@
         <f t="shared" si="0"/>
         <v>246437.22000000003</v>
       </c>
-      <c r="I20" s="235"/>
-      <c r="J20" s="236"/>
-      <c r="K20" s="237"/>
-      <c r="L20" s="140"/>
+      <c r="I20" s="354" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="355">
+        <v>7809</v>
+      </c>
+      <c r="K20" s="356">
+        <v>2376.56</v>
+      </c>
+      <c r="L20" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M20" s="69"/>
       <c r="N20" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49736.479999999996</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="267" t="s">
+      <c r="A21" s="265" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="268" t="s">
+      <c r="B21" s="266" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="111">
@@ -12068,21 +12250,29 @@
         <f t="shared" si="0"/>
         <v>255046.22000000003</v>
       </c>
-      <c r="I21" s="235"/>
-      <c r="J21" s="236"/>
-      <c r="K21" s="237"/>
-      <c r="L21" s="140"/>
+      <c r="I21" s="351" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="352">
+        <v>7817</v>
+      </c>
+      <c r="K21" s="353">
+        <v>3020.38</v>
+      </c>
+      <c r="L21" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M21" s="69"/>
       <c r="N21" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52756.859999999993</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="267" t="s">
+      <c r="A22" s="265" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="268" t="s">
+      <c r="B22" s="266" t="s">
         <v>162</v>
       </c>
       <c r="C22" s="111">
@@ -12095,21 +12285,29 @@
         <v>287890.52</v>
       </c>
       <c r="G22" s="138"/>
-      <c r="I22" s="235"/>
-      <c r="J22" s="236"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="140"/>
+      <c r="I22" s="351" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" s="352">
+        <v>7822</v>
+      </c>
+      <c r="K22" s="353">
+        <v>2524.2399999999998</v>
+      </c>
+      <c r="L22" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M22" s="69"/>
       <c r="N22" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55281.099999999991</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="267" t="s">
+      <c r="A23" s="265" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="268" t="s">
+      <c r="B23" s="266" t="s">
         <v>163</v>
       </c>
       <c r="C23" s="111">
@@ -12121,21 +12319,29 @@
         <f t="shared" si="0"/>
         <v>289692.32</v>
       </c>
-      <c r="I23" s="235"/>
-      <c r="J23" s="236"/>
-      <c r="K23" s="237"/>
-      <c r="L23" s="140"/>
+      <c r="I23" s="351" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" s="352">
+        <v>7826</v>
+      </c>
+      <c r="K23" s="353">
+        <v>1789.6</v>
+      </c>
+      <c r="L23" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M23" s="69"/>
       <c r="N23" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57070.69999999999</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="267" t="s">
+      <c r="A24" s="265" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="268" t="s">
+      <c r="B24" s="266" t="s">
         <v>165</v>
       </c>
       <c r="C24" s="111">
@@ -12147,21 +12353,29 @@
         <f t="shared" si="0"/>
         <v>290392.32000000001</v>
       </c>
-      <c r="I24" s="235"/>
-      <c r="J24" s="236"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="140"/>
+      <c r="I24" s="354" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" s="355">
+        <v>7829</v>
+      </c>
+      <c r="K24" s="356">
+        <v>2590.2199999999998</v>
+      </c>
+      <c r="L24" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M24" s="69"/>
       <c r="N24" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59660.919999999991</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="267" t="s">
+      <c r="A25" s="265" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="268" t="s">
+      <c r="B25" s="266" t="s">
         <v>166</v>
       </c>
       <c r="C25" s="111">
@@ -12173,21 +12387,29 @@
         <f t="shared" si="0"/>
         <v>290392.32000000001</v>
       </c>
-      <c r="I25" s="235"/>
-      <c r="J25" s="236"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="140"/>
+      <c r="I25" s="354" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" s="355">
+        <v>7831</v>
+      </c>
+      <c r="K25" s="356">
+        <v>5268.02</v>
+      </c>
+      <c r="L25" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M25" s="69"/>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64928.939999999988</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="267" t="s">
+      <c r="A26" s="265" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="268" t="s">
+      <c r="B26" s="266" t="s">
         <v>167</v>
       </c>
       <c r="C26" s="111">
@@ -12201,21 +12423,29 @@
         <f t="shared" si="0"/>
         <v>325302.22000000003</v>
       </c>
-      <c r="I26" s="235"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="140"/>
+      <c r="I26" s="354" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="355">
+        <v>7835</v>
+      </c>
+      <c r="K26" s="356">
+        <v>1272.24</v>
+      </c>
+      <c r="L26" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M26" s="69"/>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66201.179999999993</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="267" t="s">
+      <c r="A27" s="265" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="268" t="s">
+      <c r="B27" s="266" t="s">
         <v>168</v>
       </c>
       <c r="C27" s="111">
@@ -12227,21 +12457,29 @@
         <f t="shared" si="0"/>
         <v>330754.12000000005</v>
       </c>
-      <c r="I27" s="235"/>
-      <c r="J27" s="236"/>
-      <c r="K27" s="237"/>
-      <c r="L27" s="140"/>
+      <c r="I27" s="354" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" s="355">
+        <v>7837</v>
+      </c>
+      <c r="K27" s="356">
+        <v>2132.7199999999998</v>
+      </c>
+      <c r="L27" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M27" s="69"/>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68333.899999999994</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="267" t="s">
+      <c r="A28" s="265" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="268" t="s">
+      <c r="B28" s="266" t="s">
         <v>170</v>
       </c>
       <c r="C28" s="111">
@@ -12253,21 +12491,29 @@
         <f t="shared" si="0"/>
         <v>336874.12000000005</v>
       </c>
-      <c r="I28" s="235"/>
-      <c r="J28" s="236"/>
-      <c r="K28" s="237"/>
-      <c r="L28" s="140"/>
+      <c r="I28" s="354" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" s="355">
+        <v>7841</v>
+      </c>
+      <c r="K28" s="356">
+        <v>5711.74</v>
+      </c>
+      <c r="L28" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M28" s="69"/>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>74045.64</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="267" t="s">
+      <c r="A29" s="265" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="268" t="s">
+      <c r="B29" s="266" t="s">
         <v>171</v>
       </c>
       <c r="C29" s="111">
@@ -12279,21 +12525,29 @@
         <f t="shared" si="0"/>
         <v>337074.52000000008</v>
       </c>
-      <c r="I29" s="235"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="237"/>
-      <c r="L29" s="140"/>
+      <c r="I29" s="351" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="352">
+        <v>7850</v>
+      </c>
+      <c r="K29" s="353">
+        <v>1624.34</v>
+      </c>
+      <c r="L29" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M29" s="69"/>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75669.98</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="267" t="s">
+      <c r="A30" s="265" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="268" t="s">
+      <c r="B30" s="266" t="s">
         <v>173</v>
       </c>
       <c r="C30" s="111">
@@ -12306,21 +12560,29 @@
         <v>353510.72000000009</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="235"/>
-      <c r="J30" s="236"/>
-      <c r="K30" s="237"/>
-      <c r="L30" s="140"/>
+      <c r="I30" s="354" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" s="355">
+        <v>7855</v>
+      </c>
+      <c r="K30" s="356">
+        <v>1017</v>
+      </c>
+      <c r="L30" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76686.98</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="267" t="s">
+      <c r="A31" s="265" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="268" t="s">
+      <c r="B31" s="266" t="s">
         <v>175</v>
       </c>
       <c r="C31" s="111">
@@ -12332,21 +12594,29 @@
         <f t="shared" si="0"/>
         <v>359281.22000000009</v>
       </c>
-      <c r="I31" s="235"/>
-      <c r="J31" s="236"/>
-      <c r="K31" s="237"/>
-      <c r="L31" s="140"/>
+      <c r="I31" s="354" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" s="355">
+        <v>7861</v>
+      </c>
+      <c r="K31" s="356">
+        <v>2570.5</v>
+      </c>
+      <c r="L31" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79257.48</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="267" t="s">
+      <c r="A32" s="265" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="268" t="s">
+      <c r="B32" s="266" t="s">
         <v>176</v>
       </c>
       <c r="C32" s="111">
@@ -12358,21 +12628,29 @@
         <f t="shared" si="0"/>
         <v>391068.0500000001</v>
       </c>
-      <c r="I32" s="235"/>
-      <c r="J32" s="236"/>
-      <c r="K32" s="237"/>
-      <c r="L32" s="140"/>
+      <c r="I32" s="351" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" s="352">
+        <v>7862</v>
+      </c>
+      <c r="K32" s="353">
+        <v>220</v>
+      </c>
+      <c r="L32" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79477.48</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="267" t="s">
+      <c r="A33" s="265" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="268" t="s">
+      <c r="B33" s="266" t="s">
         <v>178</v>
       </c>
       <c r="C33" s="111">
@@ -12384,21 +12662,29 @@
         <f t="shared" si="0"/>
         <v>392101.65000000008</v>
       </c>
-      <c r="I33" s="235"/>
-      <c r="J33" s="236"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="140"/>
+      <c r="I33" s="351" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" s="352">
+        <v>7868</v>
+      </c>
+      <c r="K33" s="353">
+        <v>1057.4000000000001</v>
+      </c>
+      <c r="L33" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80534.87999999999</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="267" t="s">
+      <c r="A34" s="265" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="268" t="s">
+      <c r="B34" s="266" t="s">
         <v>179</v>
       </c>
       <c r="C34" s="111">
@@ -12410,47 +12696,63 @@
         <f t="shared" si="0"/>
         <v>415429.0500000001</v>
       </c>
-      <c r="I34" s="235"/>
-      <c r="J34" s="236"/>
-      <c r="K34" s="237"/>
-      <c r="L34" s="140"/>
+      <c r="I34" s="351" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34" s="352">
+        <v>7874</v>
+      </c>
+      <c r="K34" s="353">
+        <v>2185.46</v>
+      </c>
+      <c r="L34" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82720.34</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="267" t="s">
+      <c r="A35" s="265" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="287" t="s">
+      <c r="B35" s="285" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="288">
+      <c r="C35" s="286">
         <v>9701.98</v>
       </c>
-      <c r="D35" s="289"/>
+      <c r="D35" s="287"/>
       <c r="E35" s="69"/>
       <c r="F35" s="137">
         <f t="shared" si="0"/>
         <v>425131.03000000009</v>
       </c>
-      <c r="I35" s="235"/>
-      <c r="J35" s="236"/>
-      <c r="K35" s="237"/>
-      <c r="L35" s="140"/>
+      <c r="I35" s="351" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="352">
+        <v>7885</v>
+      </c>
+      <c r="K35" s="353">
+        <v>7065.94</v>
+      </c>
+      <c r="L35" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>89786.28</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="267" t="s">
+      <c r="A36" s="265" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="268" t="s">
+      <c r="B36" s="266" t="s">
         <v>182</v>
       </c>
       <c r="C36" s="111">
@@ -12462,21 +12764,29 @@
         <f t="shared" si="0"/>
         <v>444133.63000000006</v>
       </c>
-      <c r="I36" s="235"/>
-      <c r="J36" s="236"/>
-      <c r="K36" s="237"/>
-      <c r="L36" s="140"/>
+      <c r="I36" s="351" t="s">
+        <v>186</v>
+      </c>
+      <c r="J36" s="352">
+        <v>7886</v>
+      </c>
+      <c r="K36" s="353">
+        <v>2509.7199999999998</v>
+      </c>
+      <c r="L36" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92296</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="267" t="s">
+      <c r="A37" s="265" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="268" t="s">
+      <c r="B37" s="266" t="s">
         <v>184</v>
       </c>
       <c r="C37" s="111">
@@ -12488,21 +12798,29 @@
         <f t="shared" si="0"/>
         <v>459138.13000000006</v>
       </c>
-      <c r="I37" s="235"/>
-      <c r="J37" s="236"/>
-      <c r="K37" s="237"/>
-      <c r="L37" s="140"/>
+      <c r="I37" s="351" t="s">
+        <v>188</v>
+      </c>
+      <c r="J37" s="352">
+        <v>7894</v>
+      </c>
+      <c r="K37" s="353">
+        <v>6480.14</v>
+      </c>
+      <c r="L37" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M37" s="69"/>
       <c r="N37" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98776.14</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="267" t="s">
+      <c r="A38" s="265" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="268" t="s">
+      <c r="B38" s="266" t="s">
         <v>185</v>
       </c>
       <c r="C38" s="111">
@@ -12514,21 +12832,29 @@
         <f t="shared" si="0"/>
         <v>470791.13000000006</v>
       </c>
-      <c r="I38" s="235"/>
-      <c r="J38" s="236"/>
-      <c r="K38" s="237"/>
-      <c r="L38" s="140"/>
+      <c r="I38" s="354" t="s">
+        <v>191</v>
+      </c>
+      <c r="J38" s="355">
+        <v>7902</v>
+      </c>
+      <c r="K38" s="356">
+        <v>14917</v>
+      </c>
+      <c r="L38" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M38" s="69"/>
       <c r="N38" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113693.14</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="267" t="s">
+      <c r="A39" s="265" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="268" t="s">
+      <c r="B39" s="266" t="s">
         <v>187</v>
       </c>
       <c r="C39" s="111">
@@ -12540,21 +12866,29 @@
         <f t="shared" si="0"/>
         <v>484355.53000000009</v>
       </c>
-      <c r="I39" s="235"/>
-      <c r="J39" s="236"/>
-      <c r="K39" s="237"/>
-      <c r="L39" s="140"/>
+      <c r="I39" s="351" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" s="352">
+        <v>7904</v>
+      </c>
+      <c r="K39" s="353">
+        <v>23258.400000000001</v>
+      </c>
+      <c r="L39" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M39" s="69"/>
       <c r="N39" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>136951.54</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="267" t="s">
+      <c r="A40" s="265" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="268" t="s">
+      <c r="B40" s="266" t="s">
         <v>189</v>
       </c>
       <c r="C40" s="111">
@@ -12566,21 +12900,29 @@
         <f t="shared" si="0"/>
         <v>507707.63000000006</v>
       </c>
-      <c r="I40" s="235"/>
-      <c r="J40" s="236"/>
-      <c r="K40" s="237"/>
-      <c r="L40" s="140"/>
+      <c r="I40" s="354" t="s">
+        <v>193</v>
+      </c>
+      <c r="J40" s="355">
+        <v>7909</v>
+      </c>
+      <c r="K40" s="356">
+        <v>4062.48</v>
+      </c>
+      <c r="L40" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M40" s="69"/>
       <c r="N40" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>141014.02000000002</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="267" t="s">
+      <c r="A41" s="265" t="s">
         <v>188</v>
       </c>
-      <c r="B41" s="268" t="s">
+      <c r="B41" s="266" t="s">
         <v>190</v>
       </c>
       <c r="C41" s="111">
@@ -12592,21 +12934,29 @@
         <f t="shared" si="0"/>
         <v>508770.23000000004</v>
       </c>
-      <c r="I41" s="235"/>
-      <c r="J41" s="236"/>
-      <c r="K41" s="237"/>
-      <c r="L41" s="140"/>
+      <c r="I41" s="354" t="s">
+        <v>196</v>
+      </c>
+      <c r="J41" s="355">
+        <v>7918</v>
+      </c>
+      <c r="K41" s="356">
+        <v>2667.28</v>
+      </c>
+      <c r="L41" s="354" t="s">
+        <v>203</v>
+      </c>
       <c r="M41" s="69"/>
       <c r="N41" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>143681.30000000002</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="267" t="s">
+      <c r="A42" s="265" t="s">
         <v>191</v>
       </c>
-      <c r="B42" s="268" t="s">
+      <c r="B42" s="266" t="s">
         <v>192</v>
       </c>
       <c r="C42" s="111">
@@ -12618,21 +12968,29 @@
         <f t="shared" si="0"/>
         <v>532487.13</v>
       </c>
-      <c r="I42" s="235"/>
-      <c r="J42" s="236"/>
-      <c r="K42" s="237"/>
-      <c r="L42" s="140"/>
+      <c r="I42" s="351" t="s">
+        <v>196</v>
+      </c>
+      <c r="J42" s="352">
+        <v>7920</v>
+      </c>
+      <c r="K42" s="353">
+        <v>19440.8</v>
+      </c>
+      <c r="L42" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M42" s="69"/>
       <c r="N42" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163122.1</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="267" t="s">
+      <c r="A43" s="265" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="268" t="s">
+      <c r="B43" s="266" t="s">
         <v>194</v>
       </c>
       <c r="C43" s="111">
@@ -12644,21 +13002,29 @@
         <f t="shared" si="0"/>
         <v>532487.13</v>
       </c>
-      <c r="I43" s="235"/>
-      <c r="J43" s="236"/>
-      <c r="K43" s="237"/>
-      <c r="L43" s="140"/>
+      <c r="I43" s="351" t="s">
+        <v>196</v>
+      </c>
+      <c r="J43" s="352">
+        <v>7925</v>
+      </c>
+      <c r="K43" s="353">
+        <v>803.24</v>
+      </c>
+      <c r="L43" s="351" t="s">
+        <v>203</v>
+      </c>
       <c r="M43" s="69"/>
       <c r="N43" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="267" t="s">
+      <c r="A44" s="265" t="s">
         <v>193</v>
       </c>
-      <c r="B44" s="268" t="s">
+      <c r="B44" s="266" t="s">
         <v>195</v>
       </c>
       <c r="C44" s="111">
@@ -12670,18 +13036,18 @@
         <f t="shared" si="0"/>
         <v>554959.13</v>
       </c>
-      <c r="I44" s="235"/>
-      <c r="J44" s="236"/>
-      <c r="K44" s="238"/>
+      <c r="I44" s="233"/>
+      <c r="J44" s="234"/>
+      <c r="K44" s="236"/>
       <c r="L44" s="140"/>
       <c r="M44" s="69"/>
       <c r="N44" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="267" t="s">
+      <c r="A45" s="265" t="s">
         <v>196</v>
       </c>
       <c r="B45" s="57" t="s">
@@ -12696,24 +13062,24 @@
         <f t="shared" si="0"/>
         <v>632125.18000000005</v>
       </c>
-      <c r="I45" s="235"/>
-      <c r="J45" s="236"/>
-      <c r="K45" s="237"/>
+      <c r="I45" s="233"/>
+      <c r="J45" s="234"/>
+      <c r="K45" s="235"/>
       <c r="L45" s="140"/>
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="267" t="s">
+      <c r="A46" s="265" t="s">
         <v>196</v>
       </c>
       <c r="B46" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="264">
+      <c r="C46" s="262">
         <v>104.4</v>
       </c>
       <c r="D46" s="140"/>
@@ -12722,24 +13088,24 @@
         <f t="shared" si="0"/>
         <v>632229.58000000007</v>
       </c>
-      <c r="I46" s="235"/>
-      <c r="J46" s="236"/>
-      <c r="K46" s="237"/>
+      <c r="I46" s="233"/>
+      <c r="J46" s="234"/>
+      <c r="K46" s="235"/>
       <c r="L46" s="140"/>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="267" t="s">
+      <c r="A47" s="265" t="s">
         <v>196</v>
       </c>
       <c r="B47" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="264">
+      <c r="C47" s="262">
         <v>702</v>
       </c>
       <c r="D47" s="140"/>
@@ -12748,24 +13114,24 @@
         <f t="shared" si="0"/>
         <v>632931.58000000007</v>
       </c>
-      <c r="I47" s="235"/>
-      <c r="J47" s="236"/>
-      <c r="K47" s="237"/>
+      <c r="I47" s="233"/>
+      <c r="J47" s="234"/>
+      <c r="K47" s="235"/>
       <c r="L47" s="140"/>
       <c r="M47" s="69"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="263">
+      <c r="A48" s="261">
         <v>44534</v>
       </c>
-      <c r="B48" s="262" t="s">
+      <c r="B48" s="260" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="266">
+      <c r="C48" s="264">
         <v>73956.800000000003</v>
       </c>
       <c r="D48" s="140"/>
@@ -12774,34 +13140,34 @@
         <f t="shared" si="0"/>
         <v>706888.38000000012</v>
       </c>
-      <c r="I48" s="235"/>
-      <c r="J48" s="236"/>
-      <c r="K48" s="237"/>
+      <c r="I48" s="233"/>
+      <c r="J48" s="234"/>
+      <c r="K48" s="235"/>
       <c r="L48" s="140"/>
       <c r="M48" s="69"/>
       <c r="N48" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="140"/>
       <c r="B49" s="139"/>
-      <c r="C49" s="231"/>
+      <c r="C49" s="229"/>
       <c r="D49" s="140"/>
       <c r="E49" s="69"/>
       <c r="F49" s="137">
         <f t="shared" si="0"/>
         <v>706888.38000000012</v>
       </c>
-      <c r="I49" s="235"/>
-      <c r="J49" s="236"/>
-      <c r="K49" s="237"/>
+      <c r="I49" s="233"/>
+      <c r="J49" s="234"/>
+      <c r="K49" s="235"/>
       <c r="L49" s="140"/>
       <c r="M49" s="69"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -12814,14 +13180,14 @@
         <f t="shared" si="0"/>
         <v>706888.38000000012</v>
       </c>
-      <c r="I50" s="235"/>
-      <c r="J50" s="236"/>
-      <c r="K50" s="237"/>
+      <c r="I50" s="233"/>
+      <c r="J50" s="234"/>
+      <c r="K50" s="235"/>
       <c r="L50" s="140"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -12834,14 +13200,14 @@
         <f t="shared" si="0"/>
         <v>706888.38000000012</v>
       </c>
-      <c r="I51" s="235"/>
-      <c r="J51" s="236"/>
-      <c r="K51" s="237"/>
+      <c r="I51" s="233"/>
+      <c r="J51" s="234"/>
+      <c r="K51" s="235"/>
       <c r="L51" s="140"/>
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -12854,14 +13220,14 @@
         <f t="shared" si="0"/>
         <v>706888.38000000012</v>
       </c>
-      <c r="I52" s="235"/>
-      <c r="J52" s="236"/>
-      <c r="K52" s="237"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
+      <c r="K52" s="235"/>
       <c r="L52" s="140"/>
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -12874,14 +13240,14 @@
         <f t="shared" si="0"/>
         <v>706888.38000000012</v>
       </c>
-      <c r="I53" s="235"/>
-      <c r="J53" s="236"/>
-      <c r="K53" s="237"/>
+      <c r="I53" s="233"/>
+      <c r="J53" s="234"/>
+      <c r="K53" s="235"/>
       <c r="L53" s="140"/>
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -12894,14 +13260,14 @@
         <f t="shared" si="0"/>
         <v>706888.38000000012</v>
       </c>
-      <c r="I54" s="235"/>
-      <c r="J54" s="236"/>
-      <c r="K54" s="237"/>
+      <c r="I54" s="233"/>
+      <c r="J54" s="234"/>
+      <c r="K54" s="235"/>
       <c r="L54" s="140"/>
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -12914,14 +13280,14 @@
         <f t="shared" si="0"/>
         <v>706888.38000000012</v>
       </c>
-      <c r="I55" s="235"/>
-      <c r="J55" s="236"/>
-      <c r="K55" s="237"/>
+      <c r="I55" s="233"/>
+      <c r="J55" s="234"/>
+      <c r="K55" s="235"/>
       <c r="L55" s="140"/>
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -12934,14 +13300,14 @@
         <f t="shared" si="0"/>
         <v>706888.38000000012</v>
       </c>
-      <c r="I56" s="235"/>
-      <c r="J56" s="236"/>
-      <c r="K56" s="237"/>
+      <c r="I56" s="233"/>
+      <c r="J56" s="234"/>
+      <c r="K56" s="235"/>
       <c r="L56" s="140"/>
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -12954,14 +13320,14 @@
         <f t="shared" si="0"/>
         <v>706888.38000000012</v>
       </c>
-      <c r="I57" s="235"/>
-      <c r="J57" s="236"/>
-      <c r="K57" s="237"/>
+      <c r="I57" s="233"/>
+      <c r="J57" s="234"/>
+      <c r="K57" s="235"/>
       <c r="L57" s="140"/>
       <c r="M57" s="69"/>
       <c r="N57" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -12974,14 +13340,14 @@
         <f t="shared" si="0"/>
         <v>706888.38000000012</v>
       </c>
-      <c r="I58" s="235"/>
-      <c r="J58" s="236"/>
-      <c r="K58" s="237"/>
+      <c r="I58" s="233"/>
+      <c r="J58" s="234"/>
+      <c r="K58" s="235"/>
       <c r="L58" s="140"/>
       <c r="M58" s="69"/>
       <c r="N58" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
@@ -12994,14 +13360,14 @@
         <f t="shared" si="0"/>
         <v>706888.38000000012</v>
       </c>
-      <c r="I59" s="235"/>
-      <c r="J59" s="236"/>
-      <c r="K59" s="238"/>
+      <c r="I59" s="233"/>
+      <c r="J59" s="234"/>
+      <c r="K59" s="236"/>
       <c r="L59" s="140"/>
       <c r="M59" s="69"/>
       <c r="N59" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13021,7 +13387,7 @@
       <c r="M60" s="69"/>
       <c r="N60" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13041,7 +13407,7 @@
       <c r="M61" s="69"/>
       <c r="N61" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13061,7 +13427,7 @@
       <c r="M62" s="69"/>
       <c r="N62" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13081,7 +13447,7 @@
       <c r="M63" s="69"/>
       <c r="N63" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13101,7 +13467,7 @@
       <c r="M64" s="69"/>
       <c r="N64" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13121,7 +13487,7 @@
       <c r="M65" s="69"/>
       <c r="N65" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13141,7 +13507,7 @@
       <c r="M66" s="69"/>
       <c r="N66" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13161,7 +13527,7 @@
       <c r="M67" s="69"/>
       <c r="N67" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13181,7 +13547,7 @@
       <c r="M68" s="69"/>
       <c r="N68" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13201,7 +13567,7 @@
       <c r="M69" s="69"/>
       <c r="N69" s="137">
         <f t="shared" ref="N69:N97" si="3">N68+K69-M69</f>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13221,7 +13587,7 @@
       <c r="M70" s="69"/>
       <c r="N70" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13241,7 +13607,7 @@
       <c r="M71" s="69"/>
       <c r="N71" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13261,7 +13627,7 @@
       <c r="M72" s="69"/>
       <c r="N72" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13281,7 +13647,7 @@
       <c r="M73" s="69"/>
       <c r="N73" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13301,7 +13667,7 @@
       <c r="M74" s="69"/>
       <c r="N74" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13321,7 +13687,7 @@
       <c r="M75" s="69"/>
       <c r="N75" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13341,7 +13707,7 @@
       <c r="M76" s="69"/>
       <c r="N76" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13361,7 +13727,7 @@
       <c r="M77" s="69"/>
       <c r="N77" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13381,7 +13747,7 @@
       <c r="M78" s="69"/>
       <c r="N78" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13401,7 +13767,7 @@
       <c r="M79" s="69"/>
       <c r="N79" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13421,7 +13787,7 @@
       <c r="M80" s="69"/>
       <c r="N80" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13441,7 +13807,7 @@
       <c r="M81" s="34"/>
       <c r="N81" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13461,7 +13827,7 @@
       <c r="M82" s="34"/>
       <c r="N82" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13481,7 +13847,7 @@
       <c r="M83" s="34"/>
       <c r="N83" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13501,7 +13867,7 @@
       <c r="M84" s="34"/>
       <c r="N84" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13521,7 +13887,7 @@
       <c r="M85" s="34"/>
       <c r="N85" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13541,7 +13907,7 @@
       <c r="M86" s="34"/>
       <c r="N86" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13561,7 +13927,7 @@
       <c r="M87" s="69"/>
       <c r="N87" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13581,7 +13947,7 @@
       <c r="M88" s="69"/>
       <c r="N88" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13601,7 +13967,7 @@
       <c r="M89" s="69"/>
       <c r="N89" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13621,7 +13987,7 @@
       <c r="M90" s="69"/>
       <c r="N90" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13641,7 +14007,7 @@
       <c r="M91" s="69"/>
       <c r="N91" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13661,7 +14027,7 @@
       <c r="M92" s="69"/>
       <c r="N92" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13681,7 +14047,7 @@
       <c r="M93" s="69"/>
       <c r="N93" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13701,7 +14067,7 @@
       <c r="M94" s="69"/>
       <c r="N94" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13721,7 +14087,7 @@
       <c r="M95" s="69"/>
       <c r="N95" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13741,12 +14107,12 @@
       <c r="M96" s="69"/>
       <c r="N96" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="149"/>
-      <c r="B97" s="226"/>
+      <c r="B97" s="224"/>
       <c r="C97" s="34">
         <v>0</v>
       </c>
@@ -13765,12 +14131,12 @@
       <c r="M97" s="151"/>
       <c r="N97" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="227"/>
-      <c r="C98" s="228">
+      <c r="B98" s="225"/>
+      <c r="C98" s="226">
         <f>SUM(C3:C97)</f>
         <v>706888.38000000012</v>
       </c>
@@ -13783,23 +14149,23 @@
         <f>F97</f>
         <v>706888.38000000012</v>
       </c>
-      <c r="K98" s="225">
+      <c r="K98" s="223">
         <f>SUM(K3:K97)</f>
-        <v>0</v>
+        <v>164725.34</v>
       </c>
       <c r="L98" s="97"/>
       <c r="M98" s="1">
         <f>SUM(M3:M97)</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="N98" s="153">
         <f>N97</f>
-        <v>0</v>
+        <v>163925.34</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="229"/>
-      <c r="C99" s="230"/>
+      <c r="B99" s="227"/>
+      <c r="C99" s="228"/>
       <c r="D99" s="97"/>
       <c r="E99" s="3"/>
       <c r="F99" s="1"/>
@@ -14172,12 +14538,12 @@
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="155"/>
-      <c r="B43" s="347" t="s">
+      <c r="B43" s="348" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="348"/>
-      <c r="D43" s="348"/>
-      <c r="E43" s="349"/>
+      <c r="C43" s="349"/>
+      <c r="D43" s="349"/>
+      <c r="E43" s="350"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="215">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -761,9 +761,6 @@
     <t>ADT PRIVATE</t>
   </si>
   <si>
-    <t>cancelada</t>
-  </si>
-  <si>
     <t>06/12/2021</t>
   </si>
   <si>
@@ -771,6 +768,36 @@
   </si>
   <si>
     <t>21/11/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANANCIA </t>
+  </si>
+  <si>
+    <t>NOV-DIC</t>
+  </si>
+  <si>
+    <t>comisiones ban</t>
+  </si>
+  <si>
+    <t>TELMEX</t>
+  </si>
+  <si>
+    <t>DESECHABLES</t>
+  </si>
+  <si>
+    <t>POLICIA AUX</t>
+  </si>
+  <si>
+    <t>CARNES CIEN</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>NOV--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALDO X PAGAR </t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1278,8 +1305,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="81">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -2267,12 +2300,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="361">
+  <cellXfs count="387">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2746,9 +2894,6 @@
     </xf>
     <xf numFmtId="44" fontId="47" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="12" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2770,12 +2915,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="12" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="14" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2859,183 +2998,6 @@
     <xf numFmtId="44" fontId="16" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="6" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="15" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="16" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3051,7 +3013,253 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="17" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="17" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="39" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="38" fillId="18" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="18" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="6" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="6" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="6" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="6" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="15" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3061,6 +3269,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF00FF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF800000"/>
@@ -4224,23 +4434,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="292"/>
-      <c r="C1" s="294" t="s">
+      <c r="B1" s="317"/>
+      <c r="C1" s="319" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="293"/>
+      <c r="B2" s="318"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4250,17 +4460,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="297"/>
+      <c r="B3" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="322"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="298" t="s">
+      <c r="H3" s="323" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="298"/>
+      <c r="I3" s="323"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -4274,14 +4484,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="299" t="s">
+      <c r="E4" s="324" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="300"/>
-      <c r="H4" s="301" t="s">
+      <c r="F4" s="325"/>
+      <c r="H4" s="326" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="302"/>
+      <c r="I4" s="327"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -4291,10 +4501,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="333" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="309"/>
+      <c r="Q4" s="334"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -5735,11 +5945,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="310">
+      <c r="M39" s="335">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="312">
+      <c r="N39" s="337">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -5765,8 +5975,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="311"/>
-      <c r="N40" s="313"/>
+      <c r="M40" s="336"/>
+      <c r="N40" s="338"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5981,29 +6191,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="314" t="s">
+      <c r="H52" s="339" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="315"/>
+      <c r="I52" s="340"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="316">
+      <c r="K52" s="341">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="317"/>
-      <c r="M52" s="318">
+      <c r="L52" s="342"/>
+      <c r="M52" s="343">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="319"/>
+      <c r="N52" s="344"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="320" t="s">
+      <c r="D53" s="345" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="320"/>
+      <c r="E53" s="345"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -6014,22 +6224,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="345" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="320"/>
+      <c r="E54" s="345"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="321" t="s">
+      <c r="I54" s="346" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="322"/>
-      <c r="K54" s="323">
+      <c r="J54" s="347"/>
+      <c r="K54" s="348">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="324"/>
+      <c r="L54" s="349"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6062,11 +6272,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="325">
+      <c r="K56" s="350">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="326"/>
+      <c r="L56" s="351"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -6083,22 +6293,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="303" t="s">
+      <c r="D58" s="328" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="304"/>
+      <c r="E58" s="329"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="305" t="s">
+      <c r="I58" s="330" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="306"/>
-      <c r="K58" s="307">
+      <c r="J58" s="331"/>
+      <c r="K58" s="332">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="307"/>
+      <c r="L58" s="332"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -6277,8 +6487,8 @@
   </sheetPr>
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="G43" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView topLeftCell="E40" workbookViewId="0">
+      <selection activeCell="O101" sqref="O101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6293,7 +6503,7 @@
     <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="277" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="274" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -6314,7 +6524,7 @@
       </c>
       <c r="J1" s="207"/>
       <c r="K1" s="202"/>
-      <c r="L1" s="271"/>
+      <c r="L1" s="268"/>
       <c r="M1" s="202"/>
       <c r="N1" s="169" t="s">
         <v>31</v>
@@ -6348,7 +6558,7 @@
       <c r="K2" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="272" t="s">
+      <c r="L2" s="269" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="132" t="s">
@@ -6383,7 +6593,7 @@
       <c r="K3" s="210">
         <v>19269</v>
       </c>
-      <c r="L3" s="278">
+      <c r="L3" s="275">
         <v>44498</v>
       </c>
       <c r="M3" s="69">
@@ -6420,7 +6630,7 @@
       <c r="K4" s="210">
         <v>25542</v>
       </c>
-      <c r="L4" s="279">
+      <c r="L4" s="276">
         <v>44498</v>
       </c>
       <c r="M4" s="69">
@@ -6456,7 +6666,7 @@
       <c r="K5" s="210">
         <v>10208</v>
       </c>
-      <c r="L5" s="280">
+      <c r="L5" s="277">
         <v>44498</v>
       </c>
       <c r="M5" s="69">
@@ -6804,7 +7014,7 @@
       <c r="E16" s="69">
         <v>145000</v>
       </c>
-      <c r="F16" s="288">
+      <c r="F16" s="285">
         <f t="shared" si="0"/>
         <v>146930.89999999991</v>
       </c>
@@ -6817,7 +7027,7 @@
       <c r="K16" s="210">
         <v>6297</v>
       </c>
-      <c r="L16" s="273"/>
+      <c r="L16" s="270"/>
       <c r="M16" s="69"/>
       <c r="N16" s="137">
         <f t="shared" si="1"/>
@@ -6849,7 +7059,7 @@
       <c r="K17" s="210">
         <v>12350</v>
       </c>
-      <c r="L17" s="273"/>
+      <c r="L17" s="270"/>
       <c r="M17" s="69"/>
       <c r="N17" s="137">
         <f t="shared" si="1"/>
@@ -6881,7 +7091,7 @@
       <c r="K18" s="210">
         <v>5444</v>
       </c>
-      <c r="L18" s="273"/>
+      <c r="L18" s="270"/>
       <c r="M18" s="69"/>
       <c r="N18" s="137">
         <f t="shared" si="1"/>
@@ -6913,7 +7123,7 @@
       <c r="K19" s="210">
         <v>1717</v>
       </c>
-      <c r="L19" s="273"/>
+      <c r="L19" s="270"/>
       <c r="M19" s="69"/>
       <c r="N19" s="137">
         <f t="shared" si="1"/>
@@ -6945,7 +7155,7 @@
       <c r="K20" s="210">
         <v>16136</v>
       </c>
-      <c r="L20" s="273"/>
+      <c r="L20" s="270"/>
       <c r="M20" s="69"/>
       <c r="N20" s="137">
         <f t="shared" si="1"/>
@@ -6977,7 +7187,7 @@
       <c r="K21" s="210">
         <v>9256</v>
       </c>
-      <c r="L21" s="273"/>
+      <c r="L21" s="270"/>
       <c r="M21" s="69"/>
       <c r="N21" s="137">
         <f t="shared" si="1"/>
@@ -7010,7 +7220,7 @@
       <c r="K22" s="210">
         <v>5500</v>
       </c>
-      <c r="L22" s="273"/>
+      <c r="L22" s="270"/>
       <c r="M22" s="69"/>
       <c r="N22" s="137">
         <f t="shared" si="1"/>
@@ -7042,7 +7252,7 @@
       <c r="K23" s="210">
         <v>1331</v>
       </c>
-      <c r="L23" s="273"/>
+      <c r="L23" s="270"/>
       <c r="M23" s="69"/>
       <c r="N23" s="137">
         <f t="shared" si="1"/>
@@ -7074,7 +7284,7 @@
       <c r="K24" s="210">
         <v>420</v>
       </c>
-      <c r="L24" s="273"/>
+      <c r="L24" s="270"/>
       <c r="M24" s="69"/>
       <c r="N24" s="137">
         <f t="shared" si="1"/>
@@ -7106,7 +7316,7 @@
       <c r="K25" s="210">
         <v>770</v>
       </c>
-      <c r="L25" s="273"/>
+      <c r="L25" s="270"/>
       <c r="M25" s="69"/>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
@@ -7138,7 +7348,7 @@
       <c r="K26" s="210">
         <v>2257</v>
       </c>
-      <c r="L26" s="273"/>
+      <c r="L26" s="270"/>
       <c r="M26" s="69"/>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
@@ -7170,7 +7380,7 @@
       <c r="K27" s="210">
         <v>60</v>
       </c>
-      <c r="L27" s="273"/>
+      <c r="L27" s="270"/>
       <c r="M27" s="69"/>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
@@ -7202,7 +7412,7 @@
       <c r="K28" s="210">
         <v>39533</v>
       </c>
-      <c r="L28" s="273"/>
+      <c r="L28" s="270"/>
       <c r="M28" s="69"/>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
@@ -7234,7 +7444,7 @@
       <c r="K29" s="210">
         <v>3727</v>
       </c>
-      <c r="L29" s="273"/>
+      <c r="L29" s="270"/>
       <c r="M29" s="69"/>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
@@ -7267,7 +7477,7 @@
       <c r="K30" s="235">
         <v>3861</v>
       </c>
-      <c r="L30" s="273"/>
+      <c r="L30" s="270"/>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
@@ -7299,7 +7509,7 @@
       <c r="K31" s="210">
         <v>24825</v>
       </c>
-      <c r="L31" s="273"/>
+      <c r="L31" s="270"/>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
         <f t="shared" si="1"/>
@@ -7331,7 +7541,7 @@
       <c r="K32" s="210">
         <v>614</v>
       </c>
-      <c r="L32" s="273"/>
+      <c r="L32" s="270"/>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
@@ -7363,7 +7573,7 @@
       <c r="K33" s="210">
         <v>2901</v>
       </c>
-      <c r="L33" s="273"/>
+      <c r="L33" s="270"/>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
@@ -7395,7 +7605,7 @@
       <c r="K34" s="210">
         <v>2623</v>
       </c>
-      <c r="L34" s="273"/>
+      <c r="L34" s="270"/>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
@@ -7427,7 +7637,7 @@
       <c r="K35" s="210">
         <v>740</v>
       </c>
-      <c r="L35" s="273"/>
+      <c r="L35" s="270"/>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
@@ -7459,7 +7669,7 @@
       <c r="K36" s="235">
         <v>1189</v>
       </c>
-      <c r="L36" s="273"/>
+      <c r="L36" s="270"/>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
@@ -7491,7 +7701,7 @@
       <c r="K37" s="210">
         <v>6711</v>
       </c>
-      <c r="L37" s="273"/>
+      <c r="L37" s="270"/>
       <c r="M37" s="69"/>
       <c r="N37" s="137">
         <f t="shared" si="1"/>
@@ -7523,7 +7733,7 @@
       <c r="K38" s="210">
         <v>71111</v>
       </c>
-      <c r="L38" s="273"/>
+      <c r="L38" s="270"/>
       <c r="M38" s="69"/>
       <c r="N38" s="137">
         <f t="shared" si="1"/>
@@ -7555,7 +7765,7 @@
       <c r="K39" s="210">
         <v>13525</v>
       </c>
-      <c r="L39" s="273"/>
+      <c r="L39" s="270"/>
       <c r="M39" s="69"/>
       <c r="N39" s="137">
         <f t="shared" si="1"/>
@@ -7572,11 +7782,15 @@
       <c r="C40" s="69">
         <v>81.599999999999994</v>
       </c>
-      <c r="D40" s="140"/>
-      <c r="E40" s="69"/>
+      <c r="D40" s="140">
+        <v>44536</v>
+      </c>
+      <c r="E40" s="69">
+        <v>409448.96000000002</v>
+      </c>
       <c r="F40" s="137">
         <f t="shared" si="0"/>
-        <v>409448.95999999985</v>
+        <v>0</v>
       </c>
       <c r="I40" s="205">
         <v>44497</v>
@@ -7587,7 +7801,7 @@
       <c r="K40" s="210">
         <v>7227</v>
       </c>
-      <c r="L40" s="273"/>
+      <c r="L40" s="270"/>
       <c r="M40" s="69"/>
       <c r="N40" s="137">
         <f t="shared" si="1"/>
@@ -7598,17 +7812,17 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="327" t="s">
+      <c r="B41" s="352" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="204">
-        <v>-4472.5600000000004</v>
+        <v>0</v>
       </c>
       <c r="D41" s="140"/>
       <c r="E41" s="69"/>
       <c r="F41" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I41" s="205">
         <v>44497</v>
@@ -7619,7 +7833,7 @@
       <c r="K41" s="210">
         <v>2618</v>
       </c>
-      <c r="L41" s="273"/>
+      <c r="L41" s="270"/>
       <c r="M41" s="69"/>
       <c r="N41" s="137">
         <f t="shared" si="1"/>
@@ -7630,7 +7844,7 @@
       <c r="A42" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="328"/>
+      <c r="B42" s="353"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -7638,7 +7852,7 @@
       <c r="E42" s="69"/>
       <c r="F42" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I42" s="205">
         <v>44498</v>
@@ -7649,7 +7863,7 @@
       <c r="K42" s="210">
         <v>8371</v>
       </c>
-      <c r="L42" s="273"/>
+      <c r="L42" s="270"/>
       <c r="M42" s="69"/>
       <c r="N42" s="137">
         <f t="shared" si="1"/>
@@ -7658,13 +7872,15 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="140"/>
-      <c r="B43" s="139"/>
+      <c r="B43" s="312">
+        <v>4472.5600000000004</v>
+      </c>
       <c r="C43" s="69"/>
       <c r="D43" s="140"/>
       <c r="E43" s="69"/>
       <c r="F43" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I43" s="205">
         <v>44498</v>
@@ -7675,7 +7891,7 @@
       <c r="K43" s="210">
         <v>753</v>
       </c>
-      <c r="L43" s="273"/>
+      <c r="L43" s="270"/>
       <c r="M43" s="69"/>
       <c r="N43" s="137">
         <f t="shared" si="1"/>
@@ -7690,7 +7906,7 @@
       <c r="E44" s="69"/>
       <c r="F44" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I44" s="205">
         <v>44498</v>
@@ -7701,7 +7917,7 @@
       <c r="K44" s="212">
         <v>0</v>
       </c>
-      <c r="L44" s="273"/>
+      <c r="L44" s="270"/>
       <c r="M44" s="69"/>
       <c r="N44" s="137">
         <f t="shared" si="1"/>
@@ -7716,7 +7932,7 @@
       <c r="E45" s="69"/>
       <c r="F45" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I45" s="205">
         <v>44499</v>
@@ -7727,7 +7943,7 @@
       <c r="K45" s="210">
         <v>5240</v>
       </c>
-      <c r="L45" s="273"/>
+      <c r="L45" s="270"/>
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
@@ -7742,7 +7958,7 @@
       <c r="E46" s="69"/>
       <c r="F46" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I46" s="205">
         <v>44501</v>
@@ -7753,7 +7969,7 @@
       <c r="K46" s="210">
         <v>15576</v>
       </c>
-      <c r="L46" s="273"/>
+      <c r="L46" s="270"/>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
@@ -7768,7 +7984,7 @@
       <c r="E47" s="69"/>
       <c r="F47" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I47" s="205">
         <v>44501</v>
@@ -7779,7 +7995,7 @@
       <c r="K47" s="210">
         <v>739</v>
       </c>
-      <c r="L47" s="273"/>
+      <c r="L47" s="270"/>
       <c r="M47" s="69"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
@@ -7794,7 +8010,7 @@
       <c r="E48" s="69"/>
       <c r="F48" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I48" s="205">
         <v>44501</v>
@@ -7805,7 +8021,7 @@
       <c r="K48" s="210">
         <v>623</v>
       </c>
-      <c r="L48" s="273"/>
+      <c r="L48" s="270"/>
       <c r="M48" s="69"/>
       <c r="N48" s="137">
         <f t="shared" si="1"/>
@@ -7820,7 +8036,7 @@
       <c r="E49" s="69"/>
       <c r="F49" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I49" s="205">
         <v>44502</v>
@@ -7831,7 +8047,7 @@
       <c r="K49" s="210">
         <v>2636</v>
       </c>
-      <c r="L49" s="273"/>
+      <c r="L49" s="270"/>
       <c r="M49" s="69"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -7846,7 +8062,7 @@
       <c r="E50" s="69"/>
       <c r="F50" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I50" s="205">
         <v>44502</v>
@@ -7857,7 +8073,7 @@
       <c r="K50" s="210">
         <v>120</v>
       </c>
-      <c r="L50" s="273"/>
+      <c r="L50" s="270"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
@@ -7872,7 +8088,7 @@
       <c r="E51" s="69"/>
       <c r="F51" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I51" s="205">
         <v>44503</v>
@@ -7883,7 +8099,7 @@
       <c r="K51" s="210">
         <v>14669</v>
       </c>
-      <c r="L51" s="273"/>
+      <c r="L51" s="270"/>
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
@@ -7898,7 +8114,7 @@
       <c r="E52" s="69"/>
       <c r="F52" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I52" s="205">
         <v>44504</v>
@@ -7909,7 +8125,7 @@
       <c r="K52" s="210">
         <v>2897</v>
       </c>
-      <c r="L52" s="273"/>
+      <c r="L52" s="270"/>
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
@@ -7924,7 +8140,7 @@
       <c r="E53" s="69"/>
       <c r="F53" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I53" s="205">
         <v>44504</v>
@@ -7935,7 +8151,7 @@
       <c r="K53" s="210">
         <v>360</v>
       </c>
-      <c r="L53" s="273"/>
+      <c r="L53" s="270"/>
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
@@ -7950,7 +8166,7 @@
       <c r="E54" s="69"/>
       <c r="F54" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I54" s="205">
         <v>44505</v>
@@ -7961,7 +8177,7 @@
       <c r="K54" s="210">
         <v>4820</v>
       </c>
-      <c r="L54" s="273"/>
+      <c r="L54" s="270"/>
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
@@ -7976,7 +8192,7 @@
       <c r="E55" s="69"/>
       <c r="F55" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I55" s="205">
         <v>44505</v>
@@ -7987,7 +8203,7 @@
       <c r="K55" s="210">
         <v>4925</v>
       </c>
-      <c r="L55" s="273"/>
+      <c r="L55" s="270"/>
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
@@ -8002,7 +8218,7 @@
       <c r="E56" s="69"/>
       <c r="F56" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I56" s="205">
         <v>44506</v>
@@ -8013,7 +8229,7 @@
       <c r="K56" s="210">
         <v>5</v>
       </c>
-      <c r="L56" s="273"/>
+      <c r="L56" s="270"/>
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
@@ -8028,7 +8244,7 @@
       <c r="E57" s="69"/>
       <c r="F57" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I57" s="205">
         <v>44506</v>
@@ -8039,7 +8255,7 @@
       <c r="K57" s="210">
         <v>6665</v>
       </c>
-      <c r="L57" s="273"/>
+      <c r="L57" s="270"/>
       <c r="M57" s="69"/>
       <c r="N57" s="137">
         <f t="shared" si="1"/>
@@ -8054,7 +8270,7 @@
       <c r="E58" s="69"/>
       <c r="F58" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I58" s="205">
         <v>44507</v>
@@ -8065,7 +8281,7 @@
       <c r="K58" s="210">
         <v>646</v>
       </c>
-      <c r="L58" s="273"/>
+      <c r="L58" s="270"/>
       <c r="M58" s="69"/>
       <c r="N58" s="137">
         <f t="shared" si="1"/>
@@ -8080,7 +8296,7 @@
       <c r="E59" s="69"/>
       <c r="F59" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I59" s="205">
         <v>44507</v>
@@ -8091,7 +8307,7 @@
       <c r="K59" s="212">
         <v>0</v>
       </c>
-      <c r="L59" s="273"/>
+      <c r="L59" s="270"/>
       <c r="M59" s="69"/>
       <c r="N59" s="137">
         <f t="shared" si="1"/>
@@ -8106,18 +8322,22 @@
       <c r="E60" s="69"/>
       <c r="F60" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I60" s="134"/>
       <c r="J60" s="139">
         <v>34125.46</v>
       </c>
       <c r="K60" s="69"/>
-      <c r="L60" s="273"/>
-      <c r="M60" s="69"/>
-      <c r="N60" s="137">
-        <f t="shared" si="1"/>
-        <v>547154.41999999993</v>
+      <c r="L60" s="316">
+        <v>44533</v>
+      </c>
+      <c r="M60" s="315">
+        <v>547154.42000000004</v>
+      </c>
+      <c r="N60" s="313">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8128,16 +8348,16 @@
       <c r="E61" s="69"/>
       <c r="F61" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I61" s="134"/>
       <c r="J61" s="139"/>
       <c r="K61" s="69"/>
-      <c r="L61" s="273"/>
+      <c r="L61" s="270"/>
       <c r="M61" s="69"/>
       <c r="N61" s="137">
         <f t="shared" si="1"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8148,16 +8368,16 @@
       <c r="E62" s="69"/>
       <c r="F62" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I62" s="134"/>
       <c r="J62" s="139"/>
       <c r="K62" s="69"/>
-      <c r="L62" s="273"/>
+      <c r="L62" s="270"/>
       <c r="M62" s="69"/>
       <c r="N62" s="137">
         <f t="shared" si="1"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8168,16 +8388,16 @@
       <c r="E63" s="69"/>
       <c r="F63" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I63" s="141"/>
       <c r="J63" s="142"/>
       <c r="K63" s="143"/>
-      <c r="L63" s="273"/>
+      <c r="L63" s="270"/>
       <c r="M63" s="69"/>
       <c r="N63" s="137">
         <f t="shared" si="1"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8188,16 +8408,16 @@
       <c r="E64" s="69"/>
       <c r="F64" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I64" s="141"/>
       <c r="J64" s="142"/>
       <c r="K64" s="143"/>
-      <c r="L64" s="273"/>
+      <c r="L64" s="270"/>
       <c r="M64" s="69"/>
       <c r="N64" s="137">
         <f t="shared" si="1"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8208,16 +8428,16 @@
       <c r="E65" s="69"/>
       <c r="F65" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I65" s="141"/>
       <c r="J65" s="142"/>
       <c r="K65" s="143"/>
-      <c r="L65" s="273"/>
+      <c r="L65" s="270"/>
       <c r="M65" s="69"/>
       <c r="N65" s="137">
         <f t="shared" si="1"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8228,16 +8448,16 @@
       <c r="E66" s="69"/>
       <c r="F66" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I66" s="141"/>
       <c r="J66" s="142"/>
       <c r="K66" s="143"/>
-      <c r="L66" s="273"/>
+      <c r="L66" s="270"/>
       <c r="M66" s="69"/>
       <c r="N66" s="137">
         <f t="shared" si="1"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8248,16 +8468,16 @@
       <c r="E67" s="69"/>
       <c r="F67" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I67" s="141"/>
       <c r="J67" s="142"/>
       <c r="K67" s="143"/>
-      <c r="L67" s="273"/>
+      <c r="L67" s="270"/>
       <c r="M67" s="69"/>
       <c r="N67" s="137">
         <f t="shared" si="1"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8268,16 +8488,16 @@
       <c r="E68" s="69"/>
       <c r="F68" s="137">
         <f t="shared" si="0"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I68" s="141"/>
       <c r="J68" s="142"/>
       <c r="K68" s="143"/>
-      <c r="L68" s="273"/>
+      <c r="L68" s="270"/>
       <c r="M68" s="69"/>
       <c r="N68" s="137">
         <f t="shared" si="1"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8288,16 +8508,16 @@
       <c r="E69" s="69"/>
       <c r="F69" s="137">
         <f t="shared" ref="F69:F97" si="2">F68+C69-E69</f>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I69" s="141"/>
       <c r="J69" s="142"/>
       <c r="K69" s="143"/>
-      <c r="L69" s="273"/>
+      <c r="L69" s="270"/>
       <c r="M69" s="69"/>
       <c r="N69" s="137">
         <f t="shared" ref="N69:N97" si="3">N68+K69-M69</f>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8308,16 +8528,16 @@
       <c r="E70" s="69"/>
       <c r="F70" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I70" s="141"/>
       <c r="J70" s="142"/>
       <c r="K70" s="143"/>
-      <c r="L70" s="273"/>
+      <c r="L70" s="270"/>
       <c r="M70" s="69"/>
       <c r="N70" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8328,16 +8548,16 @@
       <c r="E71" s="69"/>
       <c r="F71" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I71" s="141"/>
       <c r="J71" s="142"/>
       <c r="K71" s="143"/>
-      <c r="L71" s="273"/>
+      <c r="L71" s="270"/>
       <c r="M71" s="69"/>
       <c r="N71" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8348,16 +8568,16 @@
       <c r="E72" s="69"/>
       <c r="F72" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I72" s="141"/>
       <c r="J72" s="142"/>
       <c r="K72" s="143"/>
-      <c r="L72" s="273"/>
+      <c r="L72" s="270"/>
       <c r="M72" s="69"/>
       <c r="N72" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8368,16 +8588,16 @@
       <c r="E73" s="69"/>
       <c r="F73" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I73" s="141"/>
       <c r="J73" s="142"/>
       <c r="K73" s="143"/>
-      <c r="L73" s="273"/>
+      <c r="L73" s="270"/>
       <c r="M73" s="69"/>
       <c r="N73" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8388,16 +8608,16 @@
       <c r="E74" s="69"/>
       <c r="F74" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I74" s="141"/>
       <c r="J74" s="142"/>
       <c r="K74" s="143"/>
-      <c r="L74" s="273"/>
+      <c r="L74" s="270"/>
       <c r="M74" s="69"/>
       <c r="N74" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8408,16 +8628,16 @@
       <c r="E75" s="69"/>
       <c r="F75" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I75" s="141"/>
       <c r="J75" s="142"/>
       <c r="K75" s="143"/>
-      <c r="L75" s="273"/>
+      <c r="L75" s="270"/>
       <c r="M75" s="69"/>
       <c r="N75" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8428,16 +8648,16 @@
       <c r="E76" s="69"/>
       <c r="F76" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I76" s="141"/>
       <c r="J76" s="142"/>
       <c r="K76" s="143"/>
-      <c r="L76" s="273"/>
+      <c r="L76" s="270"/>
       <c r="M76" s="69"/>
       <c r="N76" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8448,16 +8668,16 @@
       <c r="E77" s="69"/>
       <c r="F77" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I77" s="141"/>
       <c r="J77" s="142"/>
       <c r="K77" s="143"/>
-      <c r="L77" s="273"/>
+      <c r="L77" s="270"/>
       <c r="M77" s="69"/>
       <c r="N77" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8468,16 +8688,16 @@
       <c r="E78" s="69"/>
       <c r="F78" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I78" s="141"/>
       <c r="J78" s="142"/>
       <c r="K78" s="143"/>
-      <c r="L78" s="273"/>
+      <c r="L78" s="270"/>
       <c r="M78" s="69"/>
       <c r="N78" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8488,16 +8708,16 @@
       <c r="E79" s="69"/>
       <c r="F79" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I79" s="141"/>
       <c r="J79" s="142"/>
       <c r="K79" s="143"/>
-      <c r="L79" s="273"/>
+      <c r="L79" s="270"/>
       <c r="M79" s="69"/>
       <c r="N79" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8508,16 +8728,16 @@
       <c r="E80" s="69"/>
       <c r="F80" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I80" s="141"/>
       <c r="J80" s="142"/>
       <c r="K80" s="143"/>
-      <c r="L80" s="273"/>
+      <c r="L80" s="270"/>
       <c r="M80" s="69"/>
       <c r="N80" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8528,7 +8748,7 @@
       <c r="E81" s="34"/>
       <c r="F81" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I81" s="144"/>
       <c r="J81" s="145"/>
@@ -8537,7 +8757,7 @@
       <c r="M81" s="34"/>
       <c r="N81" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8548,7 +8768,7 @@
       <c r="E82" s="34"/>
       <c r="F82" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I82" s="144"/>
       <c r="J82" s="145"/>
@@ -8557,7 +8777,7 @@
       <c r="M82" s="34"/>
       <c r="N82" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8568,7 +8788,7 @@
       <c r="E83" s="34"/>
       <c r="F83" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I83" s="144"/>
       <c r="J83" s="145"/>
@@ -8577,7 +8797,7 @@
       <c r="M83" s="34"/>
       <c r="N83" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8588,7 +8808,7 @@
       <c r="E84" s="34"/>
       <c r="F84" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I84" s="144"/>
       <c r="J84" s="145"/>
@@ -8597,7 +8817,7 @@
       <c r="M84" s="34"/>
       <c r="N84" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8608,7 +8828,7 @@
       <c r="E85" s="34"/>
       <c r="F85" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I85" s="144"/>
       <c r="J85" s="145"/>
@@ -8617,7 +8837,7 @@
       <c r="M85" s="34"/>
       <c r="N85" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8628,7 +8848,7 @@
       <c r="E86" s="34"/>
       <c r="F86" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I86" s="144"/>
       <c r="J86" s="145"/>
@@ -8637,7 +8857,7 @@
       <c r="M86" s="34"/>
       <c r="N86" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8648,16 +8868,16 @@
       <c r="E87" s="69"/>
       <c r="F87" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I87" s="141"/>
       <c r="J87" s="142"/>
       <c r="K87" s="143"/>
-      <c r="L87" s="274"/>
+      <c r="L87" s="271"/>
       <c r="M87" s="69"/>
       <c r="N87" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8668,16 +8888,16 @@
       <c r="E88" s="69"/>
       <c r="F88" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I88" s="141"/>
       <c r="J88" s="142"/>
       <c r="K88" s="143"/>
-      <c r="L88" s="274"/>
+      <c r="L88" s="271"/>
       <c r="M88" s="69"/>
       <c r="N88" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8688,16 +8908,16 @@
       <c r="E89" s="69"/>
       <c r="F89" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I89" s="141"/>
       <c r="J89" s="142"/>
       <c r="K89" s="143"/>
-      <c r="L89" s="274"/>
+      <c r="L89" s="271"/>
       <c r="M89" s="69"/>
       <c r="N89" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8708,16 +8928,16 @@
       <c r="E90" s="69"/>
       <c r="F90" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I90" s="141"/>
       <c r="J90" s="142"/>
       <c r="K90" s="143"/>
-      <c r="L90" s="274"/>
+      <c r="L90" s="271"/>
       <c r="M90" s="69"/>
       <c r="N90" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8728,16 +8948,16 @@
       <c r="E91" s="69"/>
       <c r="F91" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I91" s="141"/>
       <c r="J91" s="142"/>
       <c r="K91" s="143"/>
-      <c r="L91" s="274"/>
+      <c r="L91" s="271"/>
       <c r="M91" s="69"/>
       <c r="N91" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8748,16 +8968,16 @@
       <c r="E92" s="69"/>
       <c r="F92" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I92" s="141"/>
       <c r="J92" s="142"/>
       <c r="K92" s="143"/>
-      <c r="L92" s="274"/>
+      <c r="L92" s="271"/>
       <c r="M92" s="69"/>
       <c r="N92" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8768,16 +8988,16 @@
       <c r="E93" s="69"/>
       <c r="F93" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I93" s="141"/>
       <c r="J93" s="142"/>
       <c r="K93" s="143"/>
-      <c r="L93" s="274"/>
+      <c r="L93" s="271"/>
       <c r="M93" s="69"/>
       <c r="N93" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8788,16 +9008,16 @@
       <c r="E94" s="69"/>
       <c r="F94" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I94" s="141"/>
       <c r="J94" s="142"/>
       <c r="K94" s="143"/>
-      <c r="L94" s="274"/>
+      <c r="L94" s="271"/>
       <c r="M94" s="69"/>
       <c r="N94" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8808,16 +9028,16 @@
       <c r="E95" s="69"/>
       <c r="F95" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I95" s="141"/>
       <c r="J95" s="142"/>
       <c r="K95" s="143"/>
-      <c r="L95" s="274"/>
+      <c r="L95" s="271"/>
       <c r="M95" s="69"/>
       <c r="N95" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8828,16 +9048,16 @@
       <c r="E96" s="69"/>
       <c r="F96" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I96" s="141"/>
       <c r="J96" s="142"/>
       <c r="K96" s="143"/>
-      <c r="L96" s="274"/>
+      <c r="L96" s="271"/>
       <c r="M96" s="69"/>
       <c r="N96" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8850,47 +9070,47 @@
       <c r="E97" s="151"/>
       <c r="F97" s="137">
         <f t="shared" si="2"/>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="I97" s="149"/>
       <c r="J97" s="150"/>
       <c r="K97" s="151">
         <v>0</v>
       </c>
-      <c r="L97" s="275"/>
+      <c r="L97" s="272"/>
       <c r="M97" s="151"/>
       <c r="N97" s="137">
         <f t="shared" si="3"/>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B98" s="225"/>
       <c r="C98" s="226">
         <f>SUM(C3:C97)</f>
-        <v>549976.39999999967</v>
+        <v>554448.95999999973</v>
       </c>
       <c r="D98" s="97"/>
       <c r="E98" s="1">
         <f>SUM(E3:E97)</f>
-        <v>145000</v>
+        <v>554448.96</v>
       </c>
       <c r="F98" s="153">
         <f>F97</f>
-        <v>404976.39999999985</v>
+        <v>0</v>
       </c>
       <c r="K98" s="223">
         <f>SUM(K3:K97)</f>
         <v>598496</v>
       </c>
-      <c r="L98" s="276"/>
+      <c r="L98" s="273"/>
       <c r="M98" s="1">
         <f>SUM(M3:M97)</f>
-        <v>51341.58</v>
+        <v>598496</v>
       </c>
       <c r="N98" s="153">
         <f>N97</f>
-        <v>547154.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8900,7 +9120,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="1"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="276"/>
+      <c r="L99" s="273"/>
       <c r="M99" s="3"/>
       <c r="N99" s="1"/>
     </row>
@@ -8911,7 +9131,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="1"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="276"/>
+      <c r="L100" s="273"/>
       <c r="M100" s="3"/>
       <c r="N100" s="1"/>
     </row>
@@ -9189,10 +9409,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9211,29 +9431,32 @@
     <col min="13" max="13" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="18.140625" style="240" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="243" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="242" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="292"/>
-      <c r="C1" s="294" t="s">
+    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="317"/>
+      <c r="C1" s="319" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-    </row>
-    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="293"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+    </row>
+    <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="318"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9242,23 +9465,26 @@
       <c r="M2" s="6"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="297"/>
+    <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="322"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="298" t="s">
+      <c r="H3" s="323" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="298"/>
+      <c r="I3" s="323"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -9269,14 +9495,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="299" t="s">
+      <c r="E4" s="324" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="300"/>
-      <c r="H4" s="301" t="s">
+      <c r="F4" s="325"/>
+      <c r="H4" s="326" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="302"/>
+      <c r="I4" s="327"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -9286,12 +9512,13 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="308" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="309"/>
-    </row>
-    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P4" s="355"/>
+      <c r="Q4" s="299"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="242"/>
+    </row>
+    <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
@@ -9335,12 +9562,17 @@
         <f>P5-F5</f>
         <v>-27936</v>
       </c>
-      <c r="R5" s="245">
+      <c r="R5" s="244">
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W5" s="363" t="s">
+        <v>130</v>
+      </c>
+      <c r="X5" s="363"/>
+      <c r="Y5" s="249"/>
+    </row>
+    <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="24">
         <v>44509</v>
@@ -9382,13 +9614,20 @@
         <f>P6-F6</f>
         <v>-26378</v>
       </c>
-      <c r="R6" s="246">
+      <c r="R6" s="245">
         <f>22000+4378</f>
         <v>26378</v>
       </c>
       <c r="S6" s="147"/>
-    </row>
-    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W6" s="250">
+        <v>50000</v>
+      </c>
+      <c r="X6" s="253">
+        <v>44505</v>
+      </c>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="24">
         <v>44510</v>
@@ -9425,16 +9664,23 @@
         <v>4602</v>
       </c>
       <c r="Q7" s="239">
-        <f t="shared" ref="Q7:Q38" si="1">P7-F7</f>
+        <f t="shared" ref="Q7:Q35" si="1">P7-F7</f>
         <v>-30393</v>
       </c>
-      <c r="R7" s="246">
+      <c r="R7" s="245">
         <f>26000+4393</f>
         <v>30393</v>
       </c>
       <c r="S7" s="147"/>
-    </row>
-    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W7" s="250">
+        <v>50000</v>
+      </c>
+      <c r="X7" s="253">
+        <v>44505</v>
+      </c>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="24">
         <v>44511</v>
@@ -9482,13 +9728,20 @@
         <f t="shared" si="1"/>
         <v>-20199</v>
       </c>
-      <c r="R8" s="246">
+      <c r="R8" s="245">
         <f>20065+133</f>
         <v>20198</v>
       </c>
       <c r="S8" s="147"/>
-    </row>
-    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W8" s="250">
+        <v>50000</v>
+      </c>
+      <c r="X8" s="253">
+        <v>44505</v>
+      </c>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
       <c r="B9" s="24">
         <v>44512</v>
@@ -9536,13 +9789,20 @@
         <f t="shared" si="1"/>
         <v>-35678</v>
       </c>
-      <c r="R9" s="246">
+      <c r="R9" s="245">
         <f>35678</f>
         <v>35678</v>
       </c>
       <c r="S9" s="147"/>
-    </row>
-    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W9" s="250">
+        <v>100000</v>
+      </c>
+      <c r="X9" s="254">
+        <v>44509</v>
+      </c>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="24">
         <v>44513</v>
@@ -9566,11 +9826,9 @@
       <c r="I10" s="30">
         <v>60</v>
       </c>
-      <c r="J10" s="37">
-        <v>44513</v>
-      </c>
-      <c r="K10" s="241"/>
-      <c r="L10" s="242">
+      <c r="J10" s="37"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="45">
         <v>0</v>
       </c>
       <c r="M10" s="32">
@@ -9590,13 +9848,20 @@
         <f t="shared" si="1"/>
         <v>-30925</v>
       </c>
-      <c r="R10" s="246">
+      <c r="R10" s="245">
         <f>30925</f>
         <v>30925</v>
       </c>
       <c r="S10" s="147"/>
-    </row>
-    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W10" s="250">
+        <v>215000</v>
+      </c>
+      <c r="X10" s="254">
+        <v>44510</v>
+      </c>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="B11" s="24">
         <v>44514</v>
@@ -9636,13 +9901,20 @@
         <f t="shared" si="1"/>
         <v>-35238</v>
       </c>
-      <c r="R11" s="246">
+      <c r="R11" s="245">
         <f>35238</f>
         <v>35238</v>
       </c>
       <c r="S11" s="147"/>
-    </row>
-    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W11" s="250">
+        <v>200500</v>
+      </c>
+      <c r="X11" s="253">
+        <v>44517</v>
+      </c>
+      <c r="Y11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
       <c r="B12" s="24">
         <v>44515</v>
@@ -9686,13 +9958,20 @@
         <f t="shared" si="1"/>
         <v>-29846</v>
       </c>
-      <c r="R12" s="246">
+      <c r="R12" s="245">
         <f>29000+846</f>
         <v>29846</v>
       </c>
       <c r="S12" s="147"/>
-    </row>
-    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W12" s="250">
+        <v>260000</v>
+      </c>
+      <c r="X12" s="253">
+        <v>44523</v>
+      </c>
+      <c r="Y12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
       <c r="B13" s="24">
         <v>44516</v>
@@ -9719,13 +9998,13 @@
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="289">
-        <v>0</v>
-      </c>
-      <c r="N13" s="290">
+      <c r="M13" s="286">
+        <v>0</v>
+      </c>
+      <c r="N13" s="287">
         <v>21106</v>
       </c>
-      <c r="O13" s="291"/>
+      <c r="O13" s="288"/>
       <c r="P13" s="69">
         <f t="shared" si="2"/>
         <v>23882.36</v>
@@ -9734,17 +10013,24 @@
         <f t="shared" si="1"/>
         <v>-41525.64</v>
       </c>
-      <c r="R13" s="246">
+      <c r="R13" s="245">
         <f>41050+1147</f>
         <v>42197</v>
       </c>
-      <c r="S13" s="248" t="s">
+      <c r="S13" s="247" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="247"/>
-      <c r="U13" s="247"/>
-    </row>
-    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T13" s="246"/>
+      <c r="U13" s="246"/>
+      <c r="W13" s="250">
+        <v>9636</v>
+      </c>
+      <c r="X13" s="253">
+        <v>44533</v>
+      </c>
+      <c r="Y13" s="13"/>
+    </row>
+    <row r="14" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
       <c r="B14" s="24">
         <v>44517</v>
@@ -9786,12 +10072,17 @@
         <f t="shared" si="1"/>
         <v>-27969.5</v>
       </c>
-      <c r="R14" s="246">
+      <c r="R14" s="245">
         <v>27970</v>
       </c>
       <c r="S14" s="147"/>
-    </row>
-    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W14" s="250">
+        <v>0</v>
+      </c>
+      <c r="X14" s="253"/>
+      <c r="Y14" s="13"/>
+    </row>
+    <row r="15" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="24">
         <v>44518</v>
@@ -9832,12 +10123,17 @@
         <f t="shared" si="1"/>
         <v>-32780</v>
       </c>
-      <c r="R15" s="246">
+      <c r="R15" s="245">
         <v>32780</v>
       </c>
       <c r="S15" s="147"/>
-    </row>
-    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W15" s="250">
+        <v>0</v>
+      </c>
+      <c r="X15" s="253"/>
+      <c r="Y15" s="13"/>
+    </row>
+    <row r="16" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="24">
         <v>44519</v>
@@ -9878,12 +10174,17 @@
         <f t="shared" si="1"/>
         <v>-37376</v>
       </c>
-      <c r="R16" s="246">
+      <c r="R16" s="245">
         <v>37376</v>
       </c>
       <c r="S16" s="147"/>
-    </row>
-    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W16" s="250">
+        <v>0</v>
+      </c>
+      <c r="X16" s="255"/>
+      <c r="Y16" s="249"/>
+    </row>
+    <row r="17" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
       <c r="B17" s="24">
         <v>44520</v>
@@ -9910,10 +10211,10 @@
       <c r="J17" s="37">
         <v>44520</v>
       </c>
-      <c r="K17" s="249" t="s">
+      <c r="K17" s="248" t="s">
         <v>117</v>
       </c>
-      <c r="L17" s="242">
+      <c r="L17" s="241">
         <f>1285.71</f>
         <v>1285.71</v>
       </c>
@@ -9934,13 +10235,18 @@
         <f t="shared" si="1"/>
         <v>-9805.6699999999983</v>
       </c>
-      <c r="R17" s="246">
+      <c r="R17" s="245">
         <f>9805.9+12537.27+1285.71</f>
         <v>23628.879999999997</v>
       </c>
       <c r="S17" s="147"/>
-    </row>
-    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W17" s="251">
+        <v>0</v>
+      </c>
+      <c r="X17" s="253"/>
+      <c r="Y17" s="249"/>
+    </row>
+    <row r="18" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="24">
         <v>44521</v>
@@ -9979,12 +10285,17 @@
         <f t="shared" si="1"/>
         <v>-21680</v>
       </c>
-      <c r="R18" s="246">
+      <c r="R18" s="245">
         <v>21680</v>
       </c>
       <c r="S18" s="147"/>
-    </row>
-    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W18" s="252">
+        <v>0</v>
+      </c>
+      <c r="X18" s="256"/>
+      <c r="Y18" s="249"/>
+    </row>
+    <row r="19" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="24">
         <v>44522</v>
@@ -10025,12 +10336,18 @@
         <f t="shared" si="1"/>
         <v>-26370</v>
       </c>
-      <c r="R19" s="246">
+      <c r="R19" s="245">
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-    </row>
-    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W19" s="370">
+        <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
+        <v>935136</v>
+      </c>
+      <c r="X19" s="256"/>
+      <c r="Y19" s="249"/>
+    </row>
+    <row r="20" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="24">
         <v>44523</v>
@@ -10071,12 +10388,15 @@
         <f t="shared" si="1"/>
         <v>-16395.830000000002</v>
       </c>
-      <c r="R20" s="246">
+      <c r="R20" s="245">
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-    </row>
-    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W20" s="371"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="249"/>
+    </row>
+    <row r="21" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="24">
         <v>44524</v>
@@ -10117,12 +10437,17 @@
         <f t="shared" si="1"/>
         <v>-19188.82</v>
       </c>
-      <c r="R21" s="246">
+      <c r="R21" s="245">
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-    </row>
-    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W21" s="372" t="s">
+        <v>131</v>
+      </c>
+      <c r="X21" s="373"/>
+      <c r="Y21" s="249"/>
+    </row>
+    <row r="22" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
       <c r="B22" s="24">
         <v>44525</v>
@@ -10164,12 +10489,15 @@
         <f t="shared" si="1"/>
         <v>-33647.72</v>
       </c>
-      <c r="R22" s="246">
+      <c r="R22" s="245">
         <v>33647.72</v>
       </c>
       <c r="S22" s="147"/>
-    </row>
-    <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W22" s="85"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="249"/>
+    </row>
+    <row r="23" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
       <c r="B23" s="24">
         <v>44526</v>
@@ -10211,12 +10539,17 @@
         <f t="shared" si="1"/>
         <v>-45217.29</v>
       </c>
-      <c r="R23" s="246">
+      <c r="R23" s="245">
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-    </row>
-    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W23" s="374">
+        <v>-53663.11</v>
+      </c>
+      <c r="X23" s="375"/>
+      <c r="Y23" s="249"/>
+    </row>
+    <row r="24" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
       <c r="B24" s="24">
         <v>44527</v>
@@ -10240,11 +10573,9 @@
       <c r="I24" s="30">
         <v>72</v>
       </c>
-      <c r="J24" s="51">
-        <v>44527</v>
-      </c>
-      <c r="K24" s="250"/>
-      <c r="L24" s="251">
+      <c r="J24" s="51"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="52">
         <v>0</v>
       </c>
       <c r="M24" s="32">
@@ -10264,12 +10595,15 @@
         <f t="shared" si="1"/>
         <v>-23159.17</v>
       </c>
-      <c r="R24" s="246">
+      <c r="R24" s="245">
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-    </row>
-    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W24" s="376"/>
+      <c r="X24" s="377"/>
+      <c r="Y24" s="249"/>
+    </row>
+    <row r="25" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
       <c r="B25" s="24">
         <v>44528</v>
@@ -10308,11 +10642,16 @@
         <f t="shared" si="1"/>
         <v>-28952</v>
       </c>
-      <c r="R25" s="246">
+      <c r="R25" s="245">
         <v>28952</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W25" s="378">
+        <v>0</v>
+      </c>
+      <c r="X25" s="379"/>
+      <c r="Y25" s="249"/>
+    </row>
+    <row r="26" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
       <c r="B26" s="24">
         <v>44529</v>
@@ -10356,11 +10695,16 @@
         <f t="shared" si="1"/>
         <v>-21771.5</v>
       </c>
-      <c r="R26" s="246">
+      <c r="R26" s="245">
         <v>21771.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W26" s="380">
+        <v>0</v>
+      </c>
+      <c r="X26" s="381"/>
+      <c r="Y26" s="249"/>
+    </row>
+    <row r="27" spans="1:25" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
       <c r="B27" s="24">
         <v>44530</v>
@@ -10401,11 +10745,17 @@
         <f t="shared" si="1"/>
         <v>-14637</v>
       </c>
-      <c r="R27" s="246">
+      <c r="R27" s="245">
         <v>14637</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W27" s="364">
+        <f>SUM(W26+W25+W23)</f>
+        <v>-53663.11</v>
+      </c>
+      <c r="X27" s="365"/>
+      <c r="Y27" s="368"/>
+    </row>
+    <row r="28" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="24">
         <v>44531</v>
@@ -10449,11 +10799,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R28" s="246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R28" s="245">
+        <v>0</v>
+      </c>
+      <c r="W28" s="366"/>
+      <c r="X28" s="367"/>
+      <c r="Y28" s="369"/>
+    </row>
+    <row r="29" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="24">
         <v>44532</v>
@@ -10499,11 +10852,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R29" s="246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R29" s="245">
+        <v>0</v>
+      </c>
+      <c r="X29" s="240"/>
+      <c r="Y29" s="242"/>
+    </row>
+    <row r="30" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
       <c r="B30" s="24">
         <v>44533</v>
@@ -10545,9 +10900,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R30" s="246"/>
-    </row>
-    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R30" s="245"/>
+      <c r="X30" s="240"/>
+      <c r="Y30" s="242"/>
+    </row>
+    <row r="31" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="24">
         <v>44534</v>
@@ -10589,9 +10946,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R31" s="246"/>
-    </row>
-    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R31" s="245"/>
+    </row>
+    <row r="32" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="24">
         <v>44535</v>
@@ -10632,7 +10989,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R32" s="244"/>
+      <c r="R32" s="243"/>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
@@ -10647,7 +11004,7 @@
       <c r="J33" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="K33" s="267">
+      <c r="K33" s="264">
         <v>44508</v>
       </c>
       <c r="L33" s="66">
@@ -10666,19 +11023,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R33" s="244"/>
+      <c r="R33" s="243"/>
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="24">
-        <v>44508</v>
-      </c>
-      <c r="C34" s="25">
-        <v>350000</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>55</v>
-      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="27"/>
       <c r="F34" s="28">
         <v>0</v>
@@ -10688,8 +11039,10 @@
       <c r="I34" s="30">
         <v>0</v>
       </c>
-      <c r="J34" s="60"/>
-      <c r="K34" s="268">
+      <c r="J34" s="298" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" s="265">
         <v>44509</v>
       </c>
       <c r="L34" s="44">
@@ -10708,7 +11061,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R34" s="244"/>
+      <c r="R34" s="243"/>
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
@@ -10716,9 +11069,9 @@
         <v>44510</v>
       </c>
       <c r="C35" s="25">
-        <v>354000</v>
-      </c>
-      <c r="D35" s="67" t="s">
+        <v>703580.1</v>
+      </c>
+      <c r="D35" s="65" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="27"/>
@@ -10730,29 +11083,31 @@
       <c r="I35" s="30">
         <v>0</v>
       </c>
-      <c r="J35" s="60"/>
-      <c r="K35" s="269">
+      <c r="J35" s="298" t="s">
+        <v>209</v>
+      </c>
+      <c r="K35" s="266">
         <v>44509</v>
       </c>
       <c r="L35" s="66">
         <v>182.52</v>
       </c>
-      <c r="M35" s="32">
-        <v>0</v>
-      </c>
-      <c r="N35" s="33">
+      <c r="M35" s="300">
+        <v>0</v>
+      </c>
+      <c r="N35" s="301">
         <v>0</v>
       </c>
       <c r="P35" s="34">
         <v>0</v>
       </c>
-      <c r="Q35" s="239">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="244"/>
-    </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q35" s="306">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="243"/>
+    </row>
+    <row r="36" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="24">
         <v>44518</v>
@@ -10772,25 +11127,34 @@
       <c r="I36" s="30">
         <v>0</v>
       </c>
-      <c r="J36" s="60"/>
-      <c r="K36" s="270">
+      <c r="J36" s="298" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="267">
         <v>44511</v>
       </c>
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="33"/>
-      <c r="P36" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="239">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="244"/>
-    </row>
-    <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M36" s="356">
+        <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
+        <v>321168.83</v>
+      </c>
+      <c r="N36" s="358">
+        <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
+        <v>467016</v>
+      </c>
+      <c r="O36" s="309"/>
+      <c r="P36" s="310">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="360">
+        <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
+        <v>-637069.14000000013</v>
+      </c>
+      <c r="R36" s="243"/>
+    </row>
+    <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="24">
         <v>44523</v>
@@ -10798,7 +11162,7 @@
       <c r="C37" s="25">
         <v>353878.2</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="65" t="s">
         <v>55</v>
       </c>
       <c r="E37" s="27"/>
@@ -10810,28 +11174,34 @@
       <c r="I37" s="30">
         <v>0</v>
       </c>
-      <c r="J37" s="60"/>
-      <c r="K37" s="268">
-        <v>44523</v>
-      </c>
-      <c r="L37" s="44">
-        <v>1799</v>
-      </c>
-      <c r="M37" s="32"/>
-      <c r="N37" s="33"/>
-      <c r="P37" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="239">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J37" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="L37" s="61">
+        <v>7929.62</v>
+      </c>
+      <c r="M37" s="357"/>
+      <c r="N37" s="359"/>
+      <c r="O37" s="309"/>
+      <c r="P37" s="310">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="361"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="65"/>
+      <c r="B38" s="24">
+        <v>44523</v>
+      </c>
+      <c r="C38" s="25">
+        <v>1799.9</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>211</v>
+      </c>
       <c r="E38" s="27"/>
       <c r="F38" s="28">
         <v>0</v>
@@ -10841,25 +11211,30 @@
       <c r="I38" s="30">
         <v>0</v>
       </c>
-      <c r="J38" s="60"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="33"/>
+      <c r="J38" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="K38" s="190" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" s="61">
+        <v>549</v>
+      </c>
+      <c r="M38" s="303"/>
+      <c r="N38" s="304"/>
       <c r="P38" s="151">
         <v>0</v>
       </c>
-      <c r="Q38" s="239">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q38" s="307"/>
+    </row>
+    <row r="39" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="69"/>
       <c r="D39" s="62"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="27" t="s">
+        <v>212</v>
+      </c>
       <c r="F39" s="70"/>
       <c r="G39" s="2"/>
       <c r="H39" s="36"/>
@@ -10867,22 +11242,13 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="310">
-        <f>SUM(M5:M38)</f>
-        <v>321168.83</v>
-      </c>
-      <c r="N39" s="312">
-        <f>SUM(N5:N38)</f>
-        <v>467016</v>
-      </c>
+      <c r="M39" s="311"/>
+      <c r="N39" s="311"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>970067.86</v>
       </c>
-      <c r="Q39" s="232">
-        <f>SUM(Q5:Q38)</f>
-        <v>-637069.14000000013</v>
-      </c>
+      <c r="Q39" s="308"/>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
@@ -10898,7 +11264,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
       <c r="M40" s="311"/>
-      <c r="N40" s="313"/>
+      <c r="N40" s="311"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
@@ -10914,9 +11280,9 @@
       <c r="I41" s="77"/>
       <c r="J41" s="60"/>
       <c r="K41" s="41"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="79"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="302"/>
+      <c r="N41" s="302"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="13"/>
     </row>
@@ -10932,9 +11298,9 @@
       <c r="I42" s="77"/>
       <c r="J42" s="60"/>
       <c r="K42" s="41"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="79"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="302"/>
+      <c r="N42" s="302"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="13"/>
     </row>
@@ -10950,9 +11316,9 @@
       <c r="I43" s="77"/>
       <c r="J43" s="60"/>
       <c r="K43" s="41"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="79"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="302"/>
+      <c r="N43" s="302"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="13"/>
     </row>
@@ -10968,9 +11334,9 @@
       <c r="I44" s="77"/>
       <c r="J44" s="60"/>
       <c r="K44" s="41"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="79"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="302"/>
+      <c r="N44" s="302"/>
       <c r="P44" s="34"/>
       <c r="Q44" s="13"/>
     </row>
@@ -10986,9 +11352,9 @@
       <c r="I45" s="77"/>
       <c r="J45" s="60"/>
       <c r="K45" s="41"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="79"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="302"/>
+      <c r="N45" s="302"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -11004,9 +11370,9 @@
       <c r="I46" s="77"/>
       <c r="J46" s="60"/>
       <c r="K46" s="41"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="79"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="302"/>
+      <c r="N46" s="302"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="13"/>
     </row>
@@ -11022,9 +11388,9 @@
       <c r="I47" s="77"/>
       <c r="J47" s="60"/>
       <c r="K47" s="41"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="79"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="302"/>
+      <c r="N47" s="302"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="13"/>
     </row>
@@ -11040,13 +11406,13 @@
       <c r="I48" s="77"/>
       <c r="J48" s="60"/>
       <c r="K48" s="41"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="79"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="302"/>
+      <c r="N48" s="302"/>
       <c r="P48" s="34"/>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="80"/>
       <c r="C49" s="25">
@@ -11060,18 +11426,18 @@
       <c r="J49" s="84"/>
       <c r="K49" s="177"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="33"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="86" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>1559797.96</v>
+        <v>1561177.9599999997</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -11095,80 +11461,70 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>40499.410000000003</v>
+        <v>47179.030000000006</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="13"/>
     </row>
-    <row r="51" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P51" s="34"/>
       <c r="Q51" s="13"/>
     </row>
-    <row r="52" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="314" t="s">
+      <c r="H52" s="339" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="315"/>
+      <c r="I52" s="340"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="316">
+      <c r="K52" s="341">
         <f>I50+L50</f>
-        <v>65231.97</v>
-      </c>
-      <c r="L52" s="317"/>
-      <c r="M52" s="318">
-        <f>N39+M39</f>
-        <v>788184.83000000007</v>
-      </c>
-      <c r="N52" s="319"/>
+        <v>71911.59</v>
+      </c>
+      <c r="L52" s="362"/>
+      <c r="M52" s="305"/>
+      <c r="N52" s="305"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D53" s="320" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D53" s="345" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="320"/>
+      <c r="E53" s="345"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
-        <v>-17892.929999999935</v>
+        <v>-25952.549999999814</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="320" t="s">
+    </row>
+    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D54" s="345" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="320"/>
-      <c r="F54" s="360">
+      <c r="E54" s="345"/>
+      <c r="F54" s="13">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="321" t="s">
+      <c r="I54" s="346" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="322"/>
-      <c r="K54" s="323">
+      <c r="J54" s="347"/>
+      <c r="K54" s="348">
         <f>F56+F57+F58</f>
-        <v>1278229.6900000002</v>
-      </c>
-      <c r="L54" s="324"/>
-      <c r="P54" s="329" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q54" s="329"/>
-      <c r="R54" s="252"/>
-    </row>
-    <row r="55" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1308770.3500000003</v>
+      </c>
+      <c r="L54" s="349"/>
+    </row>
+    <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="203" t="s">
         <v>100</v>
       </c>
@@ -11180,15 +11536,8 @@
       <c r="J55" s="106"/>
       <c r="K55" s="191"/>
       <c r="L55" s="107"/>
-      <c r="P55" s="253">
-        <v>50000</v>
-      </c>
-      <c r="Q55" s="256">
-        <v>44505</v>
-      </c>
-      <c r="R55" s="13"/>
-    </row>
-    <row r="56" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
         <v>7</v>
       </c>
@@ -11197,27 +11546,20 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>-889506.64999999991</v>
+        <v>-897566.26999999979</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="325">
+      <c r="K56" s="350">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="326"/>
-      <c r="P56" s="253">
-        <v>50000</v>
-      </c>
-      <c r="Q56" s="256">
-        <v>44505</v>
-      </c>
-      <c r="R56" s="13"/>
-    </row>
-    <row r="57" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="351"/>
+    </row>
+    <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
         <v>16</v>
       </c>
@@ -11225,72 +11567,44 @@
         <v>17</v>
       </c>
       <c r="F57" s="111">
-        <v>25428.720000000001</v>
-      </c>
-      <c r="P57" s="253">
-        <v>50000</v>
-      </c>
-      <c r="Q57" s="256">
-        <v>44505</v>
-      </c>
-      <c r="R57" s="13"/>
-    </row>
-    <row r="58" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="303" t="s">
+      <c r="D58" s="328" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="304"/>
+      <c r="E58" s="329"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="305" t="s">
-        <v>103</v>
-      </c>
-      <c r="J58" s="306"/>
-      <c r="K58" s="307">
+      <c r="I58" s="330" t="s">
+        <v>205</v>
+      </c>
+      <c r="J58" s="331"/>
+      <c r="K58" s="332">
         <f>K54+K56</f>
-        <v>710840.3400000002</v>
-      </c>
-      <c r="L58" s="307"/>
-      <c r="P58" s="253">
-        <v>100000</v>
-      </c>
-      <c r="Q58" s="257">
-        <v>44509</v>
-      </c>
-      <c r="R58" s="13"/>
-    </row>
-    <row r="59" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>741381.00000000035</v>
+      </c>
+      <c r="L58" s="332"/>
+    </row>
+    <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="116"/>
       <c r="F59" s="117"/>
       <c r="J59" s="118"/>
-      <c r="P59" s="253">
-        <v>215000</v>
-      </c>
-      <c r="Q59" s="257">
-        <v>44510</v>
-      </c>
-      <c r="R59" s="13"/>
-    </row>
-    <row r="60" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I60" s="119"/>
       <c r="J60" s="119"/>
       <c r="K60" s="192"/>
       <c r="L60" s="120"/>
-      <c r="P60" s="253">
-        <v>200500</v>
-      </c>
-      <c r="Q60" s="256">
-        <v>44517</v>
-      </c>
-      <c r="R60" s="13"/>
-    </row>
-    <row r="61" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="121"/>
       <c r="C61" s="122"/>
       <c r="D61" s="123"/>
@@ -11301,229 +11615,146 @@
       <c r="L61" s="120"/>
       <c r="M61" s="124"/>
       <c r="N61" s="98"/>
-      <c r="P61" s="253">
-        <v>260000</v>
-      </c>
-      <c r="Q61" s="256">
-        <v>44523</v>
-      </c>
-      <c r="R61" s="13"/>
-    </row>
-    <row r="62" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B62" s="121"/>
       <c r="C62" s="125"/>
       <c r="E62" s="34"/>
       <c r="M62" s="124"/>
       <c r="N62" s="98"/>
-      <c r="P62" s="253">
-        <v>9636</v>
-      </c>
-      <c r="Q62" s="256">
-        <v>44533</v>
-      </c>
-      <c r="R62" s="13"/>
-    </row>
-    <row r="63" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B63" s="121"/>
       <c r="C63" s="125"/>
       <c r="E63" s="34"/>
       <c r="F63" s="126"/>
       <c r="L63" s="127"/>
       <c r="M63" s="1"/>
-      <c r="P63" s="253">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="256"/>
-      <c r="R63" s="13"/>
-    </row>
-    <row r="64" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B64" s="121"/>
       <c r="C64" s="125"/>
       <c r="E64" s="34"/>
       <c r="M64" s="1"/>
-      <c r="P64" s="253">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="256"/>
-      <c r="R64" s="13"/>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="121"/>
       <c r="C65" s="125"/>
       <c r="D65" s="128"/>
       <c r="E65" s="34"/>
       <c r="F65" s="129"/>
       <c r="M65" s="1"/>
-      <c r="P65" s="253">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="258"/>
-      <c r="R65" s="252"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D66" s="128"/>
       <c r="E66" s="130"/>
       <c r="F66" s="34"/>
       <c r="M66" s="1"/>
-      <c r="P66" s="254">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="256"/>
-      <c r="R66" s="252"/>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D67" s="128"/>
       <c r="E67" s="130"/>
       <c r="F67" s="34"/>
       <c r="M67" s="1"/>
-      <c r="P67" s="255">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="259"/>
-      <c r="R67" s="252"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D68" s="128"/>
       <c r="E68" s="130"/>
       <c r="F68" s="34"/>
       <c r="M68" s="1"/>
-      <c r="P68" s="336">
-        <f t="shared" ref="P68" si="3">SUM(P55:P67)</f>
-        <v>935136</v>
-      </c>
-      <c r="Q68" s="259"/>
-      <c r="R68" s="252"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D69" s="128"/>
       <c r="E69" s="130"/>
       <c r="F69" s="34"/>
       <c r="M69" s="1"/>
-      <c r="P69" s="337"/>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="252"/>
-    </row>
-    <row r="70" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D70" s="128"/>
       <c r="E70" s="130"/>
       <c r="F70" s="34"/>
       <c r="M70" s="1"/>
-      <c r="P70" s="338" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q70" s="339"/>
-      <c r="R70" s="252"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D71" s="128"/>
       <c r="E71" s="130"/>
       <c r="F71" s="34"/>
       <c r="M71" s="1"/>
-      <c r="P71" s="85"/>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="252"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D72" s="128"/>
       <c r="E72" s="130"/>
       <c r="F72" s="34"/>
       <c r="M72" s="1"/>
-      <c r="P72" s="340">
-        <v>-53663.11</v>
-      </c>
-      <c r="Q72" s="341"/>
-      <c r="R72" s="252"/>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D73" s="128"/>
       <c r="E73" s="130"/>
       <c r="F73" s="34"/>
       <c r="M73" s="1"/>
-      <c r="P73" s="342"/>
-      <c r="Q73" s="343"/>
-      <c r="R73" s="252"/>
-    </row>
-    <row r="74" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D74" s="128"/>
       <c r="E74" s="130"/>
       <c r="F74" s="34"/>
       <c r="M74" s="1"/>
-      <c r="P74" s="344">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="345"/>
-      <c r="R74" s="252"/>
-    </row>
-    <row r="75" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D75" s="128"/>
       <c r="E75" s="130"/>
       <c r="F75" s="34"/>
       <c r="M75" s="1"/>
-      <c r="P75" s="346">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="347"/>
-      <c r="R75" s="252"/>
-    </row>
-    <row r="76" spans="2:18" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D76" s="128"/>
       <c r="E76" s="130"/>
       <c r="F76" s="34"/>
       <c r="M76" s="1"/>
-      <c r="P76" s="330">
-        <f>SUM(P75+P74+P72)</f>
-        <v>-53663.11</v>
-      </c>
-      <c r="Q76" s="331"/>
-      <c r="R76" s="334"/>
-    </row>
-    <row r="77" spans="2:18" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D77" s="128"/>
       <c r="E77" s="130"/>
       <c r="F77" s="34"/>
-      <c r="P77" s="332"/>
-      <c r="Q77" s="333"/>
-      <c r="R77" s="335"/>
-    </row>
-    <row r="78" spans="2:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D78" s="128"/>
       <c r="E78" s="128"/>
       <c r="F78" s="129"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D79" s="128"/>
       <c r="E79" s="128"/>
       <c r="F79" s="129"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D80" s="128"/>
       <c r="E80" s="128"/>
       <c r="F80" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P76:Q77"/>
-    <mergeCell ref="R76:R77"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P72:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
@@ -11531,8 +11762,8 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -11543,10 +11774,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView topLeftCell="G37" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11627,13 +11858,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="260" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="278" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="282">
+      <c r="C3" s="279">
         <v>15652.4</v>
       </c>
       <c r="D3" s="136"/>
@@ -11642,10 +11873,10 @@
         <f>C3-E3</f>
         <v>15652.4</v>
       </c>
-      <c r="I3" s="351"/>
-      <c r="J3" s="352"/>
-      <c r="K3" s="353"/>
-      <c r="L3" s="351"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="291"/>
+      <c r="L3" s="289"/>
       <c r="M3" s="69"/>
       <c r="N3" s="196">
         <f>K3-M3</f>
@@ -11653,13 +11884,13 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="265" t="s">
+      <c r="A4" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="283" t="s">
+      <c r="B4" s="280" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="284">
+      <c r="C4" s="281">
         <v>6679.8</v>
       </c>
       <c r="D4" s="136"/>
@@ -11669,17 +11900,17 @@
         <v>22332.2</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="I4" s="351" t="s">
+      <c r="I4" s="289" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="352">
+      <c r="J4" s="290">
         <v>7749</v>
       </c>
-      <c r="K4" s="353">
+      <c r="K4" s="291">
         <v>5707.22</v>
       </c>
-      <c r="L4" s="351" t="s">
-        <v>203</v>
+      <c r="L4" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M4" s="69"/>
       <c r="N4" s="137">
@@ -11688,47 +11919,47 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="265" t="s">
+      <c r="A5" s="262" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="283" t="s">
+      <c r="B5" s="280" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="284">
+      <c r="C5" s="281">
         <v>18704.419999999998</v>
       </c>
       <c r="D5" s="136"/>
       <c r="E5" s="69"/>
       <c r="F5" s="137">
-        <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
+        <f t="shared" ref="F5:F56" si="0">F4+C5-E5</f>
         <v>41036.619999999995</v>
       </c>
-      <c r="I5" s="354" t="s">
+      <c r="I5" s="292" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="355">
+      <c r="J5" s="293">
         <v>7746</v>
       </c>
-      <c r="K5" s="356">
+      <c r="K5" s="294">
         <v>30</v>
       </c>
-      <c r="L5" s="354" t="s">
-        <v>203</v>
+      <c r="L5" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M5" s="69"/>
       <c r="N5" s="137">
-        <f t="shared" ref="N5:N68" si="1">N4+K5-M5</f>
+        <f t="shared" ref="N5:N56" si="1">N4+K5-M5</f>
         <v>5737.22</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="265" t="s">
+      <c r="A6" s="262" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="283" t="s">
+      <c r="B6" s="280" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="284">
+      <c r="C6" s="281">
         <v>840</v>
       </c>
       <c r="D6" s="136"/>
@@ -11737,17 +11968,17 @@
         <f t="shared" si="0"/>
         <v>41876.619999999995</v>
       </c>
-      <c r="I6" s="354" t="s">
+      <c r="I6" s="292" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="355">
+      <c r="J6" s="293">
         <v>7753</v>
       </c>
-      <c r="K6" s="356">
+      <c r="K6" s="294">
         <v>3667.5</v>
       </c>
-      <c r="L6" s="354" t="s">
-        <v>203</v>
+      <c r="L6" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M6" s="69"/>
       <c r="N6" s="137">
@@ -11756,10 +11987,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="265" t="s">
+      <c r="A7" s="262" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="266" t="s">
+      <c r="B7" s="263" t="s">
         <v>139</v>
       </c>
       <c r="C7" s="111">
@@ -11771,17 +12002,17 @@
         <f t="shared" si="0"/>
         <v>49574.42</v>
       </c>
-      <c r="I7" s="354" t="s">
+      <c r="I7" s="292" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="355">
+      <c r="J7" s="293">
         <v>7755</v>
       </c>
-      <c r="K7" s="356">
+      <c r="K7" s="294">
         <v>120</v>
       </c>
-      <c r="L7" s="354" t="s">
-        <v>203</v>
+      <c r="L7" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M7" s="69"/>
       <c r="N7" s="137">
@@ -11790,10 +12021,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="265" t="s">
+      <c r="A8" s="262" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="266" t="s">
+      <c r="B8" s="263" t="s">
         <v>140</v>
       </c>
       <c r="C8" s="111">
@@ -11805,17 +12036,17 @@
         <f t="shared" si="0"/>
         <v>73417.320000000007</v>
       </c>
-      <c r="I8" s="351" t="s">
+      <c r="I8" s="289" t="s">
         <v>135</v>
       </c>
-      <c r="J8" s="352">
+      <c r="J8" s="290">
         <v>7756</v>
       </c>
-      <c r="K8" s="353">
+      <c r="K8" s="291">
         <v>436.5</v>
       </c>
-      <c r="L8" s="351" t="s">
-        <v>203</v>
+      <c r="L8" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M8" s="69"/>
       <c r="N8" s="137">
@@ -11824,10 +12055,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="265" t="s">
+      <c r="A9" s="262" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="266" t="s">
+      <c r="B9" s="263" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="111">
@@ -11839,17 +12070,17 @@
         <f t="shared" si="0"/>
         <v>102606.02</v>
       </c>
-      <c r="I9" s="351" t="s">
+      <c r="I9" s="289" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="352">
+      <c r="J9" s="290">
         <v>7771</v>
       </c>
-      <c r="K9" s="353">
+      <c r="K9" s="291">
         <v>9412.4500000000007</v>
       </c>
-      <c r="L9" s="351" t="s">
-        <v>203</v>
+      <c r="L9" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M9" s="69"/>
       <c r="N9" s="137">
@@ -11858,10 +12089,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="265" t="s">
+      <c r="A10" s="262" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="266" t="s">
+      <c r="B10" s="263" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="111">
@@ -11874,17 +12105,17 @@
         <v>104718.52</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="I10" s="351" t="s">
+      <c r="I10" s="289" t="s">
         <v>138</v>
       </c>
-      <c r="J10" s="352">
+      <c r="J10" s="290">
         <v>7772</v>
       </c>
-      <c r="K10" s="353">
+      <c r="K10" s="291">
         <v>10285</v>
       </c>
-      <c r="L10" s="351" t="s">
-        <v>203</v>
+      <c r="L10" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M10" s="69"/>
       <c r="N10" s="137">
@@ -11893,10 +12124,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="266" t="s">
+      <c r="B11" s="263" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="111">
@@ -11908,17 +12139,17 @@
         <f t="shared" si="0"/>
         <v>114742.32</v>
       </c>
-      <c r="I11" s="351" t="s">
+      <c r="I11" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="352">
+      <c r="J11" s="290">
         <v>7774</v>
       </c>
-      <c r="K11" s="353">
+      <c r="K11" s="291">
         <v>2504.94</v>
       </c>
-      <c r="L11" s="351" t="s">
-        <v>203</v>
+      <c r="L11" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M11" s="69"/>
       <c r="N11" s="137">
@@ -11927,10 +12158,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="265" t="s">
+      <c r="A12" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="263" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="111">
@@ -11942,16 +12173,16 @@
         <f t="shared" si="0"/>
         <v>144234.77000000002</v>
       </c>
-      <c r="I12" s="351" t="s">
+      <c r="I12" s="289" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="357">
+      <c r="J12" s="295">
         <v>7778</v>
       </c>
-      <c r="K12" s="358">
+      <c r="K12" s="296">
         <v>800</v>
       </c>
-      <c r="L12" s="359" t="s">
+      <c r="L12" s="297" t="s">
         <v>144</v>
       </c>
       <c r="M12" s="69">
@@ -11963,10 +12194,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="265" t="s">
+      <c r="A13" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="263" t="s">
         <v>148</v>
       </c>
       <c r="C13" s="111">
@@ -11978,17 +12209,17 @@
         <f t="shared" si="0"/>
         <v>152682.27000000002</v>
       </c>
-      <c r="I13" s="354" t="s">
+      <c r="I13" s="292" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="355">
+      <c r="J13" s="293">
         <v>7781</v>
       </c>
-      <c r="K13" s="356">
+      <c r="K13" s="294">
         <v>733.6</v>
       </c>
-      <c r="L13" s="354" t="s">
-        <v>203</v>
+      <c r="L13" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M13" s="69"/>
       <c r="N13" s="137">
@@ -11997,10 +12228,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="265" t="s">
+      <c r="A14" s="262" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="263" t="s">
         <v>150</v>
       </c>
       <c r="C14" s="111">
@@ -12012,17 +12243,17 @@
         <f t="shared" si="0"/>
         <v>153805.77000000002</v>
       </c>
-      <c r="I14" s="354" t="s">
+      <c r="I14" s="292" t="s">
         <v>144</v>
       </c>
-      <c r="J14" s="355">
+      <c r="J14" s="293">
         <v>7783</v>
       </c>
-      <c r="K14" s="356">
+      <c r="K14" s="294">
         <v>675</v>
       </c>
-      <c r="L14" s="354" t="s">
-        <v>203</v>
+      <c r="L14" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M14" s="69"/>
       <c r="N14" s="137">
@@ -12031,10 +12262,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="265" t="s">
+      <c r="A15" s="262" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="266" t="s">
+      <c r="B15" s="263" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="111">
@@ -12046,17 +12277,17 @@
         <f t="shared" si="0"/>
         <v>168484.37000000002</v>
       </c>
-      <c r="I15" s="351" t="s">
+      <c r="I15" s="289" t="s">
         <v>146</v>
       </c>
-      <c r="J15" s="352">
+      <c r="J15" s="290">
         <v>7789</v>
       </c>
-      <c r="K15" s="353">
+      <c r="K15" s="291">
         <v>5566.27</v>
       </c>
-      <c r="L15" s="351" t="s">
-        <v>203</v>
+      <c r="L15" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M15" s="69"/>
       <c r="N15" s="137">
@@ -12065,10 +12296,10 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="265" t="s">
+      <c r="A16" s="262" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="266" t="s">
+      <c r="B16" s="263" t="s">
         <v>153</v>
       </c>
       <c r="C16" s="111">
@@ -12080,17 +12311,17 @@
         <f t="shared" si="0"/>
         <v>199614.07000000004</v>
       </c>
-      <c r="I16" s="351" t="s">
-        <v>204</v>
-      </c>
-      <c r="J16" s="352">
+      <c r="I16" s="289" t="s">
+        <v>203</v>
+      </c>
+      <c r="J16" s="290">
         <v>7794</v>
       </c>
-      <c r="K16" s="353">
+      <c r="K16" s="291">
         <v>60</v>
       </c>
-      <c r="L16" s="351" t="s">
-        <v>203</v>
+      <c r="L16" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M16" s="69"/>
       <c r="N16" s="137">
@@ -12099,10 +12330,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="265" t="s">
+      <c r="A17" s="262" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="266" t="s">
+      <c r="B17" s="263" t="s">
         <v>155</v>
       </c>
       <c r="C17" s="111">
@@ -12114,17 +12345,17 @@
         <f t="shared" si="0"/>
         <v>213788.97000000003</v>
       </c>
-      <c r="I17" s="351" t="s">
-        <v>204</v>
-      </c>
-      <c r="J17" s="352">
+      <c r="I17" s="289" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17" s="290">
         <v>7796</v>
       </c>
-      <c r="K17" s="353">
+      <c r="K17" s="291">
         <v>4155</v>
       </c>
-      <c r="L17" s="351" t="s">
-        <v>203</v>
+      <c r="L17" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M17" s="69"/>
       <c r="N17" s="137">
@@ -12133,10 +12364,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="265" t="s">
+      <c r="A18" s="262" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="266" t="s">
+      <c r="B18" s="263" t="s">
         <v>156</v>
       </c>
       <c r="C18" s="111">
@@ -12148,17 +12379,17 @@
         <f t="shared" si="0"/>
         <v>216252.72000000003</v>
       </c>
-      <c r="I18" s="351" t="s">
+      <c r="I18" s="289" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="352">
+      <c r="J18" s="290">
         <v>7798</v>
       </c>
-      <c r="K18" s="353">
+      <c r="K18" s="291">
         <v>1620.32</v>
       </c>
-      <c r="L18" s="351" t="s">
-        <v>203</v>
+      <c r="L18" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M18" s="69"/>
       <c r="N18" s="137">
@@ -12167,10 +12398,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="265" t="s">
+      <c r="A19" s="262" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="266" t="s">
+      <c r="B19" s="263" t="s">
         <v>157</v>
       </c>
       <c r="C19" s="111">
@@ -12182,17 +12413,17 @@
         <f t="shared" si="0"/>
         <v>226152.72000000003</v>
       </c>
-      <c r="I19" s="354" t="s">
+      <c r="I19" s="292" t="s">
         <v>151</v>
       </c>
-      <c r="J19" s="355">
+      <c r="J19" s="293">
         <v>7805</v>
       </c>
-      <c r="K19" s="356">
+      <c r="K19" s="294">
         <v>2386.12</v>
       </c>
-      <c r="L19" s="354" t="s">
-        <v>203</v>
+      <c r="L19" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M19" s="69"/>
       <c r="N19" s="137">
@@ -12201,10 +12432,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="265" t="s">
+      <c r="A20" s="262" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="266" t="s">
+      <c r="B20" s="263" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="111">
@@ -12216,17 +12447,17 @@
         <f t="shared" si="0"/>
         <v>246437.22000000003</v>
       </c>
-      <c r="I20" s="354" t="s">
+      <c r="I20" s="292" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="355">
+      <c r="J20" s="293">
         <v>7809</v>
       </c>
-      <c r="K20" s="356">
+      <c r="K20" s="294">
         <v>2376.56</v>
       </c>
-      <c r="L20" s="354" t="s">
-        <v>203</v>
+      <c r="L20" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M20" s="69"/>
       <c r="N20" s="137">
@@ -12235,10 +12466,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="265" t="s">
+      <c r="A21" s="262" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="266" t="s">
+      <c r="B21" s="263" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="111">
@@ -12250,17 +12481,17 @@
         <f t="shared" si="0"/>
         <v>255046.22000000003</v>
       </c>
-      <c r="I21" s="351" t="s">
+      <c r="I21" s="289" t="s">
         <v>154</v>
       </c>
-      <c r="J21" s="352">
+      <c r="J21" s="290">
         <v>7817</v>
       </c>
-      <c r="K21" s="353">
+      <c r="K21" s="291">
         <v>3020.38</v>
       </c>
-      <c r="L21" s="351" t="s">
-        <v>203</v>
+      <c r="L21" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M21" s="69"/>
       <c r="N21" s="137">
@@ -12269,10 +12500,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="265" t="s">
+      <c r="A22" s="262" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="266" t="s">
+      <c r="B22" s="263" t="s">
         <v>162</v>
       </c>
       <c r="C22" s="111">
@@ -12285,17 +12516,17 @@
         <v>287890.52</v>
       </c>
       <c r="G22" s="138"/>
-      <c r="I22" s="351" t="s">
+      <c r="I22" s="289" t="s">
         <v>158</v>
       </c>
-      <c r="J22" s="352">
+      <c r="J22" s="290">
         <v>7822</v>
       </c>
-      <c r="K22" s="353">
+      <c r="K22" s="291">
         <v>2524.2399999999998</v>
       </c>
-      <c r="L22" s="351" t="s">
-        <v>203</v>
+      <c r="L22" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M22" s="69"/>
       <c r="N22" s="137">
@@ -12304,10 +12535,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="265" t="s">
+      <c r="A23" s="262" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="266" t="s">
+      <c r="B23" s="263" t="s">
         <v>163</v>
       </c>
       <c r="C23" s="111">
@@ -12319,17 +12550,17 @@
         <f t="shared" si="0"/>
         <v>289692.32</v>
       </c>
-      <c r="I23" s="351" t="s">
+      <c r="I23" s="289" t="s">
         <v>161</v>
       </c>
-      <c r="J23" s="352">
+      <c r="J23" s="290">
         <v>7826</v>
       </c>
-      <c r="K23" s="353">
+      <c r="K23" s="291">
         <v>1789.6</v>
       </c>
-      <c r="L23" s="351" t="s">
-        <v>203</v>
+      <c r="L23" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M23" s="69"/>
       <c r="N23" s="137">
@@ -12338,10 +12569,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="265" t="s">
+      <c r="A24" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="266" t="s">
+      <c r="B24" s="263" t="s">
         <v>165</v>
       </c>
       <c r="C24" s="111">
@@ -12353,17 +12584,17 @@
         <f t="shared" si="0"/>
         <v>290392.32000000001</v>
       </c>
-      <c r="I24" s="354" t="s">
+      <c r="I24" s="292" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="355">
+      <c r="J24" s="293">
         <v>7829</v>
       </c>
-      <c r="K24" s="356">
+      <c r="K24" s="294">
         <v>2590.2199999999998</v>
       </c>
-      <c r="L24" s="354" t="s">
-        <v>203</v>
+      <c r="L24" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M24" s="69"/>
       <c r="N24" s="137">
@@ -12372,10 +12603,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="265" t="s">
+      <c r="A25" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="266" t="s">
+      <c r="B25" s="263" t="s">
         <v>166</v>
       </c>
       <c r="C25" s="111">
@@ -12387,17 +12618,17 @@
         <f t="shared" si="0"/>
         <v>290392.32000000001</v>
       </c>
-      <c r="I25" s="354" t="s">
+      <c r="I25" s="292" t="s">
         <v>164</v>
       </c>
-      <c r="J25" s="355">
+      <c r="J25" s="293">
         <v>7831</v>
       </c>
-      <c r="K25" s="356">
+      <c r="K25" s="294">
         <v>5268.02</v>
       </c>
-      <c r="L25" s="354" t="s">
-        <v>203</v>
+      <c r="L25" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M25" s="69"/>
       <c r="N25" s="137">
@@ -12406,34 +12637,32 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="265" t="s">
+      <c r="A26" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="266" t="s">
+      <c r="B26" s="263" t="s">
         <v>167</v>
       </c>
       <c r="C26" s="111">
         <v>34909.9</v>
       </c>
-      <c r="D26" s="140" t="s">
-        <v>202</v>
-      </c>
+      <c r="D26" s="140"/>
       <c r="E26" s="69"/>
       <c r="F26" s="137">
         <f t="shared" si="0"/>
         <v>325302.22000000003</v>
       </c>
-      <c r="I26" s="354" t="s">
+      <c r="I26" s="292" t="s">
         <v>164</v>
       </c>
-      <c r="J26" s="355">
+      <c r="J26" s="293">
         <v>7835</v>
       </c>
-      <c r="K26" s="356">
+      <c r="K26" s="294">
         <v>1272.24</v>
       </c>
-      <c r="L26" s="354" t="s">
-        <v>203</v>
+      <c r="L26" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M26" s="69"/>
       <c r="N26" s="137">
@@ -12442,10 +12671,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="265" t="s">
+      <c r="A27" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="266" t="s">
+      <c r="B27" s="263" t="s">
         <v>168</v>
       </c>
       <c r="C27" s="111">
@@ -12457,17 +12686,17 @@
         <f t="shared" si="0"/>
         <v>330754.12000000005</v>
       </c>
-      <c r="I27" s="354" t="s">
-        <v>205</v>
-      </c>
-      <c r="J27" s="355">
+      <c r="I27" s="292" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" s="293">
         <v>7837</v>
       </c>
-      <c r="K27" s="356">
+      <c r="K27" s="294">
         <v>2132.7199999999998</v>
       </c>
-      <c r="L27" s="354" t="s">
-        <v>203</v>
+      <c r="L27" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M27" s="69"/>
       <c r="N27" s="137">
@@ -12476,10 +12705,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="265" t="s">
+      <c r="A28" s="262" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="263" t="s">
         <v>170</v>
       </c>
       <c r="C28" s="111">
@@ -12491,17 +12720,17 @@
         <f t="shared" si="0"/>
         <v>336874.12000000005</v>
       </c>
-      <c r="I28" s="354" t="s">
+      <c r="I28" s="292" t="s">
         <v>169</v>
       </c>
-      <c r="J28" s="355">
+      <c r="J28" s="293">
         <v>7841</v>
       </c>
-      <c r="K28" s="356">
+      <c r="K28" s="294">
         <v>5711.74</v>
       </c>
-      <c r="L28" s="354" t="s">
-        <v>203</v>
+      <c r="L28" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M28" s="69"/>
       <c r="N28" s="137">
@@ -12510,10 +12739,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="265" t="s">
+      <c r="A29" s="262" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="266" t="s">
+      <c r="B29" s="263" t="s">
         <v>171</v>
       </c>
       <c r="C29" s="111">
@@ -12525,17 +12754,17 @@
         <f t="shared" si="0"/>
         <v>337074.52000000008</v>
       </c>
-      <c r="I29" s="351" t="s">
+      <c r="I29" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="J29" s="352">
+      <c r="J29" s="290">
         <v>7850</v>
       </c>
-      <c r="K29" s="353">
+      <c r="K29" s="291">
         <v>1624.34</v>
       </c>
-      <c r="L29" s="351" t="s">
-        <v>203</v>
+      <c r="L29" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M29" s="69"/>
       <c r="N29" s="137">
@@ -12544,10 +12773,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="265" t="s">
+      <c r="A30" s="262" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="266" t="s">
+      <c r="B30" s="263" t="s">
         <v>173</v>
       </c>
       <c r="C30" s="111">
@@ -12560,17 +12789,17 @@
         <v>353510.72000000009</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="354" t="s">
+      <c r="I30" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="J30" s="355">
+      <c r="J30" s="293">
         <v>7855</v>
       </c>
-      <c r="K30" s="356">
+      <c r="K30" s="294">
         <v>1017</v>
       </c>
-      <c r="L30" s="354" t="s">
-        <v>203</v>
+      <c r="L30" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
@@ -12579,10 +12808,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="265" t="s">
+      <c r="A31" s="262" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="266" t="s">
+      <c r="B31" s="263" t="s">
         <v>175</v>
       </c>
       <c r="C31" s="111">
@@ -12594,17 +12823,17 @@
         <f t="shared" si="0"/>
         <v>359281.22000000009</v>
       </c>
-      <c r="I31" s="354" t="s">
+      <c r="I31" s="292" t="s">
         <v>177</v>
       </c>
-      <c r="J31" s="355">
+      <c r="J31" s="293">
         <v>7861</v>
       </c>
-      <c r="K31" s="356">
+      <c r="K31" s="294">
         <v>2570.5</v>
       </c>
-      <c r="L31" s="354" t="s">
-        <v>203</v>
+      <c r="L31" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
@@ -12613,10 +12842,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="265" t="s">
+      <c r="A32" s="262" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="266" t="s">
+      <c r="B32" s="263" t="s">
         <v>176</v>
       </c>
       <c r="C32" s="111">
@@ -12628,17 +12857,17 @@
         <f t="shared" si="0"/>
         <v>391068.0500000001</v>
       </c>
-      <c r="I32" s="351" t="s">
+      <c r="I32" s="289" t="s">
         <v>177</v>
       </c>
-      <c r="J32" s="352">
+      <c r="J32" s="290">
         <v>7862</v>
       </c>
-      <c r="K32" s="353">
+      <c r="K32" s="291">
         <v>220</v>
       </c>
-      <c r="L32" s="351" t="s">
-        <v>203</v>
+      <c r="L32" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
@@ -12647,10 +12876,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="265" t="s">
+      <c r="A33" s="262" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="263" t="s">
         <v>178</v>
       </c>
       <c r="C33" s="111">
@@ -12662,17 +12891,17 @@
         <f t="shared" si="0"/>
         <v>392101.65000000008</v>
       </c>
-      <c r="I33" s="351" t="s">
+      <c r="I33" s="289" t="s">
         <v>180</v>
       </c>
-      <c r="J33" s="352">
+      <c r="J33" s="290">
         <v>7868</v>
       </c>
-      <c r="K33" s="353">
+      <c r="K33" s="291">
         <v>1057.4000000000001</v>
       </c>
-      <c r="L33" s="351" t="s">
-        <v>203</v>
+      <c r="L33" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
@@ -12681,10 +12910,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="265" t="s">
+      <c r="A34" s="262" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="266" t="s">
+      <c r="B34" s="263" t="s">
         <v>179</v>
       </c>
       <c r="C34" s="111">
@@ -12696,17 +12925,17 @@
         <f t="shared" si="0"/>
         <v>415429.0500000001</v>
       </c>
-      <c r="I34" s="351" t="s">
+      <c r="I34" s="289" t="s">
         <v>183</v>
       </c>
-      <c r="J34" s="352">
+      <c r="J34" s="290">
         <v>7874</v>
       </c>
-      <c r="K34" s="353">
+      <c r="K34" s="291">
         <v>2185.46</v>
       </c>
-      <c r="L34" s="351" t="s">
-        <v>203</v>
+      <c r="L34" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
@@ -12715,32 +12944,32 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="265" t="s">
+      <c r="A35" s="262" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="285" t="s">
+      <c r="B35" s="282" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="286">
+      <c r="C35" s="283">
         <v>9701.98</v>
       </c>
-      <c r="D35" s="287"/>
+      <c r="D35" s="284"/>
       <c r="E35" s="69"/>
       <c r="F35" s="137">
         <f t="shared" si="0"/>
         <v>425131.03000000009</v>
       </c>
-      <c r="I35" s="351" t="s">
+      <c r="I35" s="289" t="s">
         <v>186</v>
       </c>
-      <c r="J35" s="352">
+      <c r="J35" s="290">
         <v>7885</v>
       </c>
-      <c r="K35" s="353">
+      <c r="K35" s="291">
         <v>7065.94</v>
       </c>
-      <c r="L35" s="351" t="s">
-        <v>203</v>
+      <c r="L35" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
@@ -12749,32 +12978,36 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="265" t="s">
+      <c r="A36" s="262" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="266" t="s">
+      <c r="B36" s="263" t="s">
         <v>182</v>
       </c>
       <c r="C36" s="111">
         <v>19002.599999999999</v>
       </c>
-      <c r="D36" s="140"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="137">
-        <f t="shared" si="0"/>
-        <v>444133.63000000006</v>
-      </c>
-      <c r="I36" s="351" t="s">
+      <c r="D36" s="140">
+        <v>44536</v>
+      </c>
+      <c r="E36" s="69">
+        <v>440783.04</v>
+      </c>
+      <c r="F36" s="313">
+        <f t="shared" si="0"/>
+        <v>3350.5900000000838</v>
+      </c>
+      <c r="I36" s="289" t="s">
         <v>186</v>
       </c>
-      <c r="J36" s="352">
+      <c r="J36" s="290">
         <v>7886</v>
       </c>
-      <c r="K36" s="353">
+      <c r="K36" s="291">
         <v>2509.7199999999998</v>
       </c>
-      <c r="L36" s="351" t="s">
-        <v>203</v>
+      <c r="L36" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
@@ -12783,10 +13016,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="265" t="s">
+      <c r="A37" s="262" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="266" t="s">
+      <c r="B37" s="263" t="s">
         <v>184</v>
       </c>
       <c r="C37" s="111">
@@ -12796,19 +13029,19 @@
       <c r="E37" s="69"/>
       <c r="F37" s="137">
         <f t="shared" si="0"/>
-        <v>459138.13000000006</v>
-      </c>
-      <c r="I37" s="351" t="s">
+        <v>18355.090000000084</v>
+      </c>
+      <c r="I37" s="289" t="s">
         <v>188</v>
       </c>
-      <c r="J37" s="352">
+      <c r="J37" s="290">
         <v>7894</v>
       </c>
-      <c r="K37" s="353">
+      <c r="K37" s="291">
         <v>6480.14</v>
       </c>
-      <c r="L37" s="351" t="s">
-        <v>203</v>
+      <c r="L37" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M37" s="69"/>
       <c r="N37" s="137">
@@ -12817,10 +13050,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="265" t="s">
+      <c r="A38" s="262" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="266" t="s">
+      <c r="B38" s="263" t="s">
         <v>185</v>
       </c>
       <c r="C38" s="111">
@@ -12830,19 +13063,19 @@
       <c r="E38" s="69"/>
       <c r="F38" s="137">
         <f t="shared" si="0"/>
-        <v>470791.13000000006</v>
-      </c>
-      <c r="I38" s="354" t="s">
+        <v>30008.090000000084</v>
+      </c>
+      <c r="I38" s="292" t="s">
         <v>191</v>
       </c>
-      <c r="J38" s="355">
+      <c r="J38" s="293">
         <v>7902</v>
       </c>
-      <c r="K38" s="356">
+      <c r="K38" s="294">
         <v>14917</v>
       </c>
-      <c r="L38" s="354" t="s">
-        <v>203</v>
+      <c r="L38" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M38" s="69"/>
       <c r="N38" s="137">
@@ -12851,10 +13084,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="265" t="s">
+      <c r="A39" s="262" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="266" t="s">
+      <c r="B39" s="263" t="s">
         <v>187</v>
       </c>
       <c r="C39" s="111">
@@ -12864,19 +13097,19 @@
       <c r="E39" s="69"/>
       <c r="F39" s="137">
         <f t="shared" si="0"/>
-        <v>484355.53000000009</v>
-      </c>
-      <c r="I39" s="351" t="s">
+        <v>43572.490000000085</v>
+      </c>
+      <c r="I39" s="289" t="s">
         <v>191</v>
       </c>
-      <c r="J39" s="352">
+      <c r="J39" s="290">
         <v>7904</v>
       </c>
-      <c r="K39" s="353">
+      <c r="K39" s="291">
         <v>23258.400000000001</v>
       </c>
-      <c r="L39" s="351" t="s">
-        <v>203</v>
+      <c r="L39" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M39" s="69"/>
       <c r="N39" s="137">
@@ -12885,10 +13118,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="265" t="s">
+      <c r="A40" s="262" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="266" t="s">
+      <c r="B40" s="263" t="s">
         <v>189</v>
       </c>
       <c r="C40" s="111">
@@ -12898,19 +13131,19 @@
       <c r="E40" s="69"/>
       <c r="F40" s="137">
         <f t="shared" si="0"/>
-        <v>507707.63000000006</v>
-      </c>
-      <c r="I40" s="354" t="s">
+        <v>66924.590000000084</v>
+      </c>
+      <c r="I40" s="292" t="s">
         <v>193</v>
       </c>
-      <c r="J40" s="355">
+      <c r="J40" s="293">
         <v>7909</v>
       </c>
-      <c r="K40" s="356">
+      <c r="K40" s="294">
         <v>4062.48</v>
       </c>
-      <c r="L40" s="354" t="s">
-        <v>203</v>
+      <c r="L40" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M40" s="69"/>
       <c r="N40" s="137">
@@ -12919,10 +13152,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="265" t="s">
+      <c r="A41" s="262" t="s">
         <v>188</v>
       </c>
-      <c r="B41" s="266" t="s">
+      <c r="B41" s="263" t="s">
         <v>190</v>
       </c>
       <c r="C41" s="111">
@@ -12932,19 +13165,19 @@
       <c r="E41" s="69"/>
       <c r="F41" s="137">
         <f t="shared" si="0"/>
-        <v>508770.23000000004</v>
-      </c>
-      <c r="I41" s="354" t="s">
+        <v>67987.19000000009</v>
+      </c>
+      <c r="I41" s="292" t="s">
         <v>196</v>
       </c>
-      <c r="J41" s="355">
+      <c r="J41" s="293">
         <v>7918</v>
       </c>
-      <c r="K41" s="356">
+      <c r="K41" s="294">
         <v>2667.28</v>
       </c>
-      <c r="L41" s="354" t="s">
-        <v>203</v>
+      <c r="L41" s="292" t="s">
+        <v>202</v>
       </c>
       <c r="M41" s="69"/>
       <c r="N41" s="137">
@@ -12953,10 +13186,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="265" t="s">
+      <c r="A42" s="262" t="s">
         <v>191</v>
       </c>
-      <c r="B42" s="266" t="s">
+      <c r="B42" s="263" t="s">
         <v>192</v>
       </c>
       <c r="C42" s="111">
@@ -12966,19 +13199,19 @@
       <c r="E42" s="69"/>
       <c r="F42" s="137">
         <f t="shared" si="0"/>
-        <v>532487.13</v>
-      </c>
-      <c r="I42" s="351" t="s">
+        <v>91704.090000000084</v>
+      </c>
+      <c r="I42" s="289" t="s">
         <v>196</v>
       </c>
-      <c r="J42" s="352">
+      <c r="J42" s="290">
         <v>7920</v>
       </c>
-      <c r="K42" s="353">
+      <c r="K42" s="291">
         <v>19440.8</v>
       </c>
-      <c r="L42" s="351" t="s">
-        <v>203</v>
+      <c r="L42" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M42" s="69"/>
       <c r="N42" s="137">
@@ -12987,10 +13220,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="265" t="s">
+      <c r="A43" s="262" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="266" t="s">
+      <c r="B43" s="263" t="s">
         <v>194</v>
       </c>
       <c r="C43" s="111">
@@ -13000,19 +13233,19 @@
       <c r="E43" s="69"/>
       <c r="F43" s="137">
         <f t="shared" si="0"/>
-        <v>532487.13</v>
-      </c>
-      <c r="I43" s="351" t="s">
+        <v>91704.090000000084</v>
+      </c>
+      <c r="I43" s="289" t="s">
         <v>196</v>
       </c>
-      <c r="J43" s="352">
+      <c r="J43" s="290">
         <v>7925</v>
       </c>
-      <c r="K43" s="353">
+      <c r="K43" s="291">
         <v>803.24</v>
       </c>
-      <c r="L43" s="351" t="s">
-        <v>203</v>
+      <c r="L43" s="289" t="s">
+        <v>202</v>
       </c>
       <c r="M43" s="69"/>
       <c r="N43" s="137">
@@ -13021,10 +13254,10 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="265" t="s">
+      <c r="A44" s="262" t="s">
         <v>193</v>
       </c>
-      <c r="B44" s="266" t="s">
+      <c r="B44" s="263" t="s">
         <v>195</v>
       </c>
       <c r="C44" s="111">
@@ -13034,20 +13267,24 @@
       <c r="E44" s="69"/>
       <c r="F44" s="137">
         <f t="shared" si="0"/>
-        <v>554959.13</v>
+        <v>114176.09000000008</v>
       </c>
       <c r="I44" s="233"/>
       <c r="J44" s="234"/>
       <c r="K44" s="236"/>
-      <c r="L44" s="140"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="137">
-        <f t="shared" si="1"/>
+      <c r="L44" s="314">
+        <v>44536</v>
+      </c>
+      <c r="M44" s="315">
         <v>163925.34</v>
       </c>
+      <c r="N44" s="313">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="265" t="s">
+      <c r="A45" s="262" t="s">
         <v>196</v>
       </c>
       <c r="B45" s="57" t="s">
@@ -13060,7 +13297,7 @@
       <c r="E45" s="69"/>
       <c r="F45" s="137">
         <f t="shared" si="0"/>
-        <v>632125.18000000005</v>
+        <v>191342.14000000007</v>
       </c>
       <c r="I45" s="233"/>
       <c r="J45" s="234"/>
@@ -13069,24 +13306,24 @@
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="265" t="s">
+      <c r="A46" s="262" t="s">
         <v>196</v>
       </c>
       <c r="B46" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="262">
+      <c r="C46" s="259">
         <v>104.4</v>
       </c>
       <c r="D46" s="140"/>
       <c r="E46" s="69"/>
       <c r="F46" s="137">
         <f t="shared" si="0"/>
-        <v>632229.58000000007</v>
+        <v>191446.54000000007</v>
       </c>
       <c r="I46" s="233"/>
       <c r="J46" s="234"/>
@@ -13095,24 +13332,24 @@
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="265" t="s">
+      <c r="A47" s="262" t="s">
         <v>196</v>
       </c>
       <c r="B47" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="262">
+      <c r="C47" s="259">
         <v>702</v>
       </c>
       <c r="D47" s="140"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
         <f t="shared" si="0"/>
-        <v>632931.58000000007</v>
+        <v>192148.54000000007</v>
       </c>
       <c r="I47" s="233"/>
       <c r="J47" s="234"/>
@@ -13121,24 +13358,24 @@
       <c r="M47" s="69"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="261">
+      <c r="A48" s="258">
         <v>44534</v>
       </c>
-      <c r="B48" s="260" t="s">
+      <c r="B48" s="257" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="264">
+      <c r="C48" s="261">
         <v>73956.800000000003</v>
       </c>
       <c r="D48" s="140"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
         <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
+        <v>266105.34000000008</v>
       </c>
       <c r="I48" s="233"/>
       <c r="J48" s="234"/>
@@ -13147,7 +13384,7 @@
       <c r="M48" s="69"/>
       <c r="N48" s="137">
         <f t="shared" si="1"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13158,7 +13395,7 @@
       <c r="E49" s="69"/>
       <c r="F49" s="137">
         <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
+        <v>266105.34000000008</v>
       </c>
       <c r="I49" s="233"/>
       <c r="J49" s="234"/>
@@ -13167,278 +13404,278 @@
       <c r="M49" s="69"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="140"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="134"/>
       <c r="B50" s="139"/>
       <c r="C50" s="69"/>
       <c r="D50" s="140"/>
       <c r="E50" s="69"/>
       <c r="F50" s="137">
         <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I50" s="233"/>
-      <c r="J50" s="234"/>
-      <c r="K50" s="235"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I50" s="134"/>
+      <c r="J50" s="139"/>
+      <c r="K50" s="69"/>
       <c r="L50" s="140"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="140"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="141"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="143"/>
       <c r="D51" s="140"/>
       <c r="E51" s="69"/>
       <c r="F51" s="137">
         <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I51" s="233"/>
-      <c r="J51" s="234"/>
-      <c r="K51" s="235"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I51" s="141"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="143"/>
       <c r="L51" s="140"/>
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="140"/>
-      <c r="B52" s="139"/>
-      <c r="C52" s="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="141"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="143"/>
       <c r="D52" s="140"/>
       <c r="E52" s="69"/>
       <c r="F52" s="137">
         <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I52" s="233"/>
-      <c r="J52" s="234"/>
-      <c r="K52" s="235"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I52" s="141"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="143"/>
       <c r="L52" s="140"/>
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="140"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="141"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="143"/>
       <c r="D53" s="140"/>
       <c r="E53" s="69"/>
       <c r="F53" s="137">
         <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I53" s="233"/>
-      <c r="J53" s="234"/>
-      <c r="K53" s="235"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I53" s="141"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="143"/>
       <c r="L53" s="140"/>
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="134"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="141"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="143"/>
       <c r="D54" s="140"/>
       <c r="E54" s="69"/>
       <c r="F54" s="137">
         <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I54" s="233"/>
-      <c r="J54" s="234"/>
-      <c r="K54" s="235"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I54" s="141"/>
+      <c r="J54" s="142"/>
+      <c r="K54" s="143"/>
       <c r="L54" s="140"/>
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="134"/>
-      <c r="B55" s="139"/>
-      <c r="C55" s="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="141"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="143"/>
       <c r="D55" s="140"/>
       <c r="E55" s="69"/>
       <c r="F55" s="137">
         <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I55" s="233"/>
-      <c r="J55" s="234"/>
-      <c r="K55" s="235"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I55" s="141"/>
+      <c r="J55" s="142"/>
+      <c r="K55" s="143"/>
       <c r="L55" s="140"/>
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="134"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="141"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
       <c r="D56" s="140"/>
       <c r="E56" s="69"/>
       <c r="F56" s="137">
         <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I56" s="233"/>
-      <c r="J56" s="234"/>
-      <c r="K56" s="235"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I56" s="141"/>
+      <c r="J56" s="142"/>
+      <c r="K56" s="143"/>
       <c r="L56" s="140"/>
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="140"/>
-      <c r="B57" s="139"/>
-      <c r="C57" s="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="141"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="143"/>
       <c r="D57" s="140"/>
       <c r="E57" s="69"/>
       <c r="F57" s="137">
-        <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I57" s="233"/>
-      <c r="J57" s="234"/>
-      <c r="K57" s="235"/>
+        <f t="shared" ref="F57:F85" si="2">F56+C57-E57</f>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I57" s="141"/>
+      <c r="J57" s="142"/>
+      <c r="K57" s="143"/>
       <c r="L57" s="140"/>
       <c r="M57" s="69"/>
       <c r="N57" s="137">
-        <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="140"/>
-      <c r="B58" s="139"/>
-      <c r="C58" s="69"/>
+        <f t="shared" ref="N57:N85" si="3">N56+K57-M57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="141"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="143"/>
       <c r="D58" s="140"/>
       <c r="E58" s="69"/>
       <c r="F58" s="137">
-        <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I58" s="233"/>
-      <c r="J58" s="234"/>
-      <c r="K58" s="235"/>
+        <f t="shared" si="2"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I58" s="141"/>
+      <c r="J58" s="142"/>
+      <c r="K58" s="143"/>
       <c r="L58" s="140"/>
       <c r="M58" s="69"/>
       <c r="N58" s="137">
-        <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="140"/>
-      <c r="B59" s="139"/>
-      <c r="C59" s="69"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="141"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="143"/>
       <c r="D59" s="140"/>
       <c r="E59" s="69"/>
       <c r="F59" s="137">
-        <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I59" s="233"/>
-      <c r="J59" s="234"/>
-      <c r="K59" s="236"/>
+        <f t="shared" si="2"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I59" s="141"/>
+      <c r="J59" s="142"/>
+      <c r="K59" s="143"/>
       <c r="L59" s="140"/>
       <c r="M59" s="69"/>
       <c r="N59" s="137">
-        <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="134"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="69"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="141"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="143"/>
       <c r="D60" s="140"/>
       <c r="E60" s="69"/>
       <c r="F60" s="137">
-        <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I60" s="134"/>
-      <c r="J60" s="139"/>
-      <c r="K60" s="69"/>
+        <f t="shared" si="2"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I60" s="141"/>
+      <c r="J60" s="142"/>
+      <c r="K60" s="143"/>
       <c r="L60" s="140"/>
       <c r="M60" s="69"/>
       <c r="N60" s="137">
-        <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="134"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="69"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="141"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="143"/>
       <c r="D61" s="140"/>
       <c r="E61" s="69"/>
       <c r="F61" s="137">
-        <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I61" s="134"/>
-      <c r="J61" s="139"/>
-      <c r="K61" s="69"/>
+        <f t="shared" si="2"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I61" s="141"/>
+      <c r="J61" s="142"/>
+      <c r="K61" s="143"/>
       <c r="L61" s="140"/>
       <c r="M61" s="69"/>
       <c r="N61" s="137">
-        <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="134"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="69"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="141"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
       <c r="D62" s="140"/>
       <c r="E62" s="69"/>
       <c r="F62" s="137">
-        <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I62" s="134"/>
-      <c r="J62" s="139"/>
-      <c r="K62" s="69"/>
+        <f t="shared" si="2"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I62" s="141"/>
+      <c r="J62" s="142"/>
+      <c r="K62" s="143"/>
       <c r="L62" s="140"/>
       <c r="M62" s="69"/>
       <c r="N62" s="137">
-        <f t="shared" si="1"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="141"/>
       <c r="B63" s="142"/>
       <c r="C63" s="143"/>
       <c r="D63" s="140"/>
       <c r="E63" s="69"/>
       <c r="F63" s="137">
-        <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
+        <f t="shared" si="2"/>
+        <v>266105.34000000008</v>
       </c>
       <c r="I63" s="141"/>
       <c r="J63" s="142"/>
@@ -13446,8 +13683,8 @@
       <c r="L63" s="140"/>
       <c r="M63" s="69"/>
       <c r="N63" s="137">
-        <f t="shared" si="1"/>
-        <v>163925.34</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13457,8 +13694,8 @@
       <c r="D64" s="140"/>
       <c r="E64" s="69"/>
       <c r="F64" s="137">
-        <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
+        <f t="shared" si="2"/>
+        <v>266105.34000000008</v>
       </c>
       <c r="I64" s="141"/>
       <c r="J64" s="142"/>
@@ -13466,8 +13703,8 @@
       <c r="L64" s="140"/>
       <c r="M64" s="69"/>
       <c r="N64" s="137">
-        <f t="shared" si="1"/>
-        <v>163925.34</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13477,8 +13714,8 @@
       <c r="D65" s="140"/>
       <c r="E65" s="69"/>
       <c r="F65" s="137">
-        <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
+        <f t="shared" si="2"/>
+        <v>266105.34000000008</v>
       </c>
       <c r="I65" s="141"/>
       <c r="J65" s="142"/>
@@ -13486,8 +13723,8 @@
       <c r="L65" s="140"/>
       <c r="M65" s="69"/>
       <c r="N65" s="137">
-        <f t="shared" si="1"/>
-        <v>163925.34</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13497,8 +13734,8 @@
       <c r="D66" s="140"/>
       <c r="E66" s="69"/>
       <c r="F66" s="137">
-        <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
+        <f t="shared" si="2"/>
+        <v>266105.34000000008</v>
       </c>
       <c r="I66" s="141"/>
       <c r="J66" s="142"/>
@@ -13506,8 +13743,8 @@
       <c r="L66" s="140"/>
       <c r="M66" s="69"/>
       <c r="N66" s="137">
-        <f t="shared" si="1"/>
-        <v>163925.34</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13517,8 +13754,8 @@
       <c r="D67" s="140"/>
       <c r="E67" s="69"/>
       <c r="F67" s="137">
-        <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
+        <f t="shared" si="2"/>
+        <v>266105.34000000008</v>
       </c>
       <c r="I67" s="141"/>
       <c r="J67" s="142"/>
@@ -13526,8 +13763,8 @@
       <c r="L67" s="140"/>
       <c r="M67" s="69"/>
       <c r="N67" s="137">
-        <f t="shared" si="1"/>
-        <v>163925.34</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13537,8 +13774,8 @@
       <c r="D68" s="140"/>
       <c r="E68" s="69"/>
       <c r="F68" s="137">
-        <f t="shared" si="0"/>
-        <v>706888.38000000012</v>
+        <f t="shared" si="2"/>
+        <v>266105.34000000008</v>
       </c>
       <c r="I68" s="141"/>
       <c r="J68" s="142"/>
@@ -13546,935 +13783,700 @@
       <c r="L68" s="140"/>
       <c r="M68" s="69"/>
       <c r="N68" s="137">
-        <f t="shared" si="1"/>
-        <v>163925.34</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="141"/>
-      <c r="B69" s="142"/>
-      <c r="C69" s="143"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="69"/>
+      <c r="A69" s="144"/>
+      <c r="B69" s="145"/>
+      <c r="C69" s="146"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="34"/>
       <c r="F69" s="137">
-        <f t="shared" ref="F69:F97" si="2">F68+C69-E69</f>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I69" s="141"/>
-      <c r="J69" s="142"/>
-      <c r="K69" s="143"/>
-      <c r="L69" s="140"/>
-      <c r="M69" s="69"/>
+        <f t="shared" si="2"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I69" s="144"/>
+      <c r="J69" s="145"/>
+      <c r="K69" s="146"/>
+      <c r="L69" s="147"/>
+      <c r="M69" s="34"/>
       <c r="N69" s="137">
-        <f t="shared" ref="N69:N97" si="3">N68+K69-M69</f>
-        <v>163925.34</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="141"/>
-      <c r="B70" s="142"/>
-      <c r="C70" s="143"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="69"/>
+      <c r="A70" s="144"/>
+      <c r="B70" s="145"/>
+      <c r="C70" s="146"/>
+      <c r="D70" s="147"/>
+      <c r="E70" s="34"/>
       <c r="F70" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I70" s="141"/>
-      <c r="J70" s="142"/>
-      <c r="K70" s="143"/>
-      <c r="L70" s="140"/>
-      <c r="M70" s="69"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I70" s="144"/>
+      <c r="J70" s="145"/>
+      <c r="K70" s="146"/>
+      <c r="L70" s="147"/>
+      <c r="M70" s="34"/>
       <c r="N70" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="141"/>
-      <c r="B71" s="142"/>
-      <c r="C71" s="143"/>
-      <c r="D71" s="140"/>
-      <c r="E71" s="69"/>
+      <c r="A71" s="144"/>
+      <c r="B71" s="145"/>
+      <c r="C71" s="146"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="34"/>
       <c r="F71" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I71" s="141"/>
-      <c r="J71" s="142"/>
-      <c r="K71" s="143"/>
-      <c r="L71" s="140"/>
-      <c r="M71" s="69"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I71" s="144"/>
+      <c r="J71" s="145"/>
+      <c r="K71" s="146"/>
+      <c r="L71" s="147"/>
+      <c r="M71" s="34"/>
       <c r="N71" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="141"/>
-      <c r="B72" s="142"/>
-      <c r="C72" s="143"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="69"/>
+      <c r="A72" s="144"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="146"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="34"/>
       <c r="F72" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I72" s="141"/>
-      <c r="J72" s="142"/>
-      <c r="K72" s="143"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="69"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I72" s="144"/>
+      <c r="J72" s="145"/>
+      <c r="K72" s="146"/>
+      <c r="L72" s="147"/>
+      <c r="M72" s="34"/>
       <c r="N72" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="141"/>
-      <c r="B73" s="142"/>
-      <c r="C73" s="143"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="69"/>
+      <c r="A73" s="144"/>
+      <c r="B73" s="145"/>
+      <c r="C73" s="146"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I73" s="141"/>
-      <c r="J73" s="142"/>
-      <c r="K73" s="143"/>
-      <c r="L73" s="140"/>
-      <c r="M73" s="69"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I73" s="144"/>
+      <c r="J73" s="145"/>
+      <c r="K73" s="146"/>
+      <c r="L73" s="147"/>
+      <c r="M73" s="34"/>
       <c r="N73" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="141"/>
-      <c r="B74" s="142"/>
-      <c r="C74" s="143"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="69"/>
+      <c r="A74" s="144"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="146"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="34"/>
       <c r="F74" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I74" s="141"/>
-      <c r="J74" s="142"/>
-      <c r="K74" s="143"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="69"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I74" s="144"/>
+      <c r="J74" s="145"/>
+      <c r="K74" s="146"/>
+      <c r="L74" s="147"/>
+      <c r="M74" s="34"/>
       <c r="N74" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="141"/>
       <c r="B75" s="142"/>
       <c r="C75" s="143"/>
-      <c r="D75" s="140"/>
+      <c r="D75" s="148"/>
       <c r="E75" s="69"/>
       <c r="F75" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
+        <v>266105.34000000008</v>
       </c>
       <c r="I75" s="141"/>
       <c r="J75" s="142"/>
       <c r="K75" s="143"/>
-      <c r="L75" s="140"/>
+      <c r="L75" s="148"/>
       <c r="M75" s="69"/>
       <c r="N75" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="141"/>
       <c r="B76" s="142"/>
       <c r="C76" s="143"/>
-      <c r="D76" s="140"/>
+      <c r="D76" s="148"/>
       <c r="E76" s="69"/>
       <c r="F76" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
+        <v>266105.34000000008</v>
       </c>
       <c r="I76" s="141"/>
       <c r="J76" s="142"/>
       <c r="K76" s="143"/>
-      <c r="L76" s="140"/>
+      <c r="L76" s="148"/>
       <c r="M76" s="69"/>
       <c r="N76" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="141"/>
       <c r="B77" s="142"/>
       <c r="C77" s="143"/>
-      <c r="D77" s="140"/>
+      <c r="D77" s="148"/>
       <c r="E77" s="69"/>
       <c r="F77" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
+        <v>266105.34000000008</v>
       </c>
       <c r="I77" s="141"/>
       <c r="J77" s="142"/>
       <c r="K77" s="143"/>
-      <c r="L77" s="140"/>
+      <c r="L77" s="148"/>
       <c r="M77" s="69"/>
       <c r="N77" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="141"/>
       <c r="B78" s="142"/>
       <c r="C78" s="143"/>
-      <c r="D78" s="140"/>
+      <c r="D78" s="148"/>
       <c r="E78" s="69"/>
       <c r="F78" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
+        <v>266105.34000000008</v>
       </c>
       <c r="I78" s="141"/>
       <c r="J78" s="142"/>
       <c r="K78" s="143"/>
-      <c r="L78" s="140"/>
+      <c r="L78" s="148"/>
       <c r="M78" s="69"/>
       <c r="N78" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="141"/>
       <c r="B79" s="142"/>
       <c r="C79" s="143"/>
-      <c r="D79" s="140"/>
+      <c r="D79" s="148"/>
       <c r="E79" s="69"/>
       <c r="F79" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
+        <v>266105.34000000008</v>
       </c>
       <c r="I79" s="141"/>
       <c r="J79" s="142"/>
       <c r="K79" s="143"/>
-      <c r="L79" s="140"/>
+      <c r="L79" s="148"/>
       <c r="M79" s="69"/>
       <c r="N79" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="141"/>
       <c r="B80" s="142"/>
       <c r="C80" s="143"/>
-      <c r="D80" s="140"/>
+      <c r="D80" s="148"/>
       <c r="E80" s="69"/>
       <c r="F80" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
+        <v>266105.34000000008</v>
       </c>
       <c r="I80" s="141"/>
       <c r="J80" s="142"/>
       <c r="K80" s="143"/>
-      <c r="L80" s="140"/>
+      <c r="L80" s="148"/>
       <c r="M80" s="69"/>
       <c r="N80" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="144"/>
-      <c r="B81" s="145"/>
-      <c r="C81" s="146"/>
-      <c r="D81" s="147"/>
-      <c r="E81" s="34"/>
+      <c r="A81" s="141"/>
+      <c r="B81" s="142"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="148"/>
+      <c r="E81" s="69"/>
       <c r="F81" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I81" s="144"/>
-      <c r="J81" s="145"/>
-      <c r="K81" s="146"/>
-      <c r="L81" s="147"/>
-      <c r="M81" s="34"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I81" s="141"/>
+      <c r="J81" s="142"/>
+      <c r="K81" s="143"/>
+      <c r="L81" s="148"/>
+      <c r="M81" s="69"/>
       <c r="N81" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="144"/>
-      <c r="B82" s="145"/>
-      <c r="C82" s="146"/>
-      <c r="D82" s="147"/>
-      <c r="E82" s="34"/>
+      <c r="A82" s="141"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="148"/>
+      <c r="E82" s="69"/>
       <c r="F82" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I82" s="144"/>
-      <c r="J82" s="145"/>
-      <c r="K82" s="146"/>
-      <c r="L82" s="147"/>
-      <c r="M82" s="34"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I82" s="141"/>
+      <c r="J82" s="142"/>
+      <c r="K82" s="143"/>
+      <c r="L82" s="148"/>
+      <c r="M82" s="69"/>
       <c r="N82" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="144"/>
-      <c r="B83" s="145"/>
-      <c r="C83" s="146"/>
-      <c r="D83" s="147"/>
-      <c r="E83" s="34"/>
+      <c r="A83" s="141"/>
+      <c r="B83" s="142"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="69"/>
       <c r="F83" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I83" s="144"/>
-      <c r="J83" s="145"/>
-      <c r="K83" s="146"/>
-      <c r="L83" s="147"/>
-      <c r="M83" s="34"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I83" s="141"/>
+      <c r="J83" s="142"/>
+      <c r="K83" s="143"/>
+      <c r="L83" s="148"/>
+      <c r="M83" s="69"/>
       <c r="N83" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="144"/>
-      <c r="B84" s="145"/>
-      <c r="C84" s="146"/>
-      <c r="D84" s="147"/>
-      <c r="E84" s="34"/>
+      <c r="A84" s="141"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="148"/>
+      <c r="E84" s="69"/>
       <c r="F84" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I84" s="144"/>
-      <c r="J84" s="145"/>
-      <c r="K84" s="146"/>
-      <c r="L84" s="147"/>
-      <c r="M84" s="34"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I84" s="141"/>
+      <c r="J84" s="142"/>
+      <c r="K84" s="143"/>
+      <c r="L84" s="148"/>
+      <c r="M84" s="69"/>
       <c r="N84" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="144"/>
-      <c r="B85" s="145"/>
-      <c r="C85" s="146"/>
-      <c r="D85" s="147"/>
-      <c r="E85" s="34"/>
+      <c r="A85" s="149"/>
+      <c r="B85" s="224"/>
+      <c r="C85" s="34">
+        <v>0</v>
+      </c>
+      <c r="D85" s="152"/>
+      <c r="E85" s="151"/>
       <c r="F85" s="137">
         <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I85" s="144"/>
-      <c r="J85" s="145"/>
-      <c r="K85" s="146"/>
-      <c r="L85" s="147"/>
-      <c r="M85" s="34"/>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="I85" s="149"/>
+      <c r="J85" s="150"/>
+      <c r="K85" s="151">
+        <v>0</v>
+      </c>
+      <c r="L85" s="152"/>
+      <c r="M85" s="151"/>
       <c r="N85" s="137">
         <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="144"/>
-      <c r="B86" s="145"/>
-      <c r="C86" s="146"/>
-      <c r="D86" s="147"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="137">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B86" s="225"/>
+      <c r="C86" s="226">
+        <f>SUM(C3:C85)</f>
         <v>706888.38000000012</v>
       </c>
-      <c r="I86" s="144"/>
-      <c r="J86" s="145"/>
-      <c r="K86" s="146"/>
-      <c r="L86" s="147"/>
-      <c r="M86" s="34"/>
-      <c r="N86" s="137">
-        <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="141"/>
-      <c r="B87" s="142"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="148"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="137">
-        <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I87" s="141"/>
-      <c r="J87" s="142"/>
-      <c r="K87" s="143"/>
-      <c r="L87" s="148"/>
-      <c r="M87" s="69"/>
-      <c r="N87" s="137">
-        <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="141"/>
-      <c r="B88" s="142"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="148"/>
-      <c r="E88" s="69"/>
-      <c r="F88" s="137">
-        <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I88" s="141"/>
-      <c r="J88" s="142"/>
-      <c r="K88" s="143"/>
-      <c r="L88" s="148"/>
-      <c r="M88" s="69"/>
-      <c r="N88" s="137">
-        <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="141"/>
-      <c r="B89" s="142"/>
-      <c r="C89" s="143"/>
-      <c r="D89" s="148"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="137">
-        <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I89" s="141"/>
-      <c r="J89" s="142"/>
-      <c r="K89" s="143"/>
-      <c r="L89" s="148"/>
-      <c r="M89" s="69"/>
-      <c r="N89" s="137">
-        <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="141"/>
-      <c r="B90" s="142"/>
-      <c r="C90" s="143"/>
-      <c r="D90" s="148"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="137">
-        <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I90" s="141"/>
-      <c r="J90" s="142"/>
-      <c r="K90" s="143"/>
-      <c r="L90" s="148"/>
-      <c r="M90" s="69"/>
-      <c r="N90" s="137">
-        <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="141"/>
-      <c r="B91" s="142"/>
-      <c r="C91" s="143"/>
-      <c r="D91" s="148"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="137">
-        <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I91" s="141"/>
-      <c r="J91" s="142"/>
-      <c r="K91" s="143"/>
-      <c r="L91" s="148"/>
-      <c r="M91" s="69"/>
-      <c r="N91" s="137">
-        <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="141"/>
-      <c r="B92" s="142"/>
-      <c r="C92" s="143"/>
-      <c r="D92" s="148"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="137">
-        <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I92" s="141"/>
-      <c r="J92" s="142"/>
-      <c r="K92" s="143"/>
-      <c r="L92" s="148"/>
-      <c r="M92" s="69"/>
-      <c r="N92" s="137">
-        <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="141"/>
-      <c r="B93" s="142"/>
-      <c r="C93" s="143"/>
-      <c r="D93" s="148"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="137">
-        <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I93" s="141"/>
-      <c r="J93" s="142"/>
-      <c r="K93" s="143"/>
-      <c r="L93" s="148"/>
-      <c r="M93" s="69"/>
-      <c r="N93" s="137">
-        <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="141"/>
-      <c r="B94" s="142"/>
-      <c r="C94" s="143"/>
-      <c r="D94" s="148"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="137">
-        <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I94" s="141"/>
-      <c r="J94" s="142"/>
-      <c r="K94" s="143"/>
-      <c r="L94" s="148"/>
-      <c r="M94" s="69"/>
-      <c r="N94" s="137">
-        <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="141"/>
-      <c r="B95" s="142"/>
-      <c r="C95" s="143"/>
-      <c r="D95" s="148"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="137">
-        <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I95" s="141"/>
-      <c r="J95" s="142"/>
-      <c r="K95" s="143"/>
-      <c r="L95" s="148"/>
-      <c r="M95" s="69"/>
-      <c r="N95" s="137">
-        <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="141"/>
-      <c r="B96" s="142"/>
-      <c r="C96" s="143"/>
-      <c r="D96" s="148"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="137">
-        <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I96" s="141"/>
-      <c r="J96" s="142"/>
-      <c r="K96" s="143"/>
-      <c r="L96" s="148"/>
-      <c r="M96" s="69"/>
-      <c r="N96" s="137">
-        <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="149"/>
-      <c r="B97" s="224"/>
-      <c r="C97" s="34">
-        <v>0</v>
-      </c>
-      <c r="D97" s="152"/>
-      <c r="E97" s="151"/>
-      <c r="F97" s="137">
-        <f t="shared" si="2"/>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="I97" s="149"/>
-      <c r="J97" s="150"/>
-      <c r="K97" s="151">
-        <v>0</v>
-      </c>
-      <c r="L97" s="152"/>
-      <c r="M97" s="151"/>
-      <c r="N97" s="137">
-        <f t="shared" si="3"/>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="225"/>
-      <c r="C98" s="226">
-        <f>SUM(C3:C97)</f>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="D98" s="97"/>
-      <c r="E98" s="1">
-        <f>SUM(E3:E97)</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="153">
-        <f>F97</f>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="K98" s="223">
-        <f>SUM(K3:K97)</f>
+      <c r="D86" s="97"/>
+      <c r="E86" s="1">
+        <f>SUM(E3:E85)</f>
+        <v>440783.04</v>
+      </c>
+      <c r="F86" s="153">
+        <f>F85</f>
+        <v>266105.34000000008</v>
+      </c>
+      <c r="K86" s="223">
+        <f>SUM(K3:K85)</f>
         <v>164725.34</v>
       </c>
-      <c r="L98" s="97"/>
-      <c r="M98" s="1">
-        <f>SUM(M3:M97)</f>
-        <v>800</v>
-      </c>
-      <c r="N98" s="153">
-        <f>N97</f>
-        <v>163925.34</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="227"/>
-      <c r="C99" s="228"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="97"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="1"/>
+      <c r="L86" s="97"/>
+      <c r="M86" s="1">
+        <f>SUM(M3:M85)</f>
+        <v>164725.34</v>
+      </c>
+      <c r="N86" s="153">
+        <f>N85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="227"/>
+      <c r="C87" s="228"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="382" t="s">
+        <v>214</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="97"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="98"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="383"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="97"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="I89"/>
+      <c r="J89" s="208"/>
+      <c r="L89" s="23"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="I90"/>
+      <c r="J90" s="208"/>
+      <c r="L90" s="23"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="I91"/>
+      <c r="J91" s="208"/>
+      <c r="L91" s="23"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="F92"/>
+      <c r="I92"/>
+      <c r="J92" s="208"/>
+      <c r="L92" s="23"/>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="B93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="F93"/>
+      <c r="I93"/>
+      <c r="J93" s="208"/>
+      <c r="L93" s="23"/>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="F94"/>
+      <c r="I94"/>
+      <c r="J94" s="208"/>
+      <c r="L94" s="23"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="F95"/>
+      <c r="I95"/>
+      <c r="J95" s="208"/>
+      <c r="L95" s="23"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="F96"/>
+      <c r="I96"/>
+      <c r="J96" s="208"/>
+      <c r="L96" s="23"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="F97"/>
+      <c r="I97"/>
+      <c r="J97" s="208"/>
+      <c r="L97" s="23"/>
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="F98"/>
+      <c r="I98"/>
+      <c r="J98" s="208"/>
+      <c r="L98" s="23"/>
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+      <c r="B99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="F99"/>
+      <c r="I99"/>
+      <c r="J99" s="208"/>
+      <c r="L99" s="23"/>
+      <c r="N99"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B100" s="98"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="97"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="97"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="1"/>
+      <c r="A100"/>
+      <c r="B100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="F100"/>
+      <c r="I100"/>
+      <c r="J100" s="208"/>
+      <c r="L100" s="23"/>
+      <c r="N100"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101" s="23"/>
       <c r="D101" s="23"/>
+      <c r="E101"/>
+      <c r="F101"/>
       <c r="I101"/>
       <c r="J101" s="208"/>
       <c r="L101" s="23"/>
+      <c r="M101"/>
+      <c r="N101"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102" s="23"/>
       <c r="D102" s="23"/>
+      <c r="E102"/>
+      <c r="F102"/>
       <c r="I102"/>
       <c r="J102" s="208"/>
       <c r="L102" s="23"/>
+      <c r="M102"/>
+      <c r="N102"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103" s="23"/>
       <c r="D103" s="23"/>
+      <c r="E103"/>
+      <c r="F103"/>
       <c r="I103"/>
       <c r="J103" s="208"/>
       <c r="L103" s="23"/>
+      <c r="M103"/>
+      <c r="N103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104" s="23"/>
       <c r="D104" s="23"/>
+      <c r="E104"/>
       <c r="F104"/>
       <c r="I104"/>
       <c r="J104" s="208"/>
       <c r="L104" s="23"/>
+      <c r="M104"/>
       <c r="N104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105" s="23"/>
       <c r="D105" s="23"/>
+      <c r="E105"/>
       <c r="F105"/>
       <c r="I105"/>
       <c r="J105" s="208"/>
       <c r="L105" s="23"/>
+      <c r="M105"/>
       <c r="N105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106" s="23"/>
       <c r="D106" s="23"/>
+      <c r="E106"/>
       <c r="F106"/>
       <c r="I106"/>
       <c r="J106" s="208"/>
       <c r="L106" s="23"/>
+      <c r="M106"/>
       <c r="N106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107"/>
       <c r="B107" s="23"/>
       <c r="D107" s="23"/>
-      <c r="F107"/>
-      <c r="I107"/>
+      <c r="E107"/>
       <c r="J107" s="208"/>
       <c r="L107" s="23"/>
-      <c r="N107"/>
+      <c r="M107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108"/>
       <c r="B108" s="23"/>
       <c r="D108" s="23"/>
-      <c r="F108"/>
-      <c r="I108"/>
+      <c r="E108"/>
       <c r="J108" s="208"/>
       <c r="L108" s="23"/>
-      <c r="N108"/>
+      <c r="M108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109"/>
       <c r="B109" s="23"/>
       <c r="D109" s="23"/>
-      <c r="F109"/>
-      <c r="I109"/>
+      <c r="E109"/>
       <c r="J109" s="208"/>
       <c r="L109" s="23"/>
-      <c r="N109"/>
+      <c r="M109"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110"/>
       <c r="B110" s="23"/>
       <c r="D110" s="23"/>
-      <c r="F110"/>
-      <c r="I110"/>
+      <c r="E110"/>
       <c r="J110" s="208"/>
       <c r="L110" s="23"/>
-      <c r="N110"/>
+      <c r="M110"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111"/>
       <c r="B111" s="23"/>
       <c r="D111" s="23"/>
-      <c r="F111"/>
-      <c r="I111"/>
+      <c r="E111"/>
       <c r="J111" s="208"/>
       <c r="L111" s="23"/>
-      <c r="N111"/>
+      <c r="M111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112"/>
       <c r="B112" s="23"/>
       <c r="D112" s="23"/>
-      <c r="F112"/>
-      <c r="I112"/>
+      <c r="E112"/>
       <c r="J112" s="208"/>
       <c r="L112" s="23"/>
-      <c r="N112"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113"/>
+      <c r="M112"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="23"/>
       <c r="D113" s="23"/>
       <c r="E113"/>
-      <c r="F113"/>
-      <c r="I113"/>
       <c r="J113" s="208"/>
       <c r="L113" s="23"/>
       <c r="M113"/>
-      <c r="N113"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="23"/>
       <c r="D114" s="23"/>
       <c r="E114"/>
-      <c r="F114"/>
-      <c r="I114"/>
       <c r="J114" s="208"/>
       <c r="L114" s="23"/>
       <c r="M114"/>
-      <c r="N114"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="23"/>
       <c r="D115" s="23"/>
       <c r="E115"/>
-      <c r="F115"/>
-      <c r="I115"/>
       <c r="J115" s="208"/>
       <c r="L115" s="23"/>
       <c r="M115"/>
-      <c r="N115"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="I116"/>
       <c r="J116" s="208"/>
-      <c r="L116" s="23"/>
-      <c r="M116"/>
-      <c r="N116"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="I117"/>
       <c r="J117" s="208"/>
-      <c r="L117" s="23"/>
-      <c r="M117"/>
-      <c r="N117"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="23"/>
       <c r="D118" s="23"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="I118"/>
       <c r="J118" s="208"/>
       <c r="L118" s="23"/>
-      <c r="M118"/>
-      <c r="N118"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119"/>
       <c r="J119" s="208"/>
-      <c r="L119" s="23"/>
-      <c r="M119"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120"/>
       <c r="J120" s="208"/>
-      <c r="L120" s="23"/>
-      <c r="M120"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121"/>
       <c r="J121" s="208"/>
-      <c r="L121" s="23"/>
-      <c r="M121"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122"/>
-      <c r="J122" s="208"/>
-      <c r="L122" s="23"/>
-      <c r="M122"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123"/>
-      <c r="J123" s="208"/>
-      <c r="L123" s="23"/>
-      <c r="M123"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124"/>
-      <c r="J124" s="208"/>
-      <c r="L124" s="23"/>
-      <c r="M124"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125"/>
-      <c r="J125" s="208"/>
-      <c r="L125" s="23"/>
-      <c r="M125"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126"/>
-      <c r="J126" s="208"/>
-      <c r="L126" s="23"/>
-      <c r="M126"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127"/>
-      <c r="J127" s="208"/>
-      <c r="L127" s="23"/>
-      <c r="M127"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B128" s="23"/>
-      <c r="J128" s="208"/>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B129" s="23"/>
-      <c r="J129" s="208"/>
-    </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="J130" s="208"/>
-      <c r="L130" s="23"/>
-    </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B131" s="23"/>
-      <c r="J131" s="208"/>
-    </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B132" s="23"/>
-      <c r="J132" s="208"/>
-    </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B133" s="23"/>
-      <c r="J133" s="208"/>
-    </row>
-    <row r="134" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C134" s="154"/>
-      <c r="K134" s="154"/>
+    </row>
+    <row r="122" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C122" s="154"/>
+      <c r="K122" s="154"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="F87:F88"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -14538,12 +14540,12 @@
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="155"/>
-      <c r="B43" s="348" t="s">
+      <c r="B43" s="384" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="349"/>
-      <c r="D43" s="349"/>
-      <c r="E43" s="350"/>
+      <c r="C43" s="385"/>
+      <c r="D43" s="385"/>
+      <c r="E43" s="386"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="218">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -548,9 +548,6 @@
     <t>DEPOSITOS HECHOS</t>
   </si>
   <si>
-    <t>FALTANTE DE EFEC TIVO</t>
-  </si>
-  <si>
     <t>08/11/2021</t>
   </si>
   <si>
@@ -798,6 +795,18 @@
   </si>
   <si>
     <t xml:space="preserve">SALDO X PAGAR </t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A      NOVIEMBRE           2 0 2 1</t>
+  </si>
+  <si>
+    <t>DIF X DEPOSITAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S A L D O </t>
+  </si>
+  <si>
+    <t>NOTA:  FALTA REGISTRO DE OTRAS COMPRAS</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1289,30 +1298,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="90">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -2132,42 +2129,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="mediumDashed">
         <color indexed="64"/>
       </right>
@@ -2181,101 +2145,91 @@
       <left style="double">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="mediumDashed">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2284,59 +2238,55 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -2345,74 +2295,37 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2420,7 +2333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2818,7 +2731,6 @@
     <xf numFmtId="0" fontId="33" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2892,7 +2804,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="47" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="12" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2904,9 +2815,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
@@ -2937,7 +2845,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2979,10 +2886,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2995,39 +2898,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="38" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="16" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="17" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="17" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="47" fillId="0" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3042,12 +2926,84 @@
     <xf numFmtId="44" fontId="39" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="38" fillId="18" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="38" fillId="15" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="18" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3083,100 +3039,31 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3185,67 +3072,7 @@
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="6" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="6" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="15" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3260,6 +3087,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="77" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="9" borderId="77" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="34" fillId="7" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3269,6 +3212,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF0000FF"/>
@@ -3932,14 +3876,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>200023</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3954,7 +3898,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="7329488" y="5900735"/>
+          <a:off x="7339013" y="8091485"/>
           <a:ext cx="200026" cy="2228852"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
@@ -4434,23 +4378,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="317"/>
-      <c r="C1" s="319" t="s">
+      <c r="B1" s="322"/>
+      <c r="C1" s="324" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="G1" s="320"/>
-      <c r="H1" s="320"/>
-      <c r="I1" s="320"/>
-      <c r="J1" s="320"/>
-      <c r="K1" s="320"/>
-      <c r="L1" s="320"/>
-      <c r="M1" s="320"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="318"/>
+      <c r="B2" s="323"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4460,17 +4404,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="321" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="322"/>
+      <c r="B3" s="326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="327"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="323" t="s">
+      <c r="H3" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="323"/>
+      <c r="I3" s="328"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -4484,14 +4428,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="329" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="325"/>
-      <c r="H4" s="326" t="s">
+      <c r="F4" s="330"/>
+      <c r="H4" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="327"/>
+      <c r="I4" s="332"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -4501,10 +4445,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="333" t="s">
+      <c r="P4" s="303" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="334"/>
+      <c r="Q4" s="304"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -4594,11 +4538,11 @@
         <f t="shared" ref="P6:P32" si="0">N6+M6+L6+I6+C6</f>
         <v>20860</v>
       </c>
-      <c r="Q6" s="216">
+      <c r="Q6" s="215">
         <f t="shared" ref="Q6:Q38" si="1">P6-F6</f>
         <v>-2677</v>
       </c>
-      <c r="R6" s="214" t="s">
+      <c r="R6" s="213" t="s">
         <v>32</v>
       </c>
       <c r="S6" s="147">
@@ -4642,18 +4586,18 @@
       <c r="N7" s="33">
         <v>8843</v>
       </c>
-      <c r="O7" s="213" t="s">
+      <c r="O7" s="212" t="s">
         <v>35</v>
       </c>
       <c r="P7" s="69">
         <f t="shared" si="0"/>
         <v>27818</v>
       </c>
-      <c r="Q7" s="217">
+      <c r="Q7" s="216">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="R7" s="215" t="s">
+      <c r="R7" s="214" t="s">
         <v>43</v>
       </c>
       <c r="S7" s="147">
@@ -4704,11 +4648,11 @@
         <f t="shared" si="0"/>
         <v>25278.5</v>
       </c>
-      <c r="Q8" s="218">
+      <c r="Q8" s="217">
         <f t="shared" si="1"/>
         <v>-3392.5</v>
       </c>
-      <c r="R8" s="214" t="s">
+      <c r="R8" s="213" t="s">
         <v>32</v>
       </c>
       <c r="S8" s="147">
@@ -4758,10 +4702,10 @@
         <f>N9+M9+L9+I9+C9</f>
         <v>36624.5</v>
       </c>
-      <c r="Q9" s="219" t="s">
+      <c r="Q9" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="215" t="s">
+      <c r="R9" s="214" t="s">
         <v>38</v>
       </c>
       <c r="S9" s="147">
@@ -4812,11 +4756,11 @@
         <f t="shared" ref="P10:P13" si="2">N10+M10+L10+I10+C10</f>
         <v>26298</v>
       </c>
-      <c r="Q10" s="218">
+      <c r="Q10" s="217">
         <f t="shared" si="1"/>
         <v>-1776</v>
       </c>
-      <c r="R10" s="214" t="s">
+      <c r="R10" s="213" t="s">
         <v>32</v>
       </c>
       <c r="S10" s="147">
@@ -4862,7 +4806,7 @@
         <f t="shared" si="2"/>
         <v>28522</v>
       </c>
-      <c r="Q11" s="220">
+      <c r="Q11" s="219">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4912,7 +4856,7 @@
         <f t="shared" si="2"/>
         <v>31646</v>
       </c>
-      <c r="Q12" s="220">
+      <c r="Q12" s="219">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4964,11 +4908,11 @@
         <f t="shared" si="2"/>
         <v>28816.35</v>
       </c>
-      <c r="Q13" s="217">
+      <c r="Q13" s="216">
         <f t="shared" si="1"/>
         <v>1016.3499999999985</v>
       </c>
-      <c r="R13" s="215" t="s">
+      <c r="R13" s="214" t="s">
         <v>43</v>
       </c>
       <c r="S13" s="147">
@@ -5013,11 +4957,11 @@
         <f t="shared" ref="P14" si="3">N14+M14+L14+I14+C14</f>
         <v>32621</v>
       </c>
-      <c r="Q14" s="219">
+      <c r="Q14" s="218">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="R14" s="215" t="s">
+      <c r="R14" s="214" t="s">
         <v>43</v>
       </c>
       <c r="S14" s="147">
@@ -5061,11 +5005,11 @@
         <f t="shared" si="0"/>
         <v>28788.5</v>
       </c>
-      <c r="Q15" s="216">
+      <c r="Q15" s="215">
         <f t="shared" si="1"/>
         <v>-2472.5</v>
       </c>
-      <c r="R15" s="214" t="s">
+      <c r="R15" s="213" t="s">
         <v>32</v>
       </c>
       <c r="S15" s="147">
@@ -5109,11 +5053,11 @@
         <f t="shared" si="0"/>
         <v>49883</v>
       </c>
-      <c r="Q16" s="221">
+      <c r="Q16" s="220">
         <f t="shared" si="1"/>
         <v>1942</v>
       </c>
-      <c r="R16" s="215" t="s">
+      <c r="R16" s="214" t="s">
         <v>43</v>
       </c>
       <c r="S16" s="147">
@@ -5155,11 +5099,11 @@
         <f t="shared" si="0"/>
         <v>38871.5</v>
       </c>
-      <c r="Q17" s="221">
+      <c r="Q17" s="220">
         <f t="shared" si="1"/>
         <v>378.5</v>
       </c>
-      <c r="R17" s="215" t="s">
+      <c r="R17" s="214" t="s">
         <v>43</v>
       </c>
       <c r="S17" s="147">
@@ -5210,11 +5154,11 @@
         <f t="shared" si="0"/>
         <v>39738</v>
       </c>
-      <c r="Q18" s="218">
+      <c r="Q18" s="217">
         <f t="shared" si="1"/>
         <v>-3452</v>
       </c>
-      <c r="R18" s="214" t="s">
+      <c r="R18" s="213" t="s">
         <v>32</v>
       </c>
       <c r="S18" s="147">
@@ -5259,11 +5203,11 @@
         <f t="shared" si="0"/>
         <v>37356.5</v>
       </c>
-      <c r="Q19" s="218">
+      <c r="Q19" s="217">
         <f t="shared" si="1"/>
         <v>-822.5</v>
       </c>
-      <c r="R19" s="214" t="s">
+      <c r="R19" s="213" t="s">
         <v>32</v>
       </c>
       <c r="S19" s="147">
@@ -5308,7 +5252,7 @@
         <f t="shared" si="0"/>
         <v>39315.9</v>
       </c>
-      <c r="Q20" s="220">
+      <c r="Q20" s="219">
         <f t="shared" si="1"/>
         <v>0.90000000000145519</v>
       </c>
@@ -5355,7 +5299,7 @@
         <f t="shared" si="0"/>
         <v>43752</v>
       </c>
-      <c r="Q21" s="220">
+      <c r="Q21" s="219">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5401,11 +5345,11 @@
         <f t="shared" si="0"/>
         <v>29504</v>
       </c>
-      <c r="Q22" s="218">
+      <c r="Q22" s="217">
         <f t="shared" si="1"/>
         <v>-1457</v>
       </c>
-      <c r="R22" s="214" t="s">
+      <c r="R22" s="213" t="s">
         <v>32</v>
       </c>
       <c r="S22" s="147">
@@ -5456,11 +5400,11 @@
         <f t="shared" si="0"/>
         <v>50727.14</v>
       </c>
-      <c r="Q23" s="218">
+      <c r="Q23" s="217">
         <f t="shared" si="1"/>
         <v>-18819.86</v>
       </c>
-      <c r="R23" s="214" t="s">
+      <c r="R23" s="213" t="s">
         <v>32</v>
       </c>
       <c r="S23" s="147">
@@ -5502,11 +5446,11 @@
         <f t="shared" si="0"/>
         <v>9868.5</v>
       </c>
-      <c r="Q24" s="218">
+      <c r="Q24" s="217">
         <f t="shared" si="1"/>
         <v>-24335.5</v>
       </c>
-      <c r="R24" s="214" t="s">
+      <c r="R24" s="213" t="s">
         <v>32</v>
       </c>
       <c r="S24" s="147">
@@ -5532,11 +5476,11 @@
       <c r="N25" s="33">
         <v>0</v>
       </c>
-      <c r="P25" s="230">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="231">
+      <c r="P25" s="229">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5564,7 +5508,7 @@
       <c r="N26" s="33">
         <v>0</v>
       </c>
-      <c r="P26" s="229">
+      <c r="P26" s="228">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5945,11 +5889,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="335">
+      <c r="M39" s="305">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="337">
+      <c r="N39" s="307">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -5957,7 +5901,7 @@
         <f>SUM(P5:P38)</f>
         <v>626289.39</v>
       </c>
-      <c r="Q39" s="232">
+      <c r="Q39" s="231">
         <f>SUM(Q5:Q38)</f>
         <v>-53663.11</v>
       </c>
@@ -5975,8 +5919,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="336"/>
-      <c r="N40" s="338"/>
+      <c r="M40" s="306"/>
+      <c r="N40" s="308"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -6191,29 +6135,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="339" t="s">
+      <c r="H52" s="309" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="340"/>
+      <c r="I52" s="310"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="341">
+      <c r="K52" s="311">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="342"/>
-      <c r="M52" s="343">
+      <c r="L52" s="312"/>
+      <c r="M52" s="313">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="344"/>
+      <c r="N52" s="314"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="345" t="s">
+      <c r="D53" s="315" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="345"/>
+      <c r="E53" s="315"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -6224,27 +6168,27 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="345" t="s">
+      <c r="D54" s="315" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="345"/>
+      <c r="E54" s="315"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="346" t="s">
+      <c r="I54" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="347"/>
-      <c r="K54" s="348">
+      <c r="J54" s="317"/>
+      <c r="K54" s="318">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="349"/>
+      <c r="L54" s="319"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="203" t="s">
+      <c r="D55" s="202" t="s">
         <v>100</v>
       </c>
       <c r="E55" s="98"/>
@@ -6272,11 +6216,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="350">
+      <c r="K56" s="320">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="351"/>
+      <c r="L56" s="321"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -6293,22 +6237,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="328" t="s">
+      <c r="D58" s="298" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="329"/>
+      <c r="E58" s="299"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="330" t="s">
+      <c r="I58" s="300" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="331"/>
-      <c r="K58" s="332">
+      <c r="J58" s="301"/>
+      <c r="K58" s="302">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="332"/>
+      <c r="L58" s="302"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -6452,6 +6396,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -6466,12 +6416,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6503,7 +6447,7 @@
     <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="274" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="270" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -6522,10 +6466,10 @@
       <c r="I1" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="207"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="202"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="201"/>
       <c r="N1" s="169" t="s">
         <v>31</v>
       </c>
@@ -6552,13 +6496,13 @@
       <c r="I2" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="206" t="s">
+      <c r="J2" s="205" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="269" t="s">
+      <c r="L2" s="265" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="132" t="s">
@@ -6584,16 +6528,16 @@
         <f>C3-E3</f>
         <v>225686.58</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <v>44483</v>
       </c>
-      <c r="J3" s="209">
+      <c r="J3" s="208">
         <v>2554</v>
       </c>
-      <c r="K3" s="210">
+      <c r="K3" s="209">
         <v>19269</v>
       </c>
-      <c r="L3" s="275">
+      <c r="L3" s="271">
         <v>44498</v>
       </c>
       <c r="M3" s="69">
@@ -6621,16 +6565,16 @@
         <v>279333.77999999997</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="I4" s="205">
+      <c r="I4" s="204">
         <v>44487</v>
       </c>
-      <c r="J4" s="209">
+      <c r="J4" s="208">
         <v>2579</v>
       </c>
-      <c r="K4" s="210">
+      <c r="K4" s="209">
         <v>25542</v>
       </c>
-      <c r="L4" s="276">
+      <c r="L4" s="272">
         <v>44498</v>
       </c>
       <c r="M4" s="69">
@@ -6657,16 +6601,16 @@
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>396395.42</v>
       </c>
-      <c r="I5" s="205">
+      <c r="I5" s="204">
         <v>44487</v>
       </c>
-      <c r="J5" s="209">
+      <c r="J5" s="208">
         <v>2581</v>
       </c>
-      <c r="K5" s="210">
+      <c r="K5" s="209">
         <v>10208</v>
       </c>
-      <c r="L5" s="277">
+      <c r="L5" s="273">
         <v>44498</v>
       </c>
       <c r="M5" s="69">
@@ -6693,13 +6637,13 @@
         <f t="shared" si="0"/>
         <v>397695.42</v>
       </c>
-      <c r="I6" s="205">
+      <c r="I6" s="204">
         <v>44487</v>
       </c>
-      <c r="J6" s="209">
+      <c r="J6" s="208">
         <v>2582</v>
       </c>
-      <c r="K6" s="210">
+      <c r="K6" s="209">
         <v>14172</v>
       </c>
       <c r="L6" s="136"/>
@@ -6725,13 +6669,13 @@
         <f t="shared" si="0"/>
         <v>399437.01999999996</v>
       </c>
-      <c r="I7" s="205">
+      <c r="I7" s="204">
         <v>44487</v>
       </c>
-      <c r="J7" s="209">
+      <c r="J7" s="208">
         <v>2583</v>
       </c>
-      <c r="K7" s="210">
+      <c r="K7" s="209">
         <v>1616</v>
       </c>
       <c r="L7" s="136"/>
@@ -6757,13 +6701,13 @@
         <f t="shared" si="0"/>
         <v>414437.01999999996</v>
       </c>
-      <c r="I8" s="205">
+      <c r="I8" s="204">
         <v>44488</v>
       </c>
-      <c r="J8" s="209">
+      <c r="J8" s="208">
         <v>2591</v>
       </c>
-      <c r="K8" s="210">
+      <c r="K8" s="209">
         <v>15642</v>
       </c>
       <c r="L8" s="136"/>
@@ -6789,13 +6733,13 @@
         <f t="shared" si="0"/>
         <v>437799.92</v>
       </c>
-      <c r="I9" s="205">
+      <c r="I9" s="204">
         <v>44488</v>
       </c>
-      <c r="J9" s="209">
+      <c r="J9" s="208">
         <v>2592</v>
       </c>
-      <c r="K9" s="210">
+      <c r="K9" s="209">
         <v>13192</v>
       </c>
       <c r="L9" s="136"/>
@@ -6822,13 +6766,13 @@
         <v>637129.91999999993</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="I10" s="205">
+      <c r="I10" s="204">
         <v>44488</v>
       </c>
-      <c r="J10" s="209">
+      <c r="J10" s="208">
         <v>2593</v>
       </c>
-      <c r="K10" s="210">
+      <c r="K10" s="209">
         <v>21530</v>
       </c>
       <c r="L10" s="136"/>
@@ -6854,13 +6798,13 @@
         <f t="shared" si="0"/>
         <v>835998.0199999999</v>
       </c>
-      <c r="I11" s="205">
+      <c r="I11" s="204">
         <v>44488</v>
       </c>
-      <c r="J11" s="209">
+      <c r="J11" s="208">
         <v>2594</v>
       </c>
-      <c r="K11" s="210">
+      <c r="K11" s="209">
         <v>10768</v>
       </c>
       <c r="L11" s="140"/>
@@ -6874,7 +6818,7 @@
       <c r="A12" s="140">
         <v>44489</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="221" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="69">
@@ -6886,13 +6830,13 @@
         <f t="shared" si="0"/>
         <v>1027151.5199999999</v>
       </c>
-      <c r="I12" s="205">
+      <c r="I12" s="204">
         <v>44488</v>
       </c>
-      <c r="J12" s="209">
+      <c r="J12" s="208">
         <v>2595</v>
       </c>
-      <c r="K12" s="210">
+      <c r="K12" s="209">
         <v>90060</v>
       </c>
       <c r="L12" s="140"/>
@@ -6918,13 +6862,13 @@
         <f t="shared" si="0"/>
         <v>-1.1641532182693481E-10</v>
       </c>
-      <c r="I13" s="205">
+      <c r="I13" s="204">
         <v>44488</v>
       </c>
-      <c r="J13" s="209">
+      <c r="J13" s="208">
         <v>2596</v>
       </c>
-      <c r="K13" s="210">
+      <c r="K13" s="209">
         <v>18321</v>
       </c>
       <c r="L13" s="140"/>
@@ -6938,7 +6882,7 @@
       <c r="A14" s="140">
         <v>44498</v>
       </c>
-      <c r="B14" s="222" t="s">
+      <c r="B14" s="221" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="69">
@@ -6950,13 +6894,13 @@
         <f t="shared" si="0"/>
         <v>6238.9999999998836</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="204">
         <v>44488</v>
       </c>
-      <c r="J14" s="209">
+      <c r="J14" s="208">
         <v>2597</v>
       </c>
-      <c r="K14" s="210">
+      <c r="K14" s="209">
         <v>20989</v>
       </c>
       <c r="L14" s="140"/>
@@ -6982,13 +6926,13 @@
         <f t="shared" si="0"/>
         <v>8438.9999999998836</v>
       </c>
-      <c r="I15" s="205">
+      <c r="I15" s="204">
         <v>44488</v>
       </c>
-      <c r="J15" s="209">
+      <c r="J15" s="208">
         <v>2598</v>
       </c>
-      <c r="K15" s="210">
+      <c r="K15" s="209">
         <v>25399</v>
       </c>
       <c r="L15" s="140"/>
@@ -7014,20 +6958,20 @@
       <c r="E16" s="69">
         <v>145000</v>
       </c>
-      <c r="F16" s="285">
+      <c r="F16" s="279">
         <f t="shared" si="0"/>
         <v>146930.89999999991</v>
       </c>
-      <c r="I16" s="205">
+      <c r="I16" s="204">
         <v>44489</v>
       </c>
-      <c r="J16" s="209">
+      <c r="J16" s="208">
         <v>2600</v>
       </c>
-      <c r="K16" s="210">
+      <c r="K16" s="209">
         <v>6297</v>
       </c>
-      <c r="L16" s="270"/>
+      <c r="L16" s="266"/>
       <c r="M16" s="69"/>
       <c r="N16" s="137">
         <f t="shared" si="1"/>
@@ -7050,16 +6994,16 @@
         <f t="shared" si="0"/>
         <v>166574.39999999991</v>
       </c>
-      <c r="I17" s="205">
+      <c r="I17" s="204">
         <v>44489</v>
       </c>
-      <c r="J17" s="209">
+      <c r="J17" s="208">
         <v>2601</v>
       </c>
-      <c r="K17" s="210">
+      <c r="K17" s="209">
         <v>12350</v>
       </c>
-      <c r="L17" s="270"/>
+      <c r="L17" s="266"/>
       <c r="M17" s="69"/>
       <c r="N17" s="137">
         <f t="shared" si="1"/>
@@ -7082,16 +7026,16 @@
         <f t="shared" si="0"/>
         <v>170311.39999999991</v>
       </c>
-      <c r="I18" s="205">
+      <c r="I18" s="204">
         <v>44489</v>
       </c>
-      <c r="J18" s="209">
+      <c r="J18" s="208">
         <v>2602</v>
       </c>
-      <c r="K18" s="210">
+      <c r="K18" s="209">
         <v>5444</v>
       </c>
-      <c r="L18" s="270"/>
+      <c r="L18" s="266"/>
       <c r="M18" s="69"/>
       <c r="N18" s="137">
         <f t="shared" si="1"/>
@@ -7114,16 +7058,16 @@
         <f t="shared" si="0"/>
         <v>171383.89999999991</v>
       </c>
-      <c r="I19" s="205">
+      <c r="I19" s="204">
         <v>44489</v>
       </c>
-      <c r="J19" s="209">
+      <c r="J19" s="208">
         <v>2603</v>
       </c>
-      <c r="K19" s="210">
+      <c r="K19" s="209">
         <v>1717</v>
       </c>
-      <c r="L19" s="270"/>
+      <c r="L19" s="266"/>
       <c r="M19" s="69"/>
       <c r="N19" s="137">
         <f t="shared" si="1"/>
@@ -7146,16 +7090,16 @@
         <f t="shared" si="0"/>
         <v>190536.6999999999</v>
       </c>
-      <c r="I20" s="205">
+      <c r="I20" s="204">
         <v>44489</v>
       </c>
-      <c r="J20" s="209">
+      <c r="J20" s="208">
         <v>2608</v>
       </c>
-      <c r="K20" s="210">
+      <c r="K20" s="209">
         <v>16136</v>
       </c>
-      <c r="L20" s="270"/>
+      <c r="L20" s="266"/>
       <c r="M20" s="69"/>
       <c r="N20" s="137">
         <f t="shared" si="1"/>
@@ -7178,16 +7122,16 @@
         <f t="shared" si="0"/>
         <v>193045.6999999999</v>
       </c>
-      <c r="I21" s="205">
+      <c r="I21" s="204">
         <v>44489</v>
       </c>
-      <c r="J21" s="209">
+      <c r="J21" s="208">
         <v>2609</v>
       </c>
-      <c r="K21" s="210">
+      <c r="K21" s="209">
         <v>9256</v>
       </c>
-      <c r="L21" s="270"/>
+      <c r="L21" s="266"/>
       <c r="M21" s="69"/>
       <c r="N21" s="137">
         <f t="shared" si="1"/>
@@ -7211,16 +7155,16 @@
         <v>194274.1999999999</v>
       </c>
       <c r="G22" s="138"/>
-      <c r="I22" s="205">
+      <c r="I22" s="204">
         <v>44490</v>
       </c>
-      <c r="J22" s="209">
+      <c r="J22" s="208">
         <v>2611</v>
       </c>
-      <c r="K22" s="210">
+      <c r="K22" s="209">
         <v>5500</v>
       </c>
-      <c r="L22" s="270"/>
+      <c r="L22" s="266"/>
       <c r="M22" s="69"/>
       <c r="N22" s="137">
         <f t="shared" si="1"/>
@@ -7243,16 +7187,16 @@
         <f t="shared" si="0"/>
         <v>240508.1999999999</v>
       </c>
-      <c r="I23" s="205">
+      <c r="I23" s="204">
         <v>44490</v>
       </c>
-      <c r="J23" s="209">
+      <c r="J23" s="208">
         <v>2615</v>
       </c>
-      <c r="K23" s="210">
+      <c r="K23" s="209">
         <v>1331</v>
       </c>
-      <c r="L23" s="270"/>
+      <c r="L23" s="266"/>
       <c r="M23" s="69"/>
       <c r="N23" s="137">
         <f t="shared" si="1"/>
@@ -7275,16 +7219,16 @@
         <f t="shared" si="0"/>
         <v>246758.1999999999</v>
       </c>
-      <c r="I24" s="205">
+      <c r="I24" s="204">
         <v>44490</v>
       </c>
-      <c r="J24" s="209">
+      <c r="J24" s="208">
         <v>2619</v>
       </c>
-      <c r="K24" s="210">
+      <c r="K24" s="209">
         <v>420</v>
       </c>
-      <c r="L24" s="270"/>
+      <c r="L24" s="266"/>
       <c r="M24" s="69"/>
       <c r="N24" s="137">
         <f t="shared" si="1"/>
@@ -7307,16 +7251,16 @@
         <f t="shared" si="0"/>
         <v>248850.39999999991</v>
       </c>
-      <c r="I25" s="205">
+      <c r="I25" s="204">
         <v>44490</v>
       </c>
-      <c r="J25" s="209">
+      <c r="J25" s="208">
         <v>2620</v>
       </c>
-      <c r="K25" s="210">
+      <c r="K25" s="209">
         <v>770</v>
       </c>
-      <c r="L25" s="270"/>
+      <c r="L25" s="266"/>
       <c r="M25" s="69"/>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
@@ -7339,16 +7283,16 @@
         <f t="shared" si="0"/>
         <v>251606.39999999991</v>
       </c>
-      <c r="I26" s="205">
+      <c r="I26" s="204">
         <v>44491</v>
       </c>
-      <c r="J26" s="209">
+      <c r="J26" s="208">
         <v>2622</v>
       </c>
-      <c r="K26" s="210">
+      <c r="K26" s="209">
         <v>2257</v>
       </c>
-      <c r="L26" s="270"/>
+      <c r="L26" s="266"/>
       <c r="M26" s="69"/>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
@@ -7371,16 +7315,16 @@
         <f t="shared" si="0"/>
         <v>260919.99999999991</v>
       </c>
-      <c r="I27" s="205">
+      <c r="I27" s="204">
         <v>44491</v>
       </c>
-      <c r="J27" s="209">
+      <c r="J27" s="208">
         <v>2623</v>
       </c>
-      <c r="K27" s="210">
+      <c r="K27" s="209">
         <v>60</v>
       </c>
-      <c r="L27" s="270"/>
+      <c r="L27" s="266"/>
       <c r="M27" s="69"/>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
@@ -7403,16 +7347,16 @@
         <f t="shared" si="0"/>
         <v>270968.49999999988</v>
       </c>
-      <c r="I28" s="205">
+      <c r="I28" s="204">
         <v>44491</v>
       </c>
-      <c r="J28" s="209">
+      <c r="J28" s="208">
         <v>2628</v>
       </c>
-      <c r="K28" s="210">
+      <c r="K28" s="209">
         <v>39533</v>
       </c>
-      <c r="L28" s="270"/>
+      <c r="L28" s="266"/>
       <c r="M28" s="69"/>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
@@ -7435,16 +7379,16 @@
         <f t="shared" si="0"/>
         <v>274201.49999999988</v>
       </c>
-      <c r="I29" s="205">
+      <c r="I29" s="204">
         <v>44492</v>
       </c>
-      <c r="J29" s="209">
+      <c r="J29" s="208">
         <v>2633</v>
       </c>
-      <c r="K29" s="210">
+      <c r="K29" s="209">
         <v>3727</v>
       </c>
-      <c r="L29" s="270"/>
+      <c r="L29" s="266"/>
       <c r="M29" s="69"/>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
@@ -7468,16 +7412,16 @@
         <v>292641.79999999987</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="205">
+      <c r="I30" s="204">
         <v>44492</v>
       </c>
-      <c r="J30" s="234">
+      <c r="J30" s="233">
         <v>2638</v>
       </c>
-      <c r="K30" s="235">
+      <c r="K30" s="234">
         <v>3861</v>
       </c>
-      <c r="L30" s="270"/>
+      <c r="L30" s="266"/>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
@@ -7500,16 +7444,16 @@
         <f t="shared" si="0"/>
         <v>298275.91999999987</v>
       </c>
-      <c r="I31" s="205">
+      <c r="I31" s="204">
         <v>44493</v>
       </c>
-      <c r="J31" s="209">
+      <c r="J31" s="208">
         <v>2641</v>
       </c>
-      <c r="K31" s="210">
+      <c r="K31" s="209">
         <v>24825</v>
       </c>
-      <c r="L31" s="270"/>
+      <c r="L31" s="266"/>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
         <f t="shared" si="1"/>
@@ -7532,16 +7476,16 @@
         <f t="shared" si="0"/>
         <v>341127.91999999987</v>
       </c>
-      <c r="I32" s="205">
+      <c r="I32" s="204">
         <v>44493</v>
       </c>
-      <c r="J32" s="209">
+      <c r="J32" s="208">
         <v>2642</v>
       </c>
-      <c r="K32" s="210">
+      <c r="K32" s="209">
         <v>614</v>
       </c>
-      <c r="L32" s="270"/>
+      <c r="L32" s="266"/>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
@@ -7564,16 +7508,16 @@
         <f t="shared" si="0"/>
         <v>348885.51999999984</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="204">
         <v>44494</v>
       </c>
-      <c r="J33" s="209">
+      <c r="J33" s="208">
         <v>2644</v>
       </c>
-      <c r="K33" s="210">
+      <c r="K33" s="209">
         <v>2901</v>
       </c>
-      <c r="L33" s="270"/>
+      <c r="L33" s="266"/>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
@@ -7596,16 +7540,16 @@
         <f t="shared" si="0"/>
         <v>355383.51999999984</v>
       </c>
-      <c r="I34" s="205">
+      <c r="I34" s="204">
         <v>44495</v>
       </c>
-      <c r="J34" s="209">
+      <c r="J34" s="208">
         <v>2648</v>
       </c>
-      <c r="K34" s="210">
+      <c r="K34" s="209">
         <v>2623</v>
       </c>
-      <c r="L34" s="270"/>
+      <c r="L34" s="266"/>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
@@ -7628,16 +7572,16 @@
         <f t="shared" si="0"/>
         <v>361309.81999999983</v>
       </c>
-      <c r="I35" s="205">
+      <c r="I35" s="204">
         <v>44495</v>
       </c>
-      <c r="J35" s="209">
+      <c r="J35" s="208">
         <v>2653</v>
       </c>
-      <c r="K35" s="210">
+      <c r="K35" s="209">
         <v>740</v>
       </c>
-      <c r="L35" s="270"/>
+      <c r="L35" s="266"/>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
@@ -7660,16 +7604,16 @@
         <f t="shared" si="0"/>
         <v>380730.61999999982</v>
       </c>
-      <c r="I36" s="205">
+      <c r="I36" s="204">
         <v>44495</v>
       </c>
-      <c r="J36" s="234">
+      <c r="J36" s="233">
         <v>2655</v>
       </c>
-      <c r="K36" s="235">
+      <c r="K36" s="234">
         <v>1189</v>
       </c>
-      <c r="L36" s="270"/>
+      <c r="L36" s="266"/>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
@@ -7692,16 +7636,16 @@
         <f t="shared" si="0"/>
         <v>390963.81999999983</v>
       </c>
-      <c r="I37" s="205">
+      <c r="I37" s="204">
         <v>44496</v>
       </c>
-      <c r="J37" s="209">
+      <c r="J37" s="208">
         <v>2659</v>
       </c>
-      <c r="K37" s="210">
+      <c r="K37" s="209">
         <v>6711</v>
       </c>
-      <c r="L37" s="270"/>
+      <c r="L37" s="266"/>
       <c r="M37" s="69"/>
       <c r="N37" s="137">
         <f t="shared" si="1"/>
@@ -7724,16 +7668,16 @@
         <f t="shared" si="0"/>
         <v>406265.51999999984</v>
       </c>
-      <c r="I38" s="205">
+      <c r="I38" s="204">
         <v>44497</v>
       </c>
-      <c r="J38" s="209">
+      <c r="J38" s="208">
         <v>2666</v>
       </c>
-      <c r="K38" s="210">
+      <c r="K38" s="209">
         <v>71111</v>
       </c>
-      <c r="L38" s="270"/>
+      <c r="L38" s="266"/>
       <c r="M38" s="69"/>
       <c r="N38" s="137">
         <f t="shared" si="1"/>
@@ -7756,16 +7700,16 @@
         <f t="shared" si="0"/>
         <v>409367.35999999987</v>
       </c>
-      <c r="I39" s="205">
+      <c r="I39" s="204">
         <v>44497</v>
       </c>
-      <c r="J39" s="209">
+      <c r="J39" s="208">
         <v>2668</v>
       </c>
-      <c r="K39" s="210">
+      <c r="K39" s="209">
         <v>13525</v>
       </c>
-      <c r="L39" s="270"/>
+      <c r="L39" s="266"/>
       <c r="M39" s="69"/>
       <c r="N39" s="137">
         <f t="shared" si="1"/>
@@ -7792,16 +7736,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="205">
+      <c r="I40" s="204">
         <v>44497</v>
       </c>
-      <c r="J40" s="209">
+      <c r="J40" s="208">
         <v>2669</v>
       </c>
-      <c r="K40" s="210">
+      <c r="K40" s="209">
         <v>7227</v>
       </c>
-      <c r="L40" s="270"/>
+      <c r="L40" s="266"/>
       <c r="M40" s="69"/>
       <c r="N40" s="137">
         <f t="shared" si="1"/>
@@ -7812,10 +7756,10 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="352" t="s">
+      <c r="B41" s="333" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="204">
+      <c r="C41" s="203">
         <v>0</v>
       </c>
       <c r="D41" s="140"/>
@@ -7824,16 +7768,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="205">
+      <c r="I41" s="204">
         <v>44497</v>
       </c>
-      <c r="J41" s="209">
+      <c r="J41" s="208">
         <v>2672</v>
       </c>
-      <c r="K41" s="210">
+      <c r="K41" s="209">
         <v>2618</v>
       </c>
-      <c r="L41" s="270"/>
+      <c r="L41" s="266"/>
       <c r="M41" s="69"/>
       <c r="N41" s="137">
         <f t="shared" si="1"/>
@@ -7844,7 +7788,7 @@
       <c r="A42" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="353"/>
+      <c r="B42" s="334"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -7854,16 +7798,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="205">
+      <c r="I42" s="204">
         <v>44498</v>
       </c>
-      <c r="J42" s="209">
+      <c r="J42" s="208">
         <v>2675</v>
       </c>
-      <c r="K42" s="210">
+      <c r="K42" s="209">
         <v>8371</v>
       </c>
-      <c r="L42" s="270"/>
+      <c r="L42" s="266"/>
       <c r="M42" s="69"/>
       <c r="N42" s="137">
         <f t="shared" si="1"/>
@@ -7872,7 +7816,7 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="140"/>
-      <c r="B43" s="312">
+      <c r="B43" s="293">
         <v>4472.5600000000004</v>
       </c>
       <c r="C43" s="69"/>
@@ -7882,16 +7826,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I43" s="205">
+      <c r="I43" s="204">
         <v>44498</v>
       </c>
-      <c r="J43" s="209">
+      <c r="J43" s="208">
         <v>2676</v>
       </c>
-      <c r="K43" s="210">
+      <c r="K43" s="209">
         <v>753</v>
       </c>
-      <c r="L43" s="270"/>
+      <c r="L43" s="266"/>
       <c r="M43" s="69"/>
       <c r="N43" s="137">
         <f t="shared" si="1"/>
@@ -7908,16 +7852,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="205">
+      <c r="I44" s="204">
         <v>44498</v>
       </c>
-      <c r="J44" s="211" t="s">
+      <c r="J44" s="210" t="s">
         <v>102</v>
       </c>
-      <c r="K44" s="212">
-        <v>0</v>
-      </c>
-      <c r="L44" s="270"/>
+      <c r="K44" s="211">
+        <v>0</v>
+      </c>
+      <c r="L44" s="266"/>
       <c r="M44" s="69"/>
       <c r="N44" s="137">
         <f t="shared" si="1"/>
@@ -7934,16 +7878,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="205">
+      <c r="I45" s="204">
         <v>44499</v>
       </c>
-      <c r="J45" s="209">
+      <c r="J45" s="208">
         <v>2684</v>
       </c>
-      <c r="K45" s="210">
+      <c r="K45" s="209">
         <v>5240</v>
       </c>
-      <c r="L45" s="270"/>
+      <c r="L45" s="266"/>
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
@@ -7960,16 +7904,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="205">
+      <c r="I46" s="204">
         <v>44501</v>
       </c>
-      <c r="J46" s="209">
+      <c r="J46" s="208">
         <v>2691</v>
       </c>
-      <c r="K46" s="210">
+      <c r="K46" s="209">
         <v>15576</v>
       </c>
-      <c r="L46" s="270"/>
+      <c r="L46" s="266"/>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
@@ -7986,16 +7930,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I47" s="205">
+      <c r="I47" s="204">
         <v>44501</v>
       </c>
-      <c r="J47" s="209">
+      <c r="J47" s="208">
         <v>2692</v>
       </c>
-      <c r="K47" s="210">
+      <c r="K47" s="209">
         <v>739</v>
       </c>
-      <c r="L47" s="270"/>
+      <c r="L47" s="266"/>
       <c r="M47" s="69"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
@@ -8012,16 +7956,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I48" s="205">
+      <c r="I48" s="204">
         <v>44501</v>
       </c>
-      <c r="J48" s="209">
+      <c r="J48" s="208">
         <v>2693</v>
       </c>
-      <c r="K48" s="210">
+      <c r="K48" s="209">
         <v>623</v>
       </c>
-      <c r="L48" s="270"/>
+      <c r="L48" s="266"/>
       <c r="M48" s="69"/>
       <c r="N48" s="137">
         <f t="shared" si="1"/>
@@ -8038,16 +7982,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="205">
+      <c r="I49" s="204">
         <v>44502</v>
       </c>
-      <c r="J49" s="209">
+      <c r="J49" s="208">
         <v>2700</v>
       </c>
-      <c r="K49" s="210">
+      <c r="K49" s="209">
         <v>2636</v>
       </c>
-      <c r="L49" s="270"/>
+      <c r="L49" s="266"/>
       <c r="M49" s="69"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -8064,16 +8008,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="205">
+      <c r="I50" s="204">
         <v>44502</v>
       </c>
-      <c r="J50" s="209">
+      <c r="J50" s="208">
         <v>2702</v>
       </c>
-      <c r="K50" s="210">
+      <c r="K50" s="209">
         <v>120</v>
       </c>
-      <c r="L50" s="270"/>
+      <c r="L50" s="266"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
@@ -8090,16 +8034,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="205">
+      <c r="I51" s="204">
         <v>44503</v>
       </c>
-      <c r="J51" s="209">
+      <c r="J51" s="208">
         <v>2711</v>
       </c>
-      <c r="K51" s="210">
+      <c r="K51" s="209">
         <v>14669</v>
       </c>
-      <c r="L51" s="270"/>
+      <c r="L51" s="266"/>
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
@@ -8116,16 +8060,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I52" s="205">
+      <c r="I52" s="204">
         <v>44504</v>
       </c>
-      <c r="J52" s="209">
+      <c r="J52" s="208">
         <v>2712</v>
       </c>
-      <c r="K52" s="210">
+      <c r="K52" s="209">
         <v>2897</v>
       </c>
-      <c r="L52" s="270"/>
+      <c r="L52" s="266"/>
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
@@ -8142,16 +8086,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I53" s="205">
+      <c r="I53" s="204">
         <v>44504</v>
       </c>
-      <c r="J53" s="209">
+      <c r="J53" s="208">
         <v>2717</v>
       </c>
-      <c r="K53" s="210">
+      <c r="K53" s="209">
         <v>360</v>
       </c>
-      <c r="L53" s="270"/>
+      <c r="L53" s="266"/>
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
@@ -8168,16 +8112,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="205">
+      <c r="I54" s="204">
         <v>44505</v>
       </c>
-      <c r="J54" s="209">
+      <c r="J54" s="208">
         <v>2722</v>
       </c>
-      <c r="K54" s="210">
+      <c r="K54" s="209">
         <v>4820</v>
       </c>
-      <c r="L54" s="270"/>
+      <c r="L54" s="266"/>
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
@@ -8194,16 +8138,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="205">
+      <c r="I55" s="204">
         <v>44505</v>
       </c>
-      <c r="J55" s="209">
+      <c r="J55" s="208">
         <v>2724</v>
       </c>
-      <c r="K55" s="210">
+      <c r="K55" s="209">
         <v>4925</v>
       </c>
-      <c r="L55" s="270"/>
+      <c r="L55" s="266"/>
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
@@ -8220,16 +8164,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="205">
+      <c r="I56" s="204">
         <v>44506</v>
       </c>
-      <c r="J56" s="209">
+      <c r="J56" s="208">
         <v>2732</v>
       </c>
-      <c r="K56" s="210">
+      <c r="K56" s="209">
         <v>5</v>
       </c>
-      <c r="L56" s="270"/>
+      <c r="L56" s="266"/>
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
@@ -8246,16 +8190,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I57" s="205">
+      <c r="I57" s="204">
         <v>44506</v>
       </c>
-      <c r="J57" s="209">
+      <c r="J57" s="208">
         <v>2733</v>
       </c>
-      <c r="K57" s="210">
+      <c r="K57" s="209">
         <v>6665</v>
       </c>
-      <c r="L57" s="270"/>
+      <c r="L57" s="266"/>
       <c r="M57" s="69"/>
       <c r="N57" s="137">
         <f t="shared" si="1"/>
@@ -8272,16 +8216,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I58" s="205">
+      <c r="I58" s="204">
         <v>44507</v>
       </c>
-      <c r="J58" s="209">
+      <c r="J58" s="208">
         <v>2738</v>
       </c>
-      <c r="K58" s="210">
+      <c r="K58" s="209">
         <v>646</v>
       </c>
-      <c r="L58" s="270"/>
+      <c r="L58" s="266"/>
       <c r="M58" s="69"/>
       <c r="N58" s="137">
         <f t="shared" si="1"/>
@@ -8298,16 +8242,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I59" s="205">
+      <c r="I59" s="204">
         <v>44507</v>
       </c>
-      <c r="J59" s="211" t="s">
+      <c r="J59" s="210" t="s">
         <v>102</v>
       </c>
-      <c r="K59" s="212">
-        <v>0</v>
-      </c>
-      <c r="L59" s="270"/>
+      <c r="K59" s="211">
+        <v>0</v>
+      </c>
+      <c r="L59" s="266"/>
       <c r="M59" s="69"/>
       <c r="N59" s="137">
         <f t="shared" si="1"/>
@@ -8329,13 +8273,13 @@
         <v>34125.46</v>
       </c>
       <c r="K60" s="69"/>
-      <c r="L60" s="316">
+      <c r="L60" s="297">
         <v>44533</v>
       </c>
-      <c r="M60" s="315">
+      <c r="M60" s="296">
         <v>547154.42000000004</v>
       </c>
-      <c r="N60" s="313">
+      <c r="N60" s="294">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8353,7 +8297,7 @@
       <c r="I61" s="134"/>
       <c r="J61" s="139"/>
       <c r="K61" s="69"/>
-      <c r="L61" s="270"/>
+      <c r="L61" s="266"/>
       <c r="M61" s="69"/>
       <c r="N61" s="137">
         <f t="shared" si="1"/>
@@ -8373,7 +8317,7 @@
       <c r="I62" s="134"/>
       <c r="J62" s="139"/>
       <c r="K62" s="69"/>
-      <c r="L62" s="270"/>
+      <c r="L62" s="266"/>
       <c r="M62" s="69"/>
       <c r="N62" s="137">
         <f t="shared" si="1"/>
@@ -8393,7 +8337,7 @@
       <c r="I63" s="141"/>
       <c r="J63" s="142"/>
       <c r="K63" s="143"/>
-      <c r="L63" s="270"/>
+      <c r="L63" s="266"/>
       <c r="M63" s="69"/>
       <c r="N63" s="137">
         <f t="shared" si="1"/>
@@ -8413,7 +8357,7 @@
       <c r="I64" s="141"/>
       <c r="J64" s="142"/>
       <c r="K64" s="143"/>
-      <c r="L64" s="270"/>
+      <c r="L64" s="266"/>
       <c r="M64" s="69"/>
       <c r="N64" s="137">
         <f t="shared" si="1"/>
@@ -8433,7 +8377,7 @@
       <c r="I65" s="141"/>
       <c r="J65" s="142"/>
       <c r="K65" s="143"/>
-      <c r="L65" s="270"/>
+      <c r="L65" s="266"/>
       <c r="M65" s="69"/>
       <c r="N65" s="137">
         <f t="shared" si="1"/>
@@ -8453,7 +8397,7 @@
       <c r="I66" s="141"/>
       <c r="J66" s="142"/>
       <c r="K66" s="143"/>
-      <c r="L66" s="270"/>
+      <c r="L66" s="266"/>
       <c r="M66" s="69"/>
       <c r="N66" s="137">
         <f t="shared" si="1"/>
@@ -8473,7 +8417,7 @@
       <c r="I67" s="141"/>
       <c r="J67" s="142"/>
       <c r="K67" s="143"/>
-      <c r="L67" s="270"/>
+      <c r="L67" s="266"/>
       <c r="M67" s="69"/>
       <c r="N67" s="137">
         <f t="shared" si="1"/>
@@ -8493,7 +8437,7 @@
       <c r="I68" s="141"/>
       <c r="J68" s="142"/>
       <c r="K68" s="143"/>
-      <c r="L68" s="270"/>
+      <c r="L68" s="266"/>
       <c r="M68" s="69"/>
       <c r="N68" s="137">
         <f t="shared" si="1"/>
@@ -8513,7 +8457,7 @@
       <c r="I69" s="141"/>
       <c r="J69" s="142"/>
       <c r="K69" s="143"/>
-      <c r="L69" s="270"/>
+      <c r="L69" s="266"/>
       <c r="M69" s="69"/>
       <c r="N69" s="137">
         <f t="shared" ref="N69:N97" si="3">N68+K69-M69</f>
@@ -8533,7 +8477,7 @@
       <c r="I70" s="141"/>
       <c r="J70" s="142"/>
       <c r="K70" s="143"/>
-      <c r="L70" s="270"/>
+      <c r="L70" s="266"/>
       <c r="M70" s="69"/>
       <c r="N70" s="137">
         <f t="shared" si="3"/>
@@ -8553,7 +8497,7 @@
       <c r="I71" s="141"/>
       <c r="J71" s="142"/>
       <c r="K71" s="143"/>
-      <c r="L71" s="270"/>
+      <c r="L71" s="266"/>
       <c r="M71" s="69"/>
       <c r="N71" s="137">
         <f t="shared" si="3"/>
@@ -8573,7 +8517,7 @@
       <c r="I72" s="141"/>
       <c r="J72" s="142"/>
       <c r="K72" s="143"/>
-      <c r="L72" s="270"/>
+      <c r="L72" s="266"/>
       <c r="M72" s="69"/>
       <c r="N72" s="137">
         <f t="shared" si="3"/>
@@ -8593,7 +8537,7 @@
       <c r="I73" s="141"/>
       <c r="J73" s="142"/>
       <c r="K73" s="143"/>
-      <c r="L73" s="270"/>
+      <c r="L73" s="266"/>
       <c r="M73" s="69"/>
       <c r="N73" s="137">
         <f t="shared" si="3"/>
@@ -8613,7 +8557,7 @@
       <c r="I74" s="141"/>
       <c r="J74" s="142"/>
       <c r="K74" s="143"/>
-      <c r="L74" s="270"/>
+      <c r="L74" s="266"/>
       <c r="M74" s="69"/>
       <c r="N74" s="137">
         <f t="shared" si="3"/>
@@ -8633,7 +8577,7 @@
       <c r="I75" s="141"/>
       <c r="J75" s="142"/>
       <c r="K75" s="143"/>
-      <c r="L75" s="270"/>
+      <c r="L75" s="266"/>
       <c r="M75" s="69"/>
       <c r="N75" s="137">
         <f t="shared" si="3"/>
@@ -8653,7 +8597,7 @@
       <c r="I76" s="141"/>
       <c r="J76" s="142"/>
       <c r="K76" s="143"/>
-      <c r="L76" s="270"/>
+      <c r="L76" s="266"/>
       <c r="M76" s="69"/>
       <c r="N76" s="137">
         <f t="shared" si="3"/>
@@ -8673,7 +8617,7 @@
       <c r="I77" s="141"/>
       <c r="J77" s="142"/>
       <c r="K77" s="143"/>
-      <c r="L77" s="270"/>
+      <c r="L77" s="266"/>
       <c r="M77" s="69"/>
       <c r="N77" s="137">
         <f t="shared" si="3"/>
@@ -8693,7 +8637,7 @@
       <c r="I78" s="141"/>
       <c r="J78" s="142"/>
       <c r="K78" s="143"/>
-      <c r="L78" s="270"/>
+      <c r="L78" s="266"/>
       <c r="M78" s="69"/>
       <c r="N78" s="137">
         <f t="shared" si="3"/>
@@ -8713,7 +8657,7 @@
       <c r="I79" s="141"/>
       <c r="J79" s="142"/>
       <c r="K79" s="143"/>
-      <c r="L79" s="270"/>
+      <c r="L79" s="266"/>
       <c r="M79" s="69"/>
       <c r="N79" s="137">
         <f t="shared" si="3"/>
@@ -8733,7 +8677,7 @@
       <c r="I80" s="141"/>
       <c r="J80" s="142"/>
       <c r="K80" s="143"/>
-      <c r="L80" s="270"/>
+      <c r="L80" s="266"/>
       <c r="M80" s="69"/>
       <c r="N80" s="137">
         <f t="shared" si="3"/>
@@ -8873,7 +8817,7 @@
       <c r="I87" s="141"/>
       <c r="J87" s="142"/>
       <c r="K87" s="143"/>
-      <c r="L87" s="271"/>
+      <c r="L87" s="267"/>
       <c r="M87" s="69"/>
       <c r="N87" s="137">
         <f t="shared" si="3"/>
@@ -8893,7 +8837,7 @@
       <c r="I88" s="141"/>
       <c r="J88" s="142"/>
       <c r="K88" s="143"/>
-      <c r="L88" s="271"/>
+      <c r="L88" s="267"/>
       <c r="M88" s="69"/>
       <c r="N88" s="137">
         <f t="shared" si="3"/>
@@ -8913,7 +8857,7 @@
       <c r="I89" s="141"/>
       <c r="J89" s="142"/>
       <c r="K89" s="143"/>
-      <c r="L89" s="271"/>
+      <c r="L89" s="267"/>
       <c r="M89" s="69"/>
       <c r="N89" s="137">
         <f t="shared" si="3"/>
@@ -8933,7 +8877,7 @@
       <c r="I90" s="141"/>
       <c r="J90" s="142"/>
       <c r="K90" s="143"/>
-      <c r="L90" s="271"/>
+      <c r="L90" s="267"/>
       <c r="M90" s="69"/>
       <c r="N90" s="137">
         <f t="shared" si="3"/>
@@ -8953,7 +8897,7 @@
       <c r="I91" s="141"/>
       <c r="J91" s="142"/>
       <c r="K91" s="143"/>
-      <c r="L91" s="271"/>
+      <c r="L91" s="267"/>
       <c r="M91" s="69"/>
       <c r="N91" s="137">
         <f t="shared" si="3"/>
@@ -8973,7 +8917,7 @@
       <c r="I92" s="141"/>
       <c r="J92" s="142"/>
       <c r="K92" s="143"/>
-      <c r="L92" s="271"/>
+      <c r="L92" s="267"/>
       <c r="M92" s="69"/>
       <c r="N92" s="137">
         <f t="shared" si="3"/>
@@ -8993,7 +8937,7 @@
       <c r="I93" s="141"/>
       <c r="J93" s="142"/>
       <c r="K93" s="143"/>
-      <c r="L93" s="271"/>
+      <c r="L93" s="267"/>
       <c r="M93" s="69"/>
       <c r="N93" s="137">
         <f t="shared" si="3"/>
@@ -9013,7 +8957,7 @@
       <c r="I94" s="141"/>
       <c r="J94" s="142"/>
       <c r="K94" s="143"/>
-      <c r="L94" s="271"/>
+      <c r="L94" s="267"/>
       <c r="M94" s="69"/>
       <c r="N94" s="137">
         <f t="shared" si="3"/>
@@ -9033,7 +8977,7 @@
       <c r="I95" s="141"/>
       <c r="J95" s="142"/>
       <c r="K95" s="143"/>
-      <c r="L95" s="271"/>
+      <c r="L95" s="267"/>
       <c r="M95" s="69"/>
       <c r="N95" s="137">
         <f t="shared" si="3"/>
@@ -9053,7 +8997,7 @@
       <c r="I96" s="141"/>
       <c r="J96" s="142"/>
       <c r="K96" s="143"/>
-      <c r="L96" s="271"/>
+      <c r="L96" s="267"/>
       <c r="M96" s="69"/>
       <c r="N96" s="137">
         <f t="shared" si="3"/>
@@ -9062,7 +9006,7 @@
     </row>
     <row r="97" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="149"/>
-      <c r="B97" s="224"/>
+      <c r="B97" s="223"/>
       <c r="C97" s="34">
         <v>0</v>
       </c>
@@ -9077,7 +9021,7 @@
       <c r="K97" s="151">
         <v>0</v>
       </c>
-      <c r="L97" s="272"/>
+      <c r="L97" s="268"/>
       <c r="M97" s="151"/>
       <c r="N97" s="137">
         <f t="shared" si="3"/>
@@ -9085,8 +9029,8 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="225"/>
-      <c r="C98" s="226">
+      <c r="B98" s="224"/>
+      <c r="C98" s="225">
         <f>SUM(C3:C97)</f>
         <v>554448.95999999973</v>
       </c>
@@ -9099,11 +9043,11 @@
         <f>F97</f>
         <v>0</v>
       </c>
-      <c r="K98" s="223">
+      <c r="K98" s="222">
         <f>SUM(K3:K97)</f>
         <v>598496</v>
       </c>
-      <c r="L98" s="273"/>
+      <c r="L98" s="269"/>
       <c r="M98" s="1">
         <f>SUM(M3:M97)</f>
         <v>598496</v>
@@ -9114,13 +9058,13 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="227"/>
-      <c r="C99" s="228"/>
+      <c r="B99" s="226"/>
+      <c r="C99" s="227"/>
       <c r="D99" s="97"/>
       <c r="E99" s="3"/>
       <c r="F99" s="1"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="273"/>
+      <c r="L99" s="269"/>
       <c r="M99" s="3"/>
       <c r="N99" s="1"/>
     </row>
@@ -9131,7 +9075,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="1"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="273"/>
+      <c r="L100" s="269"/>
       <c r="M100" s="3"/>
       <c r="N100" s="1"/>
     </row>
@@ -9140,21 +9084,21 @@
       <c r="B101" s="23"/>
       <c r="D101" s="23"/>
       <c r="I101"/>
-      <c r="J101" s="208"/>
+      <c r="J101" s="207"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102" s="23"/>
       <c r="D102" s="23"/>
       <c r="I102"/>
-      <c r="J102" s="208"/>
+      <c r="J102" s="207"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103" s="23"/>
       <c r="D103" s="23"/>
       <c r="I103"/>
-      <c r="J103" s="208"/>
+      <c r="J103" s="207"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104"/>
@@ -9162,7 +9106,7 @@
       <c r="D104" s="23"/>
       <c r="F104"/>
       <c r="I104"/>
-      <c r="J104" s="208"/>
+      <c r="J104" s="207"/>
       <c r="N104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -9171,7 +9115,7 @@
       <c r="D105" s="23"/>
       <c r="F105"/>
       <c r="I105"/>
-      <c r="J105" s="208"/>
+      <c r="J105" s="207"/>
       <c r="N105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -9180,7 +9124,7 @@
       <c r="D106" s="23"/>
       <c r="F106"/>
       <c r="I106"/>
-      <c r="J106" s="208"/>
+      <c r="J106" s="207"/>
       <c r="N106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -9189,7 +9133,7 @@
       <c r="D107" s="23"/>
       <c r="F107"/>
       <c r="I107"/>
-      <c r="J107" s="208"/>
+      <c r="J107" s="207"/>
       <c r="N107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -9198,7 +9142,7 @@
       <c r="D108" s="23"/>
       <c r="F108"/>
       <c r="I108"/>
-      <c r="J108" s="208"/>
+      <c r="J108" s="207"/>
       <c r="N108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -9207,7 +9151,7 @@
       <c r="D109" s="23"/>
       <c r="F109"/>
       <c r="I109"/>
-      <c r="J109" s="208"/>
+      <c r="J109" s="207"/>
       <c r="N109"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -9216,7 +9160,7 @@
       <c r="D110" s="23"/>
       <c r="F110"/>
       <c r="I110"/>
-      <c r="J110" s="208"/>
+      <c r="J110" s="207"/>
       <c r="N110"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -9225,7 +9169,7 @@
       <c r="D111" s="23"/>
       <c r="F111"/>
       <c r="I111"/>
-      <c r="J111" s="208"/>
+      <c r="J111" s="207"/>
       <c r="N111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -9234,7 +9178,7 @@
       <c r="D112" s="23"/>
       <c r="F112"/>
       <c r="I112"/>
-      <c r="J112" s="208"/>
+      <c r="J112" s="207"/>
       <c r="N112"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -9244,7 +9188,7 @@
       <c r="E113"/>
       <c r="F113"/>
       <c r="I113"/>
-      <c r="J113" s="208"/>
+      <c r="J113" s="207"/>
       <c r="M113"/>
       <c r="N113"/>
     </row>
@@ -9255,7 +9199,7 @@
       <c r="E114"/>
       <c r="F114"/>
       <c r="I114"/>
-      <c r="J114" s="208"/>
+      <c r="J114" s="207"/>
       <c r="M114"/>
       <c r="N114"/>
     </row>
@@ -9266,7 +9210,7 @@
       <c r="E115"/>
       <c r="F115"/>
       <c r="I115"/>
-      <c r="J115" s="208"/>
+      <c r="J115" s="207"/>
       <c r="M115"/>
       <c r="N115"/>
     </row>
@@ -9277,7 +9221,7 @@
       <c r="E116"/>
       <c r="F116"/>
       <c r="I116"/>
-      <c r="J116" s="208"/>
+      <c r="J116" s="207"/>
       <c r="M116"/>
       <c r="N116"/>
     </row>
@@ -9288,7 +9232,7 @@
       <c r="E117"/>
       <c r="F117"/>
       <c r="I117"/>
-      <c r="J117" s="208"/>
+      <c r="J117" s="207"/>
       <c r="M117"/>
       <c r="N117"/>
     </row>
@@ -9299,7 +9243,7 @@
       <c r="E118"/>
       <c r="F118"/>
       <c r="I118"/>
-      <c r="J118" s="208"/>
+      <c r="J118" s="207"/>
       <c r="M118"/>
       <c r="N118"/>
     </row>
@@ -9307,89 +9251,89 @@
       <c r="B119" s="23"/>
       <c r="D119" s="23"/>
       <c r="E119"/>
-      <c r="J119" s="208"/>
+      <c r="J119" s="207"/>
       <c r="M119"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B120" s="23"/>
       <c r="D120" s="23"/>
       <c r="E120"/>
-      <c r="J120" s="208"/>
+      <c r="J120" s="207"/>
       <c r="M120"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B121" s="23"/>
       <c r="D121" s="23"/>
       <c r="E121"/>
-      <c r="J121" s="208"/>
+      <c r="J121" s="207"/>
       <c r="M121"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122"/>
-      <c r="J122" s="208"/>
+      <c r="J122" s="207"/>
       <c r="M122"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B123" s="23"/>
       <c r="D123" s="23"/>
       <c r="E123"/>
-      <c r="J123" s="208"/>
+      <c r="J123" s="207"/>
       <c r="M123"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B124" s="23"/>
       <c r="D124" s="23"/>
       <c r="E124"/>
-      <c r="J124" s="208"/>
+      <c r="J124" s="207"/>
       <c r="M124"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B125" s="23"/>
       <c r="D125" s="23"/>
       <c r="E125"/>
-      <c r="J125" s="208"/>
+      <c r="J125" s="207"/>
       <c r="M125"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B126" s="23"/>
       <c r="D126" s="23"/>
       <c r="E126"/>
-      <c r="J126" s="208"/>
+      <c r="J126" s="207"/>
       <c r="M126"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B127" s="23"/>
       <c r="D127" s="23"/>
       <c r="E127"/>
-      <c r="J127" s="208"/>
+      <c r="J127" s="207"/>
       <c r="M127"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B128" s="23"/>
-      <c r="J128" s="208"/>
+      <c r="J128" s="207"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" s="23"/>
-      <c r="J129" s="208"/>
+      <c r="J129" s="207"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" s="23"/>
       <c r="D130" s="23"/>
-      <c r="J130" s="208"/>
+      <c r="J130" s="207"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" s="23"/>
-      <c r="J131" s="208"/>
+      <c r="J131" s="207"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" s="23"/>
-      <c r="J132" s="208"/>
+      <c r="J132" s="207"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" s="23"/>
-      <c r="J133" s="208"/>
+      <c r="J133" s="207"/>
     </row>
     <row r="134" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C134" s="154"/>
@@ -9409,10 +9353,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9430,33 +9374,33 @@
     <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="1.5703125" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="240" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="242" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="238" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="240" hidden="1" customWidth="1"/>
     <col min="19" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="317"/>
-      <c r="C1" s="319" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="G1" s="320"/>
-      <c r="H1" s="320"/>
-      <c r="I1" s="320"/>
-      <c r="J1" s="320"/>
-      <c r="K1" s="320"/>
-      <c r="L1" s="320"/>
-      <c r="M1" s="320"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="324" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="318"/>
+      <c r="B2" s="323"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9466,21 +9410,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="321" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="322"/>
+      <c r="B3" s="326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="327"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="323" t="s">
+      <c r="H3" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="323"/>
+      <c r="I3" s="328"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="354" t="s">
+      <c r="P3" s="336" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9495,14 +9439,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="329" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="325"/>
-      <c r="H4" s="326" t="s">
+      <c r="F4" s="330"/>
+      <c r="H4" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="327"/>
+      <c r="I4" s="332"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -9512,11 +9456,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="355"/>
-      <c r="Q4" s="299"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="242"/>
+      <c r="P4" s="337"/>
+      <c r="Q4" s="352" t="s">
+        <v>215</v>
+      </c>
+      <c r="W4" s="387" t="s">
+        <v>130</v>
+      </c>
+      <c r="X4" s="387"/>
+      <c r="Y4" s="240"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9558,19 +9506,17 @@
         <f>N5+M5+L5+I5+C5</f>
         <v>27763</v>
       </c>
-      <c r="Q5" s="232">
+      <c r="Q5" s="353">
         <f>P5-F5</f>
         <v>-27936</v>
       </c>
-      <c r="R5" s="244">
+      <c r="R5" s="242">
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="363" t="s">
-        <v>130</v>
-      </c>
-      <c r="X5" s="363"/>
-      <c r="Y5" s="249"/>
+      <c r="W5" s="387"/>
+      <c r="X5" s="387"/>
+      <c r="Y5" s="246"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
@@ -9606,23 +9552,23 @@
         <v>10660</v>
       </c>
       <c r="O6" s="2"/>
-      <c r="P6" s="69">
+      <c r="P6" s="39">
         <f>N6+M6+L6+I6+C6</f>
         <v>11269</v>
       </c>
-      <c r="Q6" s="239">
+      <c r="Q6" s="353">
         <f>P6-F6</f>
         <v>-26378</v>
       </c>
-      <c r="R6" s="245">
+      <c r="R6" s="351">
         <f>22000+4378</f>
         <v>26378</v>
       </c>
       <c r="S6" s="147"/>
-      <c r="W6" s="250">
+      <c r="W6" s="247">
         <v>50000</v>
       </c>
-      <c r="X6" s="253">
+      <c r="X6" s="250">
         <v>44505</v>
       </c>
       <c r="Y6" s="13"/>
@@ -9658,24 +9604,24 @@
       <c r="N7" s="33">
         <v>4538</v>
       </c>
-      <c r="O7" s="238"/>
-      <c r="P7" s="69">
+      <c r="O7" s="237"/>
+      <c r="P7" s="39">
         <f t="shared" ref="P7:P32" si="0">N7+M7+L7+I7+C7</f>
         <v>4602</v>
       </c>
-      <c r="Q7" s="239">
+      <c r="Q7" s="353">
         <f t="shared" ref="Q7:Q35" si="1">P7-F7</f>
         <v>-30393</v>
       </c>
-      <c r="R7" s="245">
+      <c r="R7" s="351">
         <f>26000+4393</f>
         <v>30393</v>
       </c>
       <c r="S7" s="147"/>
-      <c r="W7" s="250">
+      <c r="W7" s="247">
         <v>50000</v>
       </c>
-      <c r="X7" s="253">
+      <c r="X7" s="250">
         <v>44505</v>
       </c>
       <c r="Y7" s="13"/>
@@ -9720,23 +9666,23 @@
         <v>9420</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="69">
+      <c r="P8" s="39">
         <f t="shared" si="0"/>
         <v>22033</v>
       </c>
-      <c r="Q8" s="239">
+      <c r="Q8" s="353">
         <f t="shared" si="1"/>
         <v>-20199</v>
       </c>
-      <c r="R8" s="245">
+      <c r="R8" s="351">
         <f>20065+133</f>
         <v>20198</v>
       </c>
       <c r="S8" s="147"/>
-      <c r="W8" s="250">
+      <c r="W8" s="247">
         <v>50000</v>
       </c>
-      <c r="X8" s="253">
+      <c r="X8" s="250">
         <v>44505</v>
       </c>
       <c r="Y8" s="13"/>
@@ -9768,7 +9714,7 @@
       <c r="J9" s="37">
         <v>44512</v>
       </c>
-      <c r="K9" s="237" t="s">
+      <c r="K9" s="236" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="39">
@@ -9781,23 +9727,23 @@
         <v>12246</v>
       </c>
       <c r="O9" s="2"/>
-      <c r="P9" s="69">
+      <c r="P9" s="39">
         <f>N9+M9+L9+I9+C9</f>
         <v>18006</v>
       </c>
-      <c r="Q9" s="239">
+      <c r="Q9" s="353">
         <f t="shared" si="1"/>
         <v>-35678</v>
       </c>
-      <c r="R9" s="245">
+      <c r="R9" s="351">
         <f>35678</f>
         <v>35678</v>
       </c>
       <c r="S9" s="147"/>
-      <c r="W9" s="250">
+      <c r="W9" s="247">
         <v>100000</v>
       </c>
-      <c r="X9" s="254">
+      <c r="X9" s="251">
         <v>44509</v>
       </c>
       <c r="Y9" s="13"/>
@@ -9840,23 +9786,23 @@
       <c r="O10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P10" s="69">
+      <c r="P10" s="39">
         <f t="shared" ref="P10:P14" si="2">N10+M10+L10+I10+C10</f>
         <v>40368</v>
       </c>
-      <c r="Q10" s="239">
+      <c r="Q10" s="353">
         <f t="shared" si="1"/>
         <v>-30925</v>
       </c>
-      <c r="R10" s="245">
+      <c r="R10" s="351">
         <f>30925</f>
         <v>30925</v>
       </c>
       <c r="S10" s="147"/>
-      <c r="W10" s="250">
+      <c r="W10" s="247">
         <v>215000</v>
       </c>
-      <c r="X10" s="254">
+      <c r="X10" s="251">
         <v>44510</v>
       </c>
       <c r="Y10" s="13"/>
@@ -9893,23 +9839,23 @@
         <v>11746</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11" s="69">
+      <c r="P11" s="39">
         <f t="shared" si="2"/>
         <v>13621</v>
       </c>
-      <c r="Q11" s="239">
+      <c r="Q11" s="353">
         <f t="shared" si="1"/>
         <v>-35238</v>
       </c>
-      <c r="R11" s="245">
+      <c r="R11" s="351">
         <f>35238</f>
         <v>35238</v>
       </c>
       <c r="S11" s="147"/>
-      <c r="W11" s="250">
+      <c r="W11" s="247">
         <v>200500</v>
       </c>
-      <c r="X11" s="253">
+      <c r="X11" s="250">
         <v>44517</v>
       </c>
       <c r="Y11" s="13"/>
@@ -9950,23 +9896,23 @@
         <v>16831</v>
       </c>
       <c r="O12" s="2"/>
-      <c r="P12" s="69">
+      <c r="P12" s="39">
         <f t="shared" si="2"/>
         <v>20195</v>
       </c>
-      <c r="Q12" s="239">
+      <c r="Q12" s="353">
         <f t="shared" si="1"/>
         <v>-29846</v>
       </c>
-      <c r="R12" s="245">
+      <c r="R12" s="351">
         <f>29000+846</f>
         <v>29846</v>
       </c>
       <c r="S12" s="147"/>
-      <c r="W12" s="250">
+      <c r="W12" s="247">
         <v>260000</v>
       </c>
-      <c r="X12" s="253">
+      <c r="X12" s="250">
         <v>44523</v>
       </c>
       <c r="Y12" s="13"/>
@@ -9998,34 +9944,34 @@
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="286">
-        <v>0</v>
-      </c>
-      <c r="N13" s="287">
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33">
         <v>21106</v>
       </c>
-      <c r="O13" s="288"/>
-      <c r="P13" s="69">
+      <c r="O13" s="2"/>
+      <c r="P13" s="39">
         <f t="shared" si="2"/>
         <v>23882.36</v>
       </c>
-      <c r="Q13" s="239">
+      <c r="Q13" s="353">
         <f t="shared" si="1"/>
         <v>-41525.64</v>
       </c>
-      <c r="R13" s="245">
+      <c r="R13" s="351">
         <f>41050+1147</f>
         <v>42197</v>
       </c>
-      <c r="S13" s="247" t="s">
+      <c r="S13" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="246"/>
-      <c r="U13" s="246"/>
-      <c r="W13" s="250">
+      <c r="T13" s="243"/>
+      <c r="U13" s="243"/>
+      <c r="W13" s="247">
         <v>9636</v>
       </c>
-      <c r="X13" s="253">
+      <c r="X13" s="250">
         <v>44533</v>
       </c>
       <c r="Y13" s="13"/>
@@ -10064,22 +10010,22 @@
         <v>19362</v>
       </c>
       <c r="O14" s="2"/>
-      <c r="P14" s="69">
+      <c r="P14" s="39">
         <f t="shared" si="2"/>
         <v>25955.5</v>
       </c>
-      <c r="Q14" s="239">
+      <c r="Q14" s="353">
         <f t="shared" si="1"/>
         <v>-27969.5</v>
       </c>
-      <c r="R14" s="245">
+      <c r="R14" s="351">
         <v>27970</v>
       </c>
       <c r="S14" s="147"/>
-      <c r="W14" s="250">
-        <v>0</v>
-      </c>
-      <c r="X14" s="253"/>
+      <c r="W14" s="247">
+        <v>0</v>
+      </c>
+      <c r="X14" s="250"/>
       <c r="Y14" s="13"/>
     </row>
     <row r="15" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10115,22 +10061,22 @@
       <c r="N15" s="33">
         <v>8790</v>
       </c>
-      <c r="P15" s="69">
+      <c r="P15" s="39">
         <f t="shared" si="0"/>
         <v>14542</v>
       </c>
-      <c r="Q15" s="239">
+      <c r="Q15" s="353">
         <f t="shared" si="1"/>
         <v>-32780</v>
       </c>
-      <c r="R15" s="245">
+      <c r="R15" s="351">
         <v>32780</v>
       </c>
       <c r="S15" s="147"/>
-      <c r="W15" s="250">
-        <v>0</v>
-      </c>
-      <c r="X15" s="253"/>
+      <c r="W15" s="247">
+        <v>0</v>
+      </c>
+      <c r="X15" s="250"/>
       <c r="Y15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10166,25 +10112,25 @@
       <c r="N16" s="33">
         <v>15295</v>
       </c>
-      <c r="P16" s="69">
+      <c r="P16" s="39">
         <f t="shared" si="0"/>
         <v>21455</v>
       </c>
-      <c r="Q16" s="239">
+      <c r="Q16" s="353">
         <f t="shared" si="1"/>
         <v>-37376</v>
       </c>
-      <c r="R16" s="245">
+      <c r="R16" s="351">
         <v>37376</v>
       </c>
       <c r="S16" s="147"/>
-      <c r="W16" s="250">
-        <v>0</v>
-      </c>
-      <c r="X16" s="255"/>
-      <c r="Y16" s="249"/>
-    </row>
-    <row r="17" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W16" s="247">
+        <v>0</v>
+      </c>
+      <c r="X16" s="252"/>
+      <c r="Y16" s="246"/>
+    </row>
+    <row r="17" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
       <c r="B17" s="24">
         <v>44520</v>
@@ -10211,10 +10157,10 @@
       <c r="J17" s="37">
         <v>44520</v>
       </c>
-      <c r="K17" s="248" t="s">
+      <c r="K17" s="245" t="s">
         <v>117</v>
       </c>
-      <c r="L17" s="241">
+      <c r="L17" s="239">
         <f>1285.71</f>
         <v>1285.71</v>
       </c>
@@ -10227,26 +10173,26 @@
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="P17" s="69">
+      <c r="P17" s="39">
         <f t="shared" si="0"/>
         <v>49619.33</v>
       </c>
-      <c r="Q17" s="239">
+      <c r="Q17" s="353">
         <f t="shared" si="1"/>
         <v>-9805.6699999999983</v>
       </c>
-      <c r="R17" s="245">
+      <c r="R17" s="351">
         <f>9805.9+12537.27+1285.71</f>
         <v>23628.879999999997</v>
       </c>
       <c r="S17" s="147"/>
-      <c r="W17" s="251">
-        <v>0</v>
-      </c>
-      <c r="X17" s="253"/>
-      <c r="Y17" s="249"/>
-    </row>
-    <row r="18" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W17" s="248">
+        <v>0</v>
+      </c>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="246"/>
+    </row>
+    <row r="18" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="24">
         <v>44521</v>
@@ -10277,25 +10223,25 @@
       <c r="N18" s="33">
         <v>21981</v>
       </c>
-      <c r="P18" s="69">
+      <c r="P18" s="39">
         <f t="shared" si="0"/>
         <v>23496</v>
       </c>
-      <c r="Q18" s="239">
+      <c r="Q18" s="353">
         <f t="shared" si="1"/>
         <v>-21680</v>
       </c>
-      <c r="R18" s="245">
+      <c r="R18" s="351">
         <v>21680</v>
       </c>
       <c r="S18" s="147"/>
-      <c r="W18" s="252">
-        <v>0</v>
-      </c>
-      <c r="X18" s="256"/>
-      <c r="Y18" s="249"/>
-    </row>
-    <row r="19" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W18" s="249">
+        <v>0</v>
+      </c>
+      <c r="X18" s="253"/>
+      <c r="Y18" s="246"/>
+    </row>
+    <row r="19" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="24">
         <v>44522</v>
@@ -10328,26 +10274,26 @@
       <c r="N19" s="33">
         <v>23026</v>
       </c>
-      <c r="P19" s="69">
+      <c r="P19" s="39">
         <f t="shared" si="0"/>
         <v>25718</v>
       </c>
-      <c r="Q19" s="239">
+      <c r="Q19" s="353">
         <f t="shared" si="1"/>
         <v>-26370</v>
       </c>
-      <c r="R19" s="245">
+      <c r="R19" s="351">
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="370">
+      <c r="W19" s="385">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>935136</v>
       </c>
-      <c r="X19" s="256"/>
-      <c r="Y19" s="249"/>
-    </row>
-    <row r="20" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X19" s="253"/>
+      <c r="Y19" s="246"/>
+    </row>
+    <row r="20" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="24">
         <v>44523</v>
@@ -10380,23 +10326,23 @@
       <c r="N20" s="33">
         <v>12383</v>
       </c>
-      <c r="P20" s="69">
+      <c r="P20" s="39">
         <f t="shared" si="0"/>
         <v>22146.17</v>
       </c>
-      <c r="Q20" s="239">
+      <c r="Q20" s="353">
         <f t="shared" si="1"/>
         <v>-16395.830000000002</v>
       </c>
-      <c r="R20" s="245">
+      <c r="R20" s="351">
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="371"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="249"/>
-    </row>
-    <row r="21" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W20" s="386"/>
+      <c r="X20" s="282"/>
+      <c r="Y20" s="246"/>
+    </row>
+    <row r="21" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="24">
         <v>44524</v>
@@ -10429,25 +10375,24 @@
       <c r="N21" s="33">
         <v>9009</v>
       </c>
-      <c r="P21" s="69">
+      <c r="P21" s="39">
         <f t="shared" si="0"/>
         <v>15744.18</v>
       </c>
-      <c r="Q21" s="239">
+      <c r="Q21" s="353">
         <f t="shared" si="1"/>
         <v>-19188.82</v>
       </c>
-      <c r="R21" s="245">
+      <c r="R21" s="351">
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="372" t="s">
-        <v>131</v>
-      </c>
-      <c r="X21" s="373"/>
-      <c r="Y21" s="249"/>
-    </row>
-    <row r="22" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W21" s="377"/>
+      <c r="X21" s="377"/>
+      <c r="Y21" s="246"/>
+      <c r="Z21" s="128"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
       <c r="B22" s="24">
         <v>44525</v>
@@ -10481,23 +10426,24 @@
       <c r="N22" s="33">
         <v>16995</v>
       </c>
-      <c r="P22" s="69">
+      <c r="P22" s="39">
         <f t="shared" si="0"/>
         <v>23348.28</v>
       </c>
-      <c r="Q22" s="239">
+      <c r="Q22" s="353">
         <f t="shared" si="1"/>
         <v>-33647.72</v>
       </c>
-      <c r="R22" s="245">
+      <c r="R22" s="351">
         <v>33647.72</v>
       </c>
       <c r="S22" s="147"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="249"/>
-    </row>
-    <row r="23" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="246"/>
+      <c r="Z22" s="128"/>
+    </row>
+    <row r="23" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
       <c r="B23" s="24">
         <v>44526</v>
@@ -10531,25 +10477,24 @@
       <c r="N23" s="33">
         <v>27959</v>
       </c>
-      <c r="P23" s="69">
+      <c r="P23" s="39">
         <f t="shared" si="0"/>
         <v>31708.71</v>
       </c>
-      <c r="Q23" s="239">
+      <c r="Q23" s="353">
         <f t="shared" si="1"/>
         <v>-45217.29</v>
       </c>
-      <c r="R23" s="245">
+      <c r="R23" s="351">
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="374">
-        <v>-53663.11</v>
-      </c>
-      <c r="X23" s="375"/>
-      <c r="Y23" s="249"/>
-    </row>
-    <row r="24" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W23" s="378"/>
+      <c r="X23" s="378"/>
+      <c r="Y23" s="246"/>
+      <c r="Z23" s="128"/>
+    </row>
+    <row r="24" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
       <c r="B24" s="24">
         <v>44527</v>
@@ -10587,23 +10532,24 @@
       <c r="O24" t="s">
         <v>126</v>
       </c>
-      <c r="P24" s="69">
+      <c r="P24" s="39">
         <f t="shared" si="0"/>
         <v>42092.83</v>
       </c>
-      <c r="Q24" s="239">
+      <c r="Q24" s="353">
         <f t="shared" si="1"/>
         <v>-23159.17</v>
       </c>
-      <c r="R24" s="245">
+      <c r="R24" s="351">
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="376"/>
-      <c r="X24" s="377"/>
-      <c r="Y24" s="249"/>
-    </row>
-    <row r="25" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W24" s="378"/>
+      <c r="X24" s="378"/>
+      <c r="Y24" s="246"/>
+      <c r="Z24" s="128"/>
+    </row>
+    <row r="25" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
       <c r="B25" s="24">
         <v>44528</v>
@@ -10634,24 +10580,23 @@
       <c r="N25" s="33">
         <v>10181</v>
       </c>
-      <c r="P25" s="230">
+      <c r="P25" s="349">
         <f t="shared" si="0"/>
         <v>10581</v>
       </c>
-      <c r="Q25" s="239">
+      <c r="Q25" s="353">
         <f t="shared" si="1"/>
         <v>-28952</v>
       </c>
-      <c r="R25" s="245">
+      <c r="R25" s="351">
         <v>28952</v>
       </c>
-      <c r="W25" s="378">
-        <v>0</v>
-      </c>
+      <c r="W25" s="379"/>
       <c r="X25" s="379"/>
-      <c r="Y25" s="249"/>
-    </row>
-    <row r="26" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y25" s="246"/>
+      <c r="Z25" s="128"/>
+    </row>
+    <row r="26" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
       <c r="B26" s="24">
         <v>44529</v>
@@ -10687,24 +10632,23 @@
       <c r="O26" t="s">
         <v>125</v>
       </c>
-      <c r="P26" s="229">
+      <c r="P26" s="350">
         <f t="shared" si="0"/>
         <v>29939.5</v>
       </c>
-      <c r="Q26" s="239">
+      <c r="Q26" s="353">
         <f t="shared" si="1"/>
         <v>-21771.5</v>
       </c>
-      <c r="R26" s="245">
+      <c r="R26" s="351">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="380">
-        <v>0</v>
-      </c>
-      <c r="X26" s="381"/>
-      <c r="Y26" s="249"/>
-    </row>
-    <row r="27" spans="1:25" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W26" s="379"/>
+      <c r="X26" s="379"/>
+      <c r="Y26" s="246"/>
+      <c r="Z26" s="128"/>
+    </row>
+    <row r="27" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
       <c r="B27" s="24">
         <v>44530</v>
@@ -10737,25 +10681,23 @@
       <c r="N27" s="33">
         <v>7579</v>
       </c>
-      <c r="P27" s="69">
+      <c r="P27" s="39">
         <f t="shared" si="0"/>
         <v>16423</v>
       </c>
-      <c r="Q27" s="239">
+      <c r="Q27" s="353">
         <f t="shared" si="1"/>
         <v>-14637</v>
       </c>
-      <c r="R27" s="245">
+      <c r="R27" s="351">
         <v>14637</v>
       </c>
-      <c r="W27" s="364">
-        <f>SUM(W26+W25+W23)</f>
-        <v>-53663.11</v>
-      </c>
-      <c r="X27" s="365"/>
-      <c r="Y27" s="368"/>
-    </row>
-    <row r="28" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W27" s="380"/>
+      <c r="X27" s="381"/>
+      <c r="Y27" s="382"/>
+      <c r="Z27" s="128"/>
+    </row>
+    <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="24">
         <v>44531</v>
@@ -10795,18 +10737,19 @@
         <f t="shared" si="0"/>
         <v>53075</v>
       </c>
-      <c r="Q28" s="239">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="245">
-        <v>0</v>
-      </c>
-      <c r="W28" s="366"/>
-      <c r="X28" s="367"/>
-      <c r="Y28" s="369"/>
-    </row>
-    <row r="29" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q28" s="353">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="351">
+        <v>0</v>
+      </c>
+      <c r="W28" s="381"/>
+      <c r="X28" s="381"/>
+      <c r="Y28" s="382"/>
+      <c r="Z28" s="128"/>
+    </row>
+    <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="24">
         <v>44532</v>
@@ -10848,17 +10791,19 @@
         <f t="shared" si="0"/>
         <v>174324</v>
       </c>
-      <c r="Q29" s="239">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="245">
-        <v>0</v>
-      </c>
-      <c r="X29" s="240"/>
-      <c r="Y29" s="242"/>
-    </row>
-    <row r="30" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q29" s="353">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="351">
+        <v>0</v>
+      </c>
+      <c r="W29" s="128"/>
+      <c r="X29" s="383"/>
+      <c r="Y29" s="384"/>
+      <c r="Z29" s="128"/>
+    </row>
+    <row r="30" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
       <c r="B30" s="24">
         <v>44533</v>
@@ -10896,15 +10841,15 @@
         <f t="shared" si="0"/>
         <v>90573</v>
       </c>
-      <c r="Q30" s="239">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="245"/>
-      <c r="X30" s="240"/>
-      <c r="Y30" s="242"/>
-    </row>
-    <row r="31" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q30" s="353">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="351"/>
+      <c r="X30" s="238"/>
+      <c r="Y30" s="240"/>
+    </row>
+    <row r="31" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="24">
         <v>44534</v>
@@ -10942,13 +10887,13 @@
         <f t="shared" si="0"/>
         <v>70468</v>
       </c>
-      <c r="Q31" s="239">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="245"/>
-    </row>
-    <row r="32" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q31" s="353">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="351"/>
+    </row>
+    <row r="32" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="24">
         <v>44535</v>
@@ -10985,11 +10930,11 @@
         <f t="shared" si="0"/>
         <v>47119</v>
       </c>
-      <c r="Q32" s="239">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="243"/>
+      <c r="Q32" s="353">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="241"/>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
@@ -11002,9 +10947,9 @@
       <c r="H33" s="36"/>
       <c r="I33" s="30"/>
       <c r="J33" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="K33" s="264">
+        <v>200</v>
+      </c>
+      <c r="K33" s="260">
         <v>44508</v>
       </c>
       <c r="L33" s="66">
@@ -11019,11 +10964,11 @@
       <c r="P33" s="34">
         <v>0</v>
       </c>
-      <c r="Q33" s="239">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="243"/>
+      <c r="Q33" s="353">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="241"/>
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
@@ -11039,10 +10984,10 @@
       <c r="I34" s="30">
         <v>0</v>
       </c>
-      <c r="J34" s="298" t="s">
-        <v>209</v>
-      </c>
-      <c r="K34" s="265">
+      <c r="J34" s="280" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34" s="261">
         <v>44509</v>
       </c>
       <c r="L34" s="44">
@@ -11057,11 +11002,11 @@
       <c r="P34" s="34">
         <v>0</v>
       </c>
-      <c r="Q34" s="239">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="243"/>
+      <c r="Q34" s="353">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="241"/>
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
@@ -11083,29 +11028,29 @@
       <c r="I35" s="30">
         <v>0</v>
       </c>
-      <c r="J35" s="298" t="s">
-        <v>209</v>
-      </c>
-      <c r="K35" s="266">
+      <c r="J35" s="280" t="s">
+        <v>208</v>
+      </c>
+      <c r="K35" s="262">
         <v>44509</v>
       </c>
       <c r="L35" s="66">
         <v>182.52</v>
       </c>
-      <c r="M35" s="300">
-        <v>0</v>
-      </c>
-      <c r="N35" s="301">
+      <c r="M35" s="281">
+        <v>0</v>
+      </c>
+      <c r="N35" s="282">
         <v>0</v>
       </c>
       <c r="P35" s="34">
         <v>0</v>
       </c>
-      <c r="Q35" s="306">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="243"/>
+      <c r="Q35" s="287">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="241"/>
     </row>
     <row r="36" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
@@ -11127,32 +11072,32 @@
       <c r="I36" s="30">
         <v>0</v>
       </c>
-      <c r="J36" s="298" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="267">
+      <c r="J36" s="280" t="s">
+        <v>209</v>
+      </c>
+      <c r="K36" s="263">
         <v>44511</v>
       </c>
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="356">
+      <c r="M36" s="338">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="358">
+      <c r="N36" s="340">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>467016</v>
       </c>
-      <c r="O36" s="309"/>
-      <c r="P36" s="310">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="360">
+      <c r="O36" s="290"/>
+      <c r="P36" s="291">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="342">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
-      <c r="R36" s="243"/>
+      <c r="R36" s="241"/>
     </row>
     <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
@@ -11175,21 +11120,21 @@
         <v>0</v>
       </c>
       <c r="J37" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="41" t="s">
         <v>206</v>
-      </c>
-      <c r="K37" s="41" t="s">
-        <v>207</v>
       </c>
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="357"/>
-      <c r="N37" s="359"/>
-      <c r="O37" s="309"/>
-      <c r="P37" s="310">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="361"/>
+      <c r="M37" s="339"/>
+      <c r="N37" s="341"/>
+      <c r="O37" s="290"/>
+      <c r="P37" s="291">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="343"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -11200,7 +11145,7 @@
         <v>1799.9</v>
       </c>
       <c r="D38" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="28">
@@ -11212,28 +11157,28 @@
         <v>0</v>
       </c>
       <c r="J38" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K38" s="190" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L38" s="61">
         <v>549</v>
       </c>
-      <c r="M38" s="303"/>
-      <c r="N38" s="304"/>
+      <c r="M38" s="284"/>
+      <c r="N38" s="285"/>
       <c r="P38" s="151">
         <v>0</v>
       </c>
-      <c r="Q38" s="307"/>
-    </row>
-    <row r="39" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q38" s="288"/>
+    </row>
+    <row r="39" spans="1:18" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="69"/>
       <c r="D39" s="62"/>
       <c r="E39" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F39" s="70"/>
       <c r="G39" s="2"/>
@@ -11242,15 +11187,15 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="311"/>
-      <c r="N39" s="311"/>
+      <c r="M39" s="292"/>
+      <c r="N39" s="292"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>970067.86</v>
       </c>
-      <c r="Q39" s="308"/>
-    </row>
-    <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q39" s="289"/>
+    </row>
+    <row r="40" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="69"/>
@@ -11263,8 +11208,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="311"/>
-      <c r="N40" s="311"/>
+      <c r="M40" s="292"/>
+      <c r="N40" s="292"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
@@ -11281,8 +11226,8 @@
       <c r="J41" s="60"/>
       <c r="K41" s="41"/>
       <c r="L41" s="61"/>
-      <c r="M41" s="302"/>
-      <c r="N41" s="302"/>
+      <c r="M41" s="283"/>
+      <c r="N41" s="283"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="13"/>
     </row>
@@ -11299,8 +11244,8 @@
       <c r="J42" s="60"/>
       <c r="K42" s="41"/>
       <c r="L42" s="61"/>
-      <c r="M42" s="302"/>
-      <c r="N42" s="302"/>
+      <c r="M42" s="283"/>
+      <c r="N42" s="283"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="13"/>
     </row>
@@ -11317,8 +11262,8 @@
       <c r="J43" s="60"/>
       <c r="K43" s="41"/>
       <c r="L43" s="61"/>
-      <c r="M43" s="302"/>
-      <c r="N43" s="302"/>
+      <c r="M43" s="283"/>
+      <c r="N43" s="283"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="13"/>
     </row>
@@ -11335,8 +11280,8 @@
       <c r="J44" s="60"/>
       <c r="K44" s="41"/>
       <c r="L44" s="61"/>
-      <c r="M44" s="302"/>
-      <c r="N44" s="302"/>
+      <c r="M44" s="283"/>
+      <c r="N44" s="283"/>
       <c r="P44" s="34"/>
       <c r="Q44" s="13"/>
     </row>
@@ -11353,8 +11298,8 @@
       <c r="J45" s="60"/>
       <c r="K45" s="41"/>
       <c r="L45" s="61"/>
-      <c r="M45" s="302"/>
-      <c r="N45" s="302"/>
+      <c r="M45" s="283"/>
+      <c r="N45" s="283"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -11371,8 +11316,8 @@
       <c r="J46" s="60"/>
       <c r="K46" s="41"/>
       <c r="L46" s="61"/>
-      <c r="M46" s="302"/>
-      <c r="N46" s="302"/>
+      <c r="M46" s="283"/>
+      <c r="N46" s="283"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="13"/>
     </row>
@@ -11389,8 +11334,8 @@
       <c r="J47" s="60"/>
       <c r="K47" s="41"/>
       <c r="L47" s="61"/>
-      <c r="M47" s="302"/>
-      <c r="N47" s="302"/>
+      <c r="M47" s="283"/>
+      <c r="N47" s="283"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="13"/>
     </row>
@@ -11407,12 +11352,12 @@
       <c r="J48" s="60"/>
       <c r="K48" s="41"/>
       <c r="L48" s="61"/>
-      <c r="M48" s="302"/>
-      <c r="N48" s="302"/>
+      <c r="M48" s="283"/>
+      <c r="N48" s="283"/>
       <c r="P48" s="34"/>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="80"/>
       <c r="C49" s="25">
@@ -11479,27 +11424,27 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="339" t="s">
+      <c r="H52" s="309" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="340"/>
+      <c r="I52" s="310"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="341">
+      <c r="K52" s="311">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="362"/>
-      <c r="M52" s="305"/>
-      <c r="N52" s="305"/>
+      <c r="L52" s="335"/>
+      <c r="M52" s="286"/>
+      <c r="N52" s="286"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="345" t="s">
+    <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="315" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="345"/>
-      <c r="F53" s="101">
+      <c r="E53" s="315"/>
+      <c r="F53" s="394">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
       </c>
@@ -11507,35 +11452,47 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="345" t="s">
+      <c r="D54" s="395" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="345"/>
-      <c r="F54" s="13">
+      <c r="E54" s="395"/>
+      <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="346" t="s">
+      <c r="I54" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="347"/>
-      <c r="K54" s="348">
+      <c r="J54" s="317"/>
+      <c r="K54" s="318">
         <f>F56+F57+F58</f>
         <v>1308770.3500000003</v>
       </c>
-      <c r="L54" s="349"/>
+      <c r="L54" s="318"/>
+      <c r="M54" s="388" t="s">
+        <v>217</v>
+      </c>
+      <c r="N54" s="389"/>
+      <c r="O54" s="389"/>
+      <c r="P54" s="389"/>
+      <c r="Q54" s="390"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="203" t="s">
+      <c r="D55" s="396" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="98"/>
-      <c r="F55" s="104">
+      <c r="E55" s="397"/>
+      <c r="F55" s="398">
         <v>-164725.34</v>
       </c>
       <c r="I55" s="105"/>
       <c r="J55" s="106"/>
       <c r="K55" s="191"/>
       <c r="L55" s="107"/>
+      <c r="M55" s="391"/>
+      <c r="N55" s="392"/>
+      <c r="O55" s="392"/>
+      <c r="P55" s="392"/>
+      <c r="Q55" s="393"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -11553,11 +11510,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="350">
+      <c r="K56" s="320">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="351"/>
+      <c r="L56" s="321"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -11574,22 +11531,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="328" t="s">
+      <c r="D58" s="298" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="329"/>
+      <c r="E58" s="299"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="330" t="s">
-        <v>205</v>
-      </c>
-      <c r="J58" s="331"/>
-      <c r="K58" s="332">
+      <c r="I58" s="300" t="s">
+        <v>204</v>
+      </c>
+      <c r="J58" s="301"/>
+      <c r="K58" s="302">
         <f>K54+K56</f>
         <v>741381.00000000035</v>
       </c>
-      <c r="L58" s="332"/>
+      <c r="L58" s="302"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -11732,15 +11689,18 @@
       <c r="F80" s="129"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+  <mergeCells count="29">
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -11751,19 +11711,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W4:X5"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -11776,8 +11734,8 @@
   </sheetPr>
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView topLeftCell="F32" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11798,99 +11756,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="356" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="168"/>
+      <c r="B1" s="357"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="358"/>
       <c r="F1" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="200" t="s">
+      <c r="I1" s="367" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="207"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="169" t="s">
+      <c r="J1" s="368"/>
+      <c r="K1" s="369"/>
+      <c r="L1" s="370"/>
+      <c r="M1" s="369"/>
+      <c r="N1" s="371" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="131" t="s">
+    <row r="2" spans="1:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="363" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="366" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="133" t="s">
+      <c r="F2" s="355" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" s="363" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="375" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="131" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="206" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="132" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="131" t="s">
+      <c r="L2" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="132" t="s">
+      <c r="M2" s="365" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="133" t="s">
-        <v>21</v>
+      <c r="N2" s="376" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="359" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="360" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="278" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="279">
+      <c r="C3" s="361">
         <v>15652.4</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="228"/>
       <c r="F3" s="196">
         <f>C3-E3</f>
         <v>15652.4</v>
       </c>
-      <c r="I3" s="289"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="291"/>
-      <c r="L3" s="289"/>
-      <c r="M3" s="69"/>
+      <c r="I3" s="372"/>
+      <c r="J3" s="373"/>
+      <c r="K3" s="374"/>
+      <c r="L3" s="372"/>
+      <c r="M3" s="228"/>
       <c r="N3" s="196">
         <f>K3-M3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="262" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="280" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="281">
+      <c r="A4" s="258" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="274" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="275">
         <v>6679.8</v>
       </c>
       <c r="D4" s="136"/>
@@ -11900,17 +11858,17 @@
         <v>22332.2</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="I4" s="289" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="290">
+      <c r="I4" s="354" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="38">
         <v>7749</v>
       </c>
-      <c r="K4" s="291">
+      <c r="K4" s="111">
         <v>5707.22</v>
       </c>
-      <c r="L4" s="289" t="s">
-        <v>202</v>
+      <c r="L4" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M4" s="69"/>
       <c r="N4" s="137">
@@ -11919,13 +11877,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="258" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="274" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="280" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="281">
+      <c r="C5" s="275">
         <v>18704.419999999998</v>
       </c>
       <c r="D5" s="136"/>
@@ -11934,17 +11892,17 @@
         <f t="shared" ref="F5:F56" si="0">F4+C5-E5</f>
         <v>41036.619999999995</v>
       </c>
-      <c r="I5" s="292" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" s="293">
+      <c r="I5" s="354" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="38">
         <v>7746</v>
       </c>
-      <c r="K5" s="294">
+      <c r="K5" s="111">
         <v>30</v>
       </c>
-      <c r="L5" s="292" t="s">
-        <v>202</v>
+      <c r="L5" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M5" s="69"/>
       <c r="N5" s="137">
@@ -11953,13 +11911,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="262" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="280" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="281">
+      <c r="A6" s="258" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="274" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="275">
         <v>840</v>
       </c>
       <c r="D6" s="136"/>
@@ -11968,17 +11926,17 @@
         <f t="shared" si="0"/>
         <v>41876.619999999995</v>
       </c>
-      <c r="I6" s="292" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="293">
+      <c r="I6" s="354" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="38">
         <v>7753</v>
       </c>
-      <c r="K6" s="294">
+      <c r="K6" s="111">
         <v>3667.5</v>
       </c>
-      <c r="L6" s="292" t="s">
-        <v>202</v>
+      <c r="L6" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M6" s="69"/>
       <c r="N6" s="137">
@@ -11987,11 +11945,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="262" t="s">
+      <c r="A7" s="258" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="259" t="s">
         <v>138</v>
-      </c>
-      <c r="B7" s="263" t="s">
-        <v>139</v>
       </c>
       <c r="C7" s="111">
         <v>7697.8</v>
@@ -12002,17 +11960,17 @@
         <f t="shared" si="0"/>
         <v>49574.42</v>
       </c>
-      <c r="I7" s="292" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="293">
+      <c r="I7" s="354" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="38">
         <v>7755</v>
       </c>
-      <c r="K7" s="294">
+      <c r="K7" s="111">
         <v>120</v>
       </c>
-      <c r="L7" s="292" t="s">
-        <v>202</v>
+      <c r="L7" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M7" s="69"/>
       <c r="N7" s="137">
@@ -12021,11 +11979,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="262" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="263" t="s">
-        <v>140</v>
+      <c r="A8" s="258" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="259" t="s">
+        <v>139</v>
       </c>
       <c r="C8" s="111">
         <v>23842.9</v>
@@ -12036,17 +11994,17 @@
         <f t="shared" si="0"/>
         <v>73417.320000000007</v>
       </c>
-      <c r="I8" s="289" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="290">
+      <c r="I8" s="354" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="38">
         <v>7756</v>
       </c>
-      <c r="K8" s="291">
+      <c r="K8" s="111">
         <v>436.5</v>
       </c>
-      <c r="L8" s="289" t="s">
-        <v>202</v>
+      <c r="L8" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M8" s="69"/>
       <c r="N8" s="137">
@@ -12055,11 +12013,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="262" t="s">
+      <c r="A9" s="258" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="259" t="s">
         <v>141</v>
-      </c>
-      <c r="B9" s="263" t="s">
-        <v>142</v>
       </c>
       <c r="C9" s="111">
         <v>29188.7</v>
@@ -12070,17 +12028,17 @@
         <f t="shared" si="0"/>
         <v>102606.02</v>
       </c>
-      <c r="I9" s="289" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="290">
+      <c r="I9" s="354" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="38">
         <v>7771</v>
       </c>
-      <c r="K9" s="291">
+      <c r="K9" s="111">
         <v>9412.4500000000007</v>
       </c>
-      <c r="L9" s="289" t="s">
-        <v>202</v>
+      <c r="L9" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M9" s="69"/>
       <c r="N9" s="137">
@@ -12089,11 +12047,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="262" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="263" t="s">
-        <v>143</v>
+      <c r="A10" s="258" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="259" t="s">
+        <v>142</v>
       </c>
       <c r="C10" s="111">
         <v>2112.5</v>
@@ -12105,17 +12063,17 @@
         <v>104718.52</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="I10" s="289" t="s">
-        <v>138</v>
-      </c>
-      <c r="J10" s="290">
+      <c r="I10" s="354" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="38">
         <v>7772</v>
       </c>
-      <c r="K10" s="291">
+      <c r="K10" s="111">
         <v>10285</v>
       </c>
-      <c r="L10" s="289" t="s">
-        <v>202</v>
+      <c r="L10" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M10" s="69"/>
       <c r="N10" s="137">
@@ -12124,11 +12082,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="262" t="s">
+      <c r="A11" s="258" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="259" t="s">
         <v>144</v>
-      </c>
-      <c r="B11" s="263" t="s">
-        <v>145</v>
       </c>
       <c r="C11" s="111">
         <v>10023.799999999999</v>
@@ -12139,17 +12097,17 @@
         <f t="shared" si="0"/>
         <v>114742.32</v>
       </c>
-      <c r="I11" s="289" t="s">
-        <v>141</v>
-      </c>
-      <c r="J11" s="290">
+      <c r="I11" s="354" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="38">
         <v>7774</v>
       </c>
-      <c r="K11" s="291">
+      <c r="K11" s="111">
         <v>2504.94</v>
       </c>
-      <c r="L11" s="289" t="s">
-        <v>202</v>
+      <c r="L11" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M11" s="69"/>
       <c r="N11" s="137">
@@ -12158,11 +12116,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="262" t="s">
+      <c r="A12" s="258" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="259" t="s">
         <v>146</v>
-      </c>
-      <c r="B12" s="263" t="s">
-        <v>147</v>
       </c>
       <c r="C12" s="111">
         <v>29492.45</v>
@@ -12173,17 +12131,17 @@
         <f t="shared" si="0"/>
         <v>144234.77000000002</v>
       </c>
-      <c r="I12" s="289" t="s">
-        <v>144</v>
-      </c>
-      <c r="J12" s="295">
+      <c r="I12" s="354" t="s">
+        <v>143</v>
+      </c>
+      <c r="J12" s="38">
         <v>7778</v>
       </c>
-      <c r="K12" s="296">
+      <c r="K12" s="111">
         <v>800</v>
       </c>
-      <c r="L12" s="297" t="s">
-        <v>144</v>
+      <c r="L12" s="354" t="s">
+        <v>143</v>
       </c>
       <c r="M12" s="69">
         <v>800</v>
@@ -12194,11 +12152,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="262" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="263" t="s">
-        <v>148</v>
+      <c r="A13" s="258" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="259" t="s">
+        <v>147</v>
       </c>
       <c r="C13" s="111">
         <v>8447.5</v>
@@ -12209,17 +12167,17 @@
         <f t="shared" si="0"/>
         <v>152682.27000000002</v>
       </c>
-      <c r="I13" s="292" t="s">
-        <v>144</v>
-      </c>
-      <c r="J13" s="293">
+      <c r="I13" s="354" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" s="38">
         <v>7781</v>
       </c>
-      <c r="K13" s="294">
+      <c r="K13" s="111">
         <v>733.6</v>
       </c>
-      <c r="L13" s="292" t="s">
-        <v>202</v>
+      <c r="L13" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M13" s="69"/>
       <c r="N13" s="137">
@@ -12228,11 +12186,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="262" t="s">
+      <c r="A14" s="258" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="259" t="s">
         <v>149</v>
-      </c>
-      <c r="B14" s="263" t="s">
-        <v>150</v>
       </c>
       <c r="C14" s="111">
         <v>1123.5</v>
@@ -12243,17 +12201,17 @@
         <f t="shared" si="0"/>
         <v>153805.77000000002</v>
       </c>
-      <c r="I14" s="292" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" s="293">
+      <c r="I14" s="354" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="38">
         <v>7783</v>
       </c>
-      <c r="K14" s="294">
+      <c r="K14" s="111">
         <v>675</v>
       </c>
-      <c r="L14" s="292" t="s">
-        <v>202</v>
+      <c r="L14" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M14" s="69"/>
       <c r="N14" s="137">
@@ -12262,11 +12220,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="262" t="s">
+      <c r="A15" s="258" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="259" t="s">
         <v>151</v>
-      </c>
-      <c r="B15" s="263" t="s">
-        <v>152</v>
       </c>
       <c r="C15" s="111">
         <v>14678.6</v>
@@ -12277,17 +12235,17 @@
         <f t="shared" si="0"/>
         <v>168484.37000000002</v>
       </c>
-      <c r="I15" s="289" t="s">
-        <v>146</v>
-      </c>
-      <c r="J15" s="290">
+      <c r="I15" s="354" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="38">
         <v>7789</v>
       </c>
-      <c r="K15" s="291">
+      <c r="K15" s="111">
         <v>5566.27</v>
       </c>
-      <c r="L15" s="289" t="s">
-        <v>202</v>
+      <c r="L15" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M15" s="69"/>
       <c r="N15" s="137">
@@ -12296,11 +12254,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="262" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="263" t="s">
-        <v>153</v>
+      <c r="A16" s="258" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="259" t="s">
+        <v>152</v>
       </c>
       <c r="C16" s="111">
         <v>31129.7</v>
@@ -12311,17 +12269,17 @@
         <f t="shared" si="0"/>
         <v>199614.07000000004</v>
       </c>
-      <c r="I16" s="289" t="s">
-        <v>203</v>
-      </c>
-      <c r="J16" s="290">
+      <c r="I16" s="354" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="38">
         <v>7794</v>
       </c>
-      <c r="K16" s="291">
+      <c r="K16" s="111">
         <v>60</v>
       </c>
-      <c r="L16" s="289" t="s">
-        <v>202</v>
+      <c r="L16" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M16" s="69"/>
       <c r="N16" s="137">
@@ -12330,11 +12288,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="262" t="s">
+      <c r="A17" s="258" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="259" t="s">
         <v>154</v>
-      </c>
-      <c r="B17" s="263" t="s">
-        <v>155</v>
       </c>
       <c r="C17" s="111">
         <v>14174.9</v>
@@ -12345,17 +12303,17 @@
         <f t="shared" si="0"/>
         <v>213788.97000000003</v>
       </c>
-      <c r="I17" s="289" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17" s="290">
+      <c r="I17" s="354" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" s="38">
         <v>7796</v>
       </c>
-      <c r="K17" s="291">
+      <c r="K17" s="111">
         <v>4155</v>
       </c>
-      <c r="L17" s="289" t="s">
-        <v>202</v>
+      <c r="L17" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M17" s="69"/>
       <c r="N17" s="137">
@@ -12364,11 +12322,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="262" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="263" t="s">
-        <v>156</v>
+      <c r="A18" s="258" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="259" t="s">
+        <v>155</v>
       </c>
       <c r="C18" s="111">
         <v>2463.75</v>
@@ -12379,17 +12337,17 @@
         <f t="shared" si="0"/>
         <v>216252.72000000003</v>
       </c>
-      <c r="I18" s="289" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="290">
+      <c r="I18" s="354" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="38">
         <v>7798</v>
       </c>
-      <c r="K18" s="291">
+      <c r="K18" s="111">
         <v>1620.32</v>
       </c>
-      <c r="L18" s="289" t="s">
-        <v>202</v>
+      <c r="L18" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M18" s="69"/>
       <c r="N18" s="137">
@@ -12398,11 +12356,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="262" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="263" t="s">
-        <v>157</v>
+      <c r="A19" s="258" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="259" t="s">
+        <v>156</v>
       </c>
       <c r="C19" s="111">
         <v>9900</v>
@@ -12413,17 +12371,17 @@
         <f t="shared" si="0"/>
         <v>226152.72000000003</v>
       </c>
-      <c r="I19" s="292" t="s">
-        <v>151</v>
-      </c>
-      <c r="J19" s="293">
+      <c r="I19" s="354" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="38">
         <v>7805</v>
       </c>
-      <c r="K19" s="294">
+      <c r="K19" s="111">
         <v>2386.12</v>
       </c>
-      <c r="L19" s="292" t="s">
-        <v>202</v>
+      <c r="L19" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M19" s="69"/>
       <c r="N19" s="137">
@@ -12432,11 +12390,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="262" t="s">
+      <c r="A20" s="258" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="259" t="s">
         <v>158</v>
-      </c>
-      <c r="B20" s="263" t="s">
-        <v>159</v>
       </c>
       <c r="C20" s="111">
         <v>20284.5</v>
@@ -12447,17 +12405,17 @@
         <f t="shared" si="0"/>
         <v>246437.22000000003</v>
       </c>
-      <c r="I20" s="292" t="s">
-        <v>151</v>
-      </c>
-      <c r="J20" s="293">
+      <c r="I20" s="354" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="38">
         <v>7809</v>
       </c>
-      <c r="K20" s="294">
+      <c r="K20" s="111">
         <v>2376.56</v>
       </c>
-      <c r="L20" s="292" t="s">
-        <v>202</v>
+      <c r="L20" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M20" s="69"/>
       <c r="N20" s="137">
@@ -12466,11 +12424,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="262" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="263" t="s">
-        <v>160</v>
+      <c r="A21" s="258" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="259" t="s">
+        <v>159</v>
       </c>
       <c r="C21" s="111">
         <v>8609</v>
@@ -12481,17 +12439,17 @@
         <f t="shared" si="0"/>
         <v>255046.22000000003</v>
       </c>
-      <c r="I21" s="289" t="s">
-        <v>154</v>
-      </c>
-      <c r="J21" s="290">
+      <c r="I21" s="354" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="38">
         <v>7817</v>
       </c>
-      <c r="K21" s="291">
+      <c r="K21" s="111">
         <v>3020.38</v>
       </c>
-      <c r="L21" s="289" t="s">
-        <v>202</v>
+      <c r="L21" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M21" s="69"/>
       <c r="N21" s="137">
@@ -12500,11 +12458,11 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="262" t="s">
+      <c r="A22" s="258" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="259" t="s">
         <v>161</v>
-      </c>
-      <c r="B22" s="263" t="s">
-        <v>162</v>
       </c>
       <c r="C22" s="111">
         <v>32844.300000000003</v>
@@ -12516,17 +12474,17 @@
         <v>287890.52</v>
       </c>
       <c r="G22" s="138"/>
-      <c r="I22" s="289" t="s">
-        <v>158</v>
-      </c>
-      <c r="J22" s="290">
+      <c r="I22" s="354" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="38">
         <v>7822</v>
       </c>
-      <c r="K22" s="291">
+      <c r="K22" s="111">
         <v>2524.2399999999998</v>
       </c>
-      <c r="L22" s="289" t="s">
-        <v>202</v>
+      <c r="L22" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M22" s="69"/>
       <c r="N22" s="137">
@@ -12535,11 +12493,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="262" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="263" t="s">
-        <v>163</v>
+      <c r="A23" s="258" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="259" t="s">
+        <v>162</v>
       </c>
       <c r="C23" s="111">
         <v>1801.8</v>
@@ -12550,17 +12508,17 @@
         <f t="shared" si="0"/>
         <v>289692.32</v>
       </c>
-      <c r="I23" s="289" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" s="290">
+      <c r="I23" s="354" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" s="38">
         <v>7826</v>
       </c>
-      <c r="K23" s="291">
+      <c r="K23" s="111">
         <v>1789.6</v>
       </c>
-      <c r="L23" s="289" t="s">
-        <v>202</v>
+      <c r="L23" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M23" s="69"/>
       <c r="N23" s="137">
@@ -12569,11 +12527,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="262" t="s">
+      <c r="A24" s="258" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="259" t="s">
         <v>164</v>
-      </c>
-      <c r="B24" s="263" t="s">
-        <v>165</v>
       </c>
       <c r="C24" s="111">
         <v>700</v>
@@ -12584,17 +12542,17 @@
         <f t="shared" si="0"/>
         <v>290392.32000000001</v>
       </c>
-      <c r="I24" s="292" t="s">
-        <v>161</v>
-      </c>
-      <c r="J24" s="293">
+      <c r="I24" s="354" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" s="38">
         <v>7829</v>
       </c>
-      <c r="K24" s="294">
+      <c r="K24" s="111">
         <v>2590.2199999999998</v>
       </c>
-      <c r="L24" s="292" t="s">
-        <v>202</v>
+      <c r="L24" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M24" s="69"/>
       <c r="N24" s="137">
@@ -12603,11 +12561,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="262" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="263" t="s">
-        <v>166</v>
+      <c r="A25" s="258" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="259" t="s">
+        <v>165</v>
       </c>
       <c r="C25" s="111">
         <v>0</v>
@@ -12618,17 +12576,17 @@
         <f t="shared" si="0"/>
         <v>290392.32000000001</v>
       </c>
-      <c r="I25" s="292" t="s">
-        <v>164</v>
-      </c>
-      <c r="J25" s="293">
+      <c r="I25" s="354" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="38">
         <v>7831</v>
       </c>
-      <c r="K25" s="294">
+      <c r="K25" s="111">
         <v>5268.02</v>
       </c>
-      <c r="L25" s="292" t="s">
-        <v>202</v>
+      <c r="L25" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M25" s="69"/>
       <c r="N25" s="137">
@@ -12637,11 +12595,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="262" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="263" t="s">
-        <v>167</v>
+      <c r="A26" s="258" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="259" t="s">
+        <v>166</v>
       </c>
       <c r="C26" s="111">
         <v>34909.9</v>
@@ -12652,17 +12610,17 @@
         <f t="shared" si="0"/>
         <v>325302.22000000003</v>
       </c>
-      <c r="I26" s="292" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" s="293">
+      <c r="I26" s="354" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="38">
         <v>7835</v>
       </c>
-      <c r="K26" s="294">
+      <c r="K26" s="111">
         <v>1272.24</v>
       </c>
-      <c r="L26" s="292" t="s">
-        <v>202</v>
+      <c r="L26" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M26" s="69"/>
       <c r="N26" s="137">
@@ -12671,11 +12629,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="262" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="263" t="s">
-        <v>168</v>
+      <c r="A27" s="258" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="259" t="s">
+        <v>167</v>
       </c>
       <c r="C27" s="111">
         <v>5451.9</v>
@@ -12686,17 +12644,17 @@
         <f t="shared" si="0"/>
         <v>330754.12000000005</v>
       </c>
-      <c r="I27" s="292" t="s">
-        <v>204</v>
-      </c>
-      <c r="J27" s="293">
+      <c r="I27" s="354" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" s="38">
         <v>7837</v>
       </c>
-      <c r="K27" s="294">
+      <c r="K27" s="111">
         <v>2132.7199999999998</v>
       </c>
-      <c r="L27" s="292" t="s">
-        <v>202</v>
+      <c r="L27" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M27" s="69"/>
       <c r="N27" s="137">
@@ -12705,11 +12663,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="262" t="s">
+      <c r="A28" s="258" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="259" t="s">
         <v>169</v>
-      </c>
-      <c r="B28" s="263" t="s">
-        <v>170</v>
       </c>
       <c r="C28" s="111">
         <v>6120</v>
@@ -12720,17 +12678,17 @@
         <f t="shared" si="0"/>
         <v>336874.12000000005</v>
       </c>
-      <c r="I28" s="292" t="s">
-        <v>169</v>
-      </c>
-      <c r="J28" s="293">
+      <c r="I28" s="354" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="38">
         <v>7841</v>
       </c>
-      <c r="K28" s="294">
+      <c r="K28" s="111">
         <v>5711.74</v>
       </c>
-      <c r="L28" s="292" t="s">
-        <v>202</v>
+      <c r="L28" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M28" s="69"/>
       <c r="N28" s="137">
@@ -12739,11 +12697,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="262" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="263" t="s">
-        <v>171</v>
+      <c r="A29" s="258" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="259" t="s">
+        <v>170</v>
       </c>
       <c r="C29" s="111">
         <v>200.4</v>
@@ -12754,17 +12712,17 @@
         <f t="shared" si="0"/>
         <v>337074.52000000008</v>
       </c>
-      <c r="I29" s="289" t="s">
-        <v>172</v>
-      </c>
-      <c r="J29" s="290">
+      <c r="I29" s="354" t="s">
+        <v>171</v>
+      </c>
+      <c r="J29" s="38">
         <v>7850</v>
       </c>
-      <c r="K29" s="291">
+      <c r="K29" s="111">
         <v>1624.34</v>
       </c>
-      <c r="L29" s="289" t="s">
-        <v>202</v>
+      <c r="L29" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M29" s="69"/>
       <c r="N29" s="137">
@@ -12773,11 +12731,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="262" t="s">
+      <c r="A30" s="258" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="259" t="s">
         <v>172</v>
-      </c>
-      <c r="B30" s="263" t="s">
-        <v>173</v>
       </c>
       <c r="C30" s="111">
         <v>16436.2</v>
@@ -12789,17 +12747,17 @@
         <v>353510.72000000009</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="292" t="s">
-        <v>174</v>
-      </c>
-      <c r="J30" s="293">
+      <c r="I30" s="354" t="s">
+        <v>173</v>
+      </c>
+      <c r="J30" s="38">
         <v>7855</v>
       </c>
-      <c r="K30" s="294">
+      <c r="K30" s="111">
         <v>1017</v>
       </c>
-      <c r="L30" s="292" t="s">
-        <v>202</v>
+      <c r="L30" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
@@ -12808,11 +12766,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="262" t="s">
+      <c r="A31" s="258" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="259" t="s">
         <v>174</v>
-      </c>
-      <c r="B31" s="263" t="s">
-        <v>175</v>
       </c>
       <c r="C31" s="111">
         <v>5770.5</v>
@@ -12823,17 +12781,17 @@
         <f t="shared" si="0"/>
         <v>359281.22000000009</v>
       </c>
-      <c r="I31" s="292" t="s">
-        <v>177</v>
-      </c>
-      <c r="J31" s="293">
+      <c r="I31" s="354" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" s="38">
         <v>7861</v>
       </c>
-      <c r="K31" s="294">
+      <c r="K31" s="111">
         <v>2570.5</v>
       </c>
-      <c r="L31" s="292" t="s">
-        <v>202</v>
+      <c r="L31" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
@@ -12842,11 +12800,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="262" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" s="263" t="s">
-        <v>176</v>
+      <c r="A32" s="258" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="259" t="s">
+        <v>175</v>
       </c>
       <c r="C32" s="111">
         <v>31786.83</v>
@@ -12857,17 +12815,17 @@
         <f t="shared" si="0"/>
         <v>391068.0500000001</v>
       </c>
-      <c r="I32" s="289" t="s">
-        <v>177</v>
-      </c>
-      <c r="J32" s="290">
+      <c r="I32" s="354" t="s">
+        <v>176</v>
+      </c>
+      <c r="J32" s="38">
         <v>7862</v>
       </c>
-      <c r="K32" s="291">
+      <c r="K32" s="111">
         <v>220</v>
       </c>
-      <c r="L32" s="289" t="s">
-        <v>202</v>
+      <c r="L32" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
@@ -12876,11 +12834,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="262" t="s">
+      <c r="A33" s="258" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="259" t="s">
         <v>177</v>
-      </c>
-      <c r="B33" s="263" t="s">
-        <v>178</v>
       </c>
       <c r="C33" s="111">
         <v>1033.5999999999999</v>
@@ -12891,17 +12849,17 @@
         <f t="shared" si="0"/>
         <v>392101.65000000008</v>
       </c>
-      <c r="I33" s="289" t="s">
-        <v>180</v>
-      </c>
-      <c r="J33" s="290">
+      <c r="I33" s="354" t="s">
+        <v>179</v>
+      </c>
+      <c r="J33" s="38">
         <v>7868</v>
       </c>
-      <c r="K33" s="291">
+      <c r="K33" s="111">
         <v>1057.4000000000001</v>
       </c>
-      <c r="L33" s="289" t="s">
-        <v>202</v>
+      <c r="L33" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
@@ -12910,11 +12868,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="262" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="263" t="s">
-        <v>179</v>
+      <c r="A34" s="258" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="259" t="s">
+        <v>178</v>
       </c>
       <c r="C34" s="111">
         <v>23327.4</v>
@@ -12925,17 +12883,17 @@
         <f t="shared" si="0"/>
         <v>415429.0500000001</v>
       </c>
-      <c r="I34" s="289" t="s">
-        <v>183</v>
-      </c>
-      <c r="J34" s="290">
+      <c r="I34" s="354" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" s="38">
         <v>7874</v>
       </c>
-      <c r="K34" s="291">
+      <c r="K34" s="111">
         <v>2185.46</v>
       </c>
-      <c r="L34" s="289" t="s">
-        <v>202</v>
+      <c r="L34" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
@@ -12944,32 +12902,32 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="262" t="s">
+      <c r="A35" s="258" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="276" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="282" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="283">
+      <c r="C35" s="277">
         <v>9701.98</v>
       </c>
-      <c r="D35" s="284"/>
+      <c r="D35" s="278"/>
       <c r="E35" s="69"/>
       <c r="F35" s="137">
         <f t="shared" si="0"/>
         <v>425131.03000000009</v>
       </c>
-      <c r="I35" s="289" t="s">
-        <v>186</v>
-      </c>
-      <c r="J35" s="290">
+      <c r="I35" s="354" t="s">
+        <v>185</v>
+      </c>
+      <c r="J35" s="38">
         <v>7885</v>
       </c>
-      <c r="K35" s="291">
+      <c r="K35" s="111">
         <v>7065.94</v>
       </c>
-      <c r="L35" s="289" t="s">
-        <v>202</v>
+      <c r="L35" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
@@ -12978,11 +12936,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="262" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="263" t="s">
-        <v>182</v>
+      <c r="A36" s="258" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="259" t="s">
+        <v>181</v>
       </c>
       <c r="C36" s="111">
         <v>19002.599999999999</v>
@@ -12993,21 +12951,21 @@
       <c r="E36" s="69">
         <v>440783.04</v>
       </c>
-      <c r="F36" s="313">
+      <c r="F36" s="294">
         <f t="shared" si="0"/>
         <v>3350.5900000000838</v>
       </c>
-      <c r="I36" s="289" t="s">
-        <v>186</v>
-      </c>
-      <c r="J36" s="290">
+      <c r="I36" s="354" t="s">
+        <v>185</v>
+      </c>
+      <c r="J36" s="38">
         <v>7886</v>
       </c>
-      <c r="K36" s="291">
+      <c r="K36" s="111">
         <v>2509.7199999999998</v>
       </c>
-      <c r="L36" s="289" t="s">
-        <v>202</v>
+      <c r="L36" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
@@ -13016,11 +12974,11 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="262" t="s">
+      <c r="A37" s="258" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="259" t="s">
         <v>183</v>
-      </c>
-      <c r="B37" s="263" t="s">
-        <v>184</v>
       </c>
       <c r="C37" s="111">
         <v>15004.5</v>
@@ -13031,17 +12989,17 @@
         <f t="shared" si="0"/>
         <v>18355.090000000084</v>
       </c>
-      <c r="I37" s="289" t="s">
-        <v>188</v>
-      </c>
-      <c r="J37" s="290">
+      <c r="I37" s="354" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" s="38">
         <v>7894</v>
       </c>
-      <c r="K37" s="291">
+      <c r="K37" s="111">
         <v>6480.14</v>
       </c>
-      <c r="L37" s="289" t="s">
-        <v>202</v>
+      <c r="L37" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M37" s="69"/>
       <c r="N37" s="137">
@@ -13050,11 +13008,11 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="262" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" s="263" t="s">
-        <v>185</v>
+      <c r="A38" s="258" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="259" t="s">
+        <v>184</v>
       </c>
       <c r="C38" s="111">
         <v>11653</v>
@@ -13065,17 +13023,17 @@
         <f t="shared" si="0"/>
         <v>30008.090000000084</v>
       </c>
-      <c r="I38" s="292" t="s">
-        <v>191</v>
-      </c>
-      <c r="J38" s="293">
+      <c r="I38" s="354" t="s">
+        <v>190</v>
+      </c>
+      <c r="J38" s="38">
         <v>7902</v>
       </c>
-      <c r="K38" s="294">
+      <c r="K38" s="111">
         <v>14917</v>
       </c>
-      <c r="L38" s="292" t="s">
-        <v>202</v>
+      <c r="L38" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M38" s="69"/>
       <c r="N38" s="137">
@@ -13084,11 +13042,11 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="262" t="s">
+      <c r="A39" s="258" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="259" t="s">
         <v>186</v>
-      </c>
-      <c r="B39" s="263" t="s">
-        <v>187</v>
       </c>
       <c r="C39" s="111">
         <v>13564.4</v>
@@ -13099,17 +13057,17 @@
         <f t="shared" si="0"/>
         <v>43572.490000000085</v>
       </c>
-      <c r="I39" s="289" t="s">
-        <v>191</v>
-      </c>
-      <c r="J39" s="290">
+      <c r="I39" s="354" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39" s="38">
         <v>7904</v>
       </c>
-      <c r="K39" s="291">
+      <c r="K39" s="111">
         <v>23258.400000000001</v>
       </c>
-      <c r="L39" s="289" t="s">
-        <v>202</v>
+      <c r="L39" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M39" s="69"/>
       <c r="N39" s="137">
@@ -13118,11 +13076,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="262" t="s">
+      <c r="A40" s="258" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="259" t="s">
         <v>188</v>
-      </c>
-      <c r="B40" s="263" t="s">
-        <v>189</v>
       </c>
       <c r="C40" s="111">
         <v>23352.1</v>
@@ -13133,17 +13091,17 @@
         <f t="shared" si="0"/>
         <v>66924.590000000084</v>
       </c>
-      <c r="I40" s="292" t="s">
-        <v>193</v>
-      </c>
-      <c r="J40" s="293">
+      <c r="I40" s="354" t="s">
+        <v>192</v>
+      </c>
+      <c r="J40" s="38">
         <v>7909</v>
       </c>
-      <c r="K40" s="294">
+      <c r="K40" s="111">
         <v>4062.48</v>
       </c>
-      <c r="L40" s="292" t="s">
-        <v>202</v>
+      <c r="L40" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M40" s="69"/>
       <c r="N40" s="137">
@@ -13152,11 +13110,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="262" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="263" t="s">
-        <v>190</v>
+      <c r="A41" s="258" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="259" t="s">
+        <v>189</v>
       </c>
       <c r="C41" s="111">
         <v>1062.5999999999999</v>
@@ -13167,17 +13125,17 @@
         <f t="shared" si="0"/>
         <v>67987.19000000009</v>
       </c>
-      <c r="I41" s="292" t="s">
-        <v>196</v>
-      </c>
-      <c r="J41" s="293">
+      <c r="I41" s="354" t="s">
+        <v>195</v>
+      </c>
+      <c r="J41" s="38">
         <v>7918</v>
       </c>
-      <c r="K41" s="294">
+      <c r="K41" s="111">
         <v>2667.28</v>
       </c>
-      <c r="L41" s="292" t="s">
-        <v>202</v>
+      <c r="L41" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M41" s="69"/>
       <c r="N41" s="137">
@@ -13186,11 +13144,11 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="262" t="s">
+      <c r="A42" s="258" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="259" t="s">
         <v>191</v>
-      </c>
-      <c r="B42" s="263" t="s">
-        <v>192</v>
       </c>
       <c r="C42" s="111">
         <v>23716.9</v>
@@ -13201,17 +13159,17 @@
         <f t="shared" si="0"/>
         <v>91704.090000000084</v>
       </c>
-      <c r="I42" s="289" t="s">
-        <v>196</v>
-      </c>
-      <c r="J42" s="290">
+      <c r="I42" s="354" t="s">
+        <v>195</v>
+      </c>
+      <c r="J42" s="38">
         <v>7920</v>
       </c>
-      <c r="K42" s="291">
+      <c r="K42" s="111">
         <v>19440.8</v>
       </c>
-      <c r="L42" s="289" t="s">
-        <v>202</v>
+      <c r="L42" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M42" s="69"/>
       <c r="N42" s="137">
@@ -13220,11 +13178,11 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="262" t="s">
+      <c r="A43" s="258" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="259" t="s">
         <v>193</v>
-      </c>
-      <c r="B43" s="263" t="s">
-        <v>194</v>
       </c>
       <c r="C43" s="111">
         <v>0</v>
@@ -13235,17 +13193,17 @@
         <f t="shared" si="0"/>
         <v>91704.090000000084</v>
       </c>
-      <c r="I43" s="289" t="s">
-        <v>196</v>
-      </c>
-      <c r="J43" s="290">
+      <c r="I43" s="354" t="s">
+        <v>195</v>
+      </c>
+      <c r="J43" s="38">
         <v>7925</v>
       </c>
-      <c r="K43" s="291">
+      <c r="K43" s="111">
         <v>803.24</v>
       </c>
-      <c r="L43" s="289" t="s">
-        <v>202</v>
+      <c r="L43" s="354" t="s">
+        <v>201</v>
       </c>
       <c r="M43" s="69"/>
       <c r="N43" s="137">
@@ -13254,11 +13212,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="262" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" s="263" t="s">
-        <v>195</v>
+      <c r="A44" s="258" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="259" t="s">
+        <v>194</v>
       </c>
       <c r="C44" s="111">
         <v>22472</v>
@@ -13269,26 +13227,26 @@
         <f t="shared" si="0"/>
         <v>114176.09000000008</v>
       </c>
-      <c r="I44" s="233"/>
-      <c r="J44" s="234"/>
-      <c r="K44" s="236"/>
-      <c r="L44" s="314">
+      <c r="I44" s="232"/>
+      <c r="J44" s="233"/>
+      <c r="K44" s="235"/>
+      <c r="L44" s="295">
         <v>44536</v>
       </c>
-      <c r="M44" s="315">
+      <c r="M44" s="296">
         <v>163925.34</v>
       </c>
-      <c r="N44" s="313">
+      <c r="N44" s="294">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="262" t="s">
+      <c r="A45" s="258" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="57" t="s">
         <v>196</v>
-      </c>
-      <c r="B45" s="57" t="s">
-        <v>197</v>
       </c>
       <c r="C45" s="111">
         <v>77166.05</v>
@@ -13299,9 +13257,9 @@
         <f t="shared" si="0"/>
         <v>191342.14000000007</v>
       </c>
-      <c r="I45" s="233"/>
-      <c r="J45" s="234"/>
-      <c r="K45" s="235"/>
+      <c r="I45" s="232"/>
+      <c r="J45" s="233"/>
+      <c r="K45" s="234"/>
       <c r="L45" s="140"/>
       <c r="M45" s="69"/>
       <c r="N45" s="137">
@@ -13310,13 +13268,13 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="262" t="s">
-        <v>196</v>
+      <c r="A46" s="258" t="s">
+        <v>195</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="259">
+        <v>197</v>
+      </c>
+      <c r="C46" s="256">
         <v>104.4</v>
       </c>
       <c r="D46" s="140"/>
@@ -13325,9 +13283,9 @@
         <f t="shared" si="0"/>
         <v>191446.54000000007</v>
       </c>
-      <c r="I46" s="233"/>
-      <c r="J46" s="234"/>
-      <c r="K46" s="235"/>
+      <c r="I46" s="232"/>
+      <c r="J46" s="233"/>
+      <c r="K46" s="234"/>
       <c r="L46" s="140"/>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
@@ -13336,13 +13294,13 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="262" t="s">
-        <v>196</v>
+      <c r="A47" s="258" t="s">
+        <v>195</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="C47" s="259">
+        <v>198</v>
+      </c>
+      <c r="C47" s="256">
         <v>702</v>
       </c>
       <c r="D47" s="140"/>
@@ -13351,9 +13309,9 @@
         <f t="shared" si="0"/>
         <v>192148.54000000007</v>
       </c>
-      <c r="I47" s="233"/>
-      <c r="J47" s="234"/>
-      <c r="K47" s="235"/>
+      <c r="I47" s="232"/>
+      <c r="J47" s="233"/>
+      <c r="K47" s="234"/>
       <c r="L47" s="140"/>
       <c r="M47" s="69"/>
       <c r="N47" s="137">
@@ -13362,13 +13320,13 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="258">
+      <c r="A48" s="255">
         <v>44534</v>
       </c>
-      <c r="B48" s="257" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="261">
+      <c r="B48" s="254" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="257">
         <v>73956.800000000003</v>
       </c>
       <c r="D48" s="140"/>
@@ -13377,9 +13335,9 @@
         <f t="shared" si="0"/>
         <v>266105.34000000008</v>
       </c>
-      <c r="I48" s="233"/>
-      <c r="J48" s="234"/>
-      <c r="K48" s="235"/>
+      <c r="I48" s="232"/>
+      <c r="J48" s="233"/>
+      <c r="K48" s="234"/>
       <c r="L48" s="140"/>
       <c r="M48" s="69"/>
       <c r="N48" s="137">
@@ -13390,16 +13348,16 @@
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="140"/>
       <c r="B49" s="139"/>
-      <c r="C49" s="229"/>
+      <c r="C49" s="228"/>
       <c r="D49" s="140"/>
       <c r="E49" s="69"/>
       <c r="F49" s="137">
         <f t="shared" si="0"/>
         <v>266105.34000000008</v>
       </c>
-      <c r="I49" s="233"/>
-      <c r="J49" s="234"/>
-      <c r="K49" s="235"/>
+      <c r="I49" s="232"/>
+      <c r="J49" s="233"/>
+      <c r="K49" s="234"/>
       <c r="L49" s="140"/>
       <c r="M49" s="69"/>
       <c r="N49" s="137">
@@ -14109,7 +14067,7 @@
     </row>
     <row r="85" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="149"/>
-      <c r="B85" s="224"/>
+      <c r="B85" s="223"/>
       <c r="C85" s="34">
         <v>0</v>
       </c>
@@ -14132,41 +14090,35 @@
       </c>
     </row>
     <row r="86" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B86" s="225"/>
-      <c r="C86" s="226">
+      <c r="B86" s="224"/>
+      <c r="C86" s="225">
         <f>SUM(C3:C85)</f>
         <v>706888.38000000012</v>
       </c>
       <c r="D86" s="97"/>
-      <c r="E86" s="1">
-        <f>SUM(E3:E85)</f>
-        <v>440783.04</v>
-      </c>
+      <c r="E86" s="1"/>
       <c r="F86" s="153">
         <f>F85</f>
         <v>266105.34000000008</v>
       </c>
-      <c r="K86" s="223">
+      <c r="K86" s="222">
         <f>SUM(K3:K85)</f>
         <v>164725.34</v>
       </c>
       <c r="L86" s="97"/>
-      <c r="M86" s="1">
-        <f>SUM(M3:M85)</f>
-        <v>164725.34</v>
-      </c>
+      <c r="M86" s="1"/>
       <c r="N86" s="153">
         <f>N85</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="227"/>
-      <c r="C87" s="228"/>
+      <c r="B87" s="226"/>
+      <c r="C87" s="227"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="382" t="s">
-        <v>214</v>
+      <c r="F87" s="344" t="s">
+        <v>213</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="97"/>
@@ -14178,7 +14130,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="383"/>
+      <c r="F88" s="345"/>
       <c r="K88" s="1"/>
       <c r="L88" s="97"/>
       <c r="M88" s="3"/>
@@ -14189,7 +14141,7 @@
       <c r="B89" s="23"/>
       <c r="D89" s="23"/>
       <c r="I89"/>
-      <c r="J89" s="208"/>
+      <c r="J89" s="207"/>
       <c r="L89" s="23"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -14197,7 +14149,7 @@
       <c r="B90" s="23"/>
       <c r="D90" s="23"/>
       <c r="I90"/>
-      <c r="J90" s="208"/>
+      <c r="J90" s="207"/>
       <c r="L90" s="23"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -14205,7 +14157,7 @@
       <c r="B91" s="23"/>
       <c r="D91" s="23"/>
       <c r="I91"/>
-      <c r="J91" s="208"/>
+      <c r="J91" s="207"/>
       <c r="L91" s="23"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -14214,7 +14166,7 @@
       <c r="D92" s="23"/>
       <c r="F92"/>
       <c r="I92"/>
-      <c r="J92" s="208"/>
+      <c r="J92" s="207"/>
       <c r="L92" s="23"/>
       <c r="N92"/>
     </row>
@@ -14224,7 +14176,7 @@
       <c r="D93" s="23"/>
       <c r="F93"/>
       <c r="I93"/>
-      <c r="J93" s="208"/>
+      <c r="J93" s="207"/>
       <c r="L93" s="23"/>
       <c r="N93"/>
     </row>
@@ -14234,7 +14186,7 @@
       <c r="D94" s="23"/>
       <c r="F94"/>
       <c r="I94"/>
-      <c r="J94" s="208"/>
+      <c r="J94" s="207"/>
       <c r="L94" s="23"/>
       <c r="N94"/>
     </row>
@@ -14244,7 +14196,7 @@
       <c r="D95" s="23"/>
       <c r="F95"/>
       <c r="I95"/>
-      <c r="J95" s="208"/>
+      <c r="J95" s="207"/>
       <c r="L95" s="23"/>
       <c r="N95"/>
     </row>
@@ -14254,7 +14206,7 @@
       <c r="D96" s="23"/>
       <c r="F96"/>
       <c r="I96"/>
-      <c r="J96" s="208"/>
+      <c r="J96" s="207"/>
       <c r="L96" s="23"/>
       <c r="N96"/>
     </row>
@@ -14264,7 +14216,7 @@
       <c r="D97" s="23"/>
       <c r="F97"/>
       <c r="I97"/>
-      <c r="J97" s="208"/>
+      <c r="J97" s="207"/>
       <c r="L97" s="23"/>
       <c r="N97"/>
     </row>
@@ -14274,7 +14226,7 @@
       <c r="D98" s="23"/>
       <c r="F98"/>
       <c r="I98"/>
-      <c r="J98" s="208"/>
+      <c r="J98" s="207"/>
       <c r="L98" s="23"/>
       <c r="N98"/>
     </row>
@@ -14284,7 +14236,7 @@
       <c r="D99" s="23"/>
       <c r="F99"/>
       <c r="I99"/>
-      <c r="J99" s="208"/>
+      <c r="J99" s="207"/>
       <c r="L99" s="23"/>
       <c r="N99"/>
     </row>
@@ -14294,7 +14246,7 @@
       <c r="D100" s="23"/>
       <c r="F100"/>
       <c r="I100"/>
-      <c r="J100" s="208"/>
+      <c r="J100" s="207"/>
       <c r="L100" s="23"/>
       <c r="N100"/>
     </row>
@@ -14305,7 +14257,7 @@
       <c r="E101"/>
       <c r="F101"/>
       <c r="I101"/>
-      <c r="J101" s="208"/>
+      <c r="J101" s="207"/>
       <c r="L101" s="23"/>
       <c r="M101"/>
       <c r="N101"/>
@@ -14317,7 +14269,7 @@
       <c r="E102"/>
       <c r="F102"/>
       <c r="I102"/>
-      <c r="J102" s="208"/>
+      <c r="J102" s="207"/>
       <c r="L102" s="23"/>
       <c r="M102"/>
       <c r="N102"/>
@@ -14329,7 +14281,7 @@
       <c r="E103"/>
       <c r="F103"/>
       <c r="I103"/>
-      <c r="J103" s="208"/>
+      <c r="J103" s="207"/>
       <c r="L103" s="23"/>
       <c r="M103"/>
       <c r="N103"/>
@@ -14341,7 +14293,7 @@
       <c r="E104"/>
       <c r="F104"/>
       <c r="I104"/>
-      <c r="J104" s="208"/>
+      <c r="J104" s="207"/>
       <c r="L104" s="23"/>
       <c r="M104"/>
       <c r="N104"/>
@@ -14353,7 +14305,7 @@
       <c r="E105"/>
       <c r="F105"/>
       <c r="I105"/>
-      <c r="J105" s="208"/>
+      <c r="J105" s="207"/>
       <c r="L105" s="23"/>
       <c r="M105"/>
       <c r="N105"/>
@@ -14365,7 +14317,7 @@
       <c r="E106"/>
       <c r="F106"/>
       <c r="I106"/>
-      <c r="J106" s="208"/>
+      <c r="J106" s="207"/>
       <c r="L106" s="23"/>
       <c r="M106"/>
       <c r="N106"/>
@@ -14374,7 +14326,7 @@
       <c r="B107" s="23"/>
       <c r="D107" s="23"/>
       <c r="E107"/>
-      <c r="J107" s="208"/>
+      <c r="J107" s="207"/>
       <c r="L107" s="23"/>
       <c r="M107"/>
     </row>
@@ -14382,7 +14334,7 @@
       <c r="B108" s="23"/>
       <c r="D108" s="23"/>
       <c r="E108"/>
-      <c r="J108" s="208"/>
+      <c r="J108" s="207"/>
       <c r="L108" s="23"/>
       <c r="M108"/>
     </row>
@@ -14390,7 +14342,7 @@
       <c r="B109" s="23"/>
       <c r="D109" s="23"/>
       <c r="E109"/>
-      <c r="J109" s="208"/>
+      <c r="J109" s="207"/>
       <c r="L109" s="23"/>
       <c r="M109"/>
     </row>
@@ -14398,7 +14350,7 @@
       <c r="B110" s="23"/>
       <c r="D110" s="23"/>
       <c r="E110"/>
-      <c r="J110" s="208"/>
+      <c r="J110" s="207"/>
       <c r="L110" s="23"/>
       <c r="M110"/>
     </row>
@@ -14406,7 +14358,7 @@
       <c r="B111" s="23"/>
       <c r="D111" s="23"/>
       <c r="E111"/>
-      <c r="J111" s="208"/>
+      <c r="J111" s="207"/>
       <c r="L111" s="23"/>
       <c r="M111"/>
     </row>
@@ -14414,7 +14366,7 @@
       <c r="B112" s="23"/>
       <c r="D112" s="23"/>
       <c r="E112"/>
-      <c r="J112" s="208"/>
+      <c r="J112" s="207"/>
       <c r="L112" s="23"/>
       <c r="M112"/>
     </row>
@@ -14422,7 +14374,7 @@
       <c r="B113" s="23"/>
       <c r="D113" s="23"/>
       <c r="E113"/>
-      <c r="J113" s="208"/>
+      <c r="J113" s="207"/>
       <c r="L113" s="23"/>
       <c r="M113"/>
     </row>
@@ -14430,7 +14382,7 @@
       <c r="B114" s="23"/>
       <c r="D114" s="23"/>
       <c r="E114"/>
-      <c r="J114" s="208"/>
+      <c r="J114" s="207"/>
       <c r="L114" s="23"/>
       <c r="M114"/>
     </row>
@@ -14438,35 +14390,35 @@
       <c r="B115" s="23"/>
       <c r="D115" s="23"/>
       <c r="E115"/>
-      <c r="J115" s="208"/>
+      <c r="J115" s="207"/>
       <c r="L115" s="23"/>
       <c r="M115"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="23"/>
-      <c r="J116" s="208"/>
+      <c r="J116" s="207"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="23"/>
-      <c r="J117" s="208"/>
+      <c r="J117" s="207"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="23"/>
       <c r="D118" s="23"/>
-      <c r="J118" s="208"/>
+      <c r="J118" s="207"/>
       <c r="L118" s="23"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="23"/>
-      <c r="J119" s="208"/>
+      <c r="J119" s="207"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="23"/>
-      <c r="J120" s="208"/>
+      <c r="J120" s="207"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="23"/>
-      <c r="J121" s="208"/>
+      <c r="J121" s="207"/>
     </row>
     <row r="122" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C122" s="154"/>
@@ -14476,8 +14428,8 @@
   <mergeCells count="1">
     <mergeCell ref="F87:F88"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14540,12 +14492,12 @@
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="155"/>
-      <c r="B43" s="384" t="s">
+      <c r="B43" s="346" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="385"/>
-      <c r="D43" s="385"/>
-      <c r="E43" s="386"/>
+      <c r="C43" s="347"/>
+      <c r="D43" s="347"/>
+      <c r="E43" s="348"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/BALANCE    ZAVALETA   NOVIEMBRE    2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="0" windowWidth="16335" windowHeight="11070" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="4035" yWindow="0" windowWidth="16335" windowHeight="11070" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="220">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -807,6 +807,12 @@
   </si>
   <si>
     <t>NOTA:  FALTA REGISTRO DE OTRAS COMPRAS</t>
+  </si>
+  <si>
+    <t>C-3948</t>
+  </si>
+  <si>
+    <t>C-3929</t>
   </si>
 </sst>
 </file>
@@ -2333,7 +2339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="399">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2838,14 +2844,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2934,159 +2933,6 @@
     <xf numFmtId="165" fontId="2" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3145,64 +2991,227 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4378,23 +4387,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="322"/>
-      <c r="C1" s="324" t="s">
+      <c r="B1" s="329"/>
+      <c r="C1" s="331" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="323"/>
+      <c r="B2" s="330"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4404,17 +4413,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="326" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="327"/>
+      <c r="B3" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="334"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="328" t="s">
+      <c r="H3" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="328"/>
+      <c r="I3" s="335"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -4428,14 +4437,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="336" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="H4" s="331" t="s">
+      <c r="F4" s="337"/>
+      <c r="H4" s="338" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="332"/>
+      <c r="I4" s="339"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -4445,10 +4454,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="303" t="s">
+      <c r="P4" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="304"/>
+      <c r="Q4" s="346"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -5889,11 +5898,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="305">
+      <c r="M39" s="347">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="307">
+      <c r="N39" s="349">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -5919,8 +5928,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="306"/>
-      <c r="N40" s="308"/>
+      <c r="M40" s="348"/>
+      <c r="N40" s="350"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -6135,29 +6144,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="309" t="s">
+      <c r="H52" s="351" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="310"/>
+      <c r="I52" s="352"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="311">
+      <c r="K52" s="353">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="312"/>
-      <c r="M52" s="313">
+      <c r="L52" s="354"/>
+      <c r="M52" s="355">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="314"/>
+      <c r="N52" s="356"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="315" t="s">
+      <c r="D53" s="357" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="315"/>
+      <c r="E53" s="357"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -6168,22 +6177,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="315" t="s">
+      <c r="D54" s="357" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="315"/>
+      <c r="E54" s="357"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="316" t="s">
+      <c r="I54" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="317"/>
-      <c r="K54" s="318">
+      <c r="J54" s="359"/>
+      <c r="K54" s="360">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="319"/>
+      <c r="L54" s="361"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6216,11 +6225,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="320">
+      <c r="K56" s="362">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="321"/>
+      <c r="L56" s="363"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -6237,22 +6246,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="298" t="s">
+      <c r="D58" s="340" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="299"/>
+      <c r="E58" s="341"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="300" t="s">
+      <c r="I58" s="342" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="301"/>
-      <c r="K58" s="302">
+      <c r="J58" s="343"/>
+      <c r="K58" s="344">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="302"/>
+      <c r="L58" s="344"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -6396,12 +6405,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -6416,6 +6419,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6447,7 +6456,7 @@
     <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="270" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="267" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -6468,7 +6477,7 @@
       </c>
       <c r="J1" s="206"/>
       <c r="K1" s="201"/>
-      <c r="L1" s="264"/>
+      <c r="L1" s="261"/>
       <c r="M1" s="201"/>
       <c r="N1" s="169" t="s">
         <v>31</v>
@@ -6502,7 +6511,7 @@
       <c r="K2" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="265" t="s">
+      <c r="L2" s="262" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="132" t="s">
@@ -6537,7 +6546,7 @@
       <c r="K3" s="209">
         <v>19269</v>
       </c>
-      <c r="L3" s="271">
+      <c r="L3" s="268">
         <v>44498</v>
       </c>
       <c r="M3" s="69">
@@ -6574,7 +6583,7 @@
       <c r="K4" s="209">
         <v>25542</v>
       </c>
-      <c r="L4" s="272">
+      <c r="L4" s="269">
         <v>44498</v>
       </c>
       <c r="M4" s="69">
@@ -6610,7 +6619,7 @@
       <c r="K5" s="209">
         <v>10208</v>
       </c>
-      <c r="L5" s="273">
+      <c r="L5" s="270">
         <v>44498</v>
       </c>
       <c r="M5" s="69">
@@ -6958,7 +6967,7 @@
       <c r="E16" s="69">
         <v>145000</v>
       </c>
-      <c r="F16" s="279">
+      <c r="F16" s="276">
         <f t="shared" si="0"/>
         <v>146930.89999999991</v>
       </c>
@@ -6971,7 +6980,7 @@
       <c r="K16" s="209">
         <v>6297</v>
       </c>
-      <c r="L16" s="266"/>
+      <c r="L16" s="263"/>
       <c r="M16" s="69"/>
       <c r="N16" s="137">
         <f t="shared" si="1"/>
@@ -7003,7 +7012,7 @@
       <c r="K17" s="209">
         <v>12350</v>
       </c>
-      <c r="L17" s="266"/>
+      <c r="L17" s="263"/>
       <c r="M17" s="69"/>
       <c r="N17" s="137">
         <f t="shared" si="1"/>
@@ -7035,7 +7044,7 @@
       <c r="K18" s="209">
         <v>5444</v>
       </c>
-      <c r="L18" s="266"/>
+      <c r="L18" s="263"/>
       <c r="M18" s="69"/>
       <c r="N18" s="137">
         <f t="shared" si="1"/>
@@ -7067,7 +7076,7 @@
       <c r="K19" s="209">
         <v>1717</v>
       </c>
-      <c r="L19" s="266"/>
+      <c r="L19" s="263"/>
       <c r="M19" s="69"/>
       <c r="N19" s="137">
         <f t="shared" si="1"/>
@@ -7099,7 +7108,7 @@
       <c r="K20" s="209">
         <v>16136</v>
       </c>
-      <c r="L20" s="266"/>
+      <c r="L20" s="263"/>
       <c r="M20" s="69"/>
       <c r="N20" s="137">
         <f t="shared" si="1"/>
@@ -7131,7 +7140,7 @@
       <c r="K21" s="209">
         <v>9256</v>
       </c>
-      <c r="L21" s="266"/>
+      <c r="L21" s="263"/>
       <c r="M21" s="69"/>
       <c r="N21" s="137">
         <f t="shared" si="1"/>
@@ -7164,7 +7173,7 @@
       <c r="K22" s="209">
         <v>5500</v>
       </c>
-      <c r="L22" s="266"/>
+      <c r="L22" s="263"/>
       <c r="M22" s="69"/>
       <c r="N22" s="137">
         <f t="shared" si="1"/>
@@ -7196,7 +7205,7 @@
       <c r="K23" s="209">
         <v>1331</v>
       </c>
-      <c r="L23" s="266"/>
+      <c r="L23" s="263"/>
       <c r="M23" s="69"/>
       <c r="N23" s="137">
         <f t="shared" si="1"/>
@@ -7228,7 +7237,7 @@
       <c r="K24" s="209">
         <v>420</v>
       </c>
-      <c r="L24" s="266"/>
+      <c r="L24" s="263"/>
       <c r="M24" s="69"/>
       <c r="N24" s="137">
         <f t="shared" si="1"/>
@@ -7260,7 +7269,7 @@
       <c r="K25" s="209">
         <v>770</v>
       </c>
-      <c r="L25" s="266"/>
+      <c r="L25" s="263"/>
       <c r="M25" s="69"/>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
@@ -7292,7 +7301,7 @@
       <c r="K26" s="209">
         <v>2257</v>
       </c>
-      <c r="L26" s="266"/>
+      <c r="L26" s="263"/>
       <c r="M26" s="69"/>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
@@ -7324,7 +7333,7 @@
       <c r="K27" s="209">
         <v>60</v>
       </c>
-      <c r="L27" s="266"/>
+      <c r="L27" s="263"/>
       <c r="M27" s="69"/>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
@@ -7356,7 +7365,7 @@
       <c r="K28" s="209">
         <v>39533</v>
       </c>
-      <c r="L28" s="266"/>
+      <c r="L28" s="263"/>
       <c r="M28" s="69"/>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
@@ -7388,7 +7397,7 @@
       <c r="K29" s="209">
         <v>3727</v>
       </c>
-      <c r="L29" s="266"/>
+      <c r="L29" s="263"/>
       <c r="M29" s="69"/>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
@@ -7421,7 +7430,7 @@
       <c r="K30" s="234">
         <v>3861</v>
       </c>
-      <c r="L30" s="266"/>
+      <c r="L30" s="263"/>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
@@ -7453,7 +7462,7 @@
       <c r="K31" s="209">
         <v>24825</v>
       </c>
-      <c r="L31" s="266"/>
+      <c r="L31" s="263"/>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
         <f t="shared" si="1"/>
@@ -7485,7 +7494,7 @@
       <c r="K32" s="209">
         <v>614</v>
       </c>
-      <c r="L32" s="266"/>
+      <c r="L32" s="263"/>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
@@ -7517,7 +7526,7 @@
       <c r="K33" s="209">
         <v>2901</v>
       </c>
-      <c r="L33" s="266"/>
+      <c r="L33" s="263"/>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
@@ -7549,7 +7558,7 @@
       <c r="K34" s="209">
         <v>2623</v>
       </c>
-      <c r="L34" s="266"/>
+      <c r="L34" s="263"/>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
@@ -7581,7 +7590,7 @@
       <c r="K35" s="209">
         <v>740</v>
       </c>
-      <c r="L35" s="266"/>
+      <c r="L35" s="263"/>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
@@ -7613,7 +7622,7 @@
       <c r="K36" s="234">
         <v>1189</v>
       </c>
-      <c r="L36" s="266"/>
+      <c r="L36" s="263"/>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
@@ -7645,7 +7654,7 @@
       <c r="K37" s="209">
         <v>6711</v>
       </c>
-      <c r="L37" s="266"/>
+      <c r="L37" s="263"/>
       <c r="M37" s="69"/>
       <c r="N37" s="137">
         <f t="shared" si="1"/>
@@ -7677,7 +7686,7 @@
       <c r="K38" s="209">
         <v>71111</v>
       </c>
-      <c r="L38" s="266"/>
+      <c r="L38" s="263"/>
       <c r="M38" s="69"/>
       <c r="N38" s="137">
         <f t="shared" si="1"/>
@@ -7709,7 +7718,7 @@
       <c r="K39" s="209">
         <v>13525</v>
       </c>
-      <c r="L39" s="266"/>
+      <c r="L39" s="263"/>
       <c r="M39" s="69"/>
       <c r="N39" s="137">
         <f t="shared" si="1"/>
@@ -7745,7 +7754,7 @@
       <c r="K40" s="209">
         <v>7227</v>
       </c>
-      <c r="L40" s="266"/>
+      <c r="L40" s="263"/>
       <c r="M40" s="69"/>
       <c r="N40" s="137">
         <f t="shared" si="1"/>
@@ -7756,7 +7765,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="333" t="s">
+      <c r="B41" s="364" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="203">
@@ -7777,7 +7786,7 @@
       <c r="K41" s="209">
         <v>2618</v>
       </c>
-      <c r="L41" s="266"/>
+      <c r="L41" s="263"/>
       <c r="M41" s="69"/>
       <c r="N41" s="137">
         <f t="shared" si="1"/>
@@ -7788,7 +7797,7 @@
       <c r="A42" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="334"/>
+      <c r="B42" s="365"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -7807,7 +7816,7 @@
       <c r="K42" s="209">
         <v>8371</v>
       </c>
-      <c r="L42" s="266"/>
+      <c r="L42" s="263"/>
       <c r="M42" s="69"/>
       <c r="N42" s="137">
         <f t="shared" si="1"/>
@@ -7816,7 +7825,7 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="140"/>
-      <c r="B43" s="293">
+      <c r="B43" s="290">
         <v>4472.5600000000004</v>
       </c>
       <c r="C43" s="69"/>
@@ -7835,7 +7844,7 @@
       <c r="K43" s="209">
         <v>753</v>
       </c>
-      <c r="L43" s="266"/>
+      <c r="L43" s="263"/>
       <c r="M43" s="69"/>
       <c r="N43" s="137">
         <f t="shared" si="1"/>
@@ -7861,7 +7870,7 @@
       <c r="K44" s="211">
         <v>0</v>
       </c>
-      <c r="L44" s="266"/>
+      <c r="L44" s="263"/>
       <c r="M44" s="69"/>
       <c r="N44" s="137">
         <f t="shared" si="1"/>
@@ -7887,7 +7896,7 @@
       <c r="K45" s="209">
         <v>5240</v>
       </c>
-      <c r="L45" s="266"/>
+      <c r="L45" s="263"/>
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
@@ -7913,7 +7922,7 @@
       <c r="K46" s="209">
         <v>15576</v>
       </c>
-      <c r="L46" s="266"/>
+      <c r="L46" s="263"/>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
@@ -7939,7 +7948,7 @@
       <c r="K47" s="209">
         <v>739</v>
       </c>
-      <c r="L47" s="266"/>
+      <c r="L47" s="263"/>
       <c r="M47" s="69"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
@@ -7965,7 +7974,7 @@
       <c r="K48" s="209">
         <v>623</v>
       </c>
-      <c r="L48" s="266"/>
+      <c r="L48" s="263"/>
       <c r="M48" s="69"/>
       <c r="N48" s="137">
         <f t="shared" si="1"/>
@@ -7991,7 +8000,7 @@
       <c r="K49" s="209">
         <v>2636</v>
       </c>
-      <c r="L49" s="266"/>
+      <c r="L49" s="263"/>
       <c r="M49" s="69"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -8017,7 +8026,7 @@
       <c r="K50" s="209">
         <v>120</v>
       </c>
-      <c r="L50" s="266"/>
+      <c r="L50" s="263"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
@@ -8043,7 +8052,7 @@
       <c r="K51" s="209">
         <v>14669</v>
       </c>
-      <c r="L51" s="266"/>
+      <c r="L51" s="263"/>
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
@@ -8069,7 +8078,7 @@
       <c r="K52" s="209">
         <v>2897</v>
       </c>
-      <c r="L52" s="266"/>
+      <c r="L52" s="263"/>
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
@@ -8095,7 +8104,7 @@
       <c r="K53" s="209">
         <v>360</v>
       </c>
-      <c r="L53" s="266"/>
+      <c r="L53" s="263"/>
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
@@ -8121,7 +8130,7 @@
       <c r="K54" s="209">
         <v>4820</v>
       </c>
-      <c r="L54" s="266"/>
+      <c r="L54" s="263"/>
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
@@ -8147,7 +8156,7 @@
       <c r="K55" s="209">
         <v>4925</v>
       </c>
-      <c r="L55" s="266"/>
+      <c r="L55" s="263"/>
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
@@ -8173,7 +8182,7 @@
       <c r="K56" s="209">
         <v>5</v>
       </c>
-      <c r="L56" s="266"/>
+      <c r="L56" s="263"/>
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
@@ -8199,7 +8208,7 @@
       <c r="K57" s="209">
         <v>6665</v>
       </c>
-      <c r="L57" s="266"/>
+      <c r="L57" s="263"/>
       <c r="M57" s="69"/>
       <c r="N57" s="137">
         <f t="shared" si="1"/>
@@ -8225,7 +8234,7 @@
       <c r="K58" s="209">
         <v>646</v>
       </c>
-      <c r="L58" s="266"/>
+      <c r="L58" s="263"/>
       <c r="M58" s="69"/>
       <c r="N58" s="137">
         <f t="shared" si="1"/>
@@ -8251,7 +8260,7 @@
       <c r="K59" s="211">
         <v>0</v>
       </c>
-      <c r="L59" s="266"/>
+      <c r="L59" s="263"/>
       <c r="M59" s="69"/>
       <c r="N59" s="137">
         <f t="shared" si="1"/>
@@ -8273,13 +8282,13 @@
         <v>34125.46</v>
       </c>
       <c r="K60" s="69"/>
-      <c r="L60" s="297">
+      <c r="L60" s="294">
         <v>44533</v>
       </c>
-      <c r="M60" s="296">
+      <c r="M60" s="293">
         <v>547154.42000000004</v>
       </c>
-      <c r="N60" s="294">
+      <c r="N60" s="291">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8297,7 +8306,7 @@
       <c r="I61" s="134"/>
       <c r="J61" s="139"/>
       <c r="K61" s="69"/>
-      <c r="L61" s="266"/>
+      <c r="L61" s="263"/>
       <c r="M61" s="69"/>
       <c r="N61" s="137">
         <f t="shared" si="1"/>
@@ -8317,7 +8326,7 @@
       <c r="I62" s="134"/>
       <c r="J62" s="139"/>
       <c r="K62" s="69"/>
-      <c r="L62" s="266"/>
+      <c r="L62" s="263"/>
       <c r="M62" s="69"/>
       <c r="N62" s="137">
         <f t="shared" si="1"/>
@@ -8337,7 +8346,7 @@
       <c r="I63" s="141"/>
       <c r="J63" s="142"/>
       <c r="K63" s="143"/>
-      <c r="L63" s="266"/>
+      <c r="L63" s="263"/>
       <c r="M63" s="69"/>
       <c r="N63" s="137">
         <f t="shared" si="1"/>
@@ -8357,7 +8366,7 @@
       <c r="I64" s="141"/>
       <c r="J64" s="142"/>
       <c r="K64" s="143"/>
-      <c r="L64" s="266"/>
+      <c r="L64" s="263"/>
       <c r="M64" s="69"/>
       <c r="N64" s="137">
         <f t="shared" si="1"/>
@@ -8377,7 +8386,7 @@
       <c r="I65" s="141"/>
       <c r="J65" s="142"/>
       <c r="K65" s="143"/>
-      <c r="L65" s="266"/>
+      <c r="L65" s="263"/>
       <c r="M65" s="69"/>
       <c r="N65" s="137">
         <f t="shared" si="1"/>
@@ -8397,7 +8406,7 @@
       <c r="I66" s="141"/>
       <c r="J66" s="142"/>
       <c r="K66" s="143"/>
-      <c r="L66" s="266"/>
+      <c r="L66" s="263"/>
       <c r="M66" s="69"/>
       <c r="N66" s="137">
         <f t="shared" si="1"/>
@@ -8417,7 +8426,7 @@
       <c r="I67" s="141"/>
       <c r="J67" s="142"/>
       <c r="K67" s="143"/>
-      <c r="L67" s="266"/>
+      <c r="L67" s="263"/>
       <c r="M67" s="69"/>
       <c r="N67" s="137">
         <f t="shared" si="1"/>
@@ -8437,7 +8446,7 @@
       <c r="I68" s="141"/>
       <c r="J68" s="142"/>
       <c r="K68" s="143"/>
-      <c r="L68" s="266"/>
+      <c r="L68" s="263"/>
       <c r="M68" s="69"/>
       <c r="N68" s="137">
         <f t="shared" si="1"/>
@@ -8457,7 +8466,7 @@
       <c r="I69" s="141"/>
       <c r="J69" s="142"/>
       <c r="K69" s="143"/>
-      <c r="L69" s="266"/>
+      <c r="L69" s="263"/>
       <c r="M69" s="69"/>
       <c r="N69" s="137">
         <f t="shared" ref="N69:N97" si="3">N68+K69-M69</f>
@@ -8477,7 +8486,7 @@
       <c r="I70" s="141"/>
       <c r="J70" s="142"/>
       <c r="K70" s="143"/>
-      <c r="L70" s="266"/>
+      <c r="L70" s="263"/>
       <c r="M70" s="69"/>
       <c r="N70" s="137">
         <f t="shared" si="3"/>
@@ -8497,7 +8506,7 @@
       <c r="I71" s="141"/>
       <c r="J71" s="142"/>
       <c r="K71" s="143"/>
-      <c r="L71" s="266"/>
+      <c r="L71" s="263"/>
       <c r="M71" s="69"/>
       <c r="N71" s="137">
         <f t="shared" si="3"/>
@@ -8517,7 +8526,7 @@
       <c r="I72" s="141"/>
       <c r="J72" s="142"/>
       <c r="K72" s="143"/>
-      <c r="L72" s="266"/>
+      <c r="L72" s="263"/>
       <c r="M72" s="69"/>
       <c r="N72" s="137">
         <f t="shared" si="3"/>
@@ -8537,7 +8546,7 @@
       <c r="I73" s="141"/>
       <c r="J73" s="142"/>
       <c r="K73" s="143"/>
-      <c r="L73" s="266"/>
+      <c r="L73" s="263"/>
       <c r="M73" s="69"/>
       <c r="N73" s="137">
         <f t="shared" si="3"/>
@@ -8557,7 +8566,7 @@
       <c r="I74" s="141"/>
       <c r="J74" s="142"/>
       <c r="K74" s="143"/>
-      <c r="L74" s="266"/>
+      <c r="L74" s="263"/>
       <c r="M74" s="69"/>
       <c r="N74" s="137">
         <f t="shared" si="3"/>
@@ -8577,7 +8586,7 @@
       <c r="I75" s="141"/>
       <c r="J75" s="142"/>
       <c r="K75" s="143"/>
-      <c r="L75" s="266"/>
+      <c r="L75" s="263"/>
       <c r="M75" s="69"/>
       <c r="N75" s="137">
         <f t="shared" si="3"/>
@@ -8597,7 +8606,7 @@
       <c r="I76" s="141"/>
       <c r="J76" s="142"/>
       <c r="K76" s="143"/>
-      <c r="L76" s="266"/>
+      <c r="L76" s="263"/>
       <c r="M76" s="69"/>
       <c r="N76" s="137">
         <f t="shared" si="3"/>
@@ -8617,7 +8626,7 @@
       <c r="I77" s="141"/>
       <c r="J77" s="142"/>
       <c r="K77" s="143"/>
-      <c r="L77" s="266"/>
+      <c r="L77" s="263"/>
       <c r="M77" s="69"/>
       <c r="N77" s="137">
         <f t="shared" si="3"/>
@@ -8637,7 +8646,7 @@
       <c r="I78" s="141"/>
       <c r="J78" s="142"/>
       <c r="K78" s="143"/>
-      <c r="L78" s="266"/>
+      <c r="L78" s="263"/>
       <c r="M78" s="69"/>
       <c r="N78" s="137">
         <f t="shared" si="3"/>
@@ -8657,7 +8666,7 @@
       <c r="I79" s="141"/>
       <c r="J79" s="142"/>
       <c r="K79" s="143"/>
-      <c r="L79" s="266"/>
+      <c r="L79" s="263"/>
       <c r="M79" s="69"/>
       <c r="N79" s="137">
         <f t="shared" si="3"/>
@@ -8677,7 +8686,7 @@
       <c r="I80" s="141"/>
       <c r="J80" s="142"/>
       <c r="K80" s="143"/>
-      <c r="L80" s="266"/>
+      <c r="L80" s="263"/>
       <c r="M80" s="69"/>
       <c r="N80" s="137">
         <f t="shared" si="3"/>
@@ -8817,7 +8826,7 @@
       <c r="I87" s="141"/>
       <c r="J87" s="142"/>
       <c r="K87" s="143"/>
-      <c r="L87" s="267"/>
+      <c r="L87" s="264"/>
       <c r="M87" s="69"/>
       <c r="N87" s="137">
         <f t="shared" si="3"/>
@@ -8837,7 +8846,7 @@
       <c r="I88" s="141"/>
       <c r="J88" s="142"/>
       <c r="K88" s="143"/>
-      <c r="L88" s="267"/>
+      <c r="L88" s="264"/>
       <c r="M88" s="69"/>
       <c r="N88" s="137">
         <f t="shared" si="3"/>
@@ -8857,7 +8866,7 @@
       <c r="I89" s="141"/>
       <c r="J89" s="142"/>
       <c r="K89" s="143"/>
-      <c r="L89" s="267"/>
+      <c r="L89" s="264"/>
       <c r="M89" s="69"/>
       <c r="N89" s="137">
         <f t="shared" si="3"/>
@@ -8877,7 +8886,7 @@
       <c r="I90" s="141"/>
       <c r="J90" s="142"/>
       <c r="K90" s="143"/>
-      <c r="L90" s="267"/>
+      <c r="L90" s="264"/>
       <c r="M90" s="69"/>
       <c r="N90" s="137">
         <f t="shared" si="3"/>
@@ -8897,7 +8906,7 @@
       <c r="I91" s="141"/>
       <c r="J91" s="142"/>
       <c r="K91" s="143"/>
-      <c r="L91" s="267"/>
+      <c r="L91" s="264"/>
       <c r="M91" s="69"/>
       <c r="N91" s="137">
         <f t="shared" si="3"/>
@@ -8917,7 +8926,7 @@
       <c r="I92" s="141"/>
       <c r="J92" s="142"/>
       <c r="K92" s="143"/>
-      <c r="L92" s="267"/>
+      <c r="L92" s="264"/>
       <c r="M92" s="69"/>
       <c r="N92" s="137">
         <f t="shared" si="3"/>
@@ -8937,7 +8946,7 @@
       <c r="I93" s="141"/>
       <c r="J93" s="142"/>
       <c r="K93" s="143"/>
-      <c r="L93" s="267"/>
+      <c r="L93" s="264"/>
       <c r="M93" s="69"/>
       <c r="N93" s="137">
         <f t="shared" si="3"/>
@@ -8957,7 +8966,7 @@
       <c r="I94" s="141"/>
       <c r="J94" s="142"/>
       <c r="K94" s="143"/>
-      <c r="L94" s="267"/>
+      <c r="L94" s="264"/>
       <c r="M94" s="69"/>
       <c r="N94" s="137">
         <f t="shared" si="3"/>
@@ -8977,7 +8986,7 @@
       <c r="I95" s="141"/>
       <c r="J95" s="142"/>
       <c r="K95" s="143"/>
-      <c r="L95" s="267"/>
+      <c r="L95" s="264"/>
       <c r="M95" s="69"/>
       <c r="N95" s="137">
         <f t="shared" si="3"/>
@@ -8997,7 +9006,7 @@
       <c r="I96" s="141"/>
       <c r="J96" s="142"/>
       <c r="K96" s="143"/>
-      <c r="L96" s="267"/>
+      <c r="L96" s="264"/>
       <c r="M96" s="69"/>
       <c r="N96" s="137">
         <f t="shared" si="3"/>
@@ -9021,7 +9030,7 @@
       <c r="K97" s="151">
         <v>0</v>
       </c>
-      <c r="L97" s="268"/>
+      <c r="L97" s="265"/>
       <c r="M97" s="151"/>
       <c r="N97" s="137">
         <f t="shared" si="3"/>
@@ -9047,7 +9056,7 @@
         <f>SUM(K3:K97)</f>
         <v>598496</v>
       </c>
-      <c r="L98" s="269"/>
+      <c r="L98" s="266"/>
       <c r="M98" s="1">
         <f>SUM(M3:M97)</f>
         <v>598496</v>
@@ -9064,7 +9073,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="1"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="269"/>
+      <c r="L99" s="266"/>
       <c r="M99" s="3"/>
       <c r="N99" s="1"/>
     </row>
@@ -9075,7 +9084,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="1"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="269"/>
+      <c r="L100" s="266"/>
       <c r="M100" s="3"/>
       <c r="N100" s="1"/>
     </row>
@@ -9355,7 +9364,7 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+    <sheetView topLeftCell="C31" workbookViewId="0">
       <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
@@ -9384,23 +9393,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="322"/>
-      <c r="C1" s="324" t="s">
+      <c r="B1" s="329"/>
+      <c r="C1" s="331" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="323"/>
+      <c r="B2" s="330"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9410,21 +9419,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="326" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="327"/>
+      <c r="B3" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="334"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="328" t="s">
+      <c r="H3" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="328"/>
+      <c r="I3" s="335"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="336" t="s">
+      <c r="P3" s="372" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9439,14 +9448,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="336" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="H4" s="331" t="s">
+      <c r="F4" s="337"/>
+      <c r="H4" s="338" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="332"/>
+      <c r="I4" s="339"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -9456,14 +9465,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="337"/>
-      <c r="Q4" s="352" t="s">
+      <c r="P4" s="373"/>
+      <c r="Q4" s="298" t="s">
         <v>215</v>
       </c>
-      <c r="W4" s="387" t="s">
+      <c r="W4" s="390" t="s">
         <v>130</v>
       </c>
-      <c r="X4" s="387"/>
+      <c r="X4" s="390"/>
       <c r="Y4" s="240"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9506,7 +9515,7 @@
         <f>N5+M5+L5+I5+C5</f>
         <v>27763</v>
       </c>
-      <c r="Q5" s="353">
+      <c r="Q5" s="299">
         <f>P5-F5</f>
         <v>-27936</v>
       </c>
@@ -9514,8 +9523,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="387"/>
-      <c r="X5" s="387"/>
+      <c r="W5" s="390"/>
+      <c r="X5" s="390"/>
       <c r="Y5" s="246"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9556,11 +9565,11 @@
         <f>N6+M6+L6+I6+C6</f>
         <v>11269</v>
       </c>
-      <c r="Q6" s="353">
+      <c r="Q6" s="299">
         <f>P6-F6</f>
         <v>-26378</v>
       </c>
-      <c r="R6" s="351">
+      <c r="R6" s="297">
         <f>22000+4378</f>
         <v>26378</v>
       </c>
@@ -9609,11 +9618,11 @@
         <f t="shared" ref="P7:P32" si="0">N7+M7+L7+I7+C7</f>
         <v>4602</v>
       </c>
-      <c r="Q7" s="353">
+      <c r="Q7" s="299">
         <f t="shared" ref="Q7:Q35" si="1">P7-F7</f>
         <v>-30393</v>
       </c>
-      <c r="R7" s="351">
+      <c r="R7" s="297">
         <f>26000+4393</f>
         <v>30393</v>
       </c>
@@ -9670,11 +9679,11 @@
         <f t="shared" si="0"/>
         <v>22033</v>
       </c>
-      <c r="Q8" s="353">
+      <c r="Q8" s="299">
         <f t="shared" si="1"/>
         <v>-20199</v>
       </c>
-      <c r="R8" s="351">
+      <c r="R8" s="297">
         <f>20065+133</f>
         <v>20198</v>
       </c>
@@ -9731,11 +9740,11 @@
         <f>N9+M9+L9+I9+C9</f>
         <v>18006</v>
       </c>
-      <c r="Q9" s="353">
+      <c r="Q9" s="299">
         <f t="shared" si="1"/>
         <v>-35678</v>
       </c>
-      <c r="R9" s="351">
+      <c r="R9" s="297">
         <f>35678</f>
         <v>35678</v>
       </c>
@@ -9790,11 +9799,11 @@
         <f t="shared" ref="P10:P14" si="2">N10+M10+L10+I10+C10</f>
         <v>40368</v>
       </c>
-      <c r="Q10" s="353">
+      <c r="Q10" s="299">
         <f t="shared" si="1"/>
         <v>-30925</v>
       </c>
-      <c r="R10" s="351">
+      <c r="R10" s="297">
         <f>30925</f>
         <v>30925</v>
       </c>
@@ -9843,11 +9852,11 @@
         <f t="shared" si="2"/>
         <v>13621</v>
       </c>
-      <c r="Q11" s="353">
+      <c r="Q11" s="299">
         <f t="shared" si="1"/>
         <v>-35238</v>
       </c>
-      <c r="R11" s="351">
+      <c r="R11" s="297">
         <f>35238</f>
         <v>35238</v>
       </c>
@@ -9900,11 +9909,11 @@
         <f t="shared" si="2"/>
         <v>20195</v>
       </c>
-      <c r="Q12" s="353">
+      <c r="Q12" s="299">
         <f t="shared" si="1"/>
         <v>-29846</v>
       </c>
-      <c r="R12" s="351">
+      <c r="R12" s="297">
         <f>29000+846</f>
         <v>29846</v>
       </c>
@@ -9955,11 +9964,11 @@
         <f t="shared" si="2"/>
         <v>23882.36</v>
       </c>
-      <c r="Q13" s="353">
+      <c r="Q13" s="299">
         <f t="shared" si="1"/>
         <v>-41525.64</v>
       </c>
-      <c r="R13" s="351">
+      <c r="R13" s="297">
         <f>41050+1147</f>
         <v>42197</v>
       </c>
@@ -10014,11 +10023,11 @@
         <f t="shared" si="2"/>
         <v>25955.5</v>
       </c>
-      <c r="Q14" s="353">
+      <c r="Q14" s="299">
         <f t="shared" si="1"/>
         <v>-27969.5</v>
       </c>
-      <c r="R14" s="351">
+      <c r="R14" s="297">
         <v>27970</v>
       </c>
       <c r="S14" s="147"/>
@@ -10065,11 +10074,11 @@
         <f t="shared" si="0"/>
         <v>14542</v>
       </c>
-      <c r="Q15" s="353">
+      <c r="Q15" s="299">
         <f t="shared" si="1"/>
         <v>-32780</v>
       </c>
-      <c r="R15" s="351">
+      <c r="R15" s="297">
         <v>32780</v>
       </c>
       <c r="S15" s="147"/>
@@ -10116,11 +10125,11 @@
         <f t="shared" si="0"/>
         <v>21455</v>
       </c>
-      <c r="Q16" s="353">
+      <c r="Q16" s="299">
         <f t="shared" si="1"/>
         <v>-37376</v>
       </c>
-      <c r="R16" s="351">
+      <c r="R16" s="297">
         <v>37376</v>
       </c>
       <c r="S16" s="147"/>
@@ -10177,11 +10186,11 @@
         <f t="shared" si="0"/>
         <v>49619.33</v>
       </c>
-      <c r="Q17" s="353">
+      <c r="Q17" s="299">
         <f t="shared" si="1"/>
         <v>-9805.6699999999983</v>
       </c>
-      <c r="R17" s="351">
+      <c r="R17" s="297">
         <f>9805.9+12537.27+1285.71</f>
         <v>23628.879999999997</v>
       </c>
@@ -10227,11 +10236,11 @@
         <f t="shared" si="0"/>
         <v>23496</v>
       </c>
-      <c r="Q18" s="353">
+      <c r="Q18" s="299">
         <f t="shared" si="1"/>
         <v>-21680</v>
       </c>
-      <c r="R18" s="351">
+      <c r="R18" s="297">
         <v>21680</v>
       </c>
       <c r="S18" s="147"/>
@@ -10278,11 +10287,11 @@
         <f t="shared" si="0"/>
         <v>25718</v>
       </c>
-      <c r="Q19" s="353">
+      <c r="Q19" s="299">
         <f t="shared" si="1"/>
         <v>-26370</v>
       </c>
-      <c r="R19" s="351">
+      <c r="R19" s="297">
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
@@ -10330,16 +10339,16 @@
         <f t="shared" si="0"/>
         <v>22146.17</v>
       </c>
-      <c r="Q20" s="353">
+      <c r="Q20" s="299">
         <f t="shared" si="1"/>
         <v>-16395.830000000002</v>
       </c>
-      <c r="R20" s="351">
+      <c r="R20" s="297">
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
       <c r="W20" s="386"/>
-      <c r="X20" s="282"/>
+      <c r="X20" s="279"/>
       <c r="Y20" s="246"/>
     </row>
     <row r="21" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10379,16 +10388,16 @@
         <f t="shared" si="0"/>
         <v>15744.18</v>
       </c>
-      <c r="Q21" s="353">
+      <c r="Q21" s="299">
         <f t="shared" si="1"/>
         <v>-19188.82</v>
       </c>
-      <c r="R21" s="351">
+      <c r="R21" s="297">
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="377"/>
-      <c r="X21" s="377"/>
+      <c r="W21" s="387"/>
+      <c r="X21" s="387"/>
       <c r="Y21" s="246"/>
       <c r="Z21" s="128"/>
     </row>
@@ -10430,11 +10439,11 @@
         <f t="shared" si="0"/>
         <v>23348.28</v>
       </c>
-      <c r="Q22" s="353">
+      <c r="Q22" s="299">
         <f t="shared" si="1"/>
         <v>-33647.72</v>
       </c>
-      <c r="R22" s="351">
+      <c r="R22" s="297">
         <v>33647.72</v>
       </c>
       <c r="S22" s="147"/>
@@ -10481,16 +10490,16 @@
         <f t="shared" si="0"/>
         <v>31708.71</v>
       </c>
-      <c r="Q23" s="353">
+      <c r="Q23" s="299">
         <f t="shared" si="1"/>
         <v>-45217.29</v>
       </c>
-      <c r="R23" s="351">
+      <c r="R23" s="297">
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="378"/>
-      <c r="X23" s="378"/>
+      <c r="W23" s="388"/>
+      <c r="X23" s="388"/>
       <c r="Y23" s="246"/>
       <c r="Z23" s="128"/>
     </row>
@@ -10536,16 +10545,16 @@
         <f t="shared" si="0"/>
         <v>42092.83</v>
       </c>
-      <c r="Q24" s="353">
+      <c r="Q24" s="299">
         <f t="shared" si="1"/>
         <v>-23159.17</v>
       </c>
-      <c r="R24" s="351">
+      <c r="R24" s="297">
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="378"/>
-      <c r="X24" s="378"/>
+      <c r="W24" s="388"/>
+      <c r="X24" s="388"/>
       <c r="Y24" s="246"/>
       <c r="Z24" s="128"/>
     </row>
@@ -10580,19 +10589,19 @@
       <c r="N25" s="33">
         <v>10181</v>
       </c>
-      <c r="P25" s="349">
+      <c r="P25" s="295">
         <f t="shared" si="0"/>
         <v>10581</v>
       </c>
-      <c r="Q25" s="353">
+      <c r="Q25" s="299">
         <f t="shared" si="1"/>
         <v>-28952</v>
       </c>
-      <c r="R25" s="351">
+      <c r="R25" s="297">
         <v>28952</v>
       </c>
-      <c r="W25" s="379"/>
-      <c r="X25" s="379"/>
+      <c r="W25" s="389"/>
+      <c r="X25" s="389"/>
       <c r="Y25" s="246"/>
       <c r="Z25" s="128"/>
     </row>
@@ -10632,19 +10641,19 @@
       <c r="O26" t="s">
         <v>125</v>
       </c>
-      <c r="P26" s="350">
+      <c r="P26" s="296">
         <f t="shared" si="0"/>
         <v>29939.5</v>
       </c>
-      <c r="Q26" s="353">
+      <c r="Q26" s="299">
         <f t="shared" si="1"/>
         <v>-21771.5</v>
       </c>
-      <c r="R26" s="351">
+      <c r="R26" s="297">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="379"/>
-      <c r="X26" s="379"/>
+      <c r="W26" s="389"/>
+      <c r="X26" s="389"/>
       <c r="Y26" s="246"/>
       <c r="Z26" s="128"/>
     </row>
@@ -10685,16 +10694,16 @@
         <f t="shared" si="0"/>
         <v>16423</v>
       </c>
-      <c r="Q27" s="353">
+      <c r="Q27" s="299">
         <f t="shared" si="1"/>
         <v>-14637</v>
       </c>
-      <c r="R27" s="351">
+      <c r="R27" s="297">
         <v>14637</v>
       </c>
-      <c r="W27" s="380"/>
-      <c r="X27" s="381"/>
-      <c r="Y27" s="382"/>
+      <c r="W27" s="382"/>
+      <c r="X27" s="383"/>
+      <c r="Y27" s="384"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10737,16 +10746,16 @@
         <f t="shared" si="0"/>
         <v>53075</v>
       </c>
-      <c r="Q28" s="353">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="351">
-        <v>0</v>
-      </c>
-      <c r="W28" s="381"/>
-      <c r="X28" s="381"/>
-      <c r="Y28" s="382"/>
+      <c r="Q28" s="299">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="297">
+        <v>0</v>
+      </c>
+      <c r="W28" s="383"/>
+      <c r="X28" s="383"/>
+      <c r="Y28" s="384"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10791,16 +10800,16 @@
         <f t="shared" si="0"/>
         <v>174324</v>
       </c>
-      <c r="Q29" s="353">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="351">
+      <c r="Q29" s="299">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="297">
         <v>0</v>
       </c>
       <c r="W29" s="128"/>
-      <c r="X29" s="383"/>
-      <c r="Y29" s="384"/>
+      <c r="X29" s="323"/>
+      <c r="Y29" s="324"/>
       <c r="Z29" s="128"/>
     </row>
     <row r="30" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10841,11 +10850,11 @@
         <f t="shared" si="0"/>
         <v>90573</v>
       </c>
-      <c r="Q30" s="353">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="351"/>
+      <c r="Q30" s="299">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="297"/>
       <c r="X30" s="238"/>
       <c r="Y30" s="240"/>
     </row>
@@ -10887,11 +10896,11 @@
         <f t="shared" si="0"/>
         <v>70468</v>
       </c>
-      <c r="Q31" s="353">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="351"/>
+      <c r="Q31" s="299">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="297"/>
     </row>
     <row r="32" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
@@ -10930,7 +10939,7 @@
         <f t="shared" si="0"/>
         <v>47119</v>
       </c>
-      <c r="Q32" s="353">
+      <c r="Q32" s="299">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10949,7 +10958,7 @@
       <c r="J33" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="K33" s="260">
+      <c r="K33" s="257">
         <v>44508</v>
       </c>
       <c r="L33" s="66">
@@ -10964,7 +10973,7 @@
       <c r="P33" s="34">
         <v>0</v>
       </c>
-      <c r="Q33" s="353">
+      <c r="Q33" s="299">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10984,10 +10993,10 @@
       <c r="I34" s="30">
         <v>0</v>
       </c>
-      <c r="J34" s="280" t="s">
+      <c r="J34" s="277" t="s">
         <v>208</v>
       </c>
-      <c r="K34" s="261">
+      <c r="K34" s="258">
         <v>44509</v>
       </c>
       <c r="L34" s="44">
@@ -11002,7 +11011,7 @@
       <c r="P34" s="34">
         <v>0</v>
       </c>
-      <c r="Q34" s="353">
+      <c r="Q34" s="299">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11028,25 +11037,25 @@
       <c r="I35" s="30">
         <v>0</v>
       </c>
-      <c r="J35" s="280" t="s">
+      <c r="J35" s="277" t="s">
         <v>208</v>
       </c>
-      <c r="K35" s="262">
+      <c r="K35" s="259">
         <v>44509</v>
       </c>
       <c r="L35" s="66">
         <v>182.52</v>
       </c>
-      <c r="M35" s="281">
-        <v>0</v>
-      </c>
-      <c r="N35" s="282">
+      <c r="M35" s="278">
+        <v>0</v>
+      </c>
+      <c r="N35" s="279">
         <v>0</v>
       </c>
       <c r="P35" s="34">
         <v>0</v>
       </c>
-      <c r="Q35" s="287">
+      <c r="Q35" s="284">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11072,28 +11081,28 @@
       <c r="I36" s="30">
         <v>0</v>
       </c>
-      <c r="J36" s="280" t="s">
+      <c r="J36" s="277" t="s">
         <v>209</v>
       </c>
-      <c r="K36" s="263">
+      <c r="K36" s="260">
         <v>44511</v>
       </c>
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="338">
+      <c r="M36" s="374">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="340">
+      <c r="N36" s="376">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>467016</v>
       </c>
-      <c r="O36" s="290"/>
-      <c r="P36" s="291">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="342">
+      <c r="O36" s="287"/>
+      <c r="P36" s="288">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="378">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -11128,13 +11137,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="339"/>
-      <c r="N37" s="341"/>
-      <c r="O37" s="290"/>
-      <c r="P37" s="291">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="343"/>
+      <c r="M37" s="375"/>
+      <c r="N37" s="377"/>
+      <c r="O37" s="287"/>
+      <c r="P37" s="288">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="379"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -11165,12 +11174,12 @@
       <c r="L38" s="61">
         <v>549</v>
       </c>
-      <c r="M38" s="284"/>
-      <c r="N38" s="285"/>
+      <c r="M38" s="281"/>
+      <c r="N38" s="282"/>
       <c r="P38" s="151">
         <v>0</v>
       </c>
-      <c r="Q38" s="288"/>
+      <c r="Q38" s="285"/>
     </row>
     <row r="39" spans="1:18" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
@@ -11187,13 +11196,13 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="292"/>
-      <c r="N39" s="292"/>
+      <c r="M39" s="289"/>
+      <c r="N39" s="289"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>970067.86</v>
       </c>
-      <c r="Q39" s="289"/>
+      <c r="Q39" s="286"/>
     </row>
     <row r="40" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
@@ -11208,8 +11217,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="292"/>
-      <c r="N40" s="292"/>
+      <c r="M40" s="289"/>
+      <c r="N40" s="289"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
@@ -11226,8 +11235,8 @@
       <c r="J41" s="60"/>
       <c r="K41" s="41"/>
       <c r="L41" s="61"/>
-      <c r="M41" s="283"/>
-      <c r="N41" s="283"/>
+      <c r="M41" s="280"/>
+      <c r="N41" s="280"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="13"/>
     </row>
@@ -11244,8 +11253,8 @@
       <c r="J42" s="60"/>
       <c r="K42" s="41"/>
       <c r="L42" s="61"/>
-      <c r="M42" s="283"/>
-      <c r="N42" s="283"/>
+      <c r="M42" s="280"/>
+      <c r="N42" s="280"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="13"/>
     </row>
@@ -11262,8 +11271,8 @@
       <c r="J43" s="60"/>
       <c r="K43" s="41"/>
       <c r="L43" s="61"/>
-      <c r="M43" s="283"/>
-      <c r="N43" s="283"/>
+      <c r="M43" s="280"/>
+      <c r="N43" s="280"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="13"/>
     </row>
@@ -11280,8 +11289,8 @@
       <c r="J44" s="60"/>
       <c r="K44" s="41"/>
       <c r="L44" s="61"/>
-      <c r="M44" s="283"/>
-      <c r="N44" s="283"/>
+      <c r="M44" s="280"/>
+      <c r="N44" s="280"/>
       <c r="P44" s="34"/>
       <c r="Q44" s="13"/>
     </row>
@@ -11298,8 +11307,8 @@
       <c r="J45" s="60"/>
       <c r="K45" s="41"/>
       <c r="L45" s="61"/>
-      <c r="M45" s="283"/>
-      <c r="N45" s="283"/>
+      <c r="M45" s="280"/>
+      <c r="N45" s="280"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -11316,8 +11325,8 @@
       <c r="J46" s="60"/>
       <c r="K46" s="41"/>
       <c r="L46" s="61"/>
-      <c r="M46" s="283"/>
-      <c r="N46" s="283"/>
+      <c r="M46" s="280"/>
+      <c r="N46" s="280"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="13"/>
     </row>
@@ -11334,8 +11343,8 @@
       <c r="J47" s="60"/>
       <c r="K47" s="41"/>
       <c r="L47" s="61"/>
-      <c r="M47" s="283"/>
-      <c r="N47" s="283"/>
+      <c r="M47" s="280"/>
+      <c r="N47" s="280"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="13"/>
     </row>
@@ -11352,8 +11361,8 @@
       <c r="J48" s="60"/>
       <c r="K48" s="41"/>
       <c r="L48" s="61"/>
-      <c r="M48" s="283"/>
-      <c r="N48" s="283"/>
+      <c r="M48" s="280"/>
+      <c r="N48" s="280"/>
       <c r="P48" s="34"/>
       <c r="Q48" s="13"/>
     </row>
@@ -11424,27 +11433,27 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="309" t="s">
+      <c r="H52" s="351" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="310"/>
+      <c r="I52" s="352"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="311">
+      <c r="K52" s="353">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="335"/>
-      <c r="M52" s="286"/>
-      <c r="N52" s="286"/>
+      <c r="L52" s="380"/>
+      <c r="M52" s="283"/>
+      <c r="N52" s="283"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="315" t="s">
+      <c r="D53" s="357" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="315"/>
-      <c r="F53" s="394">
+      <c r="E53" s="357"/>
+      <c r="F53" s="325">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
       </c>
@@ -11452,47 +11461,47 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="395" t="s">
+      <c r="D54" s="381" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="395"/>
+      <c r="E54" s="381"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="316" t="s">
+      <c r="I54" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="317"/>
-      <c r="K54" s="318">
+      <c r="J54" s="359"/>
+      <c r="K54" s="360">
         <f>F56+F57+F58</f>
         <v>1308770.3500000003</v>
       </c>
-      <c r="L54" s="318"/>
-      <c r="M54" s="388" t="s">
+      <c r="L54" s="360"/>
+      <c r="M54" s="366" t="s">
         <v>217</v>
       </c>
-      <c r="N54" s="389"/>
-      <c r="O54" s="389"/>
-      <c r="P54" s="389"/>
-      <c r="Q54" s="390"/>
+      <c r="N54" s="367"/>
+      <c r="O54" s="367"/>
+      <c r="P54" s="367"/>
+      <c r="Q54" s="368"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="396" t="s">
+      <c r="D55" s="326" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="397"/>
-      <c r="F55" s="398">
+      <c r="E55" s="327"/>
+      <c r="F55" s="328">
         <v>-164725.34</v>
       </c>
       <c r="I55" s="105"/>
       <c r="J55" s="106"/>
       <c r="K55" s="191"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="391"/>
-      <c r="N55" s="392"/>
-      <c r="O55" s="392"/>
-      <c r="P55" s="392"/>
-      <c r="Q55" s="393"/>
+      <c r="M55" s="369"/>
+      <c r="N55" s="370"/>
+      <c r="O55" s="370"/>
+      <c r="P55" s="370"/>
+      <c r="Q55" s="371"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -11510,11 +11519,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="320">
+      <c r="K56" s="362">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="321"/>
+      <c r="L56" s="363"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -11531,22 +11540,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="298" t="s">
+      <c r="D58" s="340" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="299"/>
+      <c r="E58" s="341"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="300" t="s">
+      <c r="I58" s="342" t="s">
         <v>204</v>
       </c>
-      <c r="J58" s="301"/>
-      <c r="K58" s="302">
+      <c r="J58" s="343"/>
+      <c r="K58" s="344">
         <f>K54+K56</f>
         <v>741381.00000000035</v>
       </c>
-      <c r="L58" s="302"/>
+      <c r="L58" s="344"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -11690,17 +11699,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -11711,14 +11717,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11732,2701 +11741,2716 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="B1:O122"/>
   <sheetViews>
-    <sheetView topLeftCell="F32" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="116" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="356" t="s">
+    <row r="1" spans="2:15" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="302" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="358"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="358"/>
-      <c r="F1" s="169" t="s">
+      <c r="C1" s="303"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="367" t="s">
+      <c r="J1" s="313" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="368"/>
-      <c r="K1" s="369"/>
-      <c r="L1" s="370"/>
-      <c r="M1" s="369"/>
-      <c r="N1" s="371" t="s">
+      <c r="K1" s="314"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="315"/>
+      <c r="O1" s="317" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="363" t="s">
+    <row r="2" spans="2:15" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="309" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="364" t="s">
+      <c r="C2" s="310" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="365" t="s">
+      <c r="D2" s="311" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="364" t="s">
+      <c r="E2" s="310" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="366" t="s">
+      <c r="F2" s="312" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="355" t="s">
+      <c r="G2" s="301" t="s">
         <v>216</v>
       </c>
-      <c r="I2" s="363" t="s">
+      <c r="J2" s="309" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="375" t="s">
+      <c r="K2" s="321" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="365" t="s">
+      <c r="L2" s="311" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="364" t="s">
+      <c r="M2" s="310" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="365" t="s">
+      <c r="N2" s="311" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="376" t="s">
+      <c r="O2" s="322" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="359" t="s">
+    <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="305" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="360" t="s">
+      <c r="C3" s="306" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="361">
+      <c r="D3" s="307">
         <v>15652.4</v>
       </c>
-      <c r="D3" s="362"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="196">
-        <f>C3-E3</f>
+      <c r="E3" s="308"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="196">
+        <f>D3-F3</f>
         <v>15652.4</v>
       </c>
-      <c r="I3" s="372"/>
-      <c r="J3" s="373"/>
-      <c r="K3" s="374"/>
-      <c r="L3" s="372"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="196">
-        <f>K3-M3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="258" t="s">
+      <c r="J3" s="318"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="320"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="228"/>
+      <c r="O3" s="196">
+        <f>L3-N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="255" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="274" t="s">
+      <c r="C4" s="271" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="275">
+      <c r="D4" s="272">
         <v>6679.8</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="137">
-        <f>F3+C4-E4</f>
+      <c r="E4" s="136"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="137">
+        <f>G3+D4-F4</f>
         <v>22332.2</v>
       </c>
-      <c r="G4" s="138"/>
-      <c r="I4" s="354" t="s">
+      <c r="H4" s="138"/>
+      <c r="J4" s="300" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="38">
+      <c r="K4" s="38">
         <v>7749</v>
       </c>
-      <c r="K4" s="111">
+      <c r="L4" s="111">
         <v>5707.22</v>
       </c>
-      <c r="L4" s="354" t="s">
+      <c r="M4" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="137">
-        <f>N3+K4-M4</f>
+      <c r="N4" s="69"/>
+      <c r="O4" s="137">
+        <f>O3+L4-N4</f>
         <v>5707.22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="258" t="s">
+    <row r="5" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="255" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="274" t="s">
+      <c r="C5" s="271" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="275">
+      <c r="D5" s="272">
         <v>18704.419999999998</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="137">
-        <f t="shared" ref="F5:F56" si="0">F4+C5-E5</f>
+      <c r="E5" s="136"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="137">
+        <f t="shared" ref="G5:G36" si="0">G4+D5-F5</f>
         <v>41036.619999999995</v>
       </c>
-      <c r="I5" s="354" t="s">
+      <c r="J5" s="300" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="38">
+      <c r="K5" s="38">
         <v>7746</v>
       </c>
-      <c r="K5" s="111">
+      <c r="L5" s="111">
         <v>30</v>
       </c>
-      <c r="L5" s="354" t="s">
+      <c r="M5" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="137">
-        <f t="shared" ref="N5:N56" si="1">N4+K5-M5</f>
+      <c r="N5" s="69"/>
+      <c r="O5" s="137">
+        <f t="shared" ref="O5:O56" si="1">O4+L5-N5</f>
         <v>5737.22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="258" t="s">
+    <row r="6" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="255" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="274" t="s">
+      <c r="C6" s="271" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="275">
+      <c r="D6" s="272">
         <v>840</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="137">
+      <c r="E6" s="136"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="137">
         <f t="shared" si="0"/>
         <v>41876.619999999995</v>
       </c>
-      <c r="I6" s="354" t="s">
+      <c r="J6" s="300" t="s">
         <v>134</v>
       </c>
-      <c r="J6" s="38">
+      <c r="K6" s="38">
         <v>7753</v>
       </c>
-      <c r="K6" s="111">
+      <c r="L6" s="111">
         <v>3667.5</v>
       </c>
-      <c r="L6" s="354" t="s">
+      <c r="M6" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="137">
+      <c r="N6" s="69"/>
+      <c r="O6" s="137">
         <f t="shared" si="1"/>
         <v>9404.7200000000012</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="258" t="s">
+    <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="255" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="259" t="s">
+      <c r="C7" s="256" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="111">
+      <c r="D7" s="111">
         <v>7697.8</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="137">
+      <c r="E7" s="136"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="137">
         <f t="shared" si="0"/>
         <v>49574.42</v>
       </c>
-      <c r="I7" s="354" t="s">
+      <c r="J7" s="300" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="38">
+      <c r="K7" s="38">
         <v>7755</v>
       </c>
-      <c r="K7" s="111">
+      <c r="L7" s="111">
         <v>120</v>
       </c>
-      <c r="L7" s="354" t="s">
+      <c r="M7" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="137">
+      <c r="N7" s="69"/>
+      <c r="O7" s="137">
         <f t="shared" si="1"/>
         <v>9524.7200000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="258" t="s">
+    <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="255" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="259" t="s">
+      <c r="C8" s="256" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="111">
+      <c r="D8" s="111">
         <v>23842.9</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="137">
+      <c r="E8" s="136"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="137">
         <f t="shared" si="0"/>
         <v>73417.320000000007</v>
       </c>
-      <c r="I8" s="354" t="s">
+      <c r="J8" s="300" t="s">
         <v>134</v>
       </c>
-      <c r="J8" s="38">
+      <c r="K8" s="38">
         <v>7756</v>
       </c>
-      <c r="K8" s="111">
+      <c r="L8" s="111">
         <v>436.5</v>
       </c>
-      <c r="L8" s="354" t="s">
+      <c r="M8" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="137">
+      <c r="N8" s="69"/>
+      <c r="O8" s="137">
         <f t="shared" si="1"/>
         <v>9961.2200000000012</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="258" t="s">
+    <row r="9" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="255" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="259" t="s">
+      <c r="C9" s="256" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="111">
+      <c r="D9" s="111">
         <v>29188.7</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="137">
+      <c r="E9" s="136"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="137">
         <f t="shared" si="0"/>
         <v>102606.02</v>
       </c>
-      <c r="I9" s="354" t="s">
+      <c r="J9" s="300" t="s">
         <v>137</v>
       </c>
-      <c r="J9" s="38">
+      <c r="K9" s="38">
         <v>7771</v>
       </c>
-      <c r="K9" s="111">
+      <c r="L9" s="111">
         <v>9412.4500000000007</v>
       </c>
-      <c r="L9" s="354" t="s">
+      <c r="M9" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="137">
+      <c r="N9" s="69"/>
+      <c r="O9" s="137">
         <f t="shared" si="1"/>
         <v>19373.670000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="258" t="s">
+    <row r="10" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="255" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="259" t="s">
+      <c r="C10" s="256" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="111">
+      <c r="D10" s="111">
         <v>2112.5</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="137">
+      <c r="E10" s="136"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="137">
         <f t="shared" si="0"/>
         <v>104718.52</v>
       </c>
-      <c r="G10" s="138"/>
-      <c r="I10" s="354" t="s">
+      <c r="H10" s="138"/>
+      <c r="J10" s="300" t="s">
         <v>137</v>
       </c>
-      <c r="J10" s="38">
+      <c r="K10" s="38">
         <v>7772</v>
       </c>
-      <c r="K10" s="111">
+      <c r="L10" s="111">
         <v>10285</v>
       </c>
-      <c r="L10" s="354" t="s">
+      <c r="M10" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M10" s="69"/>
-      <c r="N10" s="137">
+      <c r="N10" s="69"/>
+      <c r="O10" s="137">
         <f t="shared" si="1"/>
         <v>29658.670000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="258" t="s">
+    <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="255" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="259" t="s">
+      <c r="C11" s="256" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="111">
+      <c r="D11" s="111">
         <v>10023.799999999999</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="137">
+      <c r="E11" s="140"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="137">
         <f t="shared" si="0"/>
         <v>114742.32</v>
       </c>
-      <c r="I11" s="354" t="s">
+      <c r="J11" s="300" t="s">
         <v>140</v>
       </c>
-      <c r="J11" s="38">
+      <c r="K11" s="38">
         <v>7774</v>
       </c>
-      <c r="K11" s="111">
+      <c r="L11" s="111">
         <v>2504.94</v>
       </c>
-      <c r="L11" s="354" t="s">
+      <c r="M11" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M11" s="69"/>
-      <c r="N11" s="137">
+      <c r="N11" s="69"/>
+      <c r="O11" s="137">
         <f t="shared" si="1"/>
         <v>32163.61</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="258" t="s">
+    <row r="12" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="255" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="259" t="s">
+      <c r="C12" s="256" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="111">
+      <c r="D12" s="111">
         <v>29492.45</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="137">
+      <c r="E12" s="140"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="137">
         <f t="shared" si="0"/>
         <v>144234.77000000002</v>
       </c>
-      <c r="I12" s="354" t="s">
+      <c r="J12" s="300" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="38">
+      <c r="K12" s="38">
         <v>7778</v>
       </c>
-      <c r="K12" s="111">
+      <c r="L12" s="111">
         <v>800</v>
       </c>
-      <c r="L12" s="354" t="s">
+      <c r="M12" s="300" t="s">
         <v>143</v>
       </c>
-      <c r="M12" s="69">
+      <c r="N12" s="69">
         <v>800</v>
       </c>
-      <c r="N12" s="137">
+      <c r="O12" s="137">
         <f t="shared" si="1"/>
         <v>32163.61</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="258" t="s">
+    <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="255" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="259" t="s">
+      <c r="C13" s="256" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="111">
+      <c r="D13" s="111">
         <v>8447.5</v>
       </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="137">
+      <c r="E13" s="140"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="137">
         <f t="shared" si="0"/>
         <v>152682.27000000002</v>
       </c>
-      <c r="I13" s="354" t="s">
+      <c r="J13" s="300" t="s">
         <v>143</v>
       </c>
-      <c r="J13" s="38">
+      <c r="K13" s="38">
         <v>7781</v>
       </c>
-      <c r="K13" s="111">
+      <c r="L13" s="111">
         <v>733.6</v>
       </c>
-      <c r="L13" s="354" t="s">
+      <c r="M13" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M13" s="69"/>
-      <c r="N13" s="137">
+      <c r="N13" s="69"/>
+      <c r="O13" s="137">
         <f t="shared" si="1"/>
         <v>32897.21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="258" t="s">
+    <row r="14" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="255" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="259" t="s">
+      <c r="C14" s="256" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="111">
+      <c r="D14" s="111">
         <v>1123.5</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="137">
+      <c r="E14" s="140"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="137">
         <f t="shared" si="0"/>
         <v>153805.77000000002</v>
       </c>
-      <c r="I14" s="354" t="s">
+      <c r="J14" s="300" t="s">
         <v>143</v>
       </c>
-      <c r="J14" s="38">
+      <c r="K14" s="38">
         <v>7783</v>
       </c>
-      <c r="K14" s="111">
+      <c r="L14" s="111">
         <v>675</v>
       </c>
-      <c r="L14" s="354" t="s">
+      <c r="M14" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M14" s="69"/>
-      <c r="N14" s="137">
+      <c r="N14" s="69"/>
+      <c r="O14" s="137">
         <f t="shared" si="1"/>
         <v>33572.21</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="258" t="s">
+    <row r="15" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="255" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="259" t="s">
+      <c r="C15" s="256" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="111">
+      <c r="D15" s="111">
         <v>14678.6</v>
       </c>
-      <c r="D15" s="140"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="137">
+      <c r="E15" s="140"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="137">
         <f t="shared" si="0"/>
         <v>168484.37000000002</v>
       </c>
-      <c r="I15" s="354" t="s">
+      <c r="J15" s="300" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="38">
+      <c r="K15" s="38">
         <v>7789</v>
       </c>
-      <c r="K15" s="111">
+      <c r="L15" s="111">
         <v>5566.27</v>
       </c>
-      <c r="L15" s="354" t="s">
+      <c r="M15" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M15" s="69"/>
-      <c r="N15" s="137">
+      <c r="N15" s="69"/>
+      <c r="O15" s="137">
         <f t="shared" si="1"/>
         <v>39138.479999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="258" t="s">
+    <row r="16" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="255" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="259" t="s">
+      <c r="C16" s="256" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="111">
+      <c r="D16" s="111">
         <v>31129.7</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="137">
+      <c r="E16" s="140"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="137">
         <f t="shared" si="0"/>
         <v>199614.07000000004</v>
       </c>
-      <c r="I16" s="354" t="s">
+      <c r="J16" s="300" t="s">
         <v>202</v>
       </c>
-      <c r="J16" s="38">
+      <c r="K16" s="38">
         <v>7794</v>
       </c>
-      <c r="K16" s="111">
+      <c r="L16" s="111">
         <v>60</v>
       </c>
-      <c r="L16" s="354" t="s">
+      <c r="M16" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M16" s="69"/>
-      <c r="N16" s="137">
+      <c r="N16" s="69"/>
+      <c r="O16" s="137">
         <f t="shared" si="1"/>
         <v>39198.479999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="258" t="s">
+    <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="255" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="259" t="s">
+      <c r="C17" s="256" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="111">
+      <c r="D17" s="111">
         <v>14174.9</v>
       </c>
-      <c r="D17" s="140"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="137">
+      <c r="E17" s="140"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="137">
         <f t="shared" si="0"/>
         <v>213788.97000000003</v>
       </c>
-      <c r="I17" s="354" t="s">
+      <c r="J17" s="300" t="s">
         <v>202</v>
       </c>
-      <c r="J17" s="38">
+      <c r="K17" s="38">
         <v>7796</v>
       </c>
-      <c r="K17" s="111">
+      <c r="L17" s="111">
         <v>4155</v>
       </c>
-      <c r="L17" s="354" t="s">
+      <c r="M17" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M17" s="69"/>
-      <c r="N17" s="137">
+      <c r="N17" s="69"/>
+      <c r="O17" s="137">
         <f t="shared" si="1"/>
         <v>43353.479999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="258" t="s">
+    <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="255" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="259" t="s">
+      <c r="C18" s="256" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="111">
+      <c r="D18" s="111">
         <v>2463.75</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="137">
+      <c r="E18" s="140"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="137">
         <f t="shared" si="0"/>
         <v>216252.72000000003</v>
       </c>
-      <c r="I18" s="354" t="s">
+      <c r="J18" s="300" t="s">
         <v>148</v>
       </c>
-      <c r="J18" s="38">
+      <c r="K18" s="38">
         <v>7798</v>
       </c>
-      <c r="K18" s="111">
+      <c r="L18" s="111">
         <v>1620.32</v>
       </c>
-      <c r="L18" s="354" t="s">
+      <c r="M18" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="137">
+      <c r="N18" s="69"/>
+      <c r="O18" s="137">
         <f t="shared" si="1"/>
         <v>44973.799999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="258" t="s">
+    <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="255" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="259" t="s">
+      <c r="C19" s="256" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="111">
+      <c r="D19" s="111">
         <v>9900</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="137">
+      <c r="E19" s="140"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="137">
         <f t="shared" si="0"/>
         <v>226152.72000000003</v>
       </c>
-      <c r="I19" s="354" t="s">
+      <c r="J19" s="300" t="s">
         <v>150</v>
       </c>
-      <c r="J19" s="38">
+      <c r="K19" s="38">
         <v>7805</v>
       </c>
-      <c r="K19" s="111">
+      <c r="L19" s="111">
         <v>2386.12</v>
       </c>
-      <c r="L19" s="354" t="s">
+      <c r="M19" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M19" s="69"/>
-      <c r="N19" s="137">
+      <c r="N19" s="69"/>
+      <c r="O19" s="137">
         <f t="shared" si="1"/>
         <v>47359.92</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="258" t="s">
+    <row r="20" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="259" t="s">
+      <c r="C20" s="256" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="111">
+      <c r="D20" s="111">
         <v>20284.5</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="137">
+      <c r="E20" s="140"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="137">
         <f t="shared" si="0"/>
         <v>246437.22000000003</v>
       </c>
-      <c r="I20" s="354" t="s">
+      <c r="J20" s="300" t="s">
         <v>150</v>
       </c>
-      <c r="J20" s="38">
+      <c r="K20" s="38">
         <v>7809</v>
       </c>
-      <c r="K20" s="111">
+      <c r="L20" s="111">
         <v>2376.56</v>
       </c>
-      <c r="L20" s="354" t="s">
+      <c r="M20" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M20" s="69"/>
-      <c r="N20" s="137">
+      <c r="N20" s="69"/>
+      <c r="O20" s="137">
         <f t="shared" si="1"/>
         <v>49736.479999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="258" t="s">
+    <row r="21" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="259" t="s">
+      <c r="C21" s="256" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="111">
+      <c r="D21" s="111">
         <v>8609</v>
       </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="137">
+      <c r="E21" s="140"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="137">
         <f t="shared" si="0"/>
         <v>255046.22000000003</v>
       </c>
-      <c r="I21" s="354" t="s">
+      <c r="J21" s="300" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="38">
+      <c r="K21" s="38">
         <v>7817</v>
       </c>
-      <c r="K21" s="111">
+      <c r="L21" s="111">
         <v>3020.38</v>
       </c>
-      <c r="L21" s="354" t="s">
+      <c r="M21" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M21" s="69"/>
-      <c r="N21" s="137">
+      <c r="N21" s="69"/>
+      <c r="O21" s="137">
         <f t="shared" si="1"/>
         <v>52756.859999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="258" t="s">
+    <row r="22" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="255" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="259" t="s">
+      <c r="C22" s="256" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="111">
+      <c r="D22" s="111">
         <v>32844.300000000003</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="137">
+      <c r="E22" s="140"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="137">
         <f t="shared" si="0"/>
         <v>287890.52</v>
       </c>
-      <c r="G22" s="138"/>
-      <c r="I22" s="354" t="s">
+      <c r="H22" s="138"/>
+      <c r="J22" s="300" t="s">
         <v>157</v>
       </c>
-      <c r="J22" s="38">
+      <c r="K22" s="38">
         <v>7822</v>
       </c>
-      <c r="K22" s="111">
+      <c r="L22" s="111">
         <v>2524.2399999999998</v>
       </c>
-      <c r="L22" s="354" t="s">
+      <c r="M22" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M22" s="69"/>
-      <c r="N22" s="137">
+      <c r="N22" s="69"/>
+      <c r="O22" s="137">
         <f t="shared" si="1"/>
         <v>55281.099999999991</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="258" t="s">
+    <row r="23" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="255" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="259" t="s">
+      <c r="C23" s="256" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="111">
+      <c r="D23" s="111">
         <v>1801.8</v>
       </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="137">
+      <c r="E23" s="140"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="137">
         <f t="shared" si="0"/>
         <v>289692.32</v>
       </c>
-      <c r="I23" s="354" t="s">
+      <c r="J23" s="300" t="s">
         <v>160</v>
       </c>
-      <c r="J23" s="38">
+      <c r="K23" s="38">
         <v>7826</v>
       </c>
-      <c r="K23" s="111">
+      <c r="L23" s="111">
         <v>1789.6</v>
       </c>
-      <c r="L23" s="354" t="s">
+      <c r="M23" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M23" s="69"/>
-      <c r="N23" s="137">
+      <c r="N23" s="69"/>
+      <c r="O23" s="137">
         <f t="shared" si="1"/>
         <v>57070.69999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="258" t="s">
+    <row r="24" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="259" t="s">
+      <c r="C24" s="256" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="111">
+      <c r="D24" s="111">
         <v>700</v>
       </c>
-      <c r="D24" s="140"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="137">
+      <c r="E24" s="140"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="137">
         <f t="shared" si="0"/>
         <v>290392.32000000001</v>
       </c>
-      <c r="I24" s="354" t="s">
+      <c r="J24" s="300" t="s">
         <v>160</v>
       </c>
-      <c r="J24" s="38">
+      <c r="K24" s="38">
         <v>7829</v>
       </c>
-      <c r="K24" s="111">
+      <c r="L24" s="111">
         <v>2590.2199999999998</v>
       </c>
-      <c r="L24" s="354" t="s">
+      <c r="M24" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M24" s="69"/>
-      <c r="N24" s="137">
+      <c r="N24" s="69"/>
+      <c r="O24" s="137">
         <f t="shared" si="1"/>
         <v>59660.919999999991</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="258" t="s">
+    <row r="25" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="259" t="s">
+      <c r="C25" s="256" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="111">
-        <v>0</v>
-      </c>
-      <c r="D25" s="140"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="137">
+      <c r="D25" s="111">
+        <v>0</v>
+      </c>
+      <c r="E25" s="140"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="137">
         <f t="shared" si="0"/>
         <v>290392.32000000001</v>
       </c>
-      <c r="I25" s="354" t="s">
+      <c r="J25" s="300" t="s">
         <v>163</v>
       </c>
-      <c r="J25" s="38">
+      <c r="K25" s="38">
         <v>7831</v>
       </c>
-      <c r="K25" s="111">
+      <c r="L25" s="111">
         <v>5268.02</v>
       </c>
-      <c r="L25" s="354" t="s">
+      <c r="M25" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M25" s="69"/>
-      <c r="N25" s="137">
+      <c r="N25" s="69"/>
+      <c r="O25" s="137">
         <f t="shared" si="1"/>
         <v>64928.939999999988</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="258" t="s">
+    <row r="26" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="259" t="s">
+      <c r="C26" s="256" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="111">
+      <c r="D26" s="111">
         <v>34909.9</v>
       </c>
-      <c r="D26" s="140"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="137">
+      <c r="E26" s="140"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="137">
         <f t="shared" si="0"/>
         <v>325302.22000000003</v>
       </c>
-      <c r="I26" s="354" t="s">
+      <c r="J26" s="300" t="s">
         <v>163</v>
       </c>
-      <c r="J26" s="38">
+      <c r="K26" s="38">
         <v>7835</v>
       </c>
-      <c r="K26" s="111">
+      <c r="L26" s="111">
         <v>1272.24</v>
       </c>
-      <c r="L26" s="354" t="s">
+      <c r="M26" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M26" s="69"/>
-      <c r="N26" s="137">
+      <c r="N26" s="69"/>
+      <c r="O26" s="137">
         <f t="shared" si="1"/>
         <v>66201.179999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="258" t="s">
+    <row r="27" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="259" t="s">
+      <c r="C27" s="256" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="111">
+      <c r="D27" s="111">
         <v>5451.9</v>
       </c>
-      <c r="D27" s="140"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="137">
+      <c r="E27" s="140"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="137">
         <f t="shared" si="0"/>
         <v>330754.12000000005</v>
       </c>
-      <c r="I27" s="354" t="s">
+      <c r="J27" s="300" t="s">
         <v>203</v>
       </c>
-      <c r="J27" s="38">
+      <c r="K27" s="38">
         <v>7837</v>
       </c>
-      <c r="K27" s="111">
+      <c r="L27" s="111">
         <v>2132.7199999999998</v>
       </c>
-      <c r="L27" s="354" t="s">
+      <c r="M27" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M27" s="69"/>
-      <c r="N27" s="137">
+      <c r="N27" s="69"/>
+      <c r="O27" s="137">
         <f t="shared" si="1"/>
         <v>68333.899999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="258" t="s">
+    <row r="28" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="255" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="259" t="s">
+      <c r="C28" s="256" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="111">
+      <c r="D28" s="111">
         <v>6120</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="137">
+      <c r="E28" s="140"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="137">
         <f t="shared" si="0"/>
         <v>336874.12000000005</v>
       </c>
-      <c r="I28" s="354" t="s">
+      <c r="J28" s="300" t="s">
         <v>168</v>
       </c>
-      <c r="J28" s="38">
+      <c r="K28" s="38">
         <v>7841</v>
       </c>
-      <c r="K28" s="111">
+      <c r="L28" s="111">
         <v>5711.74</v>
       </c>
-      <c r="L28" s="354" t="s">
+      <c r="M28" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M28" s="69"/>
-      <c r="N28" s="137">
+      <c r="N28" s="69"/>
+      <c r="O28" s="137">
         <f t="shared" si="1"/>
         <v>74045.64</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="258" t="s">
+    <row r="29" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="255" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="259" t="s">
+      <c r="C29" s="256" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="111">
+      <c r="D29" s="111">
         <v>200.4</v>
       </c>
-      <c r="D29" s="140"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="137">
+      <c r="E29" s="140"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="137">
         <f t="shared" si="0"/>
         <v>337074.52000000008</v>
       </c>
-      <c r="I29" s="354" t="s">
+      <c r="J29" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="J29" s="38">
+      <c r="K29" s="38">
         <v>7850</v>
       </c>
-      <c r="K29" s="111">
+      <c r="L29" s="111">
         <v>1624.34</v>
       </c>
-      <c r="L29" s="354" t="s">
+      <c r="M29" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M29" s="69"/>
-      <c r="N29" s="137">
+      <c r="N29" s="69"/>
+      <c r="O29" s="137">
         <f t="shared" si="1"/>
         <v>75669.98</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="258" t="s">
+    <row r="30" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="255" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="259" t="s">
+      <c r="C30" s="256" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="111">
+      <c r="D30" s="111">
         <v>16436.2</v>
       </c>
-      <c r="D30" s="140"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="137">
+      <c r="E30" s="140"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="137">
         <f t="shared" si="0"/>
         <v>353510.72000000009</v>
       </c>
-      <c r="G30" s="138"/>
-      <c r="I30" s="354" t="s">
+      <c r="H30" s="138"/>
+      <c r="J30" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="J30" s="38">
+      <c r="K30" s="38">
         <v>7855</v>
       </c>
-      <c r="K30" s="111">
+      <c r="L30" s="111">
         <v>1017</v>
       </c>
-      <c r="L30" s="354" t="s">
+      <c r="M30" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M30" s="69"/>
-      <c r="N30" s="137">
+      <c r="N30" s="69"/>
+      <c r="O30" s="137">
         <f t="shared" si="1"/>
         <v>76686.98</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="258" t="s">
+    <row r="31" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="255" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="259" t="s">
+      <c r="C31" s="256" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="111">
+      <c r="D31" s="111">
         <v>5770.5</v>
       </c>
-      <c r="D31" s="140"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="137">
+      <c r="E31" s="140"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="137">
         <f t="shared" si="0"/>
         <v>359281.22000000009</v>
       </c>
-      <c r="I31" s="354" t="s">
+      <c r="J31" s="300" t="s">
         <v>176</v>
       </c>
-      <c r="J31" s="38">
+      <c r="K31" s="38">
         <v>7861</v>
       </c>
-      <c r="K31" s="111">
+      <c r="L31" s="111">
         <v>2570.5</v>
       </c>
-      <c r="L31" s="354" t="s">
+      <c r="M31" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M31" s="69"/>
-      <c r="N31" s="137">
+      <c r="N31" s="69"/>
+      <c r="O31" s="137">
         <f t="shared" si="1"/>
         <v>79257.48</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="258" t="s">
+    <row r="32" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="255" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="259" t="s">
+      <c r="C32" s="256" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="111">
+      <c r="D32" s="111">
         <v>31786.83</v>
       </c>
-      <c r="D32" s="140"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="137">
+      <c r="E32" s="140"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="137">
         <f t="shared" si="0"/>
         <v>391068.0500000001</v>
       </c>
-      <c r="I32" s="354" t="s">
+      <c r="J32" s="300" t="s">
         <v>176</v>
       </c>
-      <c r="J32" s="38">
+      <c r="K32" s="38">
         <v>7862</v>
       </c>
-      <c r="K32" s="111">
+      <c r="L32" s="111">
         <v>220</v>
       </c>
-      <c r="L32" s="354" t="s">
+      <c r="M32" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M32" s="69"/>
-      <c r="N32" s="137">
+      <c r="N32" s="69"/>
+      <c r="O32" s="137">
         <f t="shared" si="1"/>
         <v>79477.48</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="258" t="s">
+    <row r="33" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="255" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="259" t="s">
+      <c r="C33" s="256" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="111">
+      <c r="D33" s="111">
         <v>1033.5999999999999</v>
       </c>
-      <c r="D33" s="140"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="137">
+      <c r="E33" s="140"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="137">
         <f t="shared" si="0"/>
         <v>392101.65000000008</v>
       </c>
-      <c r="I33" s="354" t="s">
+      <c r="J33" s="300" t="s">
         <v>179</v>
       </c>
-      <c r="J33" s="38">
+      <c r="K33" s="38">
         <v>7868</v>
       </c>
-      <c r="K33" s="111">
+      <c r="L33" s="111">
         <v>1057.4000000000001</v>
       </c>
-      <c r="L33" s="354" t="s">
+      <c r="M33" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M33" s="69"/>
-      <c r="N33" s="137">
+      <c r="N33" s="69"/>
+      <c r="O33" s="137">
         <f t="shared" si="1"/>
         <v>80534.87999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="258" t="s">
+    <row r="34" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="255" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="259" t="s">
+      <c r="C34" s="256" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="111">
+      <c r="D34" s="111">
         <v>23327.4</v>
       </c>
-      <c r="D34" s="140"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="137">
+      <c r="E34" s="140"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="137">
         <f t="shared" si="0"/>
         <v>415429.0500000001</v>
       </c>
-      <c r="I34" s="354" t="s">
+      <c r="J34" s="300" t="s">
         <v>182</v>
       </c>
-      <c r="J34" s="38">
+      <c r="K34" s="38">
         <v>7874</v>
       </c>
-      <c r="K34" s="111">
+      <c r="L34" s="111">
         <v>2185.46</v>
       </c>
-      <c r="L34" s="354" t="s">
+      <c r="M34" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M34" s="69"/>
-      <c r="N34" s="137">
+      <c r="N34" s="69"/>
+      <c r="O34" s="137">
         <f t="shared" si="1"/>
         <v>82720.34</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="258" t="s">
+    <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="255" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="276" t="s">
+      <c r="C35" s="273" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="277">
+      <c r="D35" s="274">
         <v>9701.98</v>
       </c>
-      <c r="D35" s="278"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="137">
+      <c r="E35" s="275"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="137">
         <f t="shared" si="0"/>
         <v>425131.03000000009</v>
       </c>
-      <c r="I35" s="354" t="s">
+      <c r="J35" s="300" t="s">
         <v>185</v>
       </c>
-      <c r="J35" s="38">
+      <c r="K35" s="38">
         <v>7885</v>
       </c>
-      <c r="K35" s="111">
+      <c r="L35" s="111">
         <v>7065.94</v>
       </c>
-      <c r="L35" s="354" t="s">
+      <c r="M35" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M35" s="69"/>
-      <c r="N35" s="137">
+      <c r="N35" s="69"/>
+      <c r="O35" s="137">
         <f t="shared" si="1"/>
         <v>89786.28</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="258" t="s">
+    <row r="36" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="255" t="s">
         <v>179</v>
       </c>
-      <c r="B36" s="259" t="s">
+      <c r="C36" s="256" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="111">
+      <c r="D36" s="111">
         <v>19002.599999999999</v>
       </c>
-      <c r="D36" s="140">
+      <c r="E36" s="140">
         <v>44536</v>
       </c>
-      <c r="E36" s="69">
+      <c r="F36" s="69">
         <v>440783.04</v>
       </c>
-      <c r="F36" s="294">
+      <c r="G36" s="291">
         <f t="shared" si="0"/>
         <v>3350.5900000000838</v>
       </c>
-      <c r="I36" s="354" t="s">
+      <c r="J36" s="300" t="s">
         <v>185</v>
       </c>
-      <c r="J36" s="38">
+      <c r="K36" s="38">
         <v>7886</v>
       </c>
-      <c r="K36" s="111">
+      <c r="L36" s="111">
         <v>2509.7199999999998</v>
       </c>
-      <c r="L36" s="354" t="s">
+      <c r="M36" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M36" s="69"/>
-      <c r="N36" s="137">
+      <c r="N36" s="69"/>
+      <c r="O36" s="137">
         <f t="shared" si="1"/>
         <v>92296</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="258" t="s">
+    <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="255" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="259" t="s">
+      <c r="C37" s="256" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="111">
+      <c r="D37" s="111">
         <v>15004.5</v>
       </c>
-      <c r="D37" s="140"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="137">
-        <f t="shared" si="0"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="137">
+        <f>G36+D37-F37</f>
         <v>18355.090000000084</v>
       </c>
-      <c r="I37" s="354" t="s">
+      <c r="J37" s="300" t="s">
         <v>187</v>
       </c>
-      <c r="J37" s="38">
+      <c r="K37" s="38">
         <v>7894</v>
       </c>
-      <c r="K37" s="111">
+      <c r="L37" s="111">
         <v>6480.14</v>
       </c>
-      <c r="L37" s="354" t="s">
+      <c r="M37" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M37" s="69"/>
-      <c r="N37" s="137">
+      <c r="N37" s="69"/>
+      <c r="O37" s="137">
         <f t="shared" si="1"/>
         <v>98776.14</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="258" t="s">
+    <row r="38" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="255" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="259" t="s">
+      <c r="C38" s="256" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="111">
+      <c r="D38" s="111">
         <v>11653</v>
       </c>
-      <c r="D38" s="140"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="137">
-        <f t="shared" si="0"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="137">
+        <f t="shared" ref="G38:G86" si="2">G37+D38-F38</f>
         <v>30008.090000000084</v>
       </c>
-      <c r="I38" s="354" t="s">
+      <c r="J38" s="300" t="s">
         <v>190</v>
       </c>
-      <c r="J38" s="38">
+      <c r="K38" s="38">
         <v>7902</v>
       </c>
-      <c r="K38" s="111">
+      <c r="L38" s="111">
         <v>14917</v>
       </c>
-      <c r="L38" s="354" t="s">
+      <c r="M38" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M38" s="69"/>
-      <c r="N38" s="137">
+      <c r="N38" s="69"/>
+      <c r="O38" s="137">
         <f t="shared" si="1"/>
         <v>113693.14</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="258" t="s">
+    <row r="39" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="255" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="259" t="s">
+      <c r="C39" s="256" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="111">
+      <c r="D39" s="111">
         <v>13564.4</v>
       </c>
-      <c r="D39" s="140"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="137">
-        <f t="shared" si="0"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="137">
+        <f t="shared" si="2"/>
         <v>43572.490000000085</v>
       </c>
-      <c r="I39" s="354" t="s">
+      <c r="J39" s="300" t="s">
         <v>190</v>
       </c>
-      <c r="J39" s="38">
+      <c r="K39" s="38">
         <v>7904</v>
       </c>
-      <c r="K39" s="111">
+      <c r="L39" s="111">
         <v>23258.400000000001</v>
       </c>
-      <c r="L39" s="354" t="s">
+      <c r="M39" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M39" s="69"/>
-      <c r="N39" s="137">
+      <c r="N39" s="69"/>
+      <c r="O39" s="137">
         <f t="shared" si="1"/>
         <v>136951.54</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="258" t="s">
+    <row r="40" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="255" t="s">
         <v>187</v>
       </c>
-      <c r="B40" s="259" t="s">
+      <c r="C40" s="256" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="111">
+      <c r="D40" s="111">
         <v>23352.1</v>
       </c>
-      <c r="D40" s="140"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="137">
-        <f t="shared" si="0"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="137">
+        <f t="shared" si="2"/>
         <v>66924.590000000084</v>
       </c>
-      <c r="I40" s="354" t="s">
+      <c r="J40" s="300" t="s">
         <v>192</v>
       </c>
-      <c r="J40" s="38">
+      <c r="K40" s="38">
         <v>7909</v>
       </c>
-      <c r="K40" s="111">
+      <c r="L40" s="111">
         <v>4062.48</v>
       </c>
-      <c r="L40" s="354" t="s">
+      <c r="M40" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M40" s="69"/>
-      <c r="N40" s="137">
+      <c r="N40" s="69"/>
+      <c r="O40" s="137">
         <f t="shared" si="1"/>
         <v>141014.02000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="258" t="s">
+    <row r="41" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="255" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="259" t="s">
+      <c r="C41" s="256" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="111">
+      <c r="D41" s="111">
         <v>1062.5999999999999</v>
       </c>
-      <c r="D41" s="140"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="137">
-        <f t="shared" si="0"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="137">
+        <f t="shared" si="2"/>
         <v>67987.19000000009</v>
       </c>
-      <c r="I41" s="354" t="s">
+      <c r="J41" s="300" t="s">
         <v>195</v>
       </c>
-      <c r="J41" s="38">
+      <c r="K41" s="38">
         <v>7918</v>
       </c>
-      <c r="K41" s="111">
+      <c r="L41" s="111">
         <v>2667.28</v>
       </c>
-      <c r="L41" s="354" t="s">
+      <c r="M41" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M41" s="69"/>
-      <c r="N41" s="137">
+      <c r="N41" s="69"/>
+      <c r="O41" s="137">
         <f t="shared" si="1"/>
         <v>143681.30000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="258" t="s">
+    <row r="42" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="255" t="s">
         <v>190</v>
       </c>
-      <c r="B42" s="259" t="s">
+      <c r="C42" s="256" t="s">
         <v>191</v>
       </c>
-      <c r="C42" s="111">
+      <c r="D42" s="111">
         <v>23716.9</v>
       </c>
-      <c r="D42" s="140"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="137">
-        <f t="shared" si="0"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="137">
+        <f t="shared" si="2"/>
         <v>91704.090000000084</v>
       </c>
-      <c r="I42" s="354" t="s">
+      <c r="J42" s="300" t="s">
         <v>195</v>
       </c>
-      <c r="J42" s="38">
+      <c r="K42" s="38">
         <v>7920</v>
       </c>
-      <c r="K42" s="111">
+      <c r="L42" s="111">
         <v>19440.8</v>
       </c>
-      <c r="L42" s="354" t="s">
+      <c r="M42" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M42" s="69"/>
-      <c r="N42" s="137">
+      <c r="N42" s="69"/>
+      <c r="O42" s="137">
         <f t="shared" si="1"/>
         <v>163122.1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="258" t="s">
+    <row r="43" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="255" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="259" t="s">
+      <c r="C43" s="256" t="s">
         <v>193</v>
       </c>
-      <c r="C43" s="111">
-        <v>0</v>
-      </c>
-      <c r="D43" s="140"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="137">
-        <f t="shared" si="0"/>
+      <c r="D43" s="111">
+        <v>0</v>
+      </c>
+      <c r="E43" s="140"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="137">
+        <f t="shared" si="2"/>
         <v>91704.090000000084</v>
       </c>
-      <c r="I43" s="354" t="s">
+      <c r="J43" s="300" t="s">
         <v>195</v>
       </c>
-      <c r="J43" s="38">
+      <c r="K43" s="38">
         <v>7925</v>
       </c>
-      <c r="K43" s="111">
+      <c r="L43" s="111">
         <v>803.24</v>
       </c>
-      <c r="L43" s="354" t="s">
+      <c r="M43" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="M43" s="69"/>
-      <c r="N43" s="137">
+      <c r="N43" s="69"/>
+      <c r="O43" s="137">
         <f t="shared" si="1"/>
         <v>163925.34</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="258" t="s">
+    <row r="44" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="255" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="259" t="s">
+      <c r="C44" s="256" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="111">
+      <c r="D44" s="111">
         <v>22472</v>
       </c>
-      <c r="D44" s="140"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="137">
-        <f t="shared" si="0"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="137">
+        <f t="shared" si="2"/>
         <v>114176.09000000008</v>
       </c>
-      <c r="I44" s="232"/>
-      <c r="J44" s="233"/>
-      <c r="K44" s="235"/>
-      <c r="L44" s="295">
+      <c r="J44" s="232"/>
+      <c r="K44" s="233"/>
+      <c r="L44" s="235"/>
+      <c r="M44" s="292">
         <v>44536</v>
       </c>
-      <c r="M44" s="296">
+      <c r="N44" s="293">
         <v>163925.34</v>
       </c>
-      <c r="N44" s="294">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="258" t="s">
+      <c r="O44" s="291">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="255" t="s">
         <v>195</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="C45" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="111">
+      <c r="D45" s="111">
         <v>77166.05</v>
       </c>
-      <c r="D45" s="140"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="137">
-        <f t="shared" si="0"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="137">
+        <f t="shared" si="2"/>
         <v>191342.14000000007</v>
       </c>
-      <c r="I45" s="232"/>
-      <c r="J45" s="233"/>
-      <c r="K45" s="234"/>
-      <c r="L45" s="140"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="258" t="s">
+      <c r="J45" s="232"/>
+      <c r="K45" s="233"/>
+      <c r="L45" s="234"/>
+      <c r="M45" s="140"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="255" t="s">
         <v>195</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="C46" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="C46" s="256">
+      <c r="D46" s="254">
         <v>104.4</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="137">
-        <f t="shared" si="0"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="137">
+        <f t="shared" si="2"/>
         <v>191446.54000000007</v>
       </c>
-      <c r="I46" s="232"/>
-      <c r="J46" s="233"/>
-      <c r="K46" s="234"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="258" t="s">
+      <c r="J46" s="232"/>
+      <c r="K46" s="233"/>
+      <c r="L46" s="234"/>
+      <c r="M46" s="140"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="255" t="s">
         <v>195</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="C47" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="256">
+      <c r="D47" s="254">
         <v>702</v>
       </c>
-      <c r="D47" s="140"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="137">
-        <f t="shared" si="0"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="137">
+        <f t="shared" si="2"/>
         <v>192148.54000000007</v>
       </c>
-      <c r="I47" s="232"/>
-      <c r="J47" s="233"/>
-      <c r="K47" s="234"/>
-      <c r="L47" s="140"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="255">
+      <c r="J47" s="232"/>
+      <c r="K47" s="233"/>
+      <c r="L47" s="234"/>
+      <c r="M47" s="140"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="396">
+        <v>44533</v>
+      </c>
+      <c r="C48" s="398" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="228">
+        <v>17024.8</v>
+      </c>
+      <c r="E48" s="140"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="137">
+        <f t="shared" si="2"/>
+        <v>209173.34000000005</v>
+      </c>
+      <c r="J48" s="232"/>
+      <c r="K48" s="233"/>
+      <c r="L48" s="234"/>
+      <c r="M48" s="140"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="134">
+        <v>44533</v>
+      </c>
+      <c r="C49" s="139" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="228">
+        <v>7870.56</v>
+      </c>
+      <c r="E49" s="140"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="137">
+        <f t="shared" si="2"/>
+        <v>217043.90000000005</v>
+      </c>
+      <c r="J49" s="232"/>
+      <c r="K49" s="233"/>
+      <c r="L49" s="234"/>
+      <c r="M49" s="140"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="397">
         <v>44534</v>
       </c>
-      <c r="B48" s="254" t="s">
+      <c r="C50" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="257">
+      <c r="D50" s="254">
         <v>73956.800000000003</v>
       </c>
-      <c r="D48" s="140"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="137">
-        <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I48" s="232"/>
-      <c r="J48" s="233"/>
-      <c r="K48" s="234"/>
-      <c r="L48" s="140"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="140"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="228"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="137">
-        <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I49" s="232"/>
-      <c r="J49" s="233"/>
-      <c r="K49" s="234"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="134"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="137">
-        <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I50" s="134"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="140"/>
-      <c r="M50" s="69"/>
-      <c r="N50" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="141"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="143"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="137">
-        <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I51" s="141"/>
-      <c r="J51" s="142"/>
-      <c r="K51" s="143"/>
-      <c r="L51" s="140"/>
-      <c r="M51" s="69"/>
-      <c r="N51" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="141"/>
-      <c r="B52" s="142"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="137">
-        <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I52" s="141"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="143"/>
-      <c r="L52" s="140"/>
-      <c r="M52" s="69"/>
-      <c r="N52" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="141"/>
-      <c r="B53" s="142"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="137">
-        <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I53" s="141"/>
-      <c r="J53" s="142"/>
-      <c r="K53" s="143"/>
-      <c r="L53" s="140"/>
-      <c r="M53" s="69"/>
-      <c r="N53" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="141"/>
-      <c r="B54" s="142"/>
-      <c r="C54" s="143"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="137">
-        <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I54" s="141"/>
-      <c r="J54" s="142"/>
-      <c r="K54" s="143"/>
-      <c r="L54" s="140"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="141"/>
-      <c r="B55" s="142"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="137">
-        <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I55" s="141"/>
-      <c r="J55" s="142"/>
-      <c r="K55" s="143"/>
-      <c r="L55" s="140"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="141"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="137">
-        <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I56" s="141"/>
-      <c r="J56" s="142"/>
-      <c r="K56" s="143"/>
-      <c r="L56" s="140"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="141"/>
-      <c r="B57" s="142"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="137">
-        <f t="shared" ref="F57:F85" si="2">F56+C57-E57</f>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I57" s="141"/>
-      <c r="J57" s="142"/>
-      <c r="K57" s="143"/>
-      <c r="L57" s="140"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="137">
-        <f t="shared" ref="N57:N85" si="3">N56+K57-M57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="141"/>
-      <c r="B58" s="142"/>
-      <c r="C58" s="143"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="137">
+      <c r="E50" s="140"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I58" s="141"/>
-      <c r="J58" s="142"/>
-      <c r="K58" s="143"/>
-      <c r="L58" s="140"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J50" s="134"/>
+      <c r="K50" s="139"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="140"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="141"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="137">
+        <f t="shared" si="2"/>
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J51" s="141"/>
+      <c r="K51" s="142"/>
+      <c r="L51" s="143"/>
+      <c r="M51" s="140"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="141"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="137">
+        <f t="shared" si="2"/>
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J52" s="141"/>
+      <c r="K52" s="142"/>
+      <c r="L52" s="143"/>
+      <c r="M52" s="140"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="141"/>
+      <c r="C53" s="142"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="137">
+        <f t="shared" si="2"/>
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J53" s="141"/>
+      <c r="K53" s="142"/>
+      <c r="L53" s="143"/>
+      <c r="M53" s="140"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="141"/>
+      <c r="C54" s="142"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="137">
+        <f t="shared" si="2"/>
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J54" s="141"/>
+      <c r="K54" s="142"/>
+      <c r="L54" s="143"/>
+      <c r="M54" s="140"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="141"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="137">
+        <f t="shared" si="2"/>
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J55" s="141"/>
+      <c r="K55" s="142"/>
+      <c r="L55" s="143"/>
+      <c r="M55" s="140"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="141"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="137">
+        <f t="shared" si="2"/>
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J56" s="141"/>
+      <c r="K56" s="142"/>
+      <c r="L56" s="143"/>
+      <c r="M56" s="140"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="141"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="137">
+        <f t="shared" si="2"/>
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J57" s="141"/>
+      <c r="K57" s="142"/>
+      <c r="L57" s="143"/>
+      <c r="M57" s="140"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="137">
+        <f t="shared" ref="O57:O85" si="3">O56+L57-N57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="141"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="137">
+        <f t="shared" si="2"/>
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J58" s="141"/>
+      <c r="K58" s="142"/>
+      <c r="L58" s="143"/>
+      <c r="M58" s="140"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="141"/>
-      <c r="B59" s="142"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="137">
+    <row r="59" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="141"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I59" s="141"/>
-      <c r="J59" s="142"/>
-      <c r="K59" s="143"/>
-      <c r="L59" s="140"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J59" s="141"/>
+      <c r="K59" s="142"/>
+      <c r="L59" s="143"/>
+      <c r="M59" s="140"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="141"/>
-      <c r="B60" s="142"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="137">
+    <row r="60" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="141"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I60" s="141"/>
-      <c r="J60" s="142"/>
-      <c r="K60" s="143"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="69"/>
-      <c r="N60" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J60" s="141"/>
+      <c r="K60" s="142"/>
+      <c r="L60" s="143"/>
+      <c r="M60" s="140"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="141"/>
-      <c r="B61" s="142"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="137">
+    <row r="61" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="141"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I61" s="141"/>
-      <c r="J61" s="142"/>
-      <c r="K61" s="143"/>
-      <c r="L61" s="140"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J61" s="141"/>
+      <c r="K61" s="142"/>
+      <c r="L61" s="143"/>
+      <c r="M61" s="140"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="141"/>
-      <c r="B62" s="142"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="137">
+    <row r="62" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="141"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I62" s="141"/>
-      <c r="J62" s="142"/>
-      <c r="K62" s="143"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J62" s="141"/>
+      <c r="K62" s="142"/>
+      <c r="L62" s="143"/>
+      <c r="M62" s="140"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="141"/>
-      <c r="B63" s="142"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="137">
+    <row r="63" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="141"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I63" s="141"/>
-      <c r="J63" s="142"/>
-      <c r="K63" s="143"/>
-      <c r="L63" s="140"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J63" s="141"/>
+      <c r="K63" s="142"/>
+      <c r="L63" s="143"/>
+      <c r="M63" s="140"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="141"/>
-      <c r="B64" s="142"/>
-      <c r="C64" s="143"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="137">
+    <row r="64" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="141"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="143"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I64" s="141"/>
-      <c r="J64" s="142"/>
-      <c r="K64" s="143"/>
-      <c r="L64" s="140"/>
-      <c r="M64" s="69"/>
-      <c r="N64" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J64" s="141"/>
+      <c r="K64" s="142"/>
+      <c r="L64" s="143"/>
+      <c r="M64" s="140"/>
+      <c r="N64" s="69"/>
+      <c r="O64" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="141"/>
-      <c r="B65" s="142"/>
-      <c r="C65" s="143"/>
-      <c r="D65" s="140"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="137">
+    <row r="65" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="141"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I65" s="141"/>
-      <c r="J65" s="142"/>
-      <c r="K65" s="143"/>
-      <c r="L65" s="140"/>
-      <c r="M65" s="69"/>
-      <c r="N65" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J65" s="141"/>
+      <c r="K65" s="142"/>
+      <c r="L65" s="143"/>
+      <c r="M65" s="140"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="141"/>
-      <c r="B66" s="142"/>
-      <c r="C66" s="143"/>
-      <c r="D66" s="140"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="137">
+    <row r="66" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="141"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I66" s="141"/>
-      <c r="J66" s="142"/>
-      <c r="K66" s="143"/>
-      <c r="L66" s="140"/>
-      <c r="M66" s="69"/>
-      <c r="N66" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J66" s="141"/>
+      <c r="K66" s="142"/>
+      <c r="L66" s="143"/>
+      <c r="M66" s="140"/>
+      <c r="N66" s="69"/>
+      <c r="O66" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="141"/>
-      <c r="B67" s="142"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="140"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="137">
+    <row r="67" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="141"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="140"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I67" s="141"/>
-      <c r="J67" s="142"/>
-      <c r="K67" s="143"/>
-      <c r="L67" s="140"/>
-      <c r="M67" s="69"/>
-      <c r="N67" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J67" s="141"/>
+      <c r="K67" s="142"/>
+      <c r="L67" s="143"/>
+      <c r="M67" s="140"/>
+      <c r="N67" s="69"/>
+      <c r="O67" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="141"/>
-      <c r="B68" s="142"/>
-      <c r="C68" s="143"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="137">
+    <row r="68" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="141"/>
+      <c r="C68" s="142"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I68" s="141"/>
-      <c r="J68" s="142"/>
-      <c r="K68" s="143"/>
-      <c r="L68" s="140"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J68" s="141"/>
+      <c r="K68" s="142"/>
+      <c r="L68" s="143"/>
+      <c r="M68" s="140"/>
+      <c r="N68" s="69"/>
+      <c r="O68" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="144"/>
-      <c r="B69" s="145"/>
-      <c r="C69" s="146"/>
-      <c r="D69" s="147"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="137">
+    <row r="69" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="144"/>
+      <c r="C69" s="145"/>
+      <c r="D69" s="146"/>
+      <c r="E69" s="147"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I69" s="144"/>
-      <c r="J69" s="145"/>
-      <c r="K69" s="146"/>
-      <c r="L69" s="147"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J69" s="144"/>
+      <c r="K69" s="145"/>
+      <c r="L69" s="146"/>
+      <c r="M69" s="147"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="144"/>
-      <c r="B70" s="145"/>
-      <c r="C70" s="146"/>
-      <c r="D70" s="147"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="137">
+    <row r="70" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="144"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="146"/>
+      <c r="E70" s="147"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I70" s="144"/>
-      <c r="J70" s="145"/>
-      <c r="K70" s="146"/>
-      <c r="L70" s="147"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J70" s="144"/>
+      <c r="K70" s="145"/>
+      <c r="L70" s="146"/>
+      <c r="M70" s="147"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="144"/>
-      <c r="B71" s="145"/>
-      <c r="C71" s="146"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="137">
+    <row r="71" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="144"/>
+      <c r="C71" s="145"/>
+      <c r="D71" s="146"/>
+      <c r="E71" s="147"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I71" s="144"/>
-      <c r="J71" s="145"/>
-      <c r="K71" s="146"/>
-      <c r="L71" s="147"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J71" s="144"/>
+      <c r="K71" s="145"/>
+      <c r="L71" s="146"/>
+      <c r="M71" s="147"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="144"/>
-      <c r="B72" s="145"/>
-      <c r="C72" s="146"/>
-      <c r="D72" s="147"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="137">
+    <row r="72" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="144"/>
+      <c r="C72" s="145"/>
+      <c r="D72" s="146"/>
+      <c r="E72" s="147"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I72" s="144"/>
-      <c r="J72" s="145"/>
-      <c r="K72" s="146"/>
-      <c r="L72" s="147"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J72" s="144"/>
+      <c r="K72" s="145"/>
+      <c r="L72" s="146"/>
+      <c r="M72" s="147"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="144"/>
-      <c r="B73" s="145"/>
-      <c r="C73" s="146"/>
-      <c r="D73" s="147"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="137">
+    <row r="73" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="144"/>
+      <c r="C73" s="145"/>
+      <c r="D73" s="146"/>
+      <c r="E73" s="147"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I73" s="144"/>
-      <c r="J73" s="145"/>
-      <c r="K73" s="146"/>
-      <c r="L73" s="147"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J73" s="144"/>
+      <c r="K73" s="145"/>
+      <c r="L73" s="146"/>
+      <c r="M73" s="147"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="144"/>
-      <c r="B74" s="145"/>
-      <c r="C74" s="146"/>
-      <c r="D74" s="147"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="137">
+    <row r="74" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="144"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="146"/>
+      <c r="E74" s="147"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I74" s="144"/>
-      <c r="J74" s="145"/>
-      <c r="K74" s="146"/>
-      <c r="L74" s="147"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J74" s="144"/>
+      <c r="K74" s="145"/>
+      <c r="L74" s="146"/>
+      <c r="M74" s="147"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="141"/>
-      <c r="B75" s="142"/>
-      <c r="C75" s="143"/>
-      <c r="D75" s="148"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="137">
+    <row r="75" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="141"/>
+      <c r="C75" s="142"/>
+      <c r="D75" s="143"/>
+      <c r="E75" s="148"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I75" s="141"/>
-      <c r="J75" s="142"/>
-      <c r="K75" s="143"/>
-      <c r="L75" s="148"/>
-      <c r="M75" s="69"/>
-      <c r="N75" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J75" s="141"/>
+      <c r="K75" s="142"/>
+      <c r="L75" s="143"/>
+      <c r="M75" s="148"/>
+      <c r="N75" s="69"/>
+      <c r="O75" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="141"/>
-      <c r="B76" s="142"/>
-      <c r="C76" s="143"/>
-      <c r="D76" s="148"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="137">
+    <row r="76" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="141"/>
+      <c r="C76" s="142"/>
+      <c r="D76" s="143"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I76" s="141"/>
-      <c r="J76" s="142"/>
-      <c r="K76" s="143"/>
-      <c r="L76" s="148"/>
-      <c r="M76" s="69"/>
-      <c r="N76" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J76" s="141"/>
+      <c r="K76" s="142"/>
+      <c r="L76" s="143"/>
+      <c r="M76" s="148"/>
+      <c r="N76" s="69"/>
+      <c r="O76" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="141"/>
-      <c r="B77" s="142"/>
-      <c r="C77" s="143"/>
-      <c r="D77" s="148"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="137">
+    <row r="77" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="141"/>
+      <c r="C77" s="142"/>
+      <c r="D77" s="143"/>
+      <c r="E77" s="148"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I77" s="141"/>
-      <c r="J77" s="142"/>
-      <c r="K77" s="143"/>
-      <c r="L77" s="148"/>
-      <c r="M77" s="69"/>
-      <c r="N77" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J77" s="141"/>
+      <c r="K77" s="142"/>
+      <c r="L77" s="143"/>
+      <c r="M77" s="148"/>
+      <c r="N77" s="69"/>
+      <c r="O77" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="141"/>
-      <c r="B78" s="142"/>
-      <c r="C78" s="143"/>
-      <c r="D78" s="148"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="137">
+    <row r="78" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="141"/>
+      <c r="C78" s="142"/>
+      <c r="D78" s="143"/>
+      <c r="E78" s="148"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I78" s="141"/>
-      <c r="J78" s="142"/>
-      <c r="K78" s="143"/>
-      <c r="L78" s="148"/>
-      <c r="M78" s="69"/>
-      <c r="N78" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J78" s="141"/>
+      <c r="K78" s="142"/>
+      <c r="L78" s="143"/>
+      <c r="M78" s="148"/>
+      <c r="N78" s="69"/>
+      <c r="O78" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="141"/>
-      <c r="B79" s="142"/>
-      <c r="C79" s="143"/>
-      <c r="D79" s="148"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="137">
+    <row r="79" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="141"/>
+      <c r="C79" s="142"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="148"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I79" s="141"/>
-      <c r="J79" s="142"/>
-      <c r="K79" s="143"/>
-      <c r="L79" s="148"/>
-      <c r="M79" s="69"/>
-      <c r="N79" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J79" s="141"/>
+      <c r="K79" s="142"/>
+      <c r="L79" s="143"/>
+      <c r="M79" s="148"/>
+      <c r="N79" s="69"/>
+      <c r="O79" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="141"/>
-      <c r="B80" s="142"/>
-      <c r="C80" s="143"/>
-      <c r="D80" s="148"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="137">
+    <row r="80" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="141"/>
+      <c r="C80" s="142"/>
+      <c r="D80" s="143"/>
+      <c r="E80" s="148"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I80" s="141"/>
-      <c r="J80" s="142"/>
-      <c r="K80" s="143"/>
-      <c r="L80" s="148"/>
-      <c r="M80" s="69"/>
-      <c r="N80" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J80" s="141"/>
+      <c r="K80" s="142"/>
+      <c r="L80" s="143"/>
+      <c r="M80" s="148"/>
+      <c r="N80" s="69"/>
+      <c r="O80" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="141"/>
-      <c r="B81" s="142"/>
-      <c r="C81" s="143"/>
-      <c r="D81" s="148"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="137">
+    <row r="81" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="141"/>
+      <c r="C81" s="142"/>
+      <c r="D81" s="143"/>
+      <c r="E81" s="148"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I81" s="141"/>
-      <c r="J81" s="142"/>
-      <c r="K81" s="143"/>
-      <c r="L81" s="148"/>
-      <c r="M81" s="69"/>
-      <c r="N81" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J81" s="141"/>
+      <c r="K81" s="142"/>
+      <c r="L81" s="143"/>
+      <c r="M81" s="148"/>
+      <c r="N81" s="69"/>
+      <c r="O81" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="141"/>
-      <c r="B82" s="142"/>
-      <c r="C82" s="143"/>
-      <c r="D82" s="148"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="137">
+    <row r="82" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="141"/>
+      <c r="C82" s="142"/>
+      <c r="D82" s="143"/>
+      <c r="E82" s="148"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I82" s="141"/>
-      <c r="J82" s="142"/>
-      <c r="K82" s="143"/>
-      <c r="L82" s="148"/>
-      <c r="M82" s="69"/>
-      <c r="N82" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J82" s="141"/>
+      <c r="K82" s="142"/>
+      <c r="L82" s="143"/>
+      <c r="M82" s="148"/>
+      <c r="N82" s="69"/>
+      <c r="O82" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="141"/>
-      <c r="B83" s="142"/>
-      <c r="C83" s="143"/>
-      <c r="D83" s="148"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="137">
+    <row r="83" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="141"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="148"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I83" s="141"/>
-      <c r="J83" s="142"/>
-      <c r="K83" s="143"/>
-      <c r="L83" s="148"/>
-      <c r="M83" s="69"/>
-      <c r="N83" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J83" s="141"/>
+      <c r="K83" s="142"/>
+      <c r="L83" s="143"/>
+      <c r="M83" s="148"/>
+      <c r="N83" s="69"/>
+      <c r="O83" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="141"/>
-      <c r="B84" s="142"/>
-      <c r="C84" s="143"/>
-      <c r="D84" s="148"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="137">
+    <row r="84" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="141"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="143"/>
+      <c r="E84" s="148"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I84" s="141"/>
-      <c r="J84" s="142"/>
-      <c r="K84" s="143"/>
-      <c r="L84" s="148"/>
-      <c r="M84" s="69"/>
-      <c r="N84" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J84" s="141"/>
+      <c r="K84" s="142"/>
+      <c r="L84" s="143"/>
+      <c r="M84" s="148"/>
+      <c r="N84" s="69"/>
+      <c r="O84" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="149"/>
-      <c r="B85" s="223"/>
-      <c r="C85" s="34">
-        <v>0</v>
-      </c>
-      <c r="D85" s="152"/>
-      <c r="E85" s="151"/>
-      <c r="F85" s="137">
+    <row r="85" spans="2:15" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="149"/>
+      <c r="C85" s="223"/>
+      <c r="D85" s="34">
+        <v>0</v>
+      </c>
+      <c r="E85" s="152"/>
+      <c r="F85" s="151"/>
+      <c r="G85" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="I85" s="149"/>
-      <c r="J85" s="150"/>
-      <c r="K85" s="151">
-        <v>0</v>
-      </c>
-      <c r="L85" s="152"/>
-      <c r="M85" s="151"/>
-      <c r="N85" s="137">
+        <v>291000.70000000007</v>
+      </c>
+      <c r="J85" s="149"/>
+      <c r="K85" s="150"/>
+      <c r="L85" s="151">
+        <v>0</v>
+      </c>
+      <c r="M85" s="152"/>
+      <c r="N85" s="151"/>
+      <c r="O85" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B86" s="224"/>
-      <c r="C86" s="225">
-        <f>SUM(C3:C85)</f>
-        <v>706888.38000000012</v>
-      </c>
-      <c r="D86" s="97"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="153">
-        <f>F85</f>
-        <v>266105.34000000008</v>
-      </c>
-      <c r="K86" s="222">
-        <f>SUM(K3:K85)</f>
+    <row r="86" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C86" s="224"/>
+      <c r="D86" s="225">
+        <f>SUM(D3:D85)</f>
+        <v>731783.74000000022</v>
+      </c>
+      <c r="E86" s="97"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="399">
+        <f>G85</f>
+        <v>291000.70000000007</v>
+      </c>
+      <c r="L86" s="222">
+        <f>SUM(L3:L85)</f>
         <v>164725.34</v>
       </c>
-      <c r="L86" s="97"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="153">
-        <f>N85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="226"/>
-      <c r="C87" s="227"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="344" t="s">
+      <c r="M86" s="97"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="153">
+        <f>O85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="226"/>
+      <c r="D87" s="227"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="391" t="s">
         <v>213</v>
       </c>
-      <c r="K87" s="1"/>
-      <c r="L87" s="97"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="98"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="345"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="97"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89"/>
-      <c r="B89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="I89"/>
-      <c r="J89" s="207"/>
-      <c r="L89" s="23"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90"/>
-      <c r="B90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="I90"/>
-      <c r="J90" s="207"/>
-      <c r="L90" s="23"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91"/>
-      <c r="B91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="I91"/>
-      <c r="J91" s="207"/>
-      <c r="L91" s="23"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92"/>
-      <c r="B92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="F92"/>
-      <c r="I92"/>
-      <c r="J92" s="207"/>
-      <c r="L92" s="23"/>
-      <c r="N92"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93"/>
-      <c r="B93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="F93"/>
-      <c r="I93"/>
-      <c r="J93" s="207"/>
-      <c r="L93" s="23"/>
-      <c r="N93"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="B94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="F94"/>
-      <c r="I94"/>
-      <c r="J94" s="207"/>
-      <c r="L94" s="23"/>
-      <c r="N94"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="B95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="F95"/>
-      <c r="I95"/>
-      <c r="J95" s="207"/>
-      <c r="L95" s="23"/>
-      <c r="N95"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="B96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="F96"/>
-      <c r="I96"/>
-      <c r="J96" s="207"/>
-      <c r="L96" s="23"/>
-      <c r="N96"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="F97"/>
-      <c r="I97"/>
-      <c r="J97" s="207"/>
-      <c r="L97" s="23"/>
-      <c r="N97"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="F98"/>
-      <c r="I98"/>
-      <c r="J98" s="207"/>
-      <c r="L98" s="23"/>
-      <c r="N98"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="F99"/>
-      <c r="I99"/>
-      <c r="J99" s="207"/>
-      <c r="L99" s="23"/>
-      <c r="N99"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100"/>
-      <c r="B100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="F100"/>
-      <c r="I100"/>
-      <c r="J100" s="207"/>
-      <c r="L100" s="23"/>
-      <c r="N100"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101"/>
-      <c r="B101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="97"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C88" s="98"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="97"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="392"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="97"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89"/>
+      <c r="C89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="J89"/>
+      <c r="K89" s="207"/>
+      <c r="M89" s="23"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90"/>
+      <c r="C90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="J90"/>
+      <c r="K90" s="207"/>
+      <c r="M90" s="23"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91"/>
+      <c r="C91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="J91"/>
+      <c r="K91" s="207"/>
+      <c r="M91" s="23"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92"/>
+      <c r="C92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="G92"/>
+      <c r="J92"/>
+      <c r="K92" s="207"/>
+      <c r="M92" s="23"/>
+      <c r="O92"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93"/>
+      <c r="C93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="G93"/>
+      <c r="J93"/>
+      <c r="K93" s="207"/>
+      <c r="M93" s="23"/>
+      <c r="O93"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94"/>
+      <c r="C94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="G94"/>
+      <c r="J94"/>
+      <c r="K94" s="207"/>
+      <c r="M94" s="23"/>
+      <c r="O94"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95"/>
+      <c r="C95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="G95"/>
+      <c r="J95"/>
+      <c r="K95" s="207"/>
+      <c r="M95" s="23"/>
+      <c r="O95"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96"/>
+      <c r="C96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="G96"/>
+      <c r="J96"/>
+      <c r="K96" s="207"/>
+      <c r="M96" s="23"/>
+      <c r="O96"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97"/>
+      <c r="C97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="G97"/>
+      <c r="J97"/>
+      <c r="K97" s="207"/>
+      <c r="M97" s="23"/>
+      <c r="O97"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98"/>
+      <c r="C98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="G98"/>
+      <c r="J98"/>
+      <c r="K98" s="207"/>
+      <c r="M98" s="23"/>
+      <c r="O98"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99"/>
+      <c r="C99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="G99"/>
+      <c r="J99"/>
+      <c r="K99" s="207"/>
+      <c r="M99" s="23"/>
+      <c r="O99"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100"/>
+      <c r="C100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="G100"/>
+      <c r="J100"/>
+      <c r="K100" s="207"/>
+      <c r="M100" s="23"/>
+      <c r="O100"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101"/>
+      <c r="C101" s="23"/>
+      <c r="E101" s="23"/>
       <c r="F101"/>
-      <c r="I101"/>
-      <c r="J101" s="207"/>
-      <c r="L101" s="23"/>
-      <c r="M101"/>
+      <c r="G101"/>
+      <c r="J101"/>
+      <c r="K101" s="207"/>
+      <c r="M101" s="23"/>
       <c r="N101"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102"/>
-      <c r="B102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102"/>
+      <c r="O101"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102"/>
+      <c r="C102" s="23"/>
+      <c r="E102" s="23"/>
       <c r="F102"/>
-      <c r="I102"/>
-      <c r="J102" s="207"/>
-      <c r="L102" s="23"/>
-      <c r="M102"/>
+      <c r="G102"/>
+      <c r="J102"/>
+      <c r="K102" s="207"/>
+      <c r="M102" s="23"/>
       <c r="N102"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103"/>
-      <c r="B103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103"/>
+      <c r="O102"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103"/>
+      <c r="C103" s="23"/>
+      <c r="E103" s="23"/>
       <c r="F103"/>
-      <c r="I103"/>
-      <c r="J103" s="207"/>
-      <c r="L103" s="23"/>
-      <c r="M103"/>
+      <c r="G103"/>
+      <c r="J103"/>
+      <c r="K103" s="207"/>
+      <c r="M103" s="23"/>
       <c r="N103"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="B104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104"/>
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104"/>
+      <c r="C104" s="23"/>
+      <c r="E104" s="23"/>
       <c r="F104"/>
-      <c r="I104"/>
-      <c r="J104" s="207"/>
-      <c r="L104" s="23"/>
-      <c r="M104"/>
+      <c r="G104"/>
+      <c r="J104"/>
+      <c r="K104" s="207"/>
+      <c r="M104" s="23"/>
       <c r="N104"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105"/>
-      <c r="B105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105"/>
+      <c r="C105" s="23"/>
+      <c r="E105" s="23"/>
       <c r="F105"/>
-      <c r="I105"/>
-      <c r="J105" s="207"/>
-      <c r="L105" s="23"/>
-      <c r="M105"/>
+      <c r="G105"/>
+      <c r="J105"/>
+      <c r="K105" s="207"/>
+      <c r="M105" s="23"/>
       <c r="N105"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106"/>
-      <c r="B106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106"/>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106"/>
+      <c r="C106" s="23"/>
+      <c r="E106" s="23"/>
       <c r="F106"/>
-      <c r="I106"/>
-      <c r="J106" s="207"/>
-      <c r="L106" s="23"/>
-      <c r="M106"/>
+      <c r="G106"/>
+      <c r="J106"/>
+      <c r="K106" s="207"/>
+      <c r="M106" s="23"/>
       <c r="N106"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107"/>
-      <c r="J107" s="207"/>
-      <c r="L107" s="23"/>
-      <c r="M107"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108"/>
-      <c r="J108" s="207"/>
-      <c r="L108" s="23"/>
-      <c r="M108"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109"/>
-      <c r="J109" s="207"/>
-      <c r="L109" s="23"/>
-      <c r="M109"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110"/>
-      <c r="J110" s="207"/>
-      <c r="L110" s="23"/>
-      <c r="M110"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111"/>
-      <c r="J111" s="207"/>
-      <c r="L111" s="23"/>
-      <c r="M111"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112"/>
-      <c r="J112" s="207"/>
-      <c r="L112" s="23"/>
-      <c r="M112"/>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113"/>
-      <c r="J113" s="207"/>
-      <c r="L113" s="23"/>
-      <c r="M113"/>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114"/>
-      <c r="J114" s="207"/>
-      <c r="L114" s="23"/>
-      <c r="M114"/>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115"/>
-      <c r="J115" s="207"/>
-      <c r="L115" s="23"/>
-      <c r="M115"/>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="23"/>
-      <c r="J116" s="207"/>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="23"/>
-      <c r="J117" s="207"/>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="J118" s="207"/>
-      <c r="L118" s="23"/>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="23"/>
-      <c r="J119" s="207"/>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="23"/>
-      <c r="J120" s="207"/>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B121" s="23"/>
-      <c r="J121" s="207"/>
-    </row>
-    <row r="122" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C122" s="154"/>
-      <c r="K122" s="154"/>
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107"/>
+      <c r="K107" s="207"/>
+      <c r="M107" s="23"/>
+      <c r="N107"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108"/>
+      <c r="K108" s="207"/>
+      <c r="M108" s="23"/>
+      <c r="N108"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109"/>
+      <c r="K109" s="207"/>
+      <c r="M109" s="23"/>
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110"/>
+      <c r="K110" s="207"/>
+      <c r="M110" s="23"/>
+      <c r="N110"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111"/>
+      <c r="K111" s="207"/>
+      <c r="M111" s="23"/>
+      <c r="N111"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112"/>
+      <c r="K112" s="207"/>
+      <c r="M112" s="23"/>
+      <c r="N112"/>
+    </row>
+    <row r="113" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113"/>
+      <c r="K113" s="207"/>
+      <c r="M113" s="23"/>
+      <c r="N113"/>
+    </row>
+    <row r="114" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114"/>
+      <c r="K114" s="207"/>
+      <c r="M114" s="23"/>
+      <c r="N114"/>
+    </row>
+    <row r="115" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115"/>
+      <c r="K115" s="207"/>
+      <c r="M115" s="23"/>
+      <c r="N115"/>
+    </row>
+    <row r="116" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C116" s="23"/>
+      <c r="K116" s="207"/>
+    </row>
+    <row r="117" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C117" s="23"/>
+      <c r="K117" s="207"/>
+    </row>
+    <row r="118" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="K118" s="207"/>
+      <c r="M118" s="23"/>
+    </row>
+    <row r="119" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C119" s="23"/>
+      <c r="K119" s="207"/>
+    </row>
+    <row r="120" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C120" s="23"/>
+      <c r="K120" s="207"/>
+    </row>
+    <row r="121" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C121" s="23"/>
+      <c r="K121" s="207"/>
+    </row>
+    <row r="122" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D122" s="154"/>
+      <c r="L122" s="154"/>
     </row>
   </sheetData>
+  <sortState ref="B44:D50">
+    <sortCondition ref="C44:C50"/>
+  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14492,12 +14516,12 @@
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="155"/>
-      <c r="B43" s="346" t="s">
+      <c r="B43" s="393" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="347"/>
-      <c r="D43" s="347"/>
-      <c r="E43" s="348"/>
+      <c r="C43" s="394"/>
+      <c r="D43" s="394"/>
+      <c r="E43" s="395"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
